--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C5843-B467-4662-A5C7-F076FA5CA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEFDFAD-909A-48E5-B2E4-EAA74F03D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Comparison</t>
   </si>
@@ -560,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,11 +742,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wilmerhale-my.sharepoint.com/personal/merbos_copy_wilmerhale_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEFDFAD-909A-48E5-B2E4-EAA74F03D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{558204CC-8229-4CEC-BE5B-048D4D2C2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA8913B-C2F4-4CA5-89EB-369349326798}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Comparison</t>
   </si>
@@ -146,13 +146,28 @@
     <t>WOTC_APA_Evasive</t>
   </si>
   <si>
-    <t>WOTC_APA_Sprint</t>
-  </si>
-  <si>
     <t>WOTC_APA_ReadyForAnything (WOTC_APA_AmbushToggle)</t>
   </si>
   <si>
     <t>WOTC_APA_Sentry</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Phase</t>
+  </si>
+  <si>
+    <t>WOTC_APA_EverVigilant</t>
+  </si>
+  <si>
+    <t>WOTC_APA_WeaponsHot</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CombatAwareness</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Sentinel</t>
+  </si>
+  <si>
+    <t>Sniper/Long Range/Overwatch</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +241,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,21 +588,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="24" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="6" customWidth="1"/>
     <col min="8" max="9" width="23.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="24" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
@@ -601,148 +629,177 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wilmerhale-my.sharepoint.com/personal/merbos_copy_wilmerhale_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{558204CC-8229-4CEC-BE5B-048D4D2C2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA8913B-C2F4-4CA5-89EB-369349326798}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA71D8-9422-47D7-98B8-AB63B6F9D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Comparison</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Bsharpshooter(S)</t>
   </si>
   <si>
-    <t>Sentry</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -168,6 +165,24 @@
   </si>
   <si>
     <t>Sniper/Long Range/Overwatch</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CombatAwarenes</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ReturnFire</t>
+  </si>
+  <si>
+    <t>WOTC_APA_HoldPosition</t>
+  </si>
+  <si>
+    <t>Sentry(T)</t>
+  </si>
+  <si>
+    <t>Sentinel(T)</t>
+  </si>
+  <si>
+    <t>LW2WotC_Sentinel</t>
   </si>
 </sst>
 </file>
@@ -201,12 +216,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,6 +269,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -265,10 +292,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,20 +611,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="24" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" style="6" customWidth="1"/>
     <col min="8" max="9" width="23.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="24" style="6" customWidth="1"/>
@@ -623,50 +646,50 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -679,26 +702,38 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -708,98 +743,167 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>30</v>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EA71D8-9422-47D7-98B8-AB63B6F9D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCF858C-CC22-4719-83D8-EE51508EAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>Comparison</t>
   </si>
@@ -80,9 +80,6 @@
     <t>WOTC_APA_PrecisionTargeting (WOTC_APA_LightweightOptics, WOTC_APA_WeaponSpecialist, WOTC_APA_Brace)</t>
   </si>
   <si>
-    <t>Bsharpshooter(S)</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Long Watch</t>
   </si>
   <si>
-    <t>Csharpshooter(S)</t>
-  </si>
-  <si>
     <t>Pistol_CV</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>Sniper/Long Range/Overwatch</t>
   </si>
   <si>
-    <t>WOTC_APA_CombatAwarenes</t>
-  </si>
-  <si>
     <t>WOTC_APA_ReturnFire</t>
   </si>
   <si>
@@ -183,13 +174,218 @@
   </si>
   <si>
     <t>LW2WotC_Sentinel</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Sharpshooter</t>
+  </si>
+  <si>
+    <t>Bsharpshooter</t>
+  </si>
+  <si>
+    <t>Marksman(S)</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>Csharpshooter</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>Infantry(P)</t>
+  </si>
+  <si>
+    <t>AssaultRifle_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_FireDiscipline (WOTC_APA_SustainedFire, LW2WotC_AreaSuppression)</t>
+  </si>
+  <si>
+    <t>CoveringFire</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Emplaced</t>
+  </si>
+  <si>
+    <t>WOTC_APA_LightEmUp</t>
+  </si>
+  <si>
+    <t>WOTC_APA_TacticalSense</t>
+  </si>
+  <si>
+    <t>F_FireFirst</t>
+  </si>
+  <si>
+    <t>F_StationaryThreat</t>
+  </si>
+  <si>
+    <t>LW2WotC_RapidReaction</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Agent(P)</t>
+  </si>
+  <si>
+    <t>BAgent</t>
+  </si>
+  <si>
+    <t>Gremlin_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe, WOTC_APA_Reconceal, WOTC_APA_SilentMotors)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ElectronicSurveillance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(WOTC_APA_WeaponSpecialist or WOTC_APA_UpgradedScanners or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WOTC_APA_Ghost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(WOTC_APA_Marauder or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
+  </si>
+  <si>
+    <t>ShadowOps_SensorOverlays</t>
+  </si>
+  <si>
+    <t>MZImprovedScanner</t>
+  </si>
+  <si>
+    <t>Chemthrowers</t>
+  </si>
+  <si>
+    <t>Alchemist(P)</t>
+  </si>
+  <si>
+    <t>Alchy</t>
+  </si>
+  <si>
+    <t>MZImmolator_CV</t>
+  </si>
+  <si>
+    <t>APA_HazardPay (MZFineControl, MZRovingChemist, MZChemthrowerSuppression, MZChemicalDeflector)</t>
+  </si>
+  <si>
+    <t>MZViscousAccelerant</t>
+  </si>
+  <si>
+    <t>MZCorrodingCompounds</t>
+  </si>
+  <si>
+    <t>(MZIncandescence or MZOppressiveHeat or MZParticulateHaze)</t>
+  </si>
+  <si>
+    <t>MZSearingMagnesium</t>
+  </si>
+  <si>
+    <t>MZNightmareFuel</t>
+  </si>
+  <si>
+    <t>MZChemthrowerKillZone</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Apothecary(P)</t>
+  </si>
+  <si>
+    <t>BApothecary</t>
+  </si>
+  <si>
+    <t>StimGun_CV</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_StimPouch (SG_VenomStim_Passive, F_Dedication)</t>
+  </si>
+  <si>
+    <t>SG_FocusStim</t>
+  </si>
+  <si>
+    <t>(SG_OverTheCounter or SG_NitroStim or SG_ToxicCloud)</t>
+  </si>
+  <si>
+    <t>(SG_CombatClinic or WOTC_KPP_VenomSting)</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_ReactiveSting</t>
+  </si>
+  <si>
+    <t>(SG_QuickStim or SG_IncreasedDosage)</t>
+  </si>
+  <si>
+    <t>Short Range</t>
+  </si>
+  <si>
+    <t>Assault(P)</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Shotgun_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CQBDominance (WOTC_APA_ZoneOfControl)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_TakeCover</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Charge</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ShockAndMaul</t>
+  </si>
+  <si>
+    <t>Untouchable</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ZoneDefense</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SweepAndClear</t>
+  </si>
+  <si>
+    <t>Rifle/Mid Range/Overwatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +411,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +436,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,17 +499,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,6 +544,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFCC00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,297 +878,4290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="23.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="3" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L33" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+    </row>
+    <row r="95" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+    </row>
+    <row r="96" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+    </row>
+    <row r="98" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+    </row>
+    <row r="99" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+    </row>
+    <row r="101" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+    </row>
+    <row r="102" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+    </row>
+    <row r="104" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+    </row>
+    <row r="105" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+    </row>
+    <row r="106" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+    </row>
+    <row r="107" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+    </row>
+    <row r="108" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+    </row>
+    <row r="109" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+    </row>
+    <row r="110" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+    </row>
+    <row r="111" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+    </row>
+    <row r="112" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+    </row>
+    <row r="113" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+    </row>
+    <row r="114" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+    </row>
+    <row r="115" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="20"/>
+    </row>
+    <row r="116" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+    </row>
+    <row r="117" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="20"/>
+    </row>
+    <row r="118" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="20"/>
+    </row>
+    <row r="119" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
+    </row>
+    <row r="120" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="20"/>
+    </row>
+    <row r="121" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="20"/>
+    </row>
+    <row r="122" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+    </row>
+    <row r="123" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+    </row>
+    <row r="124" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+    </row>
+    <row r="125" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+    </row>
+    <row r="126" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+    </row>
+    <row r="127" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+    </row>
+    <row r="128" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
+    </row>
+    <row r="129" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+    </row>
+    <row r="130" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="20"/>
+    </row>
+    <row r="131" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+    </row>
+    <row r="132" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="20"/>
+    </row>
+    <row r="133" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="20"/>
+    </row>
+    <row r="134" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+    </row>
+    <row r="135" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+    </row>
+    <row r="136" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
+    </row>
+    <row r="137" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+    </row>
+    <row r="138" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="20"/>
+    </row>
+    <row r="139" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+    </row>
+    <row r="140" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+    </row>
+    <row r="141" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+    </row>
+    <row r="142" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+    </row>
+    <row r="143" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+    </row>
+    <row r="144" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+    </row>
+    <row r="145" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+    </row>
+    <row r="146" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+    </row>
+    <row r="147" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+    </row>
+    <row r="148" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+    </row>
+    <row r="149" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+    </row>
+    <row r="150" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+    </row>
+    <row r="151" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+    </row>
+    <row r="152" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+    </row>
+    <row r="153" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+    </row>
+    <row r="154" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+    </row>
+    <row r="155" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+    </row>
+    <row r="156" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+    </row>
+    <row r="157" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+    </row>
+    <row r="158" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+    </row>
+    <row r="159" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+    </row>
+    <row r="160" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+    </row>
+    <row r="161" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="20"/>
+    </row>
+    <row r="162" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="20"/>
+    </row>
+    <row r="163" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="20"/>
+    </row>
+    <row r="164" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="20"/>
+    </row>
+    <row r="165" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="20"/>
+    </row>
+    <row r="166" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="20"/>
+    </row>
+    <row r="167" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+    </row>
+    <row r="168" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="20"/>
+    </row>
+    <row r="169" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="20"/>
+    </row>
+    <row r="170" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+    </row>
+    <row r="171" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="20"/>
+    </row>
+    <row r="172" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+    </row>
+    <row r="173" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+    </row>
+    <row r="174" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+    </row>
+    <row r="175" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+    </row>
+    <row r="176" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+    </row>
+    <row r="177" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+    </row>
+    <row r="178" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+    </row>
+    <row r="179" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+    </row>
+    <row r="180" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+    </row>
+    <row r="181" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+    </row>
+    <row r="182" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+    </row>
+    <row r="183" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+    </row>
+    <row r="184" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+    </row>
+    <row r="185" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+    </row>
+    <row r="186" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20"/>
+    </row>
+    <row r="187" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+    </row>
+    <row r="188" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20"/>
+    </row>
+    <row r="189" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20"/>
+    </row>
+    <row r="190" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20"/>
+    </row>
+    <row r="191" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="20"/>
+    </row>
+    <row r="192" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="20"/>
+    </row>
+    <row r="193" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="20"/>
+      <c r="L193" s="20"/>
+    </row>
+    <row r="194" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="20"/>
+    </row>
+    <row r="195" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="20"/>
+      <c r="L195" s="20"/>
+    </row>
+    <row r="196" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+      <c r="L196" s="20"/>
+    </row>
+    <row r="197" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+    </row>
+    <row r="198" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+      <c r="L198" s="20"/>
+    </row>
+    <row r="199" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="20"/>
+    </row>
+    <row r="200" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="20"/>
+      <c r="L200" s="20"/>
+    </row>
+    <row r="201" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="20"/>
+      <c r="L201" s="20"/>
+    </row>
+    <row r="202" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="20"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="20"/>
+      <c r="L202" s="20"/>
+    </row>
+    <row r="203" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="20"/>
+      <c r="L203" s="20"/>
+    </row>
+    <row r="204" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="20"/>
+    </row>
+    <row r="205" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="20"/>
+    </row>
+    <row r="206" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="20"/>
+    </row>
+    <row r="207" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="20"/>
+    </row>
+    <row r="208" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="20"/>
+    </row>
+    <row r="209" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
+    </row>
+    <row r="210" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="20"/>
+    </row>
+    <row r="211" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+    </row>
+    <row r="212" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="20"/>
+      <c r="L212" s="20"/>
+    </row>
+    <row r="213" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="20"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="20"/>
+      <c r="K213" s="20"/>
+      <c r="L213" s="20"/>
+    </row>
+    <row r="214" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="20"/>
+      <c r="L214" s="20"/>
+    </row>
+    <row r="215" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="20"/>
+      <c r="L215" s="20"/>
+    </row>
+    <row r="216" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="20"/>
+      <c r="L216" s="20"/>
+    </row>
+    <row r="217" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+      <c r="L217" s="20"/>
+    </row>
+    <row r="218" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+    </row>
+    <row r="219" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+      <c r="L219" s="20"/>
+    </row>
+    <row r="220" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="20"/>
+      <c r="L220" s="20"/>
+    </row>
+    <row r="221" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="20"/>
+      <c r="L221" s="20"/>
+    </row>
+    <row r="222" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="20"/>
+      <c r="K222" s="20"/>
+      <c r="L222" s="20"/>
+    </row>
+    <row r="223" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="20"/>
+    </row>
+    <row r="224" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="20"/>
+    </row>
+    <row r="225" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="20"/>
+      <c r="K225" s="20"/>
+      <c r="L225" s="20"/>
+    </row>
+    <row r="226" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
+      <c r="L226" s="20"/>
+    </row>
+    <row r="227" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+      <c r="L227" s="20"/>
+    </row>
+    <row r="228" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="20"/>
+      <c r="K228" s="20"/>
+      <c r="L228" s="20"/>
+    </row>
+    <row r="229" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="20"/>
+    </row>
+    <row r="230" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="20"/>
+      <c r="K230" s="20"/>
+      <c r="L230" s="20"/>
+    </row>
+    <row r="231" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
+      <c r="L231" s="20"/>
+    </row>
+    <row r="232" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="20"/>
+    </row>
+    <row r="233" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+    </row>
+    <row r="234" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="20"/>
+    </row>
+    <row r="235" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="20"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="20"/>
+      <c r="K235" s="20"/>
+      <c r="L235" s="20"/>
+    </row>
+    <row r="236" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="20"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="20"/>
+      <c r="K236" s="20"/>
+      <c r="L236" s="20"/>
+    </row>
+    <row r="237" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="20"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="20"/>
+    </row>
+    <row r="238" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="20"/>
+      <c r="L238" s="20"/>
+    </row>
+    <row r="239" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="20"/>
+      <c r="L239" s="20"/>
+    </row>
+    <row r="240" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="20"/>
+      <c r="L240" s="20"/>
+    </row>
+    <row r="241" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="20"/>
+      <c r="L241" s="20"/>
+    </row>
+    <row r="242" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="20"/>
+      <c r="L242" s="20"/>
+    </row>
+    <row r="243" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="20"/>
+    </row>
+    <row r="244" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="20"/>
+    </row>
+    <row r="245" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="20"/>
+      <c r="L245" s="20"/>
+    </row>
+    <row r="246" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="20"/>
+    </row>
+    <row r="247" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="20"/>
+      <c r="L247" s="20"/>
+    </row>
+    <row r="248" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="E248" s="20"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+      <c r="L248" s="20"/>
+    </row>
+    <row r="249" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="20"/>
+      <c r="L249" s="20"/>
+    </row>
+    <row r="250" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="20"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="20"/>
+    </row>
+    <row r="251" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="20"/>
+      <c r="L251" s="20"/>
+    </row>
+    <row r="252" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="20"/>
+      <c r="L252" s="20"/>
+    </row>
+    <row r="253" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="20"/>
+      <c r="L253" s="20"/>
+    </row>
+    <row r="254" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="20"/>
+      <c r="L254" s="20"/>
+    </row>
+    <row r="255" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="20"/>
+      <c r="L255" s="20"/>
+    </row>
+    <row r="256" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+    </row>
+    <row r="257" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="20"/>
+      <c r="K257" s="20"/>
+      <c r="L257" s="20"/>
+    </row>
+    <row r="258" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="20"/>
+      <c r="L258" s="20"/>
+    </row>
+    <row r="259" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="20"/>
+      <c r="L259" s="20"/>
+    </row>
+    <row r="260" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="20"/>
+      <c r="L260" s="20"/>
+    </row>
+    <row r="261" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="20"/>
+      <c r="L261" s="20"/>
+    </row>
+    <row r="262" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="20"/>
+      <c r="K262" s="20"/>
+      <c r="L262" s="20"/>
+    </row>
+    <row r="263" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="20"/>
+      <c r="L263" s="20"/>
+    </row>
+    <row r="264" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="20"/>
+      <c r="L264" s="20"/>
+    </row>
+    <row r="265" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="20"/>
+    </row>
+    <row r="266" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="20"/>
+      <c r="L266" s="20"/>
+    </row>
+    <row r="267" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="20"/>
+      <c r="L267" s="20"/>
+    </row>
+    <row r="268" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="20"/>
+      <c r="L268" s="20"/>
+    </row>
+    <row r="269" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+    </row>
+    <row r="270" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="20"/>
+      <c r="K270" s="20"/>
+      <c r="L270" s="20"/>
+    </row>
+    <row r="271" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="20"/>
+      <c r="L271" s="20"/>
+    </row>
+    <row r="272" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="20"/>
+      <c r="K272" s="20"/>
+      <c r="L272" s="20"/>
+    </row>
+    <row r="273" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="20"/>
+      <c r="L273" s="20"/>
+    </row>
+    <row r="274" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="20"/>
+      <c r="K274" s="20"/>
+      <c r="L274" s="20"/>
+    </row>
+    <row r="275" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="20"/>
+      <c r="K275" s="20"/>
+      <c r="L275" s="20"/>
+    </row>
+    <row r="276" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="20"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="20"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="20"/>
+      <c r="K276" s="20"/>
+      <c r="L276" s="20"/>
+    </row>
+    <row r="277" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="20"/>
+      <c r="K277" s="20"/>
+      <c r="L277" s="20"/>
+    </row>
+    <row r="278" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="20"/>
+      <c r="K278" s="20"/>
+      <c r="L278" s="20"/>
+    </row>
+    <row r="279" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="20"/>
+      <c r="K279" s="20"/>
+      <c r="L279" s="20"/>
+    </row>
+    <row r="280" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="20"/>
+      <c r="K280" s="20"/>
+      <c r="L280" s="20"/>
+    </row>
+    <row r="281" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="20"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="20"/>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="20"/>
+      <c r="K281" s="20"/>
+      <c r="L281" s="20"/>
+    </row>
+    <row r="282" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="20"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="20"/>
+      <c r="K282" s="20"/>
+      <c r="L282" s="20"/>
+    </row>
+    <row r="283" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="20"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="20"/>
+      <c r="L283" s="20"/>
+    </row>
+    <row r="284" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="20"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="20"/>
+      <c r="L284" s="20"/>
+    </row>
+    <row r="285" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="20"/>
+      <c r="K285" s="20"/>
+      <c r="L285" s="20"/>
+    </row>
+    <row r="286" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="20"/>
+      <c r="K286" s="20"/>
+      <c r="L286" s="20"/>
+    </row>
+    <row r="287" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="20"/>
+      <c r="K287" s="20"/>
+      <c r="L287" s="20"/>
+    </row>
+    <row r="288" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="20"/>
+      <c r="K288" s="20"/>
+      <c r="L288" s="20"/>
+    </row>
+    <row r="289" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="20"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+    </row>
+    <row r="290" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="20"/>
+      <c r="L290" s="20"/>
+    </row>
+    <row r="291" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="20"/>
+      <c r="K291" s="20"/>
+      <c r="L291" s="20"/>
+    </row>
+    <row r="292" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="20"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="20"/>
+      <c r="H292" s="20"/>
+      <c r="I292" s="20"/>
+      <c r="J292" s="20"/>
+      <c r="K292" s="20"/>
+      <c r="L292" s="20"/>
+    </row>
+    <row r="293" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="20"/>
+      <c r="K293" s="20"/>
+      <c r="L293" s="20"/>
+    </row>
+    <row r="294" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="20"/>
+      <c r="E294" s="20"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="20"/>
+      <c r="K294" s="20"/>
+      <c r="L294" s="20"/>
+    </row>
+    <row r="295" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="20"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="20"/>
+      <c r="J295" s="20"/>
+      <c r="K295" s="20"/>
+      <c r="L295" s="20"/>
+    </row>
+    <row r="296" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="20"/>
+      <c r="I296" s="20"/>
+      <c r="J296" s="20"/>
+      <c r="K296" s="20"/>
+      <c r="L296" s="20"/>
+    </row>
+    <row r="297" spans="2:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
+      <c r="H297" s="20"/>
+      <c r="I297" s="20"/>
+      <c r="J297" s="20"/>
+      <c r="K297" s="20"/>
+      <c r="L297" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA8D426-F4A5-4C23-B5CB-DA8468859E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D819E7-47C8-4FA3-A3B8-0574248A4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -657,12 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,8 +1755,6 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-      <c r="F31" s="21"/>
-      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
@@ -2099,10 +2091,10 @@
       <c r="F45" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="6" t="s">
         <v>135</v>
       </c>
       <c r="I45" s="6" t="s">
@@ -2144,13 +2136,13 @@
       <c r="E47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="6" t="s">
         <v>142</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="6" t="s">
         <v>144</v>
       </c>
       <c r="I47" s="6" t="s">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D819E7-47C8-4FA3-A3B8-0574248A4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36347397-DA56-4C9E-83E8-69363346FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="169">
   <si>
     <t>Comparison</t>
   </si>
@@ -502,6 +502,69 @@
   </si>
   <si>
     <t>MZChainDischarge</t>
+  </si>
+  <si>
+    <t>Enforcer(P)</t>
+  </si>
+  <si>
+    <t>Gunner(P)</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Cannon_CV</t>
+  </si>
+  <si>
+    <t>F_Havoc</t>
+  </si>
+  <si>
+    <t>F_SuppressingFire</t>
+  </si>
+  <si>
+    <t>LW2WotC_Lockdown</t>
+  </si>
+  <si>
+    <t>LW2WotC_Mayhem</t>
+  </si>
+  <si>
+    <t>F_ThousandsToGo</t>
+  </si>
+  <si>
+    <t>MZPanicSuppression</t>
+  </si>
+  <si>
+    <t>F_KillEmAll</t>
+  </si>
+  <si>
+    <t>Gunslinger(P)</t>
+  </si>
+  <si>
+    <t>Gunny</t>
+  </si>
+  <si>
+    <t>WOTC_MRC_Gunslinger (DP_DualPistols, WOTC_APA_RunAndGun)</t>
+  </si>
+  <si>
+    <t>Pistol_CV_Primary</t>
+  </si>
+  <si>
+    <t>DP_TrickShot</t>
+  </si>
+  <si>
+    <t>DP_BulletTime</t>
+  </si>
+  <si>
+    <t>WOTC_APA_DeepReserves</t>
+  </si>
+  <si>
+    <t>WOTC_APA_KillerInstinct</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Skirmisher</t>
+  </si>
+  <si>
+    <t>DP_Checkmate</t>
   </si>
 </sst>
 </file>
@@ -599,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -657,6 +720,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,93 +1474,58 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1507,87 +1541,93 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1605,37 +1645,37 @@
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1651,93 +1691,87 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>116</v>
+        <v>37</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1753,110 +1787,110 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="5" t="s">
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -1874,7 +1908,7 @@
     <row r="37" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="18" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
@@ -1925,39 +1959,39 @@
       </c>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1973,141 +2007,141 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="10" t="s">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="15"/>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="H43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>135</v>
+        <v>152</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2123,39 +2157,39 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>144</v>
+        <v>37</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2171,85 +2205,157 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -2262,7 +2368,7 @@
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
     </row>
-    <row r="56" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -2275,7 +2381,7 @@
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
     </row>
-    <row r="57" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -2288,7 +2394,7 @@
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -2301,7 +2407,7 @@
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
     </row>
-    <row r="59" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -2314,7 +2420,7 @@
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
     </row>
-    <row r="60" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -2327,7 +2433,7 @@
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
     </row>
-    <row r="61" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -2340,7 +2446,7 @@
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
-    <row r="62" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -2353,7 +2459,7 @@
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
     </row>
-    <row r="63" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -2366,7 +2472,7 @@
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
     </row>
-    <row r="64" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -5590,16 +5696,94 @@
       <c r="K311" s="17"/>
       <c r="L311" s="17"/>
     </row>
+    <row r="312" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="17"/>
+      <c r="C312" s="17"/>
+      <c r="D312" s="17"/>
+      <c r="E312" s="17"/>
+      <c r="F312" s="17"/>
+      <c r="G312" s="17"/>
+      <c r="H312" s="17"/>
+      <c r="I312" s="17"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="17"/>
+      <c r="L312" s="17"/>
+    </row>
+    <row r="313" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="17"/>
+      <c r="C313" s="17"/>
+      <c r="D313" s="17"/>
+      <c r="E313" s="17"/>
+      <c r="F313" s="17"/>
+      <c r="G313" s="17"/>
+      <c r="H313" s="17"/>
+      <c r="I313" s="17"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="17"/>
+      <c r="L313" s="17"/>
+    </row>
+    <row r="314" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="17"/>
+      <c r="C314" s="17"/>
+      <c r="D314" s="17"/>
+      <c r="E314" s="17"/>
+      <c r="F314" s="17"/>
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+    </row>
+    <row r="315" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="17"/>
+      <c r="C315" s="17"/>
+      <c r="D315" s="17"/>
+      <c r="E315" s="17"/>
+      <c r="F315" s="17"/>
+      <c r="G315" s="17"/>
+      <c r="H315" s="17"/>
+      <c r="I315" s="17"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="17"/>
+      <c r="L315" s="17"/>
+    </row>
+    <row r="316" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="17"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="17"/>
+      <c r="E316" s="17"/>
+      <c r="F316" s="17"/>
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+    </row>
+    <row r="317" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="17"/>
+      <c r="E317" s="17"/>
+      <c r="F317" s="17"/>
+      <c r="G317" s="17"/>
+      <c r="H317" s="17"/>
+      <c r="I317" s="17"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36347397-DA56-4C9E-83E8-69363346FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DE9849-95D0-41D7-8A60-560263A4EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>Comparison</t>
   </si>
@@ -565,6 +565,42 @@
   </si>
   <si>
     <t>DP_Checkmate</t>
+  </si>
+  <si>
+    <t>Rifleman(S)</t>
+  </si>
+  <si>
+    <t>BInfantry</t>
+  </si>
+  <si>
+    <t>LW2WotC_WalkFire</t>
+  </si>
+  <si>
+    <t>F_Momentum</t>
+  </si>
+  <si>
+    <t>HailOfBullets</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Aggression</t>
+  </si>
+  <si>
+    <t>LW2WotC_TraverseFire</t>
+  </si>
+  <si>
+    <t>BulletShred</t>
+  </si>
+  <si>
+    <t>LW2WotC_AlphaMikeFoxtrot</t>
+  </si>
+  <si>
+    <t>WOTC_APA_OnTarget</t>
+  </si>
+  <si>
+    <t>CInfantry</t>
+  </si>
+  <si>
+    <t>CombatKnife_CV</t>
   </si>
 </sst>
 </file>
@@ -662,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -720,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1067,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1511,6 @@
       <c r="B17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -1512,7 +1544,7 @@
       <c r="G19" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -2063,37 +2095,37 @@
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>39</v>
+        <v>152</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2111,37 +2143,37 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>154</v>
+        <v>56</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2157,39 +2189,39 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>38</v>
+        <v>171</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,93 +2237,87 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="15"/>
-    </row>
-    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>134</v>
+        <v>45</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>135</v>
+        <v>37</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2307,105 +2333,155 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
@@ -5774,9 +5850,61 @@
       <c r="K317" s="17"/>
       <c r="L317" s="17"/>
     </row>
+    <row r="318" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="17"/>
+      <c r="C318" s="17"/>
+      <c r="D318" s="17"/>
+      <c r="E318" s="17"/>
+      <c r="F318" s="17"/>
+      <c r="G318" s="17"/>
+      <c r="H318" s="17"/>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+    </row>
+    <row r="319" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="17"/>
+      <c r="C319" s="17"/>
+      <c r="D319" s="17"/>
+      <c r="E319" s="17"/>
+      <c r="F319" s="17"/>
+      <c r="G319" s="17"/>
+      <c r="H319" s="17"/>
+      <c r="I319" s="17"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="17"/>
+      <c r="L319" s="17"/>
+    </row>
+    <row r="320" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="17"/>
+      <c r="C320" s="17"/>
+      <c r="D320" s="17"/>
+      <c r="E320" s="17"/>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+    </row>
+    <row r="321" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="17"/>
+      <c r="C321" s="17"/>
+      <c r="D321" s="17"/>
+      <c r="E321" s="17"/>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="17"/>
+      <c r="L321" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B37:D37"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DE9849-95D0-41D7-8A60-560263A4EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E504D00-9890-4D02-BC26-ACF84B160072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>WOTC_APA_HoldPosition</t>
   </si>
   <si>
-    <t>Sentry(T)</t>
-  </si>
-  <si>
     <t>Sentinel(T)</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
   </si>
   <si>
     <t>CombatKnife_CV</t>
+  </si>
+  <si>
+    <t>Sentry(S)</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -756,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="A1:M321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1153,7 @@
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
@@ -1176,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -1209,37 +1206,37 @@
     </row>
     <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1255,7 @@
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -1278,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
@@ -1311,37 +1308,37 @@
     </row>
     <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1359,37 +1356,37 @@
     </row>
     <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1408,7 +1405,7 @@
     <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -1428,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>2</v>
@@ -1461,37 +1458,37 @@
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1506,7 @@
     </row>
     <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1527,37 +1524,37 @@
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1632,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
@@ -1677,10 +1674,10 @@
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>12</v>
@@ -1725,10 +1722,10 @@
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>29</v>
@@ -1773,10 +1770,10 @@
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
@@ -1822,7 +1819,7 @@
     <row r="31" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
@@ -1842,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>2</v>
@@ -1875,37 +1872,37 @@
     </row>
     <row r="33" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1940,7 +1937,7 @@
     <row r="37" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
@@ -1960,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>2</v>
@@ -1993,37 +1990,37 @@
     </row>
     <row r="39" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="K39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2042,7 +2039,7 @@
     <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
@@ -2062,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>2</v>
@@ -2095,37 +2092,37 @@
     </row>
     <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2143,19 +2140,19 @@
     </row>
     <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>38</v>
@@ -2164,16 +2161,16 @@
         <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="K45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2191,37 +2188,37 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="H47" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="I47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="K47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2239,37 +2236,37 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="E49" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="H49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="I49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L49" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2287,16 +2284,16 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>36</v>
@@ -2311,13 +2308,13 @@
         <v>41</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>42</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2336,7 +2333,7 @@
     <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
@@ -2356,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>2</v>
@@ -2389,37 +2386,37 @@
     </row>
     <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K55" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,37 +2434,37 @@
     </row>
     <row r="57" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="J57" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="K57" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C67943-182A-4FA6-B7C8-71CD5A36D4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911A1687-9B25-4F30-BD9A-1E2378643BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="184">
   <si>
     <t>Comparison</t>
   </si>
@@ -77,9 +77,6 @@
     <t>SniperRifle_CV</t>
   </si>
   <si>
-    <t>WOTC_APA_PrecisionTargeting (WOTC_APA_LightweightOptics, WOTC_APA_WeaponSpecialist, WOTC_APA_Brace)</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>Internal</t>
-  </si>
-  <si>
-    <t>Sharpshooter</t>
   </si>
   <si>
     <t>Bsharpshooter</t>
@@ -607,6 +601,15 @@
   </si>
   <si>
     <t xml:space="preserve">Notes: Add Sharpshooter Compatible Sentry; Maybe add T or S level Marksman that is even More Snipery; Change Internal Names; Check All abilities for compatibilities; Check Ability Edits; Probably give Quickset Bipod back to SharpShooter; maybe Vanguard should be a Primary with Reaper like abilities, and The S tier should be renamed but otherwise mostly stay the same. </t>
+  </si>
+  <si>
+    <t>ASharpshooter</t>
+  </si>
+  <si>
+    <t>WOTC_APA_PrecisionTargeting (WOTC_APA_QuicksetBipod, WOTC_APA_WeaponSpecialist)</t>
+  </si>
+  <si>
+    <t>Vanguard(P)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,68 +763,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1166,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:J30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,11 +1176,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1242,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -1275,37 +1230,37 @@
     </row>
     <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1323,11 +1278,11 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1344,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
@@ -1377,37 +1332,37 @@
     </row>
     <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="J9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1425,37 +1380,37 @@
     </row>
     <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1473,11 +1428,11 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1494,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>2</v>
@@ -1527,37 +1482,37 @@
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="H15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1575,7 +1530,7 @@
     </row>
     <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1593,37 +1548,37 @@
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="H19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1639,379 +1594,403 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
       <c r="B21" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="33" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" s="27" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="25"/>
-    </row>
-    <row r="24" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="25"/>
-    </row>
-    <row r="28" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="25"/>
-    </row>
-    <row r="30" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17" t="s">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
@@ -2026,243 +2005,211 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
+      <c r="D42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>39</v>
+        <v>147</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2278,39 +2225,39 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>171</v>
+      <c r="G48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2328,37 +2275,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="K50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2374,39 +2321,39 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>36</v>
+        <v>166</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>38</v>
+        <v>168</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2422,141 +2369,141 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17" t="s">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M55" s="14"/>
-    </row>
-    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="H58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="J58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56" s="6" t="s">
+      <c r="L58" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2572,31 +2519,53 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
+    <row r="60" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
@@ -5991,17 +5960,43 @@
       <c r="K322" s="16"/>
       <c r="L322" s="16"/>
     </row>
+    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="16"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
+      <c r="H323" s="16"/>
+      <c r="I323" s="16"/>
+      <c r="J323" s="16"/>
+      <c r="K323" s="16"/>
+      <c r="L323" s="16"/>
+    </row>
+    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="16"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
+      <c r="H324" s="16"/>
+      <c r="I324" s="16"/>
+      <c r="J324" s="16"/>
+      <c r="K324" s="16"/>
+      <c r="L324" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B32:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911A1687-9B25-4F30-BD9A-1E2378643BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AED4AC-0ED7-4373-96B0-EDEEC67DC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="193">
   <si>
     <t>Comparison</t>
   </si>
@@ -611,12 +611,39 @@
   <si>
     <t>Vanguard(P)</t>
   </si>
+  <si>
+    <t>WOTC_APA_Shadow (WOTC_APA_Fade)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SilentKiller</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Vanish</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Haunt</t>
+  </si>
+  <si>
+    <t>WOTC_APA_PreciseStrike</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Hound</t>
+  </si>
+  <si>
+    <t>Deadeye</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SteadyHands</t>
+  </si>
+  <si>
+    <t>AVanguard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +679,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,6 +812,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,27 +1160,27 @@
   <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="3" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1157,7 +1193,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1174,7 +1210,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="20" t="s">
         <v>69</v>
@@ -1191,7 +1227,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1228,7 +1264,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>70</v>
       </c>
@@ -1263,7 +1299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1276,7 +1312,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
         <v>80</v>
@@ -1293,7 +1329,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
@@ -1330,7 +1366,7 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1378,7 +1414,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1426,7 +1462,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="20" t="s">
         <v>90</v>
@@ -1443,7 +1479,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1480,7 +1516,7 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>91</v>
       </c>
@@ -1515,7 +1551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1528,12 +1564,12 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1546,7 +1582,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>154</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1594,7 +1630,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="20" t="s">
         <v>39</v>
@@ -1611,7 +1647,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="18" t="s">
         <v>1</v>
@@ -1648,7 +1684,7 @@
       </c>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1696,42 +1732,42 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>25</v>
+        <v>188</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1744,7 +1780,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
         <v>177</v>
       </c>
@@ -1779,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1792,7 +1828,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>177</v>
       </c>
@@ -1827,7 +1863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1840,7 +1876,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
         <v>176</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="22" t="s">
         <v>180</v>
@@ -1890,7 +1926,7 @@
       <c r="J32" s="22"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1903,7 +1939,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="20" t="s">
         <v>102</v>
@@ -1920,7 +1956,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>1</v>
@@ -1957,7 +1993,7 @@
       </c>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>103</v>
       </c>
@@ -1992,7 +2028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2005,10 +2041,10 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2021,7 +2057,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -2038,7 +2074,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>1</v>
@@ -2075,7 +2111,7 @@
       </c>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
@@ -2110,7 +2146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2123,7 +2159,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="20" t="s">
         <v>101</v>
@@ -2140,7 +2176,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>1</v>
@@ -2177,7 +2213,7 @@
       </c>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>144</v>
       </c>
@@ -2212,7 +2248,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2225,7 +2261,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2273,7 +2309,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>164</v>
       </c>
@@ -2308,7 +2344,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2321,7 +2357,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>164</v>
       </c>
@@ -2356,7 +2392,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2369,7 +2405,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2417,7 +2453,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="20" t="s">
         <v>124</v>
@@ -2434,7 +2470,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>1</v>
@@ -2471,7 +2507,7 @@
       </c>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>125</v>
       </c>
@@ -2506,7 +2542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2519,7 +2555,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
@@ -2554,7 +2590,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2567,7 +2603,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2580,7 +2616,7 @@
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -2593,7 +2629,7 @@
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -2606,7 +2642,7 @@
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -2619,7 +2655,7 @@
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -2632,7 +2668,7 @@
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -2645,7 +2681,7 @@
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -2658,7 +2694,7 @@
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -2671,7 +2707,7 @@
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -2684,7 +2720,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -2697,7 +2733,7 @@
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -2710,7 +2746,7 @@
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -2723,7 +2759,7 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -2736,7 +2772,7 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -2749,7 +2785,7 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -2762,7 +2798,7 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -2775,7 +2811,7 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -2788,7 +2824,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -2801,7 +2837,7 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -2814,7 +2850,7 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -2827,7 +2863,7 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -2840,7 +2876,7 @@
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -2853,7 +2889,7 @@
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -2866,7 +2902,7 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -2879,7 +2915,7 @@
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -2892,7 +2928,7 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -2905,7 +2941,7 @@
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -2918,7 +2954,7 @@
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -2931,7 +2967,7 @@
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -2944,7 +2980,7 @@
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -2957,7 +2993,7 @@
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -2970,7 +3006,7 @@
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -2983,7 +3019,7 @@
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -2996,7 +3032,7 @@
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -3009,7 +3045,7 @@
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -3022,7 +3058,7 @@
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -3035,7 +3071,7 @@
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -3048,7 +3084,7 @@
       <c r="K98" s="16"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
@@ -3061,7 +3097,7 @@
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
     </row>
-    <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -3074,7 +3110,7 @@
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -3087,7 +3123,7 @@
       <c r="K101" s="16"/>
       <c r="L101" s="16"/>
     </row>
-    <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -3100,7 +3136,7 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
     </row>
-    <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -3113,7 +3149,7 @@
       <c r="K103" s="16"/>
       <c r="L103" s="16"/>
     </row>
-    <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -3126,7 +3162,7 @@
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
     </row>
-    <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -3139,7 +3175,7 @@
       <c r="K105" s="16"/>
       <c r="L105" s="16"/>
     </row>
-    <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -3152,7 +3188,7 @@
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
     </row>
-    <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -3165,7 +3201,7 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -3178,7 +3214,7 @@
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
     </row>
-    <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -3191,7 +3227,7 @@
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3204,7 +3240,7 @@
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
     </row>
-    <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -3217,7 +3253,7 @@
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3230,7 +3266,7 @@
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -3243,7 +3279,7 @@
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3256,7 +3292,7 @@
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -3269,7 +3305,7 @@
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -3282,7 +3318,7 @@
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -3295,7 +3331,7 @@
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -3308,7 +3344,7 @@
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -3321,7 +3357,7 @@
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -3334,7 +3370,7 @@
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
@@ -3347,7 +3383,7 @@
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -3360,7 +3396,7 @@
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -3373,7 +3409,7 @@
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -3386,7 +3422,7 @@
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
     </row>
-    <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
@@ -3399,7 +3435,7 @@
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
     </row>
-    <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
@@ -3412,7 +3448,7 @@
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
     </row>
-    <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
@@ -3425,7 +3461,7 @@
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
     </row>
-    <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
@@ -3438,7 +3474,7 @@
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
     </row>
-    <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -3451,7 +3487,7 @@
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
     </row>
-    <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -3464,7 +3500,7 @@
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
     </row>
-    <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -3477,7 +3513,7 @@
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
     </row>
-    <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -3490,7 +3526,7 @@
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
     </row>
-    <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
@@ -3503,7 +3539,7 @@
       <c r="K133" s="16"/>
       <c r="L133" s="16"/>
     </row>
-    <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -3516,7 +3552,7 @@
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
     </row>
-    <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -3529,7 +3565,7 @@
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -3542,7 +3578,7 @@
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -3555,7 +3591,7 @@
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -3568,7 +3604,7 @@
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -3581,7 +3617,7 @@
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -3594,7 +3630,7 @@
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -3607,7 +3643,7 @@
       <c r="K141" s="16"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -3620,7 +3656,7 @@
       <c r="K142" s="16"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -3633,7 +3669,7 @@
       <c r="K143" s="16"/>
       <c r="L143" s="16"/>
     </row>
-    <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -3646,7 +3682,7 @@
       <c r="K144" s="16"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -3659,7 +3695,7 @@
       <c r="K145" s="16"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -3672,7 +3708,7 @@
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
@@ -3685,7 +3721,7 @@
       <c r="K147" s="16"/>
       <c r="L147" s="16"/>
     </row>
-    <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
@@ -3698,7 +3734,7 @@
       <c r="K148" s="16"/>
       <c r="L148" s="16"/>
     </row>
-    <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
@@ -3711,7 +3747,7 @@
       <c r="K149" s="16"/>
       <c r="L149" s="16"/>
     </row>
-    <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -3724,7 +3760,7 @@
       <c r="K150" s="16"/>
       <c r="L150" s="16"/>
     </row>
-    <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
@@ -3737,7 +3773,7 @@
       <c r="K151" s="16"/>
       <c r="L151" s="16"/>
     </row>
-    <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
@@ -3750,7 +3786,7 @@
       <c r="K152" s="16"/>
       <c r="L152" s="16"/>
     </row>
-    <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
@@ -3763,7 +3799,7 @@
       <c r="K153" s="16"/>
       <c r="L153" s="16"/>
     </row>
-    <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -3776,7 +3812,7 @@
       <c r="K154" s="16"/>
       <c r="L154" s="16"/>
     </row>
-    <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
@@ -3789,7 +3825,7 @@
       <c r="K155" s="16"/>
       <c r="L155" s="16"/>
     </row>
-    <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
@@ -3802,7 +3838,7 @@
       <c r="K156" s="16"/>
       <c r="L156" s="16"/>
     </row>
-    <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
@@ -3815,7 +3851,7 @@
       <c r="K157" s="16"/>
       <c r="L157" s="16"/>
     </row>
-    <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -3828,7 +3864,7 @@
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
@@ -3841,7 +3877,7 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
     </row>
-    <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
@@ -3854,7 +3890,7 @@
       <c r="K160" s="16"/>
       <c r="L160" s="16"/>
     </row>
-    <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -3867,7 +3903,7 @@
       <c r="K161" s="16"/>
       <c r="L161" s="16"/>
     </row>
-    <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -3880,7 +3916,7 @@
       <c r="K162" s="16"/>
       <c r="L162" s="16"/>
     </row>
-    <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -3893,7 +3929,7 @@
       <c r="K163" s="16"/>
       <c r="L163" s="16"/>
     </row>
-    <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -3906,7 +3942,7 @@
       <c r="K164" s="16"/>
       <c r="L164" s="16"/>
     </row>
-    <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -3919,7 +3955,7 @@
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
     </row>
-    <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
@@ -3932,7 +3968,7 @@
       <c r="K166" s="16"/>
       <c r="L166" s="16"/>
     </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
@@ -3945,7 +3981,7 @@
       <c r="K167" s="16"/>
       <c r="L167" s="16"/>
     </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
@@ -3958,7 +3994,7 @@
       <c r="K168" s="16"/>
       <c r="L168" s="16"/>
     </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
@@ -3971,7 +4007,7 @@
       <c r="K169" s="16"/>
       <c r="L169" s="16"/>
     </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B170" s="16"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -3984,7 +4020,7 @@
       <c r="K170" s="16"/>
       <c r="L170" s="16"/>
     </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -3997,7 +4033,7 @@
       <c r="K171" s="16"/>
       <c r="L171" s="16"/>
     </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -4010,7 +4046,7 @@
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
     </row>
-    <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
@@ -4023,7 +4059,7 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
     </row>
-    <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
@@ -4036,7 +4072,7 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
     </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
@@ -4049,7 +4085,7 @@
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
     </row>
-    <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
@@ -4062,7 +4098,7 @@
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
     </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
@@ -4075,7 +4111,7 @@
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
     </row>
-    <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
@@ -4088,7 +4124,7 @@
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
     </row>
-    <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
@@ -4101,7 +4137,7 @@
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
     </row>
-    <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="16"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -4114,7 +4150,7 @@
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
     </row>
-    <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="16"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
@@ -4127,7 +4163,7 @@
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
     </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
@@ -4140,7 +4176,7 @@
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
     </row>
-    <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
@@ -4153,7 +4189,7 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
     </row>
-    <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="16"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
@@ -4166,7 +4202,7 @@
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
     </row>
-    <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -4179,7 +4215,7 @@
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
     </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="16"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
@@ -4192,7 +4228,7 @@
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
     </row>
-    <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
@@ -4205,7 +4241,7 @@
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
     </row>
-    <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="16"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
@@ -4218,7 +4254,7 @@
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
     </row>
-    <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B189" s="16"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
@@ -4231,7 +4267,7 @@
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
     </row>
-    <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B190" s="16"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
@@ -4244,7 +4280,7 @@
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
     </row>
-    <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B191" s="16"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
@@ -4257,7 +4293,7 @@
       <c r="K191" s="16"/>
       <c r="L191" s="16"/>
     </row>
-    <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -4270,7 +4306,7 @@
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
     </row>
-    <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B193" s="16"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
@@ -4283,7 +4319,7 @@
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
     </row>
-    <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
@@ -4296,7 +4332,7 @@
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
     </row>
-    <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B195" s="16"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
@@ -4309,7 +4345,7 @@
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
     </row>
-    <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
@@ -4322,7 +4358,7 @@
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
     </row>
-    <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B197" s="16"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
@@ -4335,7 +4371,7 @@
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
     </row>
-    <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="16"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
@@ -4348,7 +4384,7 @@
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
     </row>
-    <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B199" s="16"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
@@ -4361,7 +4397,7 @@
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
     </row>
-    <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -4374,7 +4410,7 @@
       <c r="K200" s="16"/>
       <c r="L200" s="16"/>
     </row>
-    <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B201" s="16"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
@@ -4387,7 +4423,7 @@
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
     </row>
-    <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B202" s="16"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
@@ -4400,7 +4436,7 @@
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
     </row>
-    <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B203" s="16"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
@@ -4413,7 +4449,7 @@
       <c r="K203" s="16"/>
       <c r="L203" s="16"/>
     </row>
-    <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B204" s="16"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
@@ -4426,7 +4462,7 @@
       <c r="K204" s="16"/>
       <c r="L204" s="16"/>
     </row>
-    <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B205" s="16"/>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
@@ -4439,7 +4475,7 @@
       <c r="K205" s="16"/>
       <c r="L205" s="16"/>
     </row>
-    <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
@@ -4452,7 +4488,7 @@
       <c r="K206" s="16"/>
       <c r="L206" s="16"/>
     </row>
-    <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B207" s="16"/>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
@@ -4465,7 +4501,7 @@
       <c r="K207" s="16"/>
       <c r="L207" s="16"/>
     </row>
-    <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B208" s="16"/>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
@@ -4478,7 +4514,7 @@
       <c r="K208" s="16"/>
       <c r="L208" s="16"/>
     </row>
-    <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
@@ -4491,7 +4527,7 @@
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
     </row>
-    <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="16"/>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
@@ -4504,7 +4540,7 @@
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
     </row>
-    <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B211" s="16"/>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
@@ -4517,7 +4553,7 @@
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
     </row>
-    <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B212" s="16"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
@@ -4530,7 +4566,7 @@
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
     </row>
-    <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
@@ -4543,7 +4579,7 @@
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
     </row>
-    <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="16"/>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -4556,7 +4592,7 @@
       <c r="K214" s="16"/>
       <c r="L214" s="16"/>
     </row>
-    <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="16"/>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -4569,7 +4605,7 @@
       <c r="K215" s="16"/>
       <c r="L215" s="16"/>
     </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
@@ -4582,7 +4618,7 @@
       <c r="K216" s="16"/>
       <c r="L216" s="16"/>
     </row>
-    <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="16"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
@@ -4595,7 +4631,7 @@
       <c r="K217" s="16"/>
       <c r="L217" s="16"/>
     </row>
-    <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
@@ -4608,7 +4644,7 @@
       <c r="K218" s="16"/>
       <c r="L218" s="16"/>
     </row>
-    <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="16"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
@@ -4621,7 +4657,7 @@
       <c r="K219" s="16"/>
       <c r="L219" s="16"/>
     </row>
-    <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B220" s="16"/>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -4634,7 +4670,7 @@
       <c r="K220" s="16"/>
       <c r="L220" s="16"/>
     </row>
-    <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -4647,7 +4683,7 @@
       <c r="K221" s="16"/>
       <c r="L221" s="16"/>
     </row>
-    <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="16"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -4660,7 +4696,7 @@
       <c r="K222" s="16"/>
       <c r="L222" s="16"/>
     </row>
-    <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="16"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -4673,7 +4709,7 @@
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
     </row>
-    <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="16"/>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -4686,7 +4722,7 @@
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
     </row>
-    <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -4699,7 +4735,7 @@
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
     </row>
-    <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="16"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
@@ -4712,7 +4748,7 @@
       <c r="K226" s="16"/>
       <c r="L226" s="16"/>
     </row>
-    <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="16"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
@@ -4725,7 +4761,7 @@
       <c r="K227" s="16"/>
       <c r="L227" s="16"/>
     </row>
-    <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="16"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -4738,7 +4774,7 @@
       <c r="K228" s="16"/>
       <c r="L228" s="16"/>
     </row>
-    <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B229" s="16"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -4751,7 +4787,7 @@
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
     </row>
-    <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B230" s="16"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
@@ -4764,7 +4800,7 @@
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
     </row>
-    <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="16"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
@@ -4777,7 +4813,7 @@
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
     </row>
-    <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B232" s="16"/>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
@@ -4790,7 +4826,7 @@
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
     </row>
-    <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
@@ -4803,7 +4839,7 @@
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
     </row>
-    <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B234" s="16"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
@@ -4816,7 +4852,7 @@
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
     </row>
-    <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B235" s="16"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
@@ -4829,7 +4865,7 @@
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
     </row>
-    <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
@@ -4842,7 +4878,7 @@
       <c r="K236" s="16"/>
       <c r="L236" s="16"/>
     </row>
-    <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" s="16"/>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
@@ -4855,7 +4891,7 @@
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
     </row>
-    <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" s="16"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
@@ -4868,7 +4904,7 @@
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
     </row>
-    <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="16"/>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
@@ -4881,7 +4917,7 @@
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
     </row>
-    <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="16"/>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
@@ -4894,7 +4930,7 @@
       <c r="K240" s="16"/>
       <c r="L240" s="16"/>
     </row>
-    <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
@@ -4907,7 +4943,7 @@
       <c r="K241" s="16"/>
       <c r="L241" s="16"/>
     </row>
-    <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B242" s="16"/>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
@@ -4920,7 +4956,7 @@
       <c r="K242" s="16"/>
       <c r="L242" s="16"/>
     </row>
-    <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B243" s="16"/>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
@@ -4933,7 +4969,7 @@
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
     </row>
-    <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
@@ -4946,7 +4982,7 @@
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
     </row>
-    <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B245" s="16"/>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
@@ -4959,7 +4995,7 @@
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
     </row>
-    <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
@@ -4972,7 +5008,7 @@
       <c r="K246" s="16"/>
       <c r="L246" s="16"/>
     </row>
-    <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B247" s="16"/>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
@@ -4985,7 +5021,7 @@
       <c r="K247" s="16"/>
       <c r="L247" s="16"/>
     </row>
-    <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B248" s="16"/>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
@@ -4998,7 +5034,7 @@
       <c r="K248" s="16"/>
       <c r="L248" s="16"/>
     </row>
-    <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B249" s="16"/>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
@@ -5011,7 +5047,7 @@
       <c r="K249" s="16"/>
       <c r="L249" s="16"/>
     </row>
-    <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
@@ -5024,7 +5060,7 @@
       <c r="K250" s="16"/>
       <c r="L250" s="16"/>
     </row>
-    <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B251" s="16"/>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
@@ -5037,7 +5073,7 @@
       <c r="K251" s="16"/>
       <c r="L251" s="16"/>
     </row>
-    <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B252" s="16"/>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
@@ -5050,7 +5086,7 @@
       <c r="K252" s="16"/>
       <c r="L252" s="16"/>
     </row>
-    <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" s="16"/>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
@@ -5063,7 +5099,7 @@
       <c r="K253" s="16"/>
       <c r="L253" s="16"/>
     </row>
-    <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B254" s="16"/>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
@@ -5076,7 +5112,7 @@
       <c r="K254" s="16"/>
       <c r="L254" s="16"/>
     </row>
-    <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
@@ -5089,7 +5125,7 @@
       <c r="K255" s="16"/>
       <c r="L255" s="16"/>
     </row>
-    <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B256" s="16"/>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
@@ -5102,7 +5138,7 @@
       <c r="K256" s="16"/>
       <c r="L256" s="16"/>
     </row>
-    <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B257" s="16"/>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
@@ -5115,7 +5151,7 @@
       <c r="K257" s="16"/>
       <c r="L257" s="16"/>
     </row>
-    <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
@@ -5128,7 +5164,7 @@
       <c r="K258" s="16"/>
       <c r="L258" s="16"/>
     </row>
-    <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
@@ -5141,7 +5177,7 @@
       <c r="K259" s="16"/>
       <c r="L259" s="16"/>
     </row>
-    <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B260" s="16"/>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
@@ -5154,7 +5190,7 @@
       <c r="K260" s="16"/>
       <c r="L260" s="16"/>
     </row>
-    <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B261" s="16"/>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
@@ -5167,7 +5203,7 @@
       <c r="K261" s="16"/>
       <c r="L261" s="16"/>
     </row>
-    <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B262" s="16"/>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
@@ -5180,7 +5216,7 @@
       <c r="K262" s="16"/>
       <c r="L262" s="16"/>
     </row>
-    <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B263" s="16"/>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
@@ -5193,7 +5229,7 @@
       <c r="K263" s="16"/>
       <c r="L263" s="16"/>
     </row>
-    <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B264" s="16"/>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
@@ -5206,7 +5242,7 @@
       <c r="K264" s="16"/>
       <c r="L264" s="16"/>
     </row>
-    <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B265" s="16"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
@@ -5219,7 +5255,7 @@
       <c r="K265" s="16"/>
       <c r="L265" s="16"/>
     </row>
-    <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
@@ -5232,7 +5268,7 @@
       <c r="K266" s="16"/>
       <c r="L266" s="16"/>
     </row>
-    <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
@@ -5245,7 +5281,7 @@
       <c r="K267" s="16"/>
       <c r="L267" s="16"/>
     </row>
-    <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B268" s="16"/>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
@@ -5258,7 +5294,7 @@
       <c r="K268" s="16"/>
       <c r="L268" s="16"/>
     </row>
-    <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B269" s="16"/>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
@@ -5271,7 +5307,7 @@
       <c r="K269" s="16"/>
       <c r="L269" s="16"/>
     </row>
-    <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B270" s="16"/>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
@@ -5284,7 +5320,7 @@
       <c r="K270" s="16"/>
       <c r="L270" s="16"/>
     </row>
-    <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B271" s="16"/>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
@@ -5297,7 +5333,7 @@
       <c r="K271" s="16"/>
       <c r="L271" s="16"/>
     </row>
-    <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
@@ -5310,7 +5346,7 @@
       <c r="K272" s="16"/>
       <c r="L272" s="16"/>
     </row>
-    <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
@@ -5323,7 +5359,7 @@
       <c r="K273" s="16"/>
       <c r="L273" s="16"/>
     </row>
-    <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B274" s="16"/>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
@@ -5336,7 +5372,7 @@
       <c r="K274" s="16"/>
       <c r="L274" s="16"/>
     </row>
-    <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
@@ -5349,7 +5385,7 @@
       <c r="K275" s="16"/>
       <c r="L275" s="16"/>
     </row>
-    <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B276" s="16"/>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
@@ -5362,7 +5398,7 @@
       <c r="K276" s="16"/>
       <c r="L276" s="16"/>
     </row>
-    <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B277" s="16"/>
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
@@ -5375,7 +5411,7 @@
       <c r="K277" s="16"/>
       <c r="L277" s="16"/>
     </row>
-    <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B278" s="16"/>
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
@@ -5388,7 +5424,7 @@
       <c r="K278" s="16"/>
       <c r="L278" s="16"/>
     </row>
-    <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
@@ -5401,7 +5437,7 @@
       <c r="K279" s="16"/>
       <c r="L279" s="16"/>
     </row>
-    <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B280" s="16"/>
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
@@ -5414,7 +5450,7 @@
       <c r="K280" s="16"/>
       <c r="L280" s="16"/>
     </row>
-    <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B281" s="16"/>
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
@@ -5427,7 +5463,7 @@
       <c r="K281" s="16"/>
       <c r="L281" s="16"/>
     </row>
-    <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B282" s="16"/>
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
@@ -5440,7 +5476,7 @@
       <c r="K282" s="16"/>
       <c r="L282" s="16"/>
     </row>
-    <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
@@ -5453,7 +5489,7 @@
       <c r="K283" s="16"/>
       <c r="L283" s="16"/>
     </row>
-    <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
@@ -5466,7 +5502,7 @@
       <c r="K284" s="16"/>
       <c r="L284" s="16"/>
     </row>
-    <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
@@ -5479,7 +5515,7 @@
       <c r="K285" s="16"/>
       <c r="L285" s="16"/>
     </row>
-    <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
@@ -5492,7 +5528,7 @@
       <c r="K286" s="16"/>
       <c r="L286" s="16"/>
     </row>
-    <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
@@ -5505,7 +5541,7 @@
       <c r="K287" s="16"/>
       <c r="L287" s="16"/>
     </row>
-    <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B288" s="16"/>
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
@@ -5518,7 +5554,7 @@
       <c r="K288" s="16"/>
       <c r="L288" s="16"/>
     </row>
-    <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B289" s="16"/>
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
@@ -5531,7 +5567,7 @@
       <c r="K289" s="16"/>
       <c r="L289" s="16"/>
     </row>
-    <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B290" s="16"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
@@ -5544,7 +5580,7 @@
       <c r="K290" s="16"/>
       <c r="L290" s="16"/>
     </row>
-    <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B291" s="16"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
@@ -5557,7 +5593,7 @@
       <c r="K291" s="16"/>
       <c r="L291" s="16"/>
     </row>
-    <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
@@ -5570,7 +5606,7 @@
       <c r="K292" s="16"/>
       <c r="L292" s="16"/>
     </row>
-    <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
@@ -5583,7 +5619,7 @@
       <c r="K293" s="16"/>
       <c r="L293" s="16"/>
     </row>
-    <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B294" s="16"/>
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
@@ -5596,7 +5632,7 @@
       <c r="K294" s="16"/>
       <c r="L294" s="16"/>
     </row>
-    <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B295" s="16"/>
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
@@ -5609,7 +5645,7 @@
       <c r="K295" s="16"/>
       <c r="L295" s="16"/>
     </row>
-    <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B296" s="16"/>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
@@ -5622,7 +5658,7 @@
       <c r="K296" s="16"/>
       <c r="L296" s="16"/>
     </row>
-    <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B297" s="16"/>
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
@@ -5635,7 +5671,7 @@
       <c r="K297" s="16"/>
       <c r="L297" s="16"/>
     </row>
-    <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B298" s="16"/>
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
@@ -5648,7 +5684,7 @@
       <c r="K298" s="16"/>
       <c r="L298" s="16"/>
     </row>
-    <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B299" s="16"/>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
@@ -5661,7 +5697,7 @@
       <c r="K299" s="16"/>
       <c r="L299" s="16"/>
     </row>
-    <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B300" s="16"/>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
@@ -5674,7 +5710,7 @@
       <c r="K300" s="16"/>
       <c r="L300" s="16"/>
     </row>
-    <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B301" s="16"/>
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
@@ -5687,7 +5723,7 @@
       <c r="K301" s="16"/>
       <c r="L301" s="16"/>
     </row>
-    <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B302" s="16"/>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
@@ -5700,7 +5736,7 @@
       <c r="K302" s="16"/>
       <c r="L302" s="16"/>
     </row>
-    <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B303" s="16"/>
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
@@ -5713,7 +5749,7 @@
       <c r="K303" s="16"/>
       <c r="L303" s="16"/>
     </row>
-    <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B304" s="16"/>
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
@@ -5726,7 +5762,7 @@
       <c r="K304" s="16"/>
       <c r="L304" s="16"/>
     </row>
-    <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B305" s="16"/>
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
@@ -5739,7 +5775,7 @@
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
     </row>
-    <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B306" s="16"/>
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
@@ -5752,7 +5788,7 @@
       <c r="K306" s="16"/>
       <c r="L306" s="16"/>
     </row>
-    <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B307" s="16"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
@@ -5765,7 +5801,7 @@
       <c r="K307" s="16"/>
       <c r="L307" s="16"/>
     </row>
-    <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B308" s="16"/>
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
@@ -5778,7 +5814,7 @@
       <c r="K308" s="16"/>
       <c r="L308" s="16"/>
     </row>
-    <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B309" s="16"/>
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
@@ -5791,7 +5827,7 @@
       <c r="K309" s="16"/>
       <c r="L309" s="16"/>
     </row>
-    <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B310" s="16"/>
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
@@ -5804,7 +5840,7 @@
       <c r="K310" s="16"/>
       <c r="L310" s="16"/>
     </row>
-    <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B311" s="16"/>
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
@@ -5817,7 +5853,7 @@
       <c r="K311" s="16"/>
       <c r="L311" s="16"/>
     </row>
-    <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B312" s="16"/>
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
@@ -5830,7 +5866,7 @@
       <c r="K312" s="16"/>
       <c r="L312" s="16"/>
     </row>
-    <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B313" s="16"/>
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
@@ -5843,7 +5879,7 @@
       <c r="K313" s="16"/>
       <c r="L313" s="16"/>
     </row>
-    <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B314" s="16"/>
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
@@ -5856,7 +5892,7 @@
       <c r="K314" s="16"/>
       <c r="L314" s="16"/>
     </row>
-    <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B315" s="16"/>
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
@@ -5869,7 +5905,7 @@
       <c r="K315" s="16"/>
       <c r="L315" s="16"/>
     </row>
-    <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B316" s="16"/>
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
@@ -5882,7 +5918,7 @@
       <c r="K316" s="16"/>
       <c r="L316" s="16"/>
     </row>
-    <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B317" s="16"/>
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
@@ -5895,7 +5931,7 @@
       <c r="K317" s="16"/>
       <c r="L317" s="16"/>
     </row>
-    <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B318" s="16"/>
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
@@ -5908,7 +5944,7 @@
       <c r="K318" s="16"/>
       <c r="L318" s="16"/>
     </row>
-    <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B319" s="16"/>
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
@@ -5921,7 +5957,7 @@
       <c r="K319" s="16"/>
       <c r="L319" s="16"/>
     </row>
-    <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B320" s="16"/>
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
@@ -5934,7 +5970,7 @@
       <c r="K320" s="16"/>
       <c r="L320" s="16"/>
     </row>
-    <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B321" s="16"/>
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
@@ -5947,7 +5983,7 @@
       <c r="K321" s="16"/>
       <c r="L321" s="16"/>
     </row>
-    <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B322" s="16"/>
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
@@ -5960,7 +5996,7 @@
       <c r="K322" s="16"/>
       <c r="L322" s="16"/>
     </row>
-    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B323" s="16"/>
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
@@ -5973,7 +6009,7 @@
       <c r="K323" s="16"/>
       <c r="L323" s="16"/>
     </row>
-    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B324" s="16"/>
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AED4AC-0ED7-4373-96B0-EDEEC67DC7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4ADC6-81A1-4B05-842F-4D22B0977E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
   <si>
     <t>Comparison</t>
   </si>
@@ -80,15 +80,9 @@
     <t>Default</t>
   </si>
   <si>
-    <t>WOTC_APA_LeadTheTarget</t>
-  </si>
-  <si>
     <t>WOTC_APA_HighCaliber</t>
   </si>
   <si>
-    <t>WOTC_APA_QuicksetBipod (WOTC_APA_Brace, Phantom)</t>
-  </si>
-  <si>
     <t>WOTC_APA_HighApproachAngle</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>WOTC_APA_Opportunist</t>
   </si>
   <si>
-    <t>WOTC_APA_Ghost</t>
-  </si>
-  <si>
     <t>WOTC_APA_HarriersTalon</t>
   </si>
   <si>
@@ -128,15 +119,9 @@
     <t xml:space="preserve">WOTC_APA_Blindside </t>
   </si>
   <si>
-    <t>WOTC_APA_Blindside</t>
-  </si>
-  <si>
     <t>WOTC_APA_Evasive</t>
   </si>
   <si>
-    <t>WOTC_APA_ReadyForAnything (WOTC_APA_AmbushToggle)</t>
-  </si>
-  <si>
     <t>WOTC_APA_Sentry</t>
   </si>
   <si>
@@ -173,15 +158,6 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>Bsharpshooter</t>
-  </si>
-  <si>
-    <t>Csharpshooter</t>
-  </si>
-  <si>
-    <t>Sentinel</t>
-  </si>
-  <si>
     <t>Infantry(P)</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
     <t>LW2WotC_RapidReaction</t>
   </si>
   <si>
-    <t>Infantry</t>
-  </si>
-  <si>
     <t>Stealth</t>
   </si>
   <si>
@@ -227,24 +200,438 @@
     <t>Gremlin_CV</t>
   </si>
   <si>
-    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe, WOTC_APA_Reconceal, WOTC_APA_SilentMotors)</t>
-  </si>
-  <si>
     <t>WOTC_APA_ElectronicSurveillance</t>
   </si>
   <si>
+    <t xml:space="preserve">(WOTC_APA_Marauder or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
+  </si>
+  <si>
+    <t>ShadowOps_SensorOverlays</t>
+  </si>
+  <si>
+    <t>MZImprovedScanner</t>
+  </si>
+  <si>
+    <t>Chemthrowers</t>
+  </si>
+  <si>
+    <t>Alchemist(P)</t>
+  </si>
+  <si>
+    <t>Alchy</t>
+  </si>
+  <si>
+    <t>MZImmolator_CV</t>
+  </si>
+  <si>
+    <t>APA_HazardPay (MZFineControl, MZRovingChemist, MZChemthrowerSuppression, MZChemicalDeflector)</t>
+  </si>
+  <si>
+    <t>MZViscousAccelerant</t>
+  </si>
+  <si>
+    <t>MZCorrodingCompounds</t>
+  </si>
+  <si>
+    <t>(MZIncandescence or MZOppressiveHeat or MZParticulateHaze)</t>
+  </si>
+  <si>
+    <t>MZSearingMagnesium</t>
+  </si>
+  <si>
+    <t>MZNightmareFuel</t>
+  </si>
+  <si>
+    <t>MZChemthrowerKillZone</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Apothecary(P)</t>
+  </si>
+  <si>
+    <t>BApothecary</t>
+  </si>
+  <si>
+    <t>StimGun_CV</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_StimPouch (SG_VenomStim_Passive, F_Dedication)</t>
+  </si>
+  <si>
+    <t>SG_FocusStim</t>
+  </si>
+  <si>
+    <t>(SG_OverTheCounter or SG_NitroStim or SG_ToxicCloud)</t>
+  </si>
+  <si>
+    <t>(SG_CombatClinic or WOTC_KPP_VenomSting)</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_ReactiveSting</t>
+  </si>
+  <si>
+    <t>(SG_QuickStim or SG_IncreasedDosage)</t>
+  </si>
+  <si>
+    <t>Short Range</t>
+  </si>
+  <si>
+    <t>Assault(P)</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Shotgun_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CQBDominance (WOTC_APA_ZoneOfControl)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_TakeCover</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Charge</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ShockAndMaul</t>
+  </si>
+  <si>
+    <t>Untouchable</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ZoneDefense</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SweepAndClear</t>
+  </si>
+  <si>
+    <t>Rifle/Mid Range/Overwatch</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Combat Engineer(P)</t>
+  </si>
+  <si>
+    <t>ComEng</t>
+  </si>
+  <si>
+    <t>lwgauntlet_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Gauntlet (Roust)</t>
+  </si>
+  <si>
+    <t>Burnout</t>
+  </si>
+  <si>
+    <t>NapalmX</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Quickburn</t>
+  </si>
+  <si>
+    <t>Incinerator</t>
+  </si>
+  <si>
+    <t>HighPressure</t>
+  </si>
+  <si>
+    <t>Firestorm</t>
+  </si>
+  <si>
+    <t>Combat Medic(P)</t>
+  </si>
+  <si>
+    <t>arcthrower_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_MedicalSpecialist (MZArcJoltAwake, WOTC_APA_AppliedKnowledge, WOTC_APA_Sedate, WOTC_APA_BattlefieldTriage)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_EmergencyAid</t>
+  </si>
+  <si>
+    <t>WOTC_APA_AdvancedTraumaKits</t>
+  </si>
+  <si>
+    <t>F_CombatDrugs</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Medivac</t>
+  </si>
+  <si>
+    <t>WOTC_APA_AntiVenomStims</t>
+  </si>
+  <si>
+    <t>ShadowOps_SecondWind</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CombatStimulants</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Drone Pilot(P)</t>
+  </si>
+  <si>
+    <t>Dronz</t>
+  </si>
+  <si>
+    <t>SparkBit_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_BitDefender (MZCombatScanner, WOTC_APA_Failsafe, RepairMW)</t>
+  </si>
+  <si>
+    <t>CapacitorDischarge</t>
+  </si>
+  <si>
+    <t>(MZSabotageProtocol or MedicalProtocol or MZStickyBombProtocol)</t>
+  </si>
+  <si>
+    <t>(RevivalProtocol or Triangulation or MZVoltaicArc)</t>
+  </si>
+  <si>
+    <t>Bombardment</t>
+  </si>
+  <si>
+    <t>(MZGremlinStasis or MZBarrierProtocol or MZNapalmProtocol)</t>
+  </si>
+  <si>
+    <t>Electroraider(P)</t>
+  </si>
+  <si>
+    <t>Electro</t>
+  </si>
+  <si>
+    <t>WOTC_APA_PatchworkCore (WOTC_APA_Failsafe, AidProtocol, WOTC_APA_CombatProtocol, ARFMJammerProtocol)</t>
+  </si>
+  <si>
+    <t>(MZArmourSystem or MZAidProtocolHeal)</t>
+  </si>
+  <si>
+    <t>(MZGremlinStasis or MZGremlinInsanity)</t>
+  </si>
+  <si>
+    <t>ARFMDetonateProtocol</t>
+  </si>
+  <si>
+    <t>(MZStormGenerator or MZShockTherapy or MZHighVoltage)</t>
+  </si>
+  <si>
+    <t>MZGremlinInsanity</t>
+  </si>
+  <si>
+    <t>MZChainDischarge</t>
+  </si>
+  <si>
+    <t>Enforcer(P)</t>
+  </si>
+  <si>
+    <t>Gunner(P)</t>
+  </si>
+  <si>
+    <t>Cannon_CV</t>
+  </si>
+  <si>
+    <t>F_Havoc</t>
+  </si>
+  <si>
+    <t>F_SuppressingFire</t>
+  </si>
+  <si>
+    <t>LW2WotC_Lockdown</t>
+  </si>
+  <si>
+    <t>LW2WotC_Mayhem</t>
+  </si>
+  <si>
+    <t>F_ThousandsToGo</t>
+  </si>
+  <si>
+    <t>MZPanicSuppression</t>
+  </si>
+  <si>
+    <t>F_KillEmAll</t>
+  </si>
+  <si>
+    <t>Gunslinger(P)</t>
+  </si>
+  <si>
+    <t>Gunny</t>
+  </si>
+  <si>
+    <t>WOTC_MRC_Gunslinger (DP_DualPistols, WOTC_APA_RunAndGun)</t>
+  </si>
+  <si>
+    <t>Pistol_CV_Primary</t>
+  </si>
+  <si>
+    <t>DP_TrickShot</t>
+  </si>
+  <si>
+    <t>DP_BulletTime</t>
+  </si>
+  <si>
+    <t>WOTC_APA_DeepReserves</t>
+  </si>
+  <si>
+    <t>WOTC_APA_KillerInstinct</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Skirmisher</t>
+  </si>
+  <si>
+    <t>DP_Checkmate</t>
+  </si>
+  <si>
+    <t>Rifleman(S)</t>
+  </si>
+  <si>
+    <t>BInfantry</t>
+  </si>
+  <si>
+    <t>LW2WotC_WalkFire</t>
+  </si>
+  <si>
+    <t>F_Momentum</t>
+  </si>
+  <si>
+    <t>HailOfBullets</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Aggression</t>
+  </si>
+  <si>
+    <t>LW2WotC_TraverseFire</t>
+  </si>
+  <si>
+    <t>BulletShred</t>
+  </si>
+  <si>
+    <t>LW2WotC_AlphaMikeFoxtrot</t>
+  </si>
+  <si>
+    <t>WOTC_APA_OnTarget</t>
+  </si>
+  <si>
+    <t>CInfantry</t>
+  </si>
+  <si>
+    <t>CombatKnife_CV</t>
+  </si>
+  <si>
+    <t>VektorRifle_CV</t>
+  </si>
+  <si>
+    <t>ASentry</t>
+  </si>
+  <si>
+    <t>ASharpshooter</t>
+  </si>
+  <si>
+    <t>WOTC_APA_PrecisionTargeting (WOTC_APA_QuicksetBipod, WOTC_APA_WeaponSpecialist)</t>
+  </si>
+  <si>
+    <t>Vanguard(P)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Shadow (WOTC_APA_Fade)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SilentKiller</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Vanish</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Haunt</t>
+  </si>
+  <si>
+    <t>WOTC_APA_PreciseStrike</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Hound</t>
+  </si>
+  <si>
+    <t>Deadeye</t>
+  </si>
+  <si>
+    <t>WOTC_APA_SteadyHands</t>
+  </si>
+  <si>
+    <t>AVanguard</t>
+  </si>
+  <si>
+    <t>BVanguard</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Ghost (Phantom)</t>
+  </si>
+  <si>
+    <t>(WOTC_APA_WeaponSpecialist or WOTC_APA_UpgradedScanners)</t>
+  </si>
+  <si>
+    <t>CVanguard</t>
+  </si>
+  <si>
+    <t>Outrider(S)</t>
+  </si>
+  <si>
+    <t>BSharpshooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARFMTrackingShot (ARFMFusilierFocus, Squadsight) </t>
+  </si>
+  <si>
+    <t>Marksman(S)</t>
+  </si>
+  <si>
+    <t>ARFMSuperTrackingShotMark</t>
+  </si>
+  <si>
+    <t>ARFMFusilierLockedDown</t>
+  </si>
+  <si>
+    <t>ARFMFusilierSniperNest</t>
+  </si>
+  <si>
+    <t>ARFMFusilierHawkeye</t>
+  </si>
+  <si>
+    <t>ARFMFusilierRapidFire</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ArmedIntervention</t>
+  </si>
+  <si>
+    <t>ShadowOps_ThisOnesMine</t>
+  </si>
+  <si>
+    <t>Sentry(T)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">(WOTC_APA_WeaponSpecialist or WOTC_APA_UpgradedScanners or </t>
+      <t xml:space="preserve">WOTC_APA_ReadyForAnything (WOTC_APA_AmbushToggle, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>WOTC_APA_Ghost</t>
+      <t>WOTC_APA_EverVigilant</t>
     </r>
     <r>
       <rPr>
@@ -258,385 +645,109 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">(WOTC_APA_Marauder or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
-  </si>
-  <si>
-    <t>ShadowOps_SensorOverlays</t>
-  </si>
-  <si>
-    <t>MZImprovedScanner</t>
-  </si>
-  <si>
-    <t>Chemthrowers</t>
-  </si>
-  <si>
-    <t>Alchemist(P)</t>
-  </si>
-  <si>
-    <t>Alchy</t>
-  </si>
-  <si>
-    <t>MZImmolator_CV</t>
-  </si>
-  <si>
-    <t>APA_HazardPay (MZFineControl, MZRovingChemist, MZChemthrowerSuppression, MZChemicalDeflector)</t>
-  </si>
-  <si>
-    <t>MZViscousAccelerant</t>
-  </si>
-  <si>
-    <t>MZCorrodingCompounds</t>
-  </si>
-  <si>
-    <t>(MZIncandescence or MZOppressiveHeat or MZParticulateHaze)</t>
-  </si>
-  <si>
-    <t>MZSearingMagnesium</t>
-  </si>
-  <si>
-    <t>MZNightmareFuel</t>
-  </si>
-  <si>
-    <t>MZChemthrowerKillZone</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Apothecary(P)</t>
-  </si>
-  <si>
-    <t>BApothecary</t>
-  </si>
-  <si>
-    <t>StimGun_CV</t>
-  </si>
-  <si>
-    <t>WOTC_KPP_StimPouch (SG_VenomStim_Passive, F_Dedication)</t>
-  </si>
-  <si>
-    <t>SG_FocusStim</t>
-  </si>
-  <si>
-    <t>(SG_OverTheCounter or SG_NitroStim or SG_ToxicCloud)</t>
-  </si>
-  <si>
-    <t>(SG_CombatClinic or WOTC_KPP_VenomSting)</t>
-  </si>
-  <si>
-    <t>WOTC_KPP_ReactiveSting</t>
-  </si>
-  <si>
-    <t>(SG_QuickStim or SG_IncreasedDosage)</t>
-  </si>
-  <si>
-    <t>Short Range</t>
-  </si>
-  <si>
-    <t>Assault(P)</t>
-  </si>
-  <si>
-    <t>Assault</t>
-  </si>
-  <si>
-    <t>Shotgun_CV</t>
-  </si>
-  <si>
-    <t>WOTC_APA_CQBDominance (WOTC_APA_ZoneOfControl)</t>
-  </si>
-  <si>
-    <t>WOTC_APA_TakeCover</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Charge</t>
-  </si>
-  <si>
-    <t>WOTC_APA_ShockAndMaul</t>
-  </si>
-  <si>
-    <t>Untouchable</t>
-  </si>
-  <si>
-    <t>WOTC_APA_ZoneDefense</t>
-  </si>
-  <si>
-    <t>WOTC_APA_SweepAndClear</t>
-  </si>
-  <si>
-    <t>Rifle/Mid Range/Overwatch</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Combat Engineer(P)</t>
-  </si>
-  <si>
-    <t>ComEng</t>
-  </si>
-  <si>
-    <t>lwgauntlet_CV</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Gauntlet (Roust)</t>
-  </si>
-  <si>
-    <t>Burnout</t>
-  </si>
-  <si>
-    <t>NapalmX</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>Quickburn</t>
-  </si>
-  <si>
-    <t>Incinerator</t>
-  </si>
-  <si>
-    <t>HighPressure</t>
-  </si>
-  <si>
-    <t>Firestorm</t>
-  </si>
-  <si>
-    <t>Combat Medic(P)</t>
-  </si>
-  <si>
-    <t>arcthrower_CV</t>
-  </si>
-  <si>
-    <t>WOTC_APA_MedicalSpecialist (MZArcJoltAwake, WOTC_APA_AppliedKnowledge, WOTC_APA_Sedate, WOTC_APA_BattlefieldTriage)</t>
-  </si>
-  <si>
-    <t>WOTC_APA_EmergencyAid</t>
-  </si>
-  <si>
-    <t>WOTC_APA_AdvancedTraumaKits</t>
-  </si>
-  <si>
-    <t>F_CombatDrugs</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Medivac</t>
-  </si>
-  <si>
-    <t>WOTC_APA_AntiVenomStims</t>
-  </si>
-  <si>
-    <t>ShadowOps_SecondWind</t>
-  </si>
-  <si>
-    <t>WOTC_APA_CombatStimulants</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Drone Pilot(P)</t>
-  </si>
-  <si>
-    <t>Dronz</t>
-  </si>
-  <si>
-    <t>SparkBit_CV</t>
-  </si>
-  <si>
-    <t>WOTC_APA_BitDefender (MZCombatScanner, WOTC_APA_Failsafe, RepairMW)</t>
-  </si>
-  <si>
-    <t>CapacitorDischarge</t>
-  </si>
-  <si>
-    <t>(MZSabotageProtocol or MedicalProtocol or MZStickyBombProtocol)</t>
-  </si>
-  <si>
-    <t>(RevivalProtocol or Triangulation or MZVoltaicArc)</t>
-  </si>
-  <si>
-    <t>Bombardment</t>
-  </si>
-  <si>
-    <t>(MZGremlinStasis or MZBarrierProtocol or MZNapalmProtocol)</t>
-  </si>
-  <si>
-    <t>Electroraider(P)</t>
-  </si>
-  <si>
-    <t>Electro</t>
-  </si>
-  <si>
-    <t>WOTC_APA_PatchworkCore (WOTC_APA_Failsafe, AidProtocol, WOTC_APA_CombatProtocol, ARFMJammerProtocol)</t>
-  </si>
-  <si>
-    <t>(MZArmourSystem or MZAidProtocolHeal)</t>
-  </si>
-  <si>
-    <t>(MZGremlinStasis or MZGremlinInsanity)</t>
-  </si>
-  <si>
-    <t>ARFMDetonateProtocol</t>
-  </si>
-  <si>
-    <t>(MZStormGenerator or MZShockTherapy or MZHighVoltage)</t>
-  </si>
-  <si>
-    <t>MZGremlinInsanity</t>
-  </si>
-  <si>
-    <t>MZChainDischarge</t>
-  </si>
-  <si>
-    <t>Enforcer(P)</t>
-  </si>
-  <si>
-    <t>Gunner(P)</t>
-  </si>
-  <si>
-    <t>Gunner</t>
-  </si>
-  <si>
-    <t>Cannon_CV</t>
-  </si>
-  <si>
-    <t>F_Havoc</t>
-  </si>
-  <si>
-    <t>F_SuppressingFire</t>
-  </si>
-  <si>
-    <t>LW2WotC_Lockdown</t>
-  </si>
-  <si>
-    <t>LW2WotC_Mayhem</t>
-  </si>
-  <si>
-    <t>F_ThousandsToGo</t>
-  </si>
-  <si>
-    <t>MZPanicSuppression</t>
-  </si>
-  <si>
-    <t>F_KillEmAll</t>
-  </si>
-  <si>
-    <t>Gunslinger(P)</t>
-  </si>
-  <si>
-    <t>Gunny</t>
-  </si>
-  <si>
-    <t>WOTC_MRC_Gunslinger (DP_DualPistols, WOTC_APA_RunAndGun)</t>
-  </si>
-  <si>
-    <t>Pistol_CV_Primary</t>
-  </si>
-  <si>
-    <t>DP_TrickShot</t>
-  </si>
-  <si>
-    <t>DP_BulletTime</t>
-  </si>
-  <si>
-    <t>WOTC_APA_DeepReserves</t>
-  </si>
-  <si>
-    <t>WOTC_APA_KillerInstinct</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Skirmisher</t>
-  </si>
-  <si>
-    <t>DP_Checkmate</t>
-  </si>
-  <si>
-    <t>Rifleman(S)</t>
-  </si>
-  <si>
-    <t>BInfantry</t>
-  </si>
-  <si>
-    <t>LW2WotC_WalkFire</t>
-  </si>
-  <si>
-    <t>F_Momentum</t>
-  </si>
-  <si>
-    <t>HailOfBullets</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Aggression</t>
-  </si>
-  <si>
-    <t>LW2WotC_TraverseFire</t>
-  </si>
-  <si>
-    <t>BulletShred</t>
-  </si>
-  <si>
-    <t>LW2WotC_AlphaMikeFoxtrot</t>
-  </si>
-  <si>
-    <t>WOTC_APA_OnTarget</t>
-  </si>
-  <si>
-    <t>CInfantry</t>
-  </si>
-  <si>
-    <t>CombatKnife_CV</t>
-  </si>
-  <si>
-    <t>Sentry(S)</t>
-  </si>
-  <si>
-    <t>Vanguard(S)</t>
-  </si>
-  <si>
-    <t>VektorRifle_CV</t>
-  </si>
-  <si>
-    <t>ASentry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes: Add Sharpshooter Compatible Sentry; Maybe add T or S level Marksman that is even More Snipery; Change Internal Names; Check All abilities for compatibilities; Check Ability Edits; Probably give Quickset Bipod back to SharpShooter; maybe Vanguard should be a Primary with Reaper like abilities, and The S tier should be renamed but otherwise mostly stay the same. </t>
-  </si>
-  <si>
-    <t>ASharpshooter</t>
-  </si>
-  <si>
-    <t>WOTC_APA_PrecisionTargeting (WOTC_APA_QuicksetBipod, WOTC_APA_WeaponSpecialist)</t>
-  </si>
-  <si>
-    <t>Vanguard(P)</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Shadow (WOTC_APA_Fade)</t>
-  </si>
-  <si>
-    <t>WOTC_APA_SilentKiller</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Vanish</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Haunt</t>
-  </si>
-  <si>
-    <t>WOTC_APA_PreciseStrike</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Hound</t>
-  </si>
-  <si>
-    <t>Deadeye</t>
-  </si>
-  <si>
-    <t>WOTC_APA_SteadyHands</t>
-  </si>
-  <si>
-    <t>AVanguard</t>
+    <t>AGunner</t>
+  </si>
+  <si>
+    <t>AInfantry</t>
+  </si>
+  <si>
+    <t>ASentinel</t>
+  </si>
+  <si>
+    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_SilentMotors)</t>
+  </si>
+  <si>
+    <t>Shinobi(P)</t>
+  </si>
+  <si>
+    <t>AShadow</t>
+  </si>
+  <si>
+    <t>Sword_CV_Primary</t>
+  </si>
+  <si>
+    <t>WOTC_Wandering_Eye (IRI_Rider_Intercept,  IRI_Windcaller_Passive)</t>
+  </si>
+  <si>
+    <t>ShadowOps_Stalker</t>
+  </si>
+  <si>
+    <t>WOTC_APA_HitAndRun</t>
+  </si>
+  <si>
+    <t>ShadowOps_Lightfoot</t>
+  </si>
+  <si>
+    <t>ShadowOps_Tracking</t>
+  </si>
+  <si>
+    <t>ShadowOps_ECM</t>
+  </si>
+  <si>
+    <t>ShadowOps_Vanish</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>Samurai(P)</t>
+  </si>
+  <si>
+    <t>BSammi</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Brawl (IRI_Rider_Intercept, Shinigami, Unstoppable)</t>
+  </si>
+  <si>
+    <t>SamuraiCutthroat</t>
+  </si>
+  <si>
+    <t>DangerSense</t>
+  </si>
+  <si>
+    <t>Bladestorm</t>
+  </si>
+  <si>
+    <t>SwordThrust</t>
+  </si>
+  <si>
+    <t>Yamabushi</t>
+  </si>
+  <si>
+    <t>SamuraiCoupDeGrace</t>
+  </si>
+  <si>
+    <t>WhirlwindStrike</t>
+  </si>
+  <si>
+    <t>Commando(S)</t>
+  </si>
+  <si>
+    <t>Aarnold</t>
+  </si>
+  <si>
+    <t>SlashAndDashRS (KnifeFighter)</t>
+  </si>
+  <si>
+    <t>DisarmingStrike</t>
+  </si>
+  <si>
+    <t>Lacerate</t>
+  </si>
+  <si>
+    <t>Hamstring</t>
+  </si>
+  <si>
+    <t>Shadowmelt</t>
+  </si>
+  <si>
+    <t>MZLightningKnife</t>
+  </si>
+  <si>
+    <t>F_Finesse</t>
+  </si>
+  <si>
+    <t>LW2WotC_Fleche</t>
   </si>
 </sst>
 </file>
@@ -671,13 +782,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -685,6 +789,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,7 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="3" tint="0.89996032593768116"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -775,10 +886,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -796,13 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -811,10 +916,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,16 +1277,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="21.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="6" customWidth="1"/>
@@ -1195,7 +1316,7 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
@@ -1212,11 +1333,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1229,11 +1350,11 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -1265,38 +1386,38 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>70</v>
+      <c r="B5" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1314,11 +1435,11 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1331,11 +1452,11 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
@@ -1367,38 +1488,38 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>81</v>
+      <c r="B9" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1415,38 +1536,38 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>114</v>
+      <c r="B11" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1464,11 +1585,11 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1481,11 +1602,11 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>2</v>
@@ -1517,38 +1638,38 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>91</v>
+      <c r="B15" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1565,8 +1686,8 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>143</v>
+      <c r="B17" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1583,38 +1704,38 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>154</v>
+      <c r="B19" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1632,11 +1753,11 @@
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1649,11 +1770,11 @@
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
@@ -1685,42 +1806,42 @@
       <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1733,42 +1854,42 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>183</v>
+      <c r="B25" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1780,43 +1901,43 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>177</v>
+    <row r="27" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>25</v>
+        <v>188</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1828,43 +1949,43 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
-        <v>177</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1873,855 +1994,966 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>176</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="J33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="J63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="5" t="s">
+      <c r="L63" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B67" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="23"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="14"/>
-    </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="J69" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" s="6" t="s">
+      <c r="L69" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-    </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-    </row>
-    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-    </row>
-    <row r="65" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-    </row>
-    <row r="67" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-    </row>
-    <row r="68" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-    </row>
-    <row r="69" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-    </row>
-    <row r="70" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="16"/>
+    </row>
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="23"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="23"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -2733,8 +2965,8 @@
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="16"/>
+    <row r="72" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="23"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -2746,8 +2978,8 @@
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="16"/>
+    <row r="73" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="23"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
@@ -2759,8 +2991,8 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="16"/>
+    <row r="74" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="23"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -2772,8 +3004,8 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="16"/>
+    <row r="75" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="23"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -2785,8 +3017,8 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="16"/>
+    <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="23"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -2798,8 +3030,8 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="16"/>
+    <row r="77" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="23"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -2811,8 +3043,8 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="16"/>
+    <row r="78" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="23"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -2824,8 +3056,8 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="16"/>
+    <row r="79" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="23"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -2837,8 +3069,8 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="16"/>
+    <row r="80" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="23"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -2851,7 +3083,7 @@
       <c r="L80" s="16"/>
     </row>
     <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="16"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -2864,7 +3096,7 @@
       <c r="L81" s="16"/>
     </row>
     <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="16"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -2877,7 +3109,7 @@
       <c r="L82" s="16"/>
     </row>
     <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="16"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -2890,7 +3122,7 @@
       <c r="L83" s="16"/>
     </row>
     <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="16"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -2903,7 +3135,7 @@
       <c r="L84" s="16"/>
     </row>
     <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="16"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -2916,7 +3148,7 @@
       <c r="L85" s="16"/>
     </row>
     <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="16"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -2929,7 +3161,7 @@
       <c r="L86" s="16"/>
     </row>
     <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="16"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -2942,7 +3174,7 @@
       <c r="L87" s="16"/>
     </row>
     <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="16"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -2955,7 +3187,7 @@
       <c r="L88" s="16"/>
     </row>
     <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="16"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -2968,7 +3200,7 @@
       <c r="L89" s="16"/>
     </row>
     <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="16"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -2981,7 +3213,7 @@
       <c r="L90" s="16"/>
     </row>
     <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="16"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -2994,7 +3226,7 @@
       <c r="L91" s="16"/>
     </row>
     <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="16"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3007,7 +3239,7 @@
       <c r="L92" s="16"/>
     </row>
     <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="16"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3020,7 +3252,7 @@
       <c r="L93" s="16"/>
     </row>
     <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="16"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3033,7 +3265,7 @@
       <c r="L94" s="16"/>
     </row>
     <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="16"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -3046,7 +3278,7 @@
       <c r="L95" s="16"/>
     </row>
     <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="16"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3059,7 +3291,7 @@
       <c r="L96" s="16"/>
     </row>
     <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="16"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3072,7 +3304,7 @@
       <c r="L97" s="16"/>
     </row>
     <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="16"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -3085,7 +3317,7 @@
       <c r="L98" s="16"/>
     </row>
     <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="16"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -3098,7 +3330,7 @@
       <c r="L99" s="16"/>
     </row>
     <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="16"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -3111,7 +3343,7 @@
       <c r="L100" s="16"/>
     </row>
     <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="16"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -3124,7 +3356,7 @@
       <c r="L101" s="16"/>
     </row>
     <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="16"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -3137,7 +3369,7 @@
       <c r="L102" s="16"/>
     </row>
     <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="16"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -3150,7 +3382,7 @@
       <c r="L103" s="16"/>
     </row>
     <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="16"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -3163,7 +3395,7 @@
       <c r="L104" s="16"/>
     </row>
     <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="16"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3176,7 +3408,7 @@
       <c r="L105" s="16"/>
     </row>
     <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="16"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3189,7 +3421,7 @@
       <c r="L106" s="16"/>
     </row>
     <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="16"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3202,7 +3434,7 @@
       <c r="L107" s="16"/>
     </row>
     <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="16"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -3215,7 +3447,7 @@
       <c r="L108" s="16"/>
     </row>
     <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="16"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -3228,7 +3460,7 @@
       <c r="L109" s="16"/>
     </row>
     <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="16"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3241,7 +3473,7 @@
       <c r="L110" s="16"/>
     </row>
     <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="16"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -3254,7 +3486,7 @@
       <c r="L111" s="16"/>
     </row>
     <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="16"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -3267,7 +3499,7 @@
       <c r="L112" s="16"/>
     </row>
     <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="16"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -3280,7 +3512,7 @@
       <c r="L113" s="16"/>
     </row>
     <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="16"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -3293,7 +3525,7 @@
       <c r="L114" s="16"/>
     </row>
     <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="16"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -3306,7 +3538,7 @@
       <c r="L115" s="16"/>
     </row>
     <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="16"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -3319,7 +3551,7 @@
       <c r="L116" s="16"/>
     </row>
     <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="16"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -3332,7 +3564,7 @@
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="16"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -3345,7 +3577,7 @@
       <c r="L118" s="16"/>
     </row>
     <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="16"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -3358,7 +3590,7 @@
       <c r="L119" s="16"/>
     </row>
     <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="16"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
@@ -3371,7 +3603,7 @@
       <c r="L120" s="16"/>
     </row>
     <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="16"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -3384,7 +3616,7 @@
       <c r="L121" s="16"/>
     </row>
     <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="16"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -3397,7 +3629,7 @@
       <c r="L122" s="16"/>
     </row>
     <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="16"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -3410,7 +3642,7 @@
       <c r="L123" s="16"/>
     </row>
     <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="16"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -3423,7 +3655,7 @@
       <c r="L124" s="16"/>
     </row>
     <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="16"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
@@ -3436,7 +3668,7 @@
       <c r="L125" s="16"/>
     </row>
     <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="16"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -3449,7 +3681,7 @@
       <c r="L126" s="16"/>
     </row>
     <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="16"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -3462,7 +3694,7 @@
       <c r="L127" s="16"/>
     </row>
     <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="16"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -3475,7 +3707,7 @@
       <c r="L128" s="16"/>
     </row>
     <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="16"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -3488,7 +3720,7 @@
       <c r="L129" s="16"/>
     </row>
     <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="16"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3501,7 +3733,7 @@
       <c r="L130" s="16"/>
     </row>
     <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="16"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -3514,7 +3746,7 @@
       <c r="L131" s="16"/>
     </row>
     <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="16"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -3527,7 +3759,7 @@
       <c r="L132" s="16"/>
     </row>
     <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="16"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -3540,7 +3772,7 @@
       <c r="L133" s="16"/>
     </row>
     <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="16"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -3553,7 +3785,7 @@
       <c r="L134" s="16"/>
     </row>
     <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="16"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
@@ -3566,7 +3798,7 @@
       <c r="L135" s="16"/>
     </row>
     <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="16"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -3579,7 +3811,7 @@
       <c r="L136" s="16"/>
     </row>
     <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="16"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -3592,7 +3824,7 @@
       <c r="L137" s="16"/>
     </row>
     <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="16"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -3605,7 +3837,7 @@
       <c r="L138" s="16"/>
     </row>
     <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="16"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -3618,7 +3850,7 @@
       <c r="L139" s="16"/>
     </row>
     <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="16"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -3631,7 +3863,7 @@
       <c r="L140" s="16"/>
     </row>
     <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="16"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
@@ -3644,7 +3876,7 @@
       <c r="L141" s="16"/>
     </row>
     <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="16"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -3657,7 +3889,7 @@
       <c r="L142" s="16"/>
     </row>
     <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="16"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
@@ -3670,7 +3902,7 @@
       <c r="L143" s="16"/>
     </row>
     <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="16"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
@@ -3683,7 +3915,7 @@
       <c r="L144" s="16"/>
     </row>
     <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="16"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
@@ -3696,7 +3928,7 @@
       <c r="L145" s="16"/>
     </row>
     <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="16"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
@@ -3709,7 +3941,7 @@
       <c r="L146" s="16"/>
     </row>
     <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="16"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
@@ -3722,7 +3954,7 @@
       <c r="L147" s="16"/>
     </row>
     <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="16"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
@@ -3735,7 +3967,7 @@
       <c r="L148" s="16"/>
     </row>
     <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="16"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
@@ -3748,7 +3980,7 @@
       <c r="L149" s="16"/>
     </row>
     <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="16"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
@@ -3761,7 +3993,7 @@
       <c r="L150" s="16"/>
     </row>
     <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="16"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -3774,7 +4006,7 @@
       <c r="L151" s="16"/>
     </row>
     <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="16"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -3787,7 +4019,7 @@
       <c r="L152" s="16"/>
     </row>
     <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="16"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
@@ -3800,7 +4032,7 @@
       <c r="L153" s="16"/>
     </row>
     <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="16"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -3813,7 +4045,7 @@
       <c r="L154" s="16"/>
     </row>
     <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="16"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -3826,7 +4058,7 @@
       <c r="L155" s="16"/>
     </row>
     <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="16"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -3839,7 +4071,7 @@
       <c r="L156" s="16"/>
     </row>
     <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="16"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
@@ -3852,7 +4084,7 @@
       <c r="L157" s="16"/>
     </row>
     <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="16"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
@@ -3865,7 +4097,7 @@
       <c r="L158" s="16"/>
     </row>
     <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="16"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
@@ -3878,7 +4110,7 @@
       <c r="L159" s="16"/>
     </row>
     <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="16"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -3891,7 +4123,7 @@
       <c r="L160" s="16"/>
     </row>
     <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="16"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -3904,7 +4136,7 @@
       <c r="L161" s="16"/>
     </row>
     <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="16"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
@@ -3917,7 +4149,7 @@
       <c r="L162" s="16"/>
     </row>
     <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="16"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
@@ -3930,7 +4162,7 @@
       <c r="L163" s="16"/>
     </row>
     <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="16"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
@@ -3943,7 +4175,7 @@
       <c r="L164" s="16"/>
     </row>
     <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="16"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
@@ -3956,7 +4188,7 @@
       <c r="L165" s="16"/>
     </row>
     <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="16"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
@@ -3969,7 +4201,7 @@
       <c r="L166" s="16"/>
     </row>
     <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="16"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -3982,7 +4214,7 @@
       <c r="L167" s="16"/>
     </row>
     <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="16"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
@@ -3995,7 +4227,7 @@
       <c r="L168" s="16"/>
     </row>
     <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="16"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
@@ -4008,7 +4240,7 @@
       <c r="L169" s="16"/>
     </row>
     <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="16"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
@@ -4021,7 +4253,7 @@
       <c r="L170" s="16"/>
     </row>
     <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="16"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
@@ -4034,7 +4266,7 @@
       <c r="L171" s="16"/>
     </row>
     <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="16"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
@@ -4047,7 +4279,7 @@
       <c r="L172" s="16"/>
     </row>
     <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="16"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
@@ -4060,7 +4292,7 @@
       <c r="L173" s="16"/>
     </row>
     <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="16"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
@@ -4073,7 +4305,7 @@
       <c r="L174" s="16"/>
     </row>
     <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="16"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
@@ -4086,7 +4318,7 @@
       <c r="L175" s="16"/>
     </row>
     <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="16"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -4099,7 +4331,7 @@
       <c r="L176" s="16"/>
     </row>
     <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="16"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -4112,7 +4344,7 @@
       <c r="L177" s="16"/>
     </row>
     <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="16"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
@@ -4125,7 +4357,7 @@
       <c r="L178" s="16"/>
     </row>
     <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="16"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -4138,7 +4370,7 @@
       <c r="L179" s="16"/>
     </row>
     <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="16"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -4151,7 +4383,7 @@
       <c r="L180" s="16"/>
     </row>
     <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="16"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -4164,7 +4396,7 @@
       <c r="L181" s="16"/>
     </row>
     <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="16"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -4177,7 +4409,7 @@
       <c r="L182" s="16"/>
     </row>
     <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="16"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -4190,7 +4422,7 @@
       <c r="L183" s="16"/>
     </row>
     <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="16"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -4203,7 +4435,7 @@
       <c r="L184" s="16"/>
     </row>
     <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="16"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -4216,7 +4448,7 @@
       <c r="L185" s="16"/>
     </row>
     <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="16"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -4229,7 +4461,7 @@
       <c r="L186" s="16"/>
     </row>
     <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="16"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -4242,7 +4474,7 @@
       <c r="L187" s="16"/>
     </row>
     <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="16"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -4255,7 +4487,7 @@
       <c r="L188" s="16"/>
     </row>
     <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="16"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -4268,7 +4500,7 @@
       <c r="L189" s="16"/>
     </row>
     <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="16"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -4281,7 +4513,7 @@
       <c r="L190" s="16"/>
     </row>
     <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="16"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -4294,7 +4526,7 @@
       <c r="L191" s="16"/>
     </row>
     <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="16"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -4307,7 +4539,7 @@
       <c r="L192" s="16"/>
     </row>
     <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="16"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
@@ -4320,7 +4552,7 @@
       <c r="L193" s="16"/>
     </row>
     <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="16"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
@@ -4333,7 +4565,7 @@
       <c r="L194" s="16"/>
     </row>
     <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="16"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
@@ -4346,7 +4578,7 @@
       <c r="L195" s="16"/>
     </row>
     <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="16"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
@@ -4359,7 +4591,7 @@
       <c r="L196" s="16"/>
     </row>
     <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="16"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
@@ -4372,7 +4604,7 @@
       <c r="L197" s="16"/>
     </row>
     <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="16"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
@@ -4385,7 +4617,7 @@
       <c r="L198" s="16"/>
     </row>
     <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="16"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
@@ -4398,7 +4630,7 @@
       <c r="L199" s="16"/>
     </row>
     <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="16"/>
+      <c r="B200" s="23"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
@@ -4411,7 +4643,7 @@
       <c r="L200" s="16"/>
     </row>
     <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="16"/>
+      <c r="B201" s="23"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
@@ -4424,7 +4656,7 @@
       <c r="L201" s="16"/>
     </row>
     <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="16"/>
+      <c r="B202" s="23"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
@@ -4437,7 +4669,7 @@
       <c r="L202" s="16"/>
     </row>
     <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="16"/>
+      <c r="B203" s="23"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
@@ -4450,7 +4682,7 @@
       <c r="L203" s="16"/>
     </row>
     <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="16"/>
+      <c r="B204" s="23"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
@@ -4463,7 +4695,7 @@
       <c r="L204" s="16"/>
     </row>
     <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="16"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
@@ -4476,7 +4708,7 @@
       <c r="L205" s="16"/>
     </row>
     <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="16"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
@@ -4489,7 +4721,7 @@
       <c r="L206" s="16"/>
     </row>
     <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="16"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
@@ -4502,7 +4734,7 @@
       <c r="L207" s="16"/>
     </row>
     <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="16"/>
+      <c r="B208" s="23"/>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
@@ -4515,7 +4747,7 @@
       <c r="L208" s="16"/>
     </row>
     <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="16"/>
+      <c r="B209" s="23"/>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
@@ -4528,7 +4760,7 @@
       <c r="L209" s="16"/>
     </row>
     <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="16"/>
+      <c r="B210" s="23"/>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
@@ -4541,7 +4773,7 @@
       <c r="L210" s="16"/>
     </row>
     <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="16"/>
+      <c r="B211" s="23"/>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
@@ -4554,7 +4786,7 @@
       <c r="L211" s="16"/>
     </row>
     <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="16"/>
+      <c r="B212" s="23"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
@@ -4567,7 +4799,7 @@
       <c r="L212" s="16"/>
     </row>
     <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="16"/>
+      <c r="B213" s="23"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
@@ -4580,7 +4812,7 @@
       <c r="L213" s="16"/>
     </row>
     <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="16"/>
+      <c r="B214" s="23"/>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
@@ -4593,7 +4825,7 @@
       <c r="L214" s="16"/>
     </row>
     <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="16"/>
+      <c r="B215" s="23"/>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
@@ -4606,7 +4838,7 @@
       <c r="L215" s="16"/>
     </row>
     <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="16"/>
+      <c r="B216" s="23"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
@@ -4619,7 +4851,7 @@
       <c r="L216" s="16"/>
     </row>
     <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="16"/>
+      <c r="B217" s="23"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
@@ -4632,7 +4864,7 @@
       <c r="L217" s="16"/>
     </row>
     <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="16"/>
+      <c r="B218" s="23"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
@@ -4645,7 +4877,7 @@
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="16"/>
+      <c r="B219" s="23"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
@@ -4658,7 +4890,7 @@
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="16"/>
+      <c r="B220" s="23"/>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
@@ -4671,7 +4903,7 @@
       <c r="L220" s="16"/>
     </row>
     <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="16"/>
+      <c r="B221" s="23"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
@@ -4684,7 +4916,7 @@
       <c r="L221" s="16"/>
     </row>
     <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="16"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
@@ -4697,7 +4929,7 @@
       <c r="L222" s="16"/>
     </row>
     <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="16"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
@@ -4710,7 +4942,7 @@
       <c r="L223" s="16"/>
     </row>
     <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="16"/>
+      <c r="B224" s="23"/>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -4723,7 +4955,7 @@
       <c r="L224" s="16"/>
     </row>
     <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="16"/>
+      <c r="B225" s="23"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
@@ -4736,7 +4968,7 @@
       <c r="L225" s="16"/>
     </row>
     <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="16"/>
+      <c r="B226" s="23"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
@@ -4749,7 +4981,7 @@
       <c r="L226" s="16"/>
     </row>
     <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="16"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
@@ -4762,7 +4994,7 @@
       <c r="L227" s="16"/>
     </row>
     <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="16"/>
+      <c r="B228" s="23"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
@@ -4775,7 +5007,7 @@
       <c r="L228" s="16"/>
     </row>
     <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="16"/>
+      <c r="B229" s="23"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
@@ -4788,7 +5020,7 @@
       <c r="L229" s="16"/>
     </row>
     <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="16"/>
+      <c r="B230" s="23"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
@@ -4801,7 +5033,7 @@
       <c r="L230" s="16"/>
     </row>
     <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="16"/>
+      <c r="B231" s="23"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
@@ -4814,7 +5046,7 @@
       <c r="L231" s="16"/>
     </row>
     <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="16"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
@@ -4827,7 +5059,7 @@
       <c r="L232" s="16"/>
     </row>
     <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="16"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
@@ -4840,7 +5072,7 @@
       <c r="L233" s="16"/>
     </row>
     <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="16"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
@@ -4853,7 +5085,7 @@
       <c r="L234" s="16"/>
     </row>
     <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="16"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
@@ -4866,7 +5098,7 @@
       <c r="L235" s="16"/>
     </row>
     <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="16"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
@@ -4879,7 +5111,7 @@
       <c r="L236" s="16"/>
     </row>
     <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="16"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
@@ -4892,7 +5124,7 @@
       <c r="L237" s="16"/>
     </row>
     <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="16"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
@@ -4905,7 +5137,7 @@
       <c r="L238" s="16"/>
     </row>
     <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="16"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
@@ -4918,7 +5150,7 @@
       <c r="L239" s="16"/>
     </row>
     <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="16"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
@@ -4931,7 +5163,7 @@
       <c r="L240" s="16"/>
     </row>
     <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="16"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
@@ -4944,7 +5176,7 @@
       <c r="L241" s="16"/>
     </row>
     <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="16"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
@@ -4957,7 +5189,7 @@
       <c r="L242" s="16"/>
     </row>
     <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="16"/>
+      <c r="B243" s="23"/>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
@@ -4970,7 +5202,7 @@
       <c r="L243" s="16"/>
     </row>
     <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="16"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
@@ -4983,7 +5215,7 @@
       <c r="L244" s="16"/>
     </row>
     <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="16"/>
+      <c r="B245" s="23"/>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
@@ -4996,7 +5228,7 @@
       <c r="L245" s="16"/>
     </row>
     <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="16"/>
+      <c r="B246" s="23"/>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -5009,7 +5241,7 @@
       <c r="L246" s="16"/>
     </row>
     <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="16"/>
+      <c r="B247" s="23"/>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
@@ -5022,7 +5254,7 @@
       <c r="L247" s="16"/>
     </row>
     <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="16"/>
+      <c r="B248" s="23"/>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
@@ -5035,7 +5267,7 @@
       <c r="L248" s="16"/>
     </row>
     <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="16"/>
+      <c r="B249" s="23"/>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
@@ -5048,7 +5280,7 @@
       <c r="L249" s="16"/>
     </row>
     <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="16"/>
+      <c r="B250" s="23"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
@@ -5061,7 +5293,7 @@
       <c r="L250" s="16"/>
     </row>
     <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="16"/>
+      <c r="B251" s="23"/>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
@@ -5074,7 +5306,7 @@
       <c r="L251" s="16"/>
     </row>
     <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="16"/>
+      <c r="B252" s="23"/>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
@@ -5087,7 +5319,7 @@
       <c r="L252" s="16"/>
     </row>
     <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="16"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
@@ -5100,7 +5332,7 @@
       <c r="L253" s="16"/>
     </row>
     <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="16"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
@@ -5113,7 +5345,7 @@
       <c r="L254" s="16"/>
     </row>
     <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="16"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
@@ -5126,7 +5358,7 @@
       <c r="L255" s="16"/>
     </row>
     <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="16"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
@@ -5139,7 +5371,7 @@
       <c r="L256" s="16"/>
     </row>
     <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="16"/>
+      <c r="B257" s="23"/>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
@@ -5152,7 +5384,7 @@
       <c r="L257" s="16"/>
     </row>
     <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="16"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
@@ -5165,7 +5397,7 @@
       <c r="L258" s="16"/>
     </row>
     <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="16"/>
+      <c r="B259" s="23"/>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
@@ -5178,7 +5410,7 @@
       <c r="L259" s="16"/>
     </row>
     <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="16"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
@@ -5191,7 +5423,7 @@
       <c r="L260" s="16"/>
     </row>
     <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="16"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
@@ -5204,7 +5436,7 @@
       <c r="L261" s="16"/>
     </row>
     <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="16"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
@@ -5217,7 +5449,7 @@
       <c r="L262" s="16"/>
     </row>
     <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="16"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
@@ -5230,7 +5462,7 @@
       <c r="L263" s="16"/>
     </row>
     <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="16"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
@@ -5243,7 +5475,7 @@
       <c r="L264" s="16"/>
     </row>
     <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="16"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
@@ -5256,7 +5488,7 @@
       <c r="L265" s="16"/>
     </row>
     <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="16"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
@@ -5269,7 +5501,7 @@
       <c r="L266" s="16"/>
     </row>
     <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="16"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
@@ -5282,7 +5514,7 @@
       <c r="L267" s="16"/>
     </row>
     <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="16"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
@@ -5295,7 +5527,7 @@
       <c r="L268" s="16"/>
     </row>
     <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="16"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
@@ -5308,7 +5540,7 @@
       <c r="L269" s="16"/>
     </row>
     <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="16"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
@@ -5321,7 +5553,7 @@
       <c r="L270" s="16"/>
     </row>
     <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="16"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
@@ -5334,7 +5566,7 @@
       <c r="L271" s="16"/>
     </row>
     <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="16"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
@@ -5347,7 +5579,7 @@
       <c r="L272" s="16"/>
     </row>
     <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="16"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
@@ -5360,7 +5592,7 @@
       <c r="L273" s="16"/>
     </row>
     <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="16"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
@@ -5373,7 +5605,7 @@
       <c r="L274" s="16"/>
     </row>
     <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="16"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
@@ -5386,7 +5618,7 @@
       <c r="L275" s="16"/>
     </row>
     <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="16"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
@@ -5399,7 +5631,7 @@
       <c r="L276" s="16"/>
     </row>
     <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="16"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
@@ -5412,7 +5644,7 @@
       <c r="L277" s="16"/>
     </row>
     <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="16"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
@@ -5425,7 +5657,7 @@
       <c r="L278" s="16"/>
     </row>
     <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="16"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
@@ -5438,7 +5670,7 @@
       <c r="L279" s="16"/>
     </row>
     <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="16"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
@@ -5451,7 +5683,7 @@
       <c r="L280" s="16"/>
     </row>
     <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="16"/>
+      <c r="B281" s="23"/>
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
@@ -5464,7 +5696,7 @@
       <c r="L281" s="16"/>
     </row>
     <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="16"/>
+      <c r="B282" s="23"/>
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
@@ -5477,7 +5709,7 @@
       <c r="L282" s="16"/>
     </row>
     <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="16"/>
+      <c r="B283" s="23"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
@@ -5490,7 +5722,7 @@
       <c r="L283" s="16"/>
     </row>
     <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="16"/>
+      <c r="B284" s="23"/>
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
@@ -5503,7 +5735,7 @@
       <c r="L284" s="16"/>
     </row>
     <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="16"/>
+      <c r="B285" s="23"/>
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
@@ -5516,7 +5748,7 @@
       <c r="L285" s="16"/>
     </row>
     <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="16"/>
+      <c r="B286" s="23"/>
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
@@ -5529,7 +5761,7 @@
       <c r="L286" s="16"/>
     </row>
     <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="16"/>
+      <c r="B287" s="23"/>
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
@@ -5542,7 +5774,7 @@
       <c r="L287" s="16"/>
     </row>
     <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="16"/>
+      <c r="B288" s="23"/>
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
@@ -5555,7 +5787,7 @@
       <c r="L288" s="16"/>
     </row>
     <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="16"/>
+      <c r="B289" s="23"/>
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
@@ -5568,7 +5800,7 @@
       <c r="L289" s="16"/>
     </row>
     <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="16"/>
+      <c r="B290" s="23"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
@@ -5581,7 +5813,7 @@
       <c r="L290" s="16"/>
     </row>
     <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="16"/>
+      <c r="B291" s="23"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
@@ -5594,7 +5826,7 @@
       <c r="L291" s="16"/>
     </row>
     <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="16"/>
+      <c r="B292" s="23"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
@@ -5607,7 +5839,7 @@
       <c r="L292" s="16"/>
     </row>
     <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="16"/>
+      <c r="B293" s="23"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
@@ -5620,7 +5852,7 @@
       <c r="L293" s="16"/>
     </row>
     <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="16"/>
+      <c r="B294" s="23"/>
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
@@ -5633,7 +5865,7 @@
       <c r="L294" s="16"/>
     </row>
     <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="16"/>
+      <c r="B295" s="23"/>
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
@@ -5646,7 +5878,7 @@
       <c r="L295" s="16"/>
     </row>
     <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="16"/>
+      <c r="B296" s="23"/>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
@@ -5659,7 +5891,7 @@
       <c r="L296" s="16"/>
     </row>
     <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="16"/>
+      <c r="B297" s="23"/>
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
@@ -5672,7 +5904,7 @@
       <c r="L297" s="16"/>
     </row>
     <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="16"/>
+      <c r="B298" s="23"/>
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
@@ -5685,7 +5917,7 @@
       <c r="L298" s="16"/>
     </row>
     <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="16"/>
+      <c r="B299" s="23"/>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
@@ -5698,7 +5930,7 @@
       <c r="L299" s="16"/>
     </row>
     <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="16"/>
+      <c r="B300" s="23"/>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
@@ -5711,7 +5943,7 @@
       <c r="L300" s="16"/>
     </row>
     <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="16"/>
+      <c r="B301" s="23"/>
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
@@ -5724,7 +5956,7 @@
       <c r="L301" s="16"/>
     </row>
     <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="16"/>
+      <c r="B302" s="23"/>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
@@ -5737,7 +5969,7 @@
       <c r="L302" s="16"/>
     </row>
     <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="16"/>
+      <c r="B303" s="23"/>
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
@@ -5750,7 +5982,7 @@
       <c r="L303" s="16"/>
     </row>
     <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="16"/>
+      <c r="B304" s="23"/>
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
@@ -5763,7 +5995,7 @@
       <c r="L304" s="16"/>
     </row>
     <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="16"/>
+      <c r="B305" s="23"/>
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
@@ -5776,7 +6008,7 @@
       <c r="L305" s="16"/>
     </row>
     <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="16"/>
+      <c r="B306" s="23"/>
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
@@ -5789,7 +6021,7 @@
       <c r="L306" s="16"/>
     </row>
     <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="16"/>
+      <c r="B307" s="23"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
@@ -5802,7 +6034,7 @@
       <c r="L307" s="16"/>
     </row>
     <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="16"/>
+      <c r="B308" s="23"/>
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
@@ -5815,7 +6047,7 @@
       <c r="L308" s="16"/>
     </row>
     <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="16"/>
+      <c r="B309" s="23"/>
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
@@ -5828,7 +6060,7 @@
       <c r="L309" s="16"/>
     </row>
     <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="16"/>
+      <c r="B310" s="23"/>
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>
@@ -5841,7 +6073,7 @@
       <c r="L310" s="16"/>
     </row>
     <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="16"/>
+      <c r="B311" s="23"/>
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="E311" s="16"/>
@@ -5854,7 +6086,7 @@
       <c r="L311" s="16"/>
     </row>
     <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="16"/>
+      <c r="B312" s="23"/>
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
       <c r="E312" s="16"/>
@@ -5867,7 +6099,7 @@
       <c r="L312" s="16"/>
     </row>
     <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="16"/>
+      <c r="B313" s="23"/>
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="E313" s="16"/>
@@ -5880,7 +6112,7 @@
       <c r="L313" s="16"/>
     </row>
     <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="16"/>
+      <c r="B314" s="23"/>
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
@@ -5893,7 +6125,7 @@
       <c r="L314" s="16"/>
     </row>
     <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="16"/>
+      <c r="B315" s="23"/>
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="E315" s="16"/>
@@ -5906,7 +6138,7 @@
       <c r="L315" s="16"/>
     </row>
     <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="16"/>
+      <c r="B316" s="23"/>
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
@@ -5919,7 +6151,7 @@
       <c r="L316" s="16"/>
     </row>
     <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="16"/>
+      <c r="B317" s="23"/>
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
@@ -5932,7 +6164,7 @@
       <c r="L317" s="16"/>
     </row>
     <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="16"/>
+      <c r="B318" s="23"/>
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
@@ -5945,7 +6177,7 @@
       <c r="L318" s="16"/>
     </row>
     <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="16"/>
+      <c r="B319" s="23"/>
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
       <c r="E319" s="16"/>
@@ -5958,7 +6190,7 @@
       <c r="L319" s="16"/>
     </row>
     <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="16"/>
+      <c r="B320" s="23"/>
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
       <c r="E320" s="16"/>
@@ -5971,7 +6203,7 @@
       <c r="L320" s="16"/>
     </row>
     <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="16"/>
+      <c r="B321" s="23"/>
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
       <c r="E321" s="16"/>
@@ -5984,7 +6216,7 @@
       <c r="L321" s="16"/>
     </row>
     <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="16"/>
+      <c r="B322" s="23"/>
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
       <c r="E322" s="16"/>
@@ -5997,7 +6229,7 @@
       <c r="L322" s="16"/>
     </row>
     <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="16"/>
+      <c r="B323" s="23"/>
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
@@ -6010,7 +6242,7 @@
       <c r="L323" s="16"/>
     </row>
     <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="16"/>
+      <c r="B324" s="23"/>
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
@@ -6022,17 +6254,134 @@
       <c r="K324" s="16"/>
       <c r="L324" s="16"/>
     </row>
+    <row r="325" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="23"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
+      <c r="H325" s="16"/>
+      <c r="I325" s="16"/>
+      <c r="J325" s="16"/>
+      <c r="K325" s="16"/>
+      <c r="L325" s="16"/>
+    </row>
+    <row r="326" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="23"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
+      <c r="H326" s="16"/>
+      <c r="I326" s="16"/>
+      <c r="J326" s="16"/>
+      <c r="K326" s="16"/>
+      <c r="L326" s="16"/>
+    </row>
+    <row r="327" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="23"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
+      <c r="H327" s="16"/>
+      <c r="I327" s="16"/>
+      <c r="J327" s="16"/>
+      <c r="K327" s="16"/>
+      <c r="L327" s="16"/>
+    </row>
+    <row r="328" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="23"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
+      <c r="H328" s="16"/>
+      <c r="I328" s="16"/>
+      <c r="J328" s="16"/>
+      <c r="K328" s="16"/>
+      <c r="L328" s="16"/>
+    </row>
+    <row r="329" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="23"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
+      <c r="H329" s="16"/>
+      <c r="I329" s="16"/>
+      <c r="J329" s="16"/>
+      <c r="K329" s="16"/>
+      <c r="L329" s="16"/>
+    </row>
+    <row r="330" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="23"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="16"/>
+      <c r="I330" s="16"/>
+      <c r="J330" s="16"/>
+      <c r="K330" s="16"/>
+      <c r="L330" s="16"/>
+    </row>
+    <row r="331" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="23"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
+      <c r="H331" s="16"/>
+      <c r="I331" s="16"/>
+      <c r="J331" s="16"/>
+      <c r="K331" s="16"/>
+      <c r="L331" s="16"/>
+    </row>
+    <row r="332" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="23"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+      <c r="H332" s="16"/>
+      <c r="I332" s="16"/>
+      <c r="J332" s="16"/>
+      <c r="K332" s="16"/>
+      <c r="L332" s="16"/>
+    </row>
+    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="23"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="16"/>
+      <c r="I333" s="16"/>
+      <c r="J333" s="16"/>
+      <c r="K333" s="16"/>
+      <c r="L333" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4ADC6-81A1-4B05-842F-4D22B0977E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFCCD80-F9A0-474D-B189-231CD1E60480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="241">
   <si>
     <t>Comparison</t>
   </si>
@@ -748,6 +748,39 @@
   </si>
   <si>
     <t>LW2WotC_Fleche</t>
+  </si>
+  <si>
+    <t>ShadowOps_Assassin</t>
+  </si>
+  <si>
+    <t>Fencer(S)</t>
+  </si>
+  <si>
+    <t>ABlademaster</t>
+  </si>
+  <si>
+    <t>WOTC_APA_HonedEdge</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Breakthrough</t>
+  </si>
+  <si>
+    <t>Combatives</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Relentless</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Ruthless</t>
+  </si>
+  <si>
+    <t>Reaper</t>
+  </si>
+  <si>
+    <t>BBlademaster</t>
+  </si>
+  <si>
+    <t>Sword_CV</t>
   </si>
 </sst>
 </file>
@@ -801,7 +834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +877,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -857,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,18 +955,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -934,7 +967,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1277,31 +1325,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="3" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="3"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1314,9 +1362,9 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
@@ -1331,13 +1379,13 @@
       <c r="L2" s="4"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1348,9 +1396,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1385,8 +1433,8 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1420,7 +1468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1433,13 +1481,13 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1450,9 +1498,9 @@
       <c r="L7" s="5"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1487,8 +1535,8 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1522,7 +1570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1535,8 +1583,8 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1570,7 +1618,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1583,13 +1631,13 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1600,9 +1648,9 @@
       <c r="L13" s="5"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1637,8 +1685,8 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1662,7 +1710,7 @@
       <c r="I15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="25" t="s">
         <v>87</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -1672,7 +1720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1685,12 +1733,12 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1703,8 +1751,8 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1738,7 +1786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1751,13 +1799,13 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1768,9 +1816,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1805,8 +1853,8 @@
       </c>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1840,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1853,8 +1901,8 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1888,7 +1936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1901,8 +1949,8 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1936,7 +1984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1949,8 +1997,8 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1977,14 +2025,14 @@
       <c r="J29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="26" t="s">
         <v>87</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1994,11 +2042,11 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2025,14 +2073,14 @@
       <c r="J31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="26" t="s">
         <v>87</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2045,8 +2093,8 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2061,7 +2109,7 @@
       <c r="F33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="6" t="s">
         <v>191</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -2080,7 +2128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2093,13 +2141,13 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2110,9 +2158,9 @@
       <c r="L35" s="5"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2147,8 +2195,8 @@
       </c>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23" t="s">
+    <row r="37" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2182,7 +2230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2195,10 +2243,10 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2211,13 +2259,13 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -2228,9 +2276,9 @@
       <c r="L41" s="5"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2265,8 +2313,8 @@
       </c>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
+    <row r="43" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -2300,7 +2348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2313,8 +2361,8 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
+    <row r="45" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
         <v>199</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -2332,6 +2380,9 @@
       <c r="G45" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="H45" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>205</v>
       </c>
@@ -2345,7 +2396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2358,13 +2409,13 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2375,9 +2426,9 @@
       <c r="L47" s="5"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2412,8 +2463,8 @@
       </c>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="21" t="s">
+    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2447,7 +2498,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2460,8 +2511,8 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -2495,7 +2546,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2508,96 +2559,90 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="21" t="s">
-        <v>133</v>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>138</v>
+        <v>236</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2610,90 +2655,96 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B57" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="6" t="s">
+    <row r="57" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2706,42 +2757,42 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="21" t="s">
-        <v>152</v>
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>157</v>
+        <v>43</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2754,42 +2805,42 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="21" t="s">
-        <v>37</v>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>30</v>
+        <v>154</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>32</v>
+        <v>156</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2802,97 +2853,91 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B67" s="23" t="s">
-        <v>114</v>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>118</v>
+        <v>38</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="23"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -2904,108 +2949,158 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="23" t="s">
+    <row r="69" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="19"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L69" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="23"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="23"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-    </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="23"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-    </row>
-    <row r="73" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="23"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-    </row>
-    <row r="74" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="23"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-    </row>
-    <row r="75" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="23"/>
+    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="19"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -3017,8 +3112,8 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="23"/>
+    <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -3030,8 +3125,8 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="23"/>
+    <row r="77" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="19"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -3043,8 +3138,8 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="23"/>
+    <row r="78" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="19"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -3056,8 +3151,8 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="23"/>
+    <row r="79" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -3069,8 +3164,8 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="23"/>
+    <row r="80" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -3082,8 +3177,8 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="23"/>
+    <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="19"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -3095,8 +3190,8 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="23"/>
+    <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="19"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -3108,8 +3203,8 @@
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="23"/>
+    <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="19"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -3121,8 +3216,8 @@
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="23"/>
+    <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="19"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -3134,8 +3229,8 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="23"/>
+    <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="19"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -3147,8 +3242,8 @@
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="23"/>
+    <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="19"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -3160,8 +3255,8 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="23"/>
+    <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="19"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -3173,8 +3268,8 @@
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="23"/>
+    <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="19"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
@@ -3186,8 +3281,8 @@
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="23"/>
+    <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="19"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
@@ -3199,8 +3294,8 @@
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="23"/>
+    <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="19"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -3212,8 +3307,8 @@
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="23"/>
+    <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="19"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -3225,8 +3320,8 @@
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="23"/>
+    <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="19"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
@@ -3238,8 +3333,8 @@
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="23"/>
+    <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="19"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -3251,8 +3346,8 @@
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="23"/>
+    <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="19"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -3264,8 +3359,8 @@
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="23"/>
+    <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="19"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -3277,8 +3372,8 @@
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="23"/>
+    <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="19"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -3290,8 +3385,8 @@
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="23"/>
+    <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="19"/>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -3303,8 +3398,8 @@
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="23"/>
+    <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="19"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -3316,8 +3411,8 @@
       <c r="K98" s="16"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="23"/>
+    <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="19"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -3329,8 +3424,8 @@
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
     </row>
-    <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="23"/>
+    <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19"/>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -3342,8 +3437,8 @@
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="23"/>
+    <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="19"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
@@ -3355,8 +3450,8 @@
       <c r="K101" s="16"/>
       <c r="L101" s="16"/>
     </row>
-    <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="23"/>
+    <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="19"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -3368,8 +3463,8 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
     </row>
-    <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="23"/>
+    <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="19"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
@@ -3381,8 +3476,8 @@
       <c r="K103" s="16"/>
       <c r="L103" s="16"/>
     </row>
-    <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="23"/>
+    <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="19"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -3394,8 +3489,8 @@
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
     </row>
-    <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="23"/>
+    <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="19"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
@@ -3407,8 +3502,8 @@
       <c r="K105" s="16"/>
       <c r="L105" s="16"/>
     </row>
-    <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="23"/>
+    <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="19"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3420,8 +3515,8 @@
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
     </row>
-    <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="23"/>
+    <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="19"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
@@ -3433,8 +3528,8 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="23"/>
+    <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -3446,8 +3541,8 @@
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
     </row>
-    <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="23"/>
+    <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="19"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -3459,8 +3554,8 @@
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="23"/>
+    <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="19"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3472,8 +3567,8 @@
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
     </row>
-    <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="23"/>
+    <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="19"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -3485,8 +3580,8 @@
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="23"/>
+    <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="19"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -3498,8 +3593,8 @@
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="23"/>
+    <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="19"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -3511,8 +3606,8 @@
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="23"/>
+    <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="19"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -3524,8 +3619,8 @@
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="23"/>
+    <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="19"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -3537,8 +3632,8 @@
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="23"/>
+    <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="19"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
@@ -3550,8 +3645,8 @@
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="23"/>
+    <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="19"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -3563,8 +3658,8 @@
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="23"/>
+    <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="19"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -3576,8 +3671,8 @@
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="23"/>
+    <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="19"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -3589,8 +3684,8 @@
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="23"/>
+    <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="19"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
@@ -3602,8 +3697,8 @@
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="23"/>
+    <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="19"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -3615,8 +3710,8 @@
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="23"/>
+    <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="19"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -3628,8 +3723,8 @@
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="23"/>
+    <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="19"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -3641,8 +3736,8 @@
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="23"/>
+    <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="19"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -3654,8 +3749,8 @@
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
     </row>
-    <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="23"/>
+    <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="19"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
@@ -3667,8 +3762,8 @@
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
     </row>
-    <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="23"/>
+    <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="19"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -3680,8 +3775,8 @@
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
     </row>
-    <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="23"/>
+    <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="19"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -3693,8 +3788,8 @@
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
     </row>
-    <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="23"/>
+    <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="19"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -3706,8 +3801,8 @@
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
     </row>
-    <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="23"/>
+    <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="19"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -3719,8 +3814,8 @@
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
     </row>
-    <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="23"/>
+    <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="19"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3732,8 +3827,8 @@
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
     </row>
-    <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="23"/>
+    <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="19"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -3745,8 +3840,8 @@
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
     </row>
-    <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="23"/>
+    <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="19"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -3758,8 +3853,8 @@
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
     </row>
-    <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="23"/>
+    <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="19"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -3771,8 +3866,8 @@
       <c r="K133" s="16"/>
       <c r="L133" s="16"/>
     </row>
-    <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="23"/>
+    <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="19"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -3784,8 +3879,8 @@
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
     </row>
-    <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="23"/>
+    <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="19"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
@@ -3797,8 +3892,8 @@
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="23"/>
+    <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="19"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -3810,8 +3905,8 @@
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="23"/>
+    <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="19"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -3823,8 +3918,8 @@
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="23"/>
+    <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="19"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -3836,8 +3931,8 @@
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="23"/>
+    <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="19"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -3849,8 +3944,8 @@
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="23"/>
+    <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="19"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -3862,8 +3957,8 @@
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="23"/>
+    <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="19"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
@@ -3875,8 +3970,8 @@
       <c r="K141" s="16"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="23"/>
+    <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="19"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -3888,8 +3983,8 @@
       <c r="K142" s="16"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="23"/>
+    <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="19"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
@@ -3901,8 +3996,8 @@
       <c r="K143" s="16"/>
       <c r="L143" s="16"/>
     </row>
-    <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="23"/>
+    <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="19"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
@@ -3914,8 +4009,8 @@
       <c r="K144" s="16"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="23"/>
+    <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="19"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
@@ -3927,8 +4022,8 @@
       <c r="K145" s="16"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="23"/>
+    <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="19"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
@@ -3940,8 +4035,8 @@
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="23"/>
+    <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="19"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
@@ -3953,8 +4048,8 @@
       <c r="K147" s="16"/>
       <c r="L147" s="16"/>
     </row>
-    <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="23"/>
+    <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="19"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
@@ -3966,8 +4061,8 @@
       <c r="K148" s="16"/>
       <c r="L148" s="16"/>
     </row>
-    <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="23"/>
+    <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="19"/>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
@@ -3979,8 +4074,8 @@
       <c r="K149" s="16"/>
       <c r="L149" s="16"/>
     </row>
-    <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="23"/>
+    <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="19"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
@@ -3992,8 +4087,8 @@
       <c r="K150" s="16"/>
       <c r="L150" s="16"/>
     </row>
-    <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="23"/>
+    <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="19"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -4005,8 +4100,8 @@
       <c r="K151" s="16"/>
       <c r="L151" s="16"/>
     </row>
-    <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="23"/>
+    <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="19"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
@@ -4018,8 +4113,8 @@
       <c r="K152" s="16"/>
       <c r="L152" s="16"/>
     </row>
-    <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="23"/>
+    <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="19"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
@@ -4031,8 +4126,8 @@
       <c r="K153" s="16"/>
       <c r="L153" s="16"/>
     </row>
-    <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="23"/>
+    <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="19"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
@@ -4044,8 +4139,8 @@
       <c r="K154" s="16"/>
       <c r="L154" s="16"/>
     </row>
-    <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="23"/>
+    <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="19"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
@@ -4057,8 +4152,8 @@
       <c r="K155" s="16"/>
       <c r="L155" s="16"/>
     </row>
-    <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="23"/>
+    <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="19"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -4070,8 +4165,8 @@
       <c r="K156" s="16"/>
       <c r="L156" s="16"/>
     </row>
-    <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="23"/>
+    <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="19"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
@@ -4083,8 +4178,8 @@
       <c r="K157" s="16"/>
       <c r="L157" s="16"/>
     </row>
-    <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="23"/>
+    <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="19"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
@@ -4096,8 +4191,8 @@
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="23"/>
+    <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="19"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
@@ -4109,8 +4204,8 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
     </row>
-    <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="23"/>
+    <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="19"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -4122,8 +4217,8 @@
       <c r="K160" s="16"/>
       <c r="L160" s="16"/>
     </row>
-    <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="23"/>
+    <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="19"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -4135,8 +4230,8 @@
       <c r="K161" s="16"/>
       <c r="L161" s="16"/>
     </row>
-    <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="23"/>
+    <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="19"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
@@ -4148,8 +4243,8 @@
       <c r="K162" s="16"/>
       <c r="L162" s="16"/>
     </row>
-    <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="23"/>
+    <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="19"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
@@ -4161,8 +4256,8 @@
       <c r="K163" s="16"/>
       <c r="L163" s="16"/>
     </row>
-    <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="23"/>
+    <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="19"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
@@ -4174,8 +4269,8 @@
       <c r="K164" s="16"/>
       <c r="L164" s="16"/>
     </row>
-    <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="23"/>
+    <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="19"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
@@ -4187,8 +4282,8 @@
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
     </row>
-    <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="23"/>
+    <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="19"/>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
@@ -4200,8 +4295,8 @@
       <c r="K166" s="16"/>
       <c r="L166" s="16"/>
     </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="23"/>
+    <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="19"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -4213,8 +4308,8 @@
       <c r="K167" s="16"/>
       <c r="L167" s="16"/>
     </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="23"/>
+    <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="19"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
@@ -4226,8 +4321,8 @@
       <c r="K168" s="16"/>
       <c r="L168" s="16"/>
     </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="23"/>
+    <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="19"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
@@ -4239,8 +4334,8 @@
       <c r="K169" s="16"/>
       <c r="L169" s="16"/>
     </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="23"/>
+    <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="19"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
@@ -4252,8 +4347,8 @@
       <c r="K170" s="16"/>
       <c r="L170" s="16"/>
     </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="23"/>
+    <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="19"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
@@ -4265,8 +4360,8 @@
       <c r="K171" s="16"/>
       <c r="L171" s="16"/>
     </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="23"/>
+    <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="19"/>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
@@ -4278,8 +4373,8 @@
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
     </row>
-    <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="23"/>
+    <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="19"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
@@ -4291,8 +4386,8 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
     </row>
-    <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="23"/>
+    <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="19"/>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
@@ -4304,8 +4399,8 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
     </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="23"/>
+    <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="19"/>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
@@ -4317,8 +4412,8 @@
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
     </row>
-    <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="23"/>
+    <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="19"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -4330,8 +4425,8 @@
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
     </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="23"/>
+    <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="19"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -4343,8 +4438,8 @@
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
     </row>
-    <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="23"/>
+    <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="19"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
@@ -4356,8 +4451,8 @@
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
     </row>
-    <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="23"/>
+    <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="19"/>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -4369,8 +4464,8 @@
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
     </row>
-    <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="23"/>
+    <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="19"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -4382,8 +4477,8 @@
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
     </row>
-    <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="23"/>
+    <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="19"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -4395,8 +4490,8 @@
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
     </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="23"/>
+    <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="19"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -4408,8 +4503,8 @@
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
     </row>
-    <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="23"/>
+    <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="19"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -4421,8 +4516,8 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
     </row>
-    <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="23"/>
+    <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="19"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -4434,8 +4529,8 @@
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
     </row>
-    <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="23"/>
+    <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="19"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -4447,8 +4542,8 @@
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
     </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="23"/>
+    <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="19"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -4460,8 +4555,8 @@
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
     </row>
-    <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="23"/>
+    <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="19"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -4473,8 +4568,8 @@
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
     </row>
-    <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="23"/>
+    <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="19"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -4486,8 +4581,8 @@
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
     </row>
-    <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="23"/>
+    <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="19"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -4499,8 +4594,8 @@
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
     </row>
-    <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="23"/>
+    <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="19"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -4512,8 +4607,8 @@
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
     </row>
-    <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="23"/>
+    <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="19"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -4525,8 +4620,8 @@
       <c r="K191" s="16"/>
       <c r="L191" s="16"/>
     </row>
-    <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="23"/>
+    <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="19"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -4538,8 +4633,8 @@
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
     </row>
-    <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="23"/>
+    <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="19"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
@@ -4551,8 +4646,8 @@
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
     </row>
-    <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="23"/>
+    <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="19"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
@@ -4564,8 +4659,8 @@
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
     </row>
-    <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="23"/>
+    <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="19"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
@@ -4577,8 +4672,8 @@
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
     </row>
-    <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="23"/>
+    <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="19"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
@@ -4590,8 +4685,8 @@
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
     </row>
-    <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="23"/>
+    <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="19"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
@@ -4603,8 +4698,8 @@
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
     </row>
-    <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="23"/>
+    <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="19"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
@@ -4616,8 +4711,8 @@
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
     </row>
-    <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="23"/>
+    <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="19"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
@@ -4629,8 +4724,8 @@
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
     </row>
-    <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="23"/>
+    <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="19"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
@@ -4642,8 +4737,8 @@
       <c r="K200" s="16"/>
       <c r="L200" s="16"/>
     </row>
-    <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="23"/>
+    <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="19"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
@@ -4655,8 +4750,8 @@
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
     </row>
-    <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="23"/>
+    <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="19"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
@@ -4668,8 +4763,8 @@
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
     </row>
-    <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="23"/>
+    <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="19"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
@@ -4681,8 +4776,8 @@
       <c r="K203" s="16"/>
       <c r="L203" s="16"/>
     </row>
-    <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="23"/>
+    <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="19"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
@@ -4694,8 +4789,8 @@
       <c r="K204" s="16"/>
       <c r="L204" s="16"/>
     </row>
-    <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="23"/>
+    <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="19"/>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
@@ -4707,8 +4802,8 @@
       <c r="K205" s="16"/>
       <c r="L205" s="16"/>
     </row>
-    <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="23"/>
+    <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="19"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
@@ -4720,8 +4815,8 @@
       <c r="K206" s="16"/>
       <c r="L206" s="16"/>
     </row>
-    <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="23"/>
+    <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="19"/>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
@@ -4733,8 +4828,8 @@
       <c r="K207" s="16"/>
       <c r="L207" s="16"/>
     </row>
-    <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="23"/>
+    <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="19"/>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
@@ -4746,8 +4841,8 @@
       <c r="K208" s="16"/>
       <c r="L208" s="16"/>
     </row>
-    <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="23"/>
+    <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="19"/>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
@@ -4759,8 +4854,8 @@
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
     </row>
-    <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="23"/>
+    <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="19"/>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
@@ -4772,8 +4867,8 @@
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
     </row>
-    <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="23"/>
+    <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="19"/>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
@@ -4785,8 +4880,8 @@
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
     </row>
-    <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="23"/>
+    <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="19"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
@@ -4798,8 +4893,8 @@
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
     </row>
-    <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="23"/>
+    <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="19"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
@@ -4811,8 +4906,8 @@
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
     </row>
-    <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="23"/>
+    <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="19"/>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
@@ -4824,8 +4919,8 @@
       <c r="K214" s="16"/>
       <c r="L214" s="16"/>
     </row>
-    <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="23"/>
+    <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="19"/>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
       <c r="E215" s="16"/>
@@ -4837,8 +4932,8 @@
       <c r="K215" s="16"/>
       <c r="L215" s="16"/>
     </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="23"/>
+    <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="19"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
       <c r="E216" s="16"/>
@@ -4850,8 +4945,8 @@
       <c r="K216" s="16"/>
       <c r="L216" s="16"/>
     </row>
-    <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="23"/>
+    <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="19"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
@@ -4863,8 +4958,8 @@
       <c r="K217" s="16"/>
       <c r="L217" s="16"/>
     </row>
-    <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="23"/>
+    <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="19"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
@@ -4876,8 +4971,8 @@
       <c r="K218" s="16"/>
       <c r="L218" s="16"/>
     </row>
-    <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="23"/>
+    <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="19"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
       <c r="E219" s="16"/>
@@ -4889,8 +4984,8 @@
       <c r="K219" s="16"/>
       <c r="L219" s="16"/>
     </row>
-    <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="23"/>
+    <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="19"/>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
       <c r="E220" s="16"/>
@@ -4902,8 +4997,8 @@
       <c r="K220" s="16"/>
       <c r="L220" s="16"/>
     </row>
-    <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="23"/>
+    <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="19"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
       <c r="E221" s="16"/>
@@ -4915,8 +5010,8 @@
       <c r="K221" s="16"/>
       <c r="L221" s="16"/>
     </row>
-    <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="23"/>
+    <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="19"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
       <c r="E222" s="16"/>
@@ -4928,8 +5023,8 @@
       <c r="K222" s="16"/>
       <c r="L222" s="16"/>
     </row>
-    <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="23"/>
+    <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="19"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
       <c r="E223" s="16"/>
@@ -4941,8 +5036,8 @@
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
     </row>
-    <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="23"/>
+    <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="19"/>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
@@ -4954,8 +5049,8 @@
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
     </row>
-    <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="23"/>
+    <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="19"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
@@ -4967,8 +5062,8 @@
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
     </row>
-    <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="23"/>
+    <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="19"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
@@ -4980,8 +5075,8 @@
       <c r="K226" s="16"/>
       <c r="L226" s="16"/>
     </row>
-    <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="23"/>
+    <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="19"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
@@ -4993,8 +5088,8 @@
       <c r="K227" s="16"/>
       <c r="L227" s="16"/>
     </row>
-    <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="23"/>
+    <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="19"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
@@ -5006,8 +5101,8 @@
       <c r="K228" s="16"/>
       <c r="L228" s="16"/>
     </row>
-    <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="23"/>
+    <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="19"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
@@ -5019,8 +5114,8 @@
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
     </row>
-    <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="23"/>
+    <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="19"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
       <c r="E230" s="16"/>
@@ -5032,8 +5127,8 @@
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
     </row>
-    <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="23"/>
+    <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="19"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
       <c r="E231" s="16"/>
@@ -5045,8 +5140,8 @@
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
     </row>
-    <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="23"/>
+    <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="19"/>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
@@ -5058,8 +5153,8 @@
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
     </row>
-    <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="23"/>
+    <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="19"/>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
@@ -5071,8 +5166,8 @@
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
     </row>
-    <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="23"/>
+    <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="19"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
@@ -5084,8 +5179,8 @@
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
     </row>
-    <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="23"/>
+    <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="19"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
@@ -5097,8 +5192,8 @@
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
     </row>
-    <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="23"/>
+    <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="19"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
@@ -5110,8 +5205,8 @@
       <c r="K236" s="16"/>
       <c r="L236" s="16"/>
     </row>
-    <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="23"/>
+    <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="19"/>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
@@ -5123,8 +5218,8 @@
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
     </row>
-    <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="23"/>
+    <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="19"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
@@ -5136,8 +5231,8 @@
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
     </row>
-    <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="23"/>
+    <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="19"/>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
@@ -5149,8 +5244,8 @@
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
     </row>
-    <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="23"/>
+    <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="19"/>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
@@ -5162,8 +5257,8 @@
       <c r="K240" s="16"/>
       <c r="L240" s="16"/>
     </row>
-    <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="23"/>
+    <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="19"/>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
@@ -5175,8 +5270,8 @@
       <c r="K241" s="16"/>
       <c r="L241" s="16"/>
     </row>
-    <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="23"/>
+    <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="19"/>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
@@ -5188,8 +5283,8 @@
       <c r="K242" s="16"/>
       <c r="L242" s="16"/>
     </row>
-    <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="23"/>
+    <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="19"/>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
@@ -5201,8 +5296,8 @@
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
     </row>
-    <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="23"/>
+    <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="19"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
@@ -5214,8 +5309,8 @@
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
     </row>
-    <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="23"/>
+    <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="19"/>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
@@ -5227,8 +5322,8 @@
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
     </row>
-    <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="23"/>
+    <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="19"/>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -5240,8 +5335,8 @@
       <c r="K246" s="16"/>
       <c r="L246" s="16"/>
     </row>
-    <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="23"/>
+    <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="19"/>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
@@ -5253,8 +5348,8 @@
       <c r="K247" s="16"/>
       <c r="L247" s="16"/>
     </row>
-    <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="23"/>
+    <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="19"/>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
@@ -5266,8 +5361,8 @@
       <c r="K248" s="16"/>
       <c r="L248" s="16"/>
     </row>
-    <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="23"/>
+    <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="19"/>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
@@ -5279,8 +5374,8 @@
       <c r="K249" s="16"/>
       <c r="L249" s="16"/>
     </row>
-    <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="23"/>
+    <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="19"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
@@ -5292,8 +5387,8 @@
       <c r="K250" s="16"/>
       <c r="L250" s="16"/>
     </row>
-    <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="23"/>
+    <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="19"/>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
@@ -5305,8 +5400,8 @@
       <c r="K251" s="16"/>
       <c r="L251" s="16"/>
     </row>
-    <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="23"/>
+    <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="19"/>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
@@ -5318,8 +5413,8 @@
       <c r="K252" s="16"/>
       <c r="L252" s="16"/>
     </row>
-    <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="23"/>
+    <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="19"/>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
@@ -5331,8 +5426,8 @@
       <c r="K253" s="16"/>
       <c r="L253" s="16"/>
     </row>
-    <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="23"/>
+    <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="19"/>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
@@ -5344,8 +5439,8 @@
       <c r="K254" s="16"/>
       <c r="L254" s="16"/>
     </row>
-    <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="23"/>
+    <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="19"/>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
@@ -5357,8 +5452,8 @@
       <c r="K255" s="16"/>
       <c r="L255" s="16"/>
     </row>
-    <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="23"/>
+    <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="19"/>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
@@ -5370,8 +5465,8 @@
       <c r="K256" s="16"/>
       <c r="L256" s="16"/>
     </row>
-    <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="23"/>
+    <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="19"/>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
@@ -5383,8 +5478,8 @@
       <c r="K257" s="16"/>
       <c r="L257" s="16"/>
     </row>
-    <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="23"/>
+    <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="19"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
@@ -5396,8 +5491,8 @@
       <c r="K258" s="16"/>
       <c r="L258" s="16"/>
     </row>
-    <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="23"/>
+    <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="19"/>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
@@ -5409,8 +5504,8 @@
       <c r="K259" s="16"/>
       <c r="L259" s="16"/>
     </row>
-    <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="23"/>
+    <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="19"/>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
@@ -5422,8 +5517,8 @@
       <c r="K260" s="16"/>
       <c r="L260" s="16"/>
     </row>
-    <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="23"/>
+    <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="19"/>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
@@ -5435,8 +5530,8 @@
       <c r="K261" s="16"/>
       <c r="L261" s="16"/>
     </row>
-    <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="23"/>
+    <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="19"/>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
@@ -5448,8 +5543,8 @@
       <c r="K262" s="16"/>
       <c r="L262" s="16"/>
     </row>
-    <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="23"/>
+    <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="19"/>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
@@ -5461,8 +5556,8 @@
       <c r="K263" s="16"/>
       <c r="L263" s="16"/>
     </row>
-    <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="23"/>
+    <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="19"/>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
@@ -5474,8 +5569,8 @@
       <c r="K264" s="16"/>
       <c r="L264" s="16"/>
     </row>
-    <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="23"/>
+    <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="19"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
@@ -5487,8 +5582,8 @@
       <c r="K265" s="16"/>
       <c r="L265" s="16"/>
     </row>
-    <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="23"/>
+    <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="19"/>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
@@ -5500,8 +5595,8 @@
       <c r="K266" s="16"/>
       <c r="L266" s="16"/>
     </row>
-    <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="23"/>
+    <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="19"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
@@ -5513,8 +5608,8 @@
       <c r="K267" s="16"/>
       <c r="L267" s="16"/>
     </row>
-    <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="23"/>
+    <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="19"/>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
@@ -5526,8 +5621,8 @@
       <c r="K268" s="16"/>
       <c r="L268" s="16"/>
     </row>
-    <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="23"/>
+    <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="19"/>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
@@ -5539,8 +5634,8 @@
       <c r="K269" s="16"/>
       <c r="L269" s="16"/>
     </row>
-    <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="23"/>
+    <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="19"/>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
@@ -5552,8 +5647,8 @@
       <c r="K270" s="16"/>
       <c r="L270" s="16"/>
     </row>
-    <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="23"/>
+    <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="19"/>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
@@ -5565,8 +5660,8 @@
       <c r="K271" s="16"/>
       <c r="L271" s="16"/>
     </row>
-    <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="23"/>
+    <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="19"/>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
@@ -5578,8 +5673,8 @@
       <c r="K272" s="16"/>
       <c r="L272" s="16"/>
     </row>
-    <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="23"/>
+    <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="19"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
@@ -5591,8 +5686,8 @@
       <c r="K273" s="16"/>
       <c r="L273" s="16"/>
     </row>
-    <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="23"/>
+    <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="19"/>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
@@ -5604,8 +5699,8 @@
       <c r="K274" s="16"/>
       <c r="L274" s="16"/>
     </row>
-    <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="23"/>
+    <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="19"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
@@ -5617,8 +5712,8 @@
       <c r="K275" s="16"/>
       <c r="L275" s="16"/>
     </row>
-    <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="23"/>
+    <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="19"/>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
@@ -5630,8 +5725,8 @@
       <c r="K276" s="16"/>
       <c r="L276" s="16"/>
     </row>
-    <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="23"/>
+    <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="19"/>
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
@@ -5643,8 +5738,8 @@
       <c r="K277" s="16"/>
       <c r="L277" s="16"/>
     </row>
-    <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="23"/>
+    <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="19"/>
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
@@ -5656,8 +5751,8 @@
       <c r="K278" s="16"/>
       <c r="L278" s="16"/>
     </row>
-    <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="23"/>
+    <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="19"/>
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
@@ -5669,8 +5764,8 @@
       <c r="K279" s="16"/>
       <c r="L279" s="16"/>
     </row>
-    <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="23"/>
+    <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="19"/>
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
@@ -5682,8 +5777,8 @@
       <c r="K280" s="16"/>
       <c r="L280" s="16"/>
     </row>
-    <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="23"/>
+    <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="19"/>
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
@@ -5695,8 +5790,8 @@
       <c r="K281" s="16"/>
       <c r="L281" s="16"/>
     </row>
-    <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="23"/>
+    <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="19"/>
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
@@ -5708,8 +5803,8 @@
       <c r="K282" s="16"/>
       <c r="L282" s="16"/>
     </row>
-    <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="23"/>
+    <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="19"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
@@ -5721,8 +5816,8 @@
       <c r="K283" s="16"/>
       <c r="L283" s="16"/>
     </row>
-    <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="23"/>
+    <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="19"/>
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
@@ -5734,8 +5829,8 @@
       <c r="K284" s="16"/>
       <c r="L284" s="16"/>
     </row>
-    <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="23"/>
+    <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="19"/>
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
@@ -5747,8 +5842,8 @@
       <c r="K285" s="16"/>
       <c r="L285" s="16"/>
     </row>
-    <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="23"/>
+    <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="19"/>
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
@@ -5760,8 +5855,8 @@
       <c r="K286" s="16"/>
       <c r="L286" s="16"/>
     </row>
-    <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="23"/>
+    <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="19"/>
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
@@ -5773,8 +5868,8 @@
       <c r="K287" s="16"/>
       <c r="L287" s="16"/>
     </row>
-    <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="23"/>
+    <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="19"/>
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
@@ -5786,8 +5881,8 @@
       <c r="K288" s="16"/>
       <c r="L288" s="16"/>
     </row>
-    <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="23"/>
+    <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="19"/>
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
@@ -5799,8 +5894,8 @@
       <c r="K289" s="16"/>
       <c r="L289" s="16"/>
     </row>
-    <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="23"/>
+    <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="19"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
@@ -5812,8 +5907,8 @@
       <c r="K290" s="16"/>
       <c r="L290" s="16"/>
     </row>
-    <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="23"/>
+    <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="19"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
@@ -5825,8 +5920,8 @@
       <c r="K291" s="16"/>
       <c r="L291" s="16"/>
     </row>
-    <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="23"/>
+    <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="19"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
@@ -5838,8 +5933,8 @@
       <c r="K292" s="16"/>
       <c r="L292" s="16"/>
     </row>
-    <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="23"/>
+    <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="19"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
@@ -5851,8 +5946,8 @@
       <c r="K293" s="16"/>
       <c r="L293" s="16"/>
     </row>
-    <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="23"/>
+    <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="19"/>
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
@@ -5864,8 +5959,8 @@
       <c r="K294" s="16"/>
       <c r="L294" s="16"/>
     </row>
-    <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="23"/>
+    <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="19"/>
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
@@ -5877,8 +5972,8 @@
       <c r="K295" s="16"/>
       <c r="L295" s="16"/>
     </row>
-    <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="23"/>
+    <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="19"/>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
@@ -5890,8 +5985,8 @@
       <c r="K296" s="16"/>
       <c r="L296" s="16"/>
     </row>
-    <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="23"/>
+    <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="19"/>
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
@@ -5903,8 +5998,8 @@
       <c r="K297" s="16"/>
       <c r="L297" s="16"/>
     </row>
-    <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="23"/>
+    <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="19"/>
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
@@ -5916,8 +6011,8 @@
       <c r="K298" s="16"/>
       <c r="L298" s="16"/>
     </row>
-    <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="23"/>
+    <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="19"/>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
@@ -5929,8 +6024,8 @@
       <c r="K299" s="16"/>
       <c r="L299" s="16"/>
     </row>
-    <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="23"/>
+    <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="19"/>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
@@ -5942,8 +6037,8 @@
       <c r="K300" s="16"/>
       <c r="L300" s="16"/>
     </row>
-    <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="23"/>
+    <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="19"/>
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
@@ -5955,8 +6050,8 @@
       <c r="K301" s="16"/>
       <c r="L301" s="16"/>
     </row>
-    <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="23"/>
+    <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="19"/>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
@@ -5968,8 +6063,8 @@
       <c r="K302" s="16"/>
       <c r="L302" s="16"/>
     </row>
-    <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="23"/>
+    <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="19"/>
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
@@ -5981,8 +6076,8 @@
       <c r="K303" s="16"/>
       <c r="L303" s="16"/>
     </row>
-    <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="23"/>
+    <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="19"/>
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
@@ -5994,8 +6089,8 @@
       <c r="K304" s="16"/>
       <c r="L304" s="16"/>
     </row>
-    <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="23"/>
+    <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="19"/>
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
@@ -6007,8 +6102,8 @@
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
     </row>
-    <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="23"/>
+    <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="19"/>
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
@@ -6020,8 +6115,8 @@
       <c r="K306" s="16"/>
       <c r="L306" s="16"/>
     </row>
-    <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="23"/>
+    <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="19"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
@@ -6033,8 +6128,8 @@
       <c r="K307" s="16"/>
       <c r="L307" s="16"/>
     </row>
-    <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="23"/>
+    <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="19"/>
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
@@ -6046,8 +6141,8 @@
       <c r="K308" s="16"/>
       <c r="L308" s="16"/>
     </row>
-    <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="23"/>
+    <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="19"/>
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
@@ -6059,8 +6154,8 @@
       <c r="K309" s="16"/>
       <c r="L309" s="16"/>
     </row>
-    <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="23"/>
+    <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="19"/>
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>
@@ -6072,8 +6167,8 @@
       <c r="K310" s="16"/>
       <c r="L310" s="16"/>
     </row>
-    <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="23"/>
+    <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="19"/>
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
       <c r="E311" s="16"/>
@@ -6085,8 +6180,8 @@
       <c r="K311" s="16"/>
       <c r="L311" s="16"/>
     </row>
-    <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="23"/>
+    <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="19"/>
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
       <c r="E312" s="16"/>
@@ -6098,8 +6193,8 @@
       <c r="K312" s="16"/>
       <c r="L312" s="16"/>
     </row>
-    <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="23"/>
+    <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="19"/>
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
       <c r="E313" s="16"/>
@@ -6111,8 +6206,8 @@
       <c r="K313" s="16"/>
       <c r="L313" s="16"/>
     </row>
-    <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="23"/>
+    <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="19"/>
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
       <c r="E314" s="16"/>
@@ -6124,8 +6219,8 @@
       <c r="K314" s="16"/>
       <c r="L314" s="16"/>
     </row>
-    <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="23"/>
+    <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="19"/>
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
       <c r="E315" s="16"/>
@@ -6137,8 +6232,8 @@
       <c r="K315" s="16"/>
       <c r="L315" s="16"/>
     </row>
-    <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="23"/>
+    <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="19"/>
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
@@ -6150,8 +6245,8 @@
       <c r="K316" s="16"/>
       <c r="L316" s="16"/>
     </row>
-    <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="23"/>
+    <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="19"/>
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
@@ -6163,8 +6258,8 @@
       <c r="K317" s="16"/>
       <c r="L317" s="16"/>
     </row>
-    <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="23"/>
+    <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="19"/>
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
@@ -6176,8 +6271,8 @@
       <c r="K318" s="16"/>
       <c r="L318" s="16"/>
     </row>
-    <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="23"/>
+    <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="19"/>
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
       <c r="E319" s="16"/>
@@ -6189,8 +6284,8 @@
       <c r="K319" s="16"/>
       <c r="L319" s="16"/>
     </row>
-    <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="23"/>
+    <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="19"/>
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
       <c r="E320" s="16"/>
@@ -6202,8 +6297,8 @@
       <c r="K320" s="16"/>
       <c r="L320" s="16"/>
     </row>
-    <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="23"/>
+    <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="19"/>
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
       <c r="E321" s="16"/>
@@ -6215,8 +6310,8 @@
       <c r="K321" s="16"/>
       <c r="L321" s="16"/>
     </row>
-    <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="23"/>
+    <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="19"/>
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
       <c r="E322" s="16"/>
@@ -6228,8 +6323,8 @@
       <c r="K322" s="16"/>
       <c r="L322" s="16"/>
     </row>
-    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="23"/>
+    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="19"/>
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
@@ -6241,8 +6336,8 @@
       <c r="K323" s="16"/>
       <c r="L323" s="16"/>
     </row>
-    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="23"/>
+    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="19"/>
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
@@ -6254,8 +6349,8 @@
       <c r="K324" s="16"/>
       <c r="L324" s="16"/>
     </row>
-    <row r="325" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="23"/>
+    <row r="325" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="19"/>
       <c r="C325" s="16"/>
       <c r="D325" s="16"/>
       <c r="E325" s="16"/>
@@ -6267,8 +6362,8 @@
       <c r="K325" s="16"/>
       <c r="L325" s="16"/>
     </row>
-    <row r="326" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="23"/>
+    <row r="326" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="19"/>
       <c r="C326" s="16"/>
       <c r="D326" s="16"/>
       <c r="E326" s="16"/>
@@ -6280,8 +6375,8 @@
       <c r="K326" s="16"/>
       <c r="L326" s="16"/>
     </row>
-    <row r="327" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="23"/>
+    <row r="327" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="19"/>
       <c r="C327" s="16"/>
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
@@ -6293,8 +6388,8 @@
       <c r="K327" s="16"/>
       <c r="L327" s="16"/>
     </row>
-    <row r="328" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B328" s="23"/>
+    <row r="328" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="19"/>
       <c r="C328" s="16"/>
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
@@ -6306,8 +6401,8 @@
       <c r="K328" s="16"/>
       <c r="L328" s="16"/>
     </row>
-    <row r="329" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="23"/>
+    <row r="329" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="19"/>
       <c r="C329" s="16"/>
       <c r="D329" s="16"/>
       <c r="E329" s="16"/>
@@ -6319,8 +6414,8 @@
       <c r="K329" s="16"/>
       <c r="L329" s="16"/>
     </row>
-    <row r="330" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="23"/>
+    <row r="330" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="19"/>
       <c r="C330" s="16"/>
       <c r="D330" s="16"/>
       <c r="E330" s="16"/>
@@ -6332,8 +6427,8 @@
       <c r="K330" s="16"/>
       <c r="L330" s="16"/>
     </row>
-    <row r="331" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="23"/>
+    <row r="331" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="19"/>
       <c r="C331" s="16"/>
       <c r="D331" s="16"/>
       <c r="E331" s="16"/>
@@ -6345,8 +6440,8 @@
       <c r="K331" s="16"/>
       <c r="L331" s="16"/>
     </row>
-    <row r="332" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="23"/>
+    <row r="332" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="19"/>
       <c r="C332" s="16"/>
       <c r="D332" s="16"/>
       <c r="E332" s="16"/>
@@ -6358,8 +6453,8 @@
       <c r="K332" s="16"/>
       <c r="L332" s="16"/>
     </row>
-    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B333" s="23"/>
+    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="19"/>
       <c r="C333" s="16"/>
       <c r="D333" s="16"/>
       <c r="E333" s="16"/>
@@ -6371,10 +6466,62 @@
       <c r="K333" s="16"/>
       <c r="L333" s="16"/>
     </row>
+    <row r="334" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="19"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+      <c r="H334" s="16"/>
+      <c r="I334" s="16"/>
+      <c r="J334" s="16"/>
+      <c r="K334" s="16"/>
+      <c r="L334" s="16"/>
+    </row>
+    <row r="335" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="19"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+      <c r="H335" s="16"/>
+      <c r="I335" s="16"/>
+      <c r="J335" s="16"/>
+      <c r="K335" s="16"/>
+      <c r="L335" s="16"/>
+    </row>
+    <row r="336" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="19"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+      <c r="I336" s="16"/>
+      <c r="J336" s="16"/>
+      <c r="K336" s="16"/>
+      <c r="L336" s="16"/>
+    </row>
+    <row r="337" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="19"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+      <c r="I337" s="16"/>
+      <c r="J337" s="16"/>
+      <c r="K337" s="16"/>
+      <c r="L337" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B57:D57"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B3:D3"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFCCD80-F9A0-474D-B189-231CD1E60480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CE8FF-938D-4C54-A6ED-09051980C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
   <si>
     <t>Comparison</t>
   </si>
@@ -188,9 +188,6 @@
     <t>LW2WotC_RapidReaction</t>
   </si>
   <si>
-    <t>Stealth</t>
-  </si>
-  <si>
     <t>Agent(P)</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>MZImprovedScanner</t>
   </si>
   <si>
-    <t>Chemthrowers</t>
-  </si>
-  <si>
     <t>Alchemist(P)</t>
   </si>
   <si>
@@ -414,12 +408,6 @@
   </si>
   <si>
     <t>WOTC_APA_PatchworkCore (WOTC_APA_Failsafe, AidProtocol, WOTC_APA_CombatProtocol, ARFMJammerProtocol)</t>
-  </si>
-  <si>
-    <t>(MZArmourSystem or MZAidProtocolHeal)</t>
-  </si>
-  <si>
-    <t>(MZGremlinStasis or MZGremlinInsanity)</t>
   </si>
   <si>
     <t>ARFMDetonateProtocol</t>
@@ -687,9 +675,6 @@
     <t>ShadowOps_Vanish</t>
   </si>
   <si>
-    <t>Melee</t>
-  </si>
-  <si>
     <t>Samurai(P)</t>
   </si>
   <si>
@@ -781,6 +766,48 @@
   </si>
   <si>
     <t>Sword_CV</t>
+  </si>
+  <si>
+    <t>Stealth/Melee</t>
+  </si>
+  <si>
+    <t>Phalanx(P)</t>
+  </si>
+  <si>
+    <t>ShieldGuy</t>
+  </si>
+  <si>
+    <t>BallisticShield_CV</t>
+  </si>
+  <si>
+    <t>WOTC_DP_Vanguard (F_ShoulderToLeanOn,  DPTaunt)</t>
+  </si>
+  <si>
+    <t>MZShieldCharge</t>
+  </si>
+  <si>
+    <t>MZShakeTheEarth</t>
+  </si>
+  <si>
+    <t>DPGuard</t>
+  </si>
+  <si>
+    <t>F_Safeguard</t>
+  </si>
+  <si>
+    <t>F_Intimidate</t>
+  </si>
+  <si>
+    <t>F_PackTactics</t>
+  </si>
+  <si>
+    <t>F_ProtectAndServe</t>
+  </si>
+  <si>
+    <t>(MZArmourSystem or MZAidProtocolHeal or MZGremlinStasis)</t>
+  </si>
+  <si>
+    <t>AForcy</t>
   </si>
 </sst>
 </file>
@@ -902,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -964,18 +991,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -984,6 +999,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,11 +1402,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1433,39 +1454,39 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1481,141 +1502,141 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
+    <row r="7" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>110</v>
+        <v>84</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1631,93 +1652,63 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>87</v>
+        <v>144</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1733,57 +1724,93 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>142</v>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1799,93 +1826,87 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1901,39 +1922,39 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>175</v>
+        <v>22</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1946,42 +1967,42 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1997,39 +2018,39 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2042,90 +2063,96 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="18"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>193</v>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,110 +2168,142 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="5" t="s">
+      <c r="D35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
@@ -2259,93 +2318,87 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>51</v>
+    <row r="41" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>198</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2361,39 +2414,39 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>199</v>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2409,93 +2462,87 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>217</v>
+        <v>231</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2513,37 +2560,37 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2559,87 +2606,93 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="14"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>231</v>
+      <c r="B55" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>87</v>
+        <v>133</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2655,93 +2708,87 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="14"/>
-    </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M58" s="14"/>
-    </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="27" t="s">
-        <v>133</v>
+    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2757,39 +2804,39 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
-        <v>40</v>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>33</v>
+        <v>151</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2805,39 +2852,39 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
-        <v>152</v>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>155</v>
+        <v>38</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2853,87 +2900,93 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>37</v>
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>30</v>
+        <v>115</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>32</v>
+        <v>117</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2949,155 +3002,105 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K71" s="6" t="s">
+    <row r="69" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+    </row>
+    <row r="73" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+    </row>
+    <row r="74" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
     </row>
     <row r="75" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
@@ -6453,82 +6456,15 @@
       <c r="K332" s="16"/>
       <c r="L332" s="16"/>
     </row>
-    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="19"/>
-      <c r="C333" s="16"/>
-      <c r="D333" s="16"/>
-      <c r="E333" s="16"/>
-      <c r="F333" s="16"/>
-      <c r="G333" s="16"/>
-      <c r="H333" s="16"/>
-      <c r="I333" s="16"/>
-      <c r="J333" s="16"/>
-      <c r="K333" s="16"/>
-      <c r="L333" s="16"/>
-    </row>
-    <row r="334" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="19"/>
-      <c r="C334" s="16"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="16"/>
-      <c r="F334" s="16"/>
-      <c r="G334" s="16"/>
-      <c r="H334" s="16"/>
-      <c r="I334" s="16"/>
-      <c r="J334" s="16"/>
-      <c r="K334" s="16"/>
-      <c r="L334" s="16"/>
-    </row>
-    <row r="335" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="19"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="16"/>
-      <c r="G335" s="16"/>
-      <c r="H335" s="16"/>
-      <c r="I335" s="16"/>
-      <c r="J335" s="16"/>
-      <c r="K335" s="16"/>
-      <c r="L335" s="16"/>
-    </row>
-    <row r="336" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="19"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="16"/>
-      <c r="E336" s="16"/>
-      <c r="F336" s="16"/>
-      <c r="G336" s="16"/>
-      <c r="H336" s="16"/>
-      <c r="I336" s="16"/>
-      <c r="J336" s="16"/>
-      <c r="K336" s="16"/>
-      <c r="L336" s="16"/>
-    </row>
-    <row r="337" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="19"/>
-      <c r="C337" s="16"/>
-      <c r="D337" s="16"/>
-      <c r="E337" s="16"/>
-      <c r="F337" s="16"/>
-      <c r="G337" s="16"/>
-      <c r="H337" s="16"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="16"/>
-      <c r="L337" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B41:D41"/>
+  <mergeCells count="7">
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CE8FF-938D-4C54-A6ED-09051980C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2D1CDF-5350-4104-BA5B-07ED8D7A51F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="258">
   <si>
     <t>Comparison</t>
   </si>
@@ -808,6 +808,30 @@
   </si>
   <si>
     <t>AForcy</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_FrontlineTraining (WOTC_APA_RunAndGun, BS_RapidStun, BS_SpareBattery, ArcThrowerStun)</t>
+  </si>
+  <si>
+    <t>MZArcFuse</t>
+  </si>
+  <si>
+    <t>EMPulser</t>
+  </si>
+  <si>
+    <t>ChainLightning</t>
+  </si>
+  <si>
+    <t>WOTC_APA_OverchargedCapacitors</t>
+  </si>
+  <si>
+    <t>BS_ThatsCloseEnough</t>
+  </si>
+  <si>
+    <t>MZArcElectrocute</t>
+  </si>
+  <si>
+    <t>MZArcBoostMove</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1373,7 @@
   <dimension ref="A1:M332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1676,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1661,6 +1685,30 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>102</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2708,7 @@
       </c>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
         <v>129</v>
       </c>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2D1CDF-5350-4104-BA5B-07ED8D7A51F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AF9DD-765B-46F4-A21C-4D27EA0E877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
   <si>
     <t>Comparison</t>
   </si>
@@ -832,6 +832,15 @@
   </si>
   <si>
     <t>MZArcBoostMove</t>
+  </si>
+  <si>
+    <t>Specialist(P)</t>
+  </si>
+  <si>
+    <t>ASpecialist</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ProtocolPackages (WOTC_APA_Failsafe)</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M332"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,31 +3094,53 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-    </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="72" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
@@ -6503,6 +6534,32 @@
       <c r="J332" s="16"/>
       <c r="K332" s="16"/>
       <c r="L332" s="16"/>
+    </row>
+    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="19"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="16"/>
+      <c r="I333" s="16"/>
+      <c r="J333" s="16"/>
+      <c r="K333" s="16"/>
+      <c r="L333" s="16"/>
+    </row>
+    <row r="334" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="19"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+      <c r="H334" s="16"/>
+      <c r="I334" s="16"/>
+      <c r="J334" s="16"/>
+      <c r="K334" s="16"/>
+      <c r="L334" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AF9DD-765B-46F4-A21C-4D27EA0E877B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050FF0F-58AD-4F29-9BE4-1EBEB549721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="309">
   <si>
     <t>Comparison</t>
   </si>
@@ -841,6 +841,150 @@
   </si>
   <si>
     <t>WOTC_APA_ProtocolPackages (WOTC_APA_Failsafe)</t>
+  </si>
+  <si>
+    <t>Scavenger(P)</t>
+  </si>
+  <si>
+    <t>BScav</t>
+  </si>
+  <si>
+    <t>Bullpup_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_TacticalFlexibility (IRI_ResupplyAmmo, ARFMLootCorpse, IRI_BandageThrow)</t>
+  </si>
+  <si>
+    <t>ARFMScavGreed</t>
+  </si>
+  <si>
+    <t>ARFMScavSprint</t>
+  </si>
+  <si>
+    <t>ARFMScavLifesaver</t>
+  </si>
+  <si>
+    <t>ARFMLootEquipment</t>
+  </si>
+  <si>
+    <t>ARFMScavMarkBooster</t>
+  </si>
+  <si>
+    <t>ARFMScavScrapyardWarlord</t>
+  </si>
+  <si>
+    <t>ARFMScavPackrat</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Sapper(P)</t>
+  </si>
+  <si>
+    <t>SappyPappy</t>
+  </si>
+  <si>
+    <t>GrenadeLauncher_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ExplosiveOrdnance (WOTC_APA_DefensiveMine, LW2WotC_Sapper)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_HEATGrenades</t>
+  </si>
+  <si>
+    <t>WOTC_APA_AirBurstGrenades</t>
+  </si>
+  <si>
+    <t>VolatileMix</t>
+  </si>
+  <si>
+    <t>Salvo</t>
+  </si>
+  <si>
+    <t>(WOTC_APA_ConcentratedCorrosives or WOTC_APA_BurnOut or WOTC_APA_ChemicalWarfare)</t>
+  </si>
+  <si>
+    <t>(LW2WotC_HEATWarheads or IRI_BH_BombRaider or WOTC_APA_DestructiveNature)</t>
+  </si>
+  <si>
+    <t>Rocketeer(P)</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>IRI_RocketLauncher_CV</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_DemolitionsTraining (WOTC_KPP_LightweightRockets, ALGuideRocketLauncher)</t>
+  </si>
+  <si>
+    <t>FireInTheHole</t>
+  </si>
+  <si>
+    <t>WOTC_APA_AntiArmor</t>
+  </si>
+  <si>
+    <t>(BonusRocketsAR or ConcussionRocket or JavelinRockets)</t>
+  </si>
+  <si>
+    <t>BiggestBooms</t>
+  </si>
+  <si>
+    <t>BunkerBuster</t>
+  </si>
+  <si>
+    <t>Resistance Leader(P)</t>
+  </si>
+  <si>
+    <t>Occifer</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_Command (WOTC_APA_NaturalLeader, WOTC_KPP_InspiringPresence)</t>
+  </si>
+  <si>
+    <t>(WOTC_KPP_KeepFiring or WOTC_KPP_GotYouCovered)</t>
+  </si>
+  <si>
+    <t>(WOTC_KPP_YoureNotDoneYet or WOTC_KPP_FireOnTarget)</t>
+  </si>
+  <si>
+    <t>(WOTC_KPP_PrepareToFire or WOTC_KPP_PreciseGuidance or WOTC_KPP_Restock)</t>
+  </si>
+  <si>
+    <t>WOTC_KPP_KeepGoing</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Hunter(P)</t>
+  </si>
+  <si>
+    <t>Hunty</t>
+  </si>
+  <si>
+    <t>IRI_Handcannon_CV</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Harass (DP_DualPistols, WOTC_APA_RunAndGun)</t>
+  </si>
+  <si>
+    <t>(IRI_BH_ExplosiveAction or IRI_BH_DarkNight_Passive)</t>
+  </si>
+  <si>
+    <t>IRI_BH_Nightmare</t>
+  </si>
+  <si>
+    <t>IRI_BH_FeelingLucky_Passive</t>
+  </si>
+  <si>
+    <t>(IRI_BH_BigGameHunter or IRI_BH_WitchHunt)</t>
+  </si>
+  <si>
+    <t>IRI_BH_NamedBullet</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,14 +1534,14 @@
     <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="6" customWidth="1"/>
     <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="3" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
@@ -1436,7 +1580,7 @@
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
@@ -1487,39 +1631,39 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1535,1794 +1679,1982 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="24" t="s">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24" t="s">
+    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="27" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K28" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+    <row r="29" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+    <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K32" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K34" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    <row r="35" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L36" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="24" t="s">
+    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="5" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L40" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+    <row r="41" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K42" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L42" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="24" t="s">
+    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L50" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J76" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K76" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L76" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="5" t="s">
+    <row r="77" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B78" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="14"/>
+    </row>
+    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="s">
+      <c r="M80" s="14"/>
+    </row>
+    <row r="81" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B81" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
+    <row r="82" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H83" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J69" s="6" t="s">
+      <c r="J83" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K83" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L69" s="6" t="s">
+      <c r="L83" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
+    <row r="84" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J85" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K85" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L71" s="6" t="s">
+      <c r="L85" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-    </row>
-    <row r="73" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-    </row>
-    <row r="74" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-    </row>
-    <row r="75" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-    </row>
-    <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="77" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="19"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-    </row>
-    <row r="78" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-    </row>
-    <row r="79" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-    </row>
-    <row r="80" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-    </row>
-    <row r="81" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="19"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-    </row>
-    <row r="82" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="19"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-    </row>
-    <row r="83" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-    </row>
-    <row r="84" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-    </row>
-    <row r="85" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
     </row>
     <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
@@ -6561,15 +6893,199 @@
       <c r="K334" s="16"/>
       <c r="L334" s="16"/>
     </row>
+    <row r="335" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="19"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+      <c r="H335" s="16"/>
+      <c r="I335" s="16"/>
+      <c r="J335" s="16"/>
+      <c r="K335" s="16"/>
+      <c r="L335" s="16"/>
+    </row>
+    <row r="336" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="19"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+      <c r="I336" s="16"/>
+      <c r="J336" s="16"/>
+      <c r="K336" s="16"/>
+      <c r="L336" s="16"/>
+    </row>
+    <row r="337" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="19"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+      <c r="I337" s="16"/>
+      <c r="J337" s="16"/>
+      <c r="K337" s="16"/>
+      <c r="L337" s="16"/>
+    </row>
+    <row r="338" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="19"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+      <c r="H338" s="16"/>
+      <c r="I338" s="16"/>
+      <c r="J338" s="16"/>
+      <c r="K338" s="16"/>
+      <c r="L338" s="16"/>
+    </row>
+    <row r="339" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="19"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="16"/>
+      <c r="I339" s="16"/>
+      <c r="J339" s="16"/>
+      <c r="K339" s="16"/>
+      <c r="L339" s="16"/>
+    </row>
+    <row r="340" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="19"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+      <c r="H340" s="16"/>
+      <c r="I340" s="16"/>
+      <c r="J340" s="16"/>
+      <c r="K340" s="16"/>
+      <c r="L340" s="16"/>
+    </row>
+    <row r="341" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="19"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="16"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="16"/>
+      <c r="K341" s="16"/>
+      <c r="L341" s="16"/>
+    </row>
+    <row r="342" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="19"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="H342" s="16"/>
+      <c r="I342" s="16"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="16"/>
+      <c r="L342" s="16"/>
+    </row>
+    <row r="343" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="19"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
+      <c r="H343" s="16"/>
+      <c r="I343" s="16"/>
+      <c r="J343" s="16"/>
+      <c r="K343" s="16"/>
+      <c r="L343" s="16"/>
+    </row>
+    <row r="344" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="19"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
+      <c r="H344" s="16"/>
+      <c r="I344" s="16"/>
+      <c r="J344" s="16"/>
+      <c r="K344" s="16"/>
+      <c r="L344" s="16"/>
+    </row>
+    <row r="345" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="19"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
+      <c r="H345" s="16"/>
+      <c r="I345" s="16"/>
+      <c r="J345" s="16"/>
+      <c r="K345" s="16"/>
+      <c r="L345" s="16"/>
+    </row>
+    <row r="346" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="19"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
+      <c r="H346" s="16"/>
+      <c r="I346" s="16"/>
+      <c r="J346" s="16"/>
+      <c r="K346" s="16"/>
+      <c r="L346" s="16"/>
+    </row>
+    <row r="347" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="19"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
+      <c r="H347" s="16"/>
+      <c r="I347" s="16"/>
+      <c r="J347" s="16"/>
+      <c r="K347" s="16"/>
+      <c r="L347" s="16"/>
+    </row>
+    <row r="348" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="19"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
+      <c r="H348" s="16"/>
+      <c r="I348" s="16"/>
+      <c r="J348" s="16"/>
+      <c r="K348" s="16"/>
+      <c r="L348" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B37:D37"/>
+  <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050FF0F-58AD-4F29-9BE4-1EBEB549721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA8F4-2ED9-4ED1-8617-B5F7A4F6E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="346">
   <si>
     <t>Comparison</t>
   </si>
@@ -985,6 +985,117 @@
   </si>
   <si>
     <t>IRI_BH_NamedBullet</t>
+  </si>
+  <si>
+    <t>Dualist(S)</t>
+  </si>
+  <si>
+    <t>BGunslinger</t>
+  </si>
+  <si>
+    <t>Executioner(S)</t>
+  </si>
+  <si>
+    <t>ExecutionerB</t>
+  </si>
+  <si>
+    <t>SawedOffShotgun_CV</t>
+  </si>
+  <si>
+    <t>Gadgeteer(S)</t>
+  </si>
+  <si>
+    <t>GadgetMan</t>
+  </si>
+  <si>
+    <t>ShadowOps_Packmaster (IRI_GrappleGun, DeployFultonHarness, HeavyArmaments)</t>
+  </si>
+  <si>
+    <t>(MZImproviseExplosive or ThrowClaymore or F_RegenerativeMist or WOTC_APA_Smokescreen)</t>
+  </si>
+  <si>
+    <t>(LW2WotC_StingGrenades or NapalmX or ConcussionRocket or WOTC_APA_ElectronicSurveillance)</t>
+  </si>
+  <si>
+    <t>(IRI_PullAlly or WOTC_APA_UpgradedScanners or Phosphorus)</t>
+  </si>
+  <si>
+    <t>(WOTC_APA_CombatStimulants or Mrc_Apa_FreeBeacon or JavelinRockets or Firestorm)</t>
+  </si>
+  <si>
+    <t>Support(S)</t>
+  </si>
+  <si>
+    <t>Grenadier(P)</t>
+  </si>
+  <si>
+    <t>BGrenade</t>
+  </si>
+  <si>
+    <t>BSupport</t>
+  </si>
+  <si>
+    <t>Heavy(S)</t>
+  </si>
+  <si>
+    <t>BRocky</t>
+  </si>
+  <si>
+    <t>Marauder(S)</t>
+  </si>
+  <si>
+    <t>BMarauder</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Marauder</t>
+  </si>
+  <si>
+    <t>WOTC_APA_FlushEmOut</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Reflex</t>
+  </si>
+  <si>
+    <t>WOTC_APA_ExplosiveAction</t>
+  </si>
+  <si>
+    <t>WOTC_APA_CloseCombatSpecialist</t>
+  </si>
+  <si>
+    <t>LW2WotC_HitandRun</t>
+  </si>
+  <si>
+    <t>Medical Technician(S)</t>
+  </si>
+  <si>
+    <t>BCombatMedic</t>
+  </si>
+  <si>
+    <t>MedicalProtocol (WOTC_APA_AidProtocol)</t>
+  </si>
+  <si>
+    <t>RevivalProtocol</t>
+  </si>
+  <si>
+    <t>WOTC_APA_NeutralizingAgents</t>
+  </si>
+  <si>
+    <t>MZBarrierProtocol</t>
+  </si>
+  <si>
+    <t>GrimyCauterize</t>
+  </si>
+  <si>
+    <t>LW2WotC_RescueProtocol</t>
+  </si>
+  <si>
+    <t>F_Immunize</t>
+  </si>
+  <si>
+    <t>RestorativeMist</t>
+  </si>
+  <si>
+    <t>AMedic</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1204,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1106,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1182,6 +1305,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1673,7 @@
     <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" style="6" customWidth="1"/>
     <col min="11" max="11" width="33.85546875" style="6" customWidth="1"/>
@@ -1633,38 +1768,22 @@
     </row>
     <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -1681,1800 +1800,1710 @@
     </row>
     <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="24" t="s">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="24" t="s">
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="24" t="s">
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+    </row>
+    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L41" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K43" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K47" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C49" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D49" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E49" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G49" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I49" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J49" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K49" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L49" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L51" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="24" t="s">
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="5" t="s">
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19" t="s">
+    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L59" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="24" t="s">
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L67" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23" t="s">
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K69" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L69" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B71" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K71" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L71" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="23" t="s">
+    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C75" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D75" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E75" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G75" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H75" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I75" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K75" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L75" s="27" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="23" t="s">
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C77" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D77" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E77" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F77" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G77" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H77" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I77" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J77" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K77" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L77" s="27" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="14"/>
-    </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M63" s="14"/>
-    </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B64" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B66" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="14"/>
-    </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="24" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="25"/>
@@ -3490,7 +3519,7 @@
     </row>
     <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3525,42 +3554,42 @@
       </c>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B81" s="19" t="s">
-        <v>112</v>
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B81" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3573,42 +3602,42 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
-        <v>121</v>
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>124</v>
+        <v>43</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3621,263 +3650,474 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="14"/>
+    </row>
+    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M92" s="14"/>
+    </row>
+    <row r="93" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B95" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="14"/>
+    </row>
+    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B98" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K102" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L85" s="6" t="s">
+      <c r="L102" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="19"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-    </row>
-    <row r="87" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="19"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-    </row>
-    <row r="88" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-    </row>
-    <row r="89" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="19"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-    </row>
-    <row r="90" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="19"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-    </row>
-    <row r="91" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-    </row>
-    <row r="92" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-    </row>
-    <row r="93" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="19"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-    </row>
-    <row r="94" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="19"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-    </row>
-    <row r="95" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-    </row>
-    <row r="96" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-    </row>
-    <row r="97" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="19"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-    </row>
-    <row r="98" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-    </row>
-    <row r="99" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-    </row>
-    <row r="100" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-    </row>
-    <row r="101" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-    </row>
-    <row r="102" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-    </row>
-    <row r="103" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
       <c r="B103" s="19"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -3889,8 +4129,10 @@
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
       <c r="L103" s="16"/>
-    </row>
-    <row r="104" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
       <c r="B104" s="19"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -3902,8 +4144,10 @@
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
-    </row>
-    <row r="105" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="9"/>
+    </row>
+    <row r="105" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
       <c r="B105" s="19"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -3915,8 +4159,10 @@
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
       <c r="L105" s="16"/>
-    </row>
-    <row r="106" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
       <c r="B106" s="19"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -3928,8 +4174,10 @@
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
-    </row>
-    <row r="107" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
       <c r="B107" s="19"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -3941,8 +4189,10 @@
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
-    </row>
-    <row r="108" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
       <c r="B108" s="19"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -3954,8 +4204,10 @@
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
-    </row>
-    <row r="109" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
       <c r="B109" s="19"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -3967,8 +4219,10 @@
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
-    </row>
-    <row r="110" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
       <c r="B110" s="19"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3980,8 +4234,10 @@
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
-    </row>
-    <row r="111" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
       <c r="B111" s="19"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -3993,8 +4249,10 @@
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
-    </row>
-    <row r="112" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
       <c r="B112" s="19"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4006,8 +4264,10 @@
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
-    </row>
-    <row r="113" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
       <c r="B113" s="19"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -4019,8 +4279,10 @@
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
-    </row>
-    <row r="114" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
       <c r="B114" s="19"/>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4032,8 +4294,10 @@
       <c r="J114" s="16"/>
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
-    </row>
-    <row r="115" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
       <c r="B115" s="19"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -4045,8 +4309,10 @@
       <c r="J115" s="16"/>
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
-    </row>
-    <row r="116" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
       <c r="B116" s="19"/>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4058,8 +4324,10 @@
       <c r="J116" s="16"/>
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
-    </row>
-    <row r="117" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="9"/>
+    </row>
+    <row r="117" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
       <c r="B117" s="19"/>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -4071,8 +4339,10 @@
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
-    </row>
-    <row r="118" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
       <c r="B118" s="19"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4084,8 +4354,10 @@
       <c r="J118" s="16"/>
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
-    </row>
-    <row r="119" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
       <c r="B119" s="19"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -4097,8 +4369,10 @@
       <c r="J119" s="16"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
-    </row>
-    <row r="120" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
       <c r="B120" s="19"/>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -4110,8 +4384,10 @@
       <c r="J120" s="16"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
-    </row>
-    <row r="121" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
       <c r="B121" s="19"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
@@ -4123,8 +4399,10 @@
       <c r="J121" s="16"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
-    </row>
-    <row r="122" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
       <c r="B122" s="19"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4136,8 +4414,10 @@
       <c r="J122" s="16"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
-    </row>
-    <row r="123" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
       <c r="B123" s="19"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -4149,8 +4429,10 @@
       <c r="J123" s="16"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
-    </row>
-    <row r="124" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9"/>
       <c r="B124" s="19"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -4162,8 +4444,10 @@
       <c r="J124" s="16"/>
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
-    </row>
-    <row r="125" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
       <c r="B125" s="19"/>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
@@ -4175,8 +4459,10 @@
       <c r="J125" s="16"/>
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
-    </row>
-    <row r="126" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
       <c r="B126" s="19"/>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
@@ -4188,8 +4474,10 @@
       <c r="J126" s="16"/>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
-    </row>
-    <row r="127" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
       <c r="B127" s="19"/>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
@@ -4201,8 +4489,10 @@
       <c r="J127" s="16"/>
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
-    </row>
-    <row r="128" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="9"/>
+    </row>
+    <row r="128" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9"/>
       <c r="B128" s="19"/>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
@@ -4214,8 +4504,10 @@
       <c r="J128" s="16"/>
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
-    </row>
-    <row r="129" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="9"/>
+    </row>
+    <row r="129" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
       <c r="B129" s="19"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -4227,8 +4519,10 @@
       <c r="J129" s="16"/>
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
-    </row>
-    <row r="130" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="9"/>
+    </row>
+    <row r="130" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9"/>
       <c r="B130" s="19"/>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -4240,8 +4534,10 @@
       <c r="J130" s="16"/>
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
-    </row>
-    <row r="131" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="9"/>
+    </row>
+    <row r="131" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
       <c r="B131" s="19"/>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -4253,8 +4549,10 @@
       <c r="J131" s="16"/>
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
-    </row>
-    <row r="132" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="9"/>
+    </row>
+    <row r="132" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
       <c r="B132" s="19"/>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -4266,8 +4564,10 @@
       <c r="J132" s="16"/>
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
-    </row>
-    <row r="133" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="9"/>
+    </row>
+    <row r="133" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
       <c r="B133" s="19"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
@@ -4279,8 +4579,10 @@
       <c r="J133" s="16"/>
       <c r="K133" s="16"/>
       <c r="L133" s="16"/>
-    </row>
-    <row r="134" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
       <c r="B134" s="19"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -4292,8 +4594,10 @@
       <c r="J134" s="16"/>
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
-    </row>
-    <row r="135" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="9"/>
+    </row>
+    <row r="135" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
       <c r="B135" s="19"/>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -4305,8 +4609,10 @@
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
-    </row>
-    <row r="136" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="9"/>
+    </row>
+    <row r="136" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9"/>
       <c r="B136" s="19"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -4318,8 +4624,10 @@
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
-    </row>
-    <row r="137" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="9"/>
+    </row>
+    <row r="137" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9"/>
       <c r="B137" s="19"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -4331,8 +4639,10 @@
       <c r="J137" s="16"/>
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
-    </row>
-    <row r="138" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="9"/>
+    </row>
+    <row r="138" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9"/>
       <c r="B138" s="19"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -4344,8 +4654,10 @@
       <c r="J138" s="16"/>
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
-    </row>
-    <row r="139" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="9"/>
+    </row>
+    <row r="139" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9"/>
       <c r="B139" s="19"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -4357,8 +4669,10 @@
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
-    </row>
-    <row r="140" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="9"/>
+    </row>
+    <row r="140" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
       <c r="B140" s="19"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -4370,8 +4684,10 @@
       <c r="J140" s="16"/>
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
-    </row>
-    <row r="141" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="9"/>
+    </row>
+    <row r="141" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9"/>
       <c r="B141" s="19"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4383,8 +4699,10 @@
       <c r="J141" s="16"/>
       <c r="K141" s="16"/>
       <c r="L141" s="16"/>
-    </row>
-    <row r="142" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9"/>
       <c r="B142" s="19"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -4396,8 +4714,10 @@
       <c r="J142" s="16"/>
       <c r="K142" s="16"/>
       <c r="L142" s="16"/>
-    </row>
-    <row r="143" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="9"/>
+    </row>
+    <row r="143" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9"/>
       <c r="B143" s="19"/>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -4409,8 +4729,10 @@
       <c r="J143" s="16"/>
       <c r="K143" s="16"/>
       <c r="L143" s="16"/>
-    </row>
-    <row r="144" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="9"/>
+    </row>
+    <row r="144" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
       <c r="B144" s="19"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -4422,8 +4744,10 @@
       <c r="J144" s="16"/>
       <c r="K144" s="16"/>
       <c r="L144" s="16"/>
-    </row>
-    <row r="145" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="9"/>
+    </row>
+    <row r="145" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9"/>
       <c r="B145" s="19"/>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -4435,8 +4759,10 @@
       <c r="J145" s="16"/>
       <c r="K145" s="16"/>
       <c r="L145" s="16"/>
-    </row>
-    <row r="146" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="9"/>
+    </row>
+    <row r="146" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9"/>
       <c r="B146" s="19"/>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -4448,8 +4774,10 @@
       <c r="J146" s="16"/>
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
-    </row>
-    <row r="147" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9"/>
       <c r="B147" s="19"/>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
@@ -4461,8 +4789,10 @@
       <c r="J147" s="16"/>
       <c r="K147" s="16"/>
       <c r="L147" s="16"/>
-    </row>
-    <row r="148" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="9"/>
+    </row>
+    <row r="148" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9"/>
       <c r="B148" s="19"/>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
@@ -4474,8 +4804,10 @@
       <c r="J148" s="16"/>
       <c r="K148" s="16"/>
       <c r="L148" s="16"/>
-    </row>
-    <row r="149" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="9"/>
+    </row>
+    <row r="149" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9"/>
       <c r="B149" s="19"/>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
@@ -4487,8 +4819,10 @@
       <c r="J149" s="16"/>
       <c r="K149" s="16"/>
       <c r="L149" s="16"/>
-    </row>
-    <row r="150" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="9"/>
+    </row>
+    <row r="150" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
       <c r="B150" s="19"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -4500,8 +4834,10 @@
       <c r="J150" s="16"/>
       <c r="K150" s="16"/>
       <c r="L150" s="16"/>
-    </row>
-    <row r="151" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="9"/>
+    </row>
+    <row r="151" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
       <c r="B151" s="19"/>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
@@ -4513,8 +4849,10 @@
       <c r="J151" s="16"/>
       <c r="K151" s="16"/>
       <c r="L151" s="16"/>
-    </row>
-    <row r="152" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9"/>
       <c r="B152" s="19"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
@@ -4526,8 +4864,10 @@
       <c r="J152" s="16"/>
       <c r="K152" s="16"/>
       <c r="L152" s="16"/>
-    </row>
-    <row r="153" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="9"/>
+    </row>
+    <row r="153" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9"/>
       <c r="B153" s="19"/>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
@@ -4539,8 +4879,10 @@
       <c r="J153" s="16"/>
       <c r="K153" s="16"/>
       <c r="L153" s="16"/>
-    </row>
-    <row r="154" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
       <c r="B154" s="19"/>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -4552,8 +4894,10 @@
       <c r="J154" s="16"/>
       <c r="K154" s="16"/>
       <c r="L154" s="16"/>
-    </row>
-    <row r="155" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="9"/>
+    </row>
+    <row r="155" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
       <c r="B155" s="19"/>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
@@ -4565,8 +4909,10 @@
       <c r="J155" s="16"/>
       <c r="K155" s="16"/>
       <c r="L155" s="16"/>
-    </row>
-    <row r="156" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="9"/>
+    </row>
+    <row r="156" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
       <c r="B156" s="19"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
@@ -4578,8 +4924,10 @@
       <c r="J156" s="16"/>
       <c r="K156" s="16"/>
       <c r="L156" s="16"/>
-    </row>
-    <row r="157" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M156" s="9"/>
+    </row>
+    <row r="157" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
       <c r="B157" s="19"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
@@ -4591,8 +4939,10 @@
       <c r="J157" s="16"/>
       <c r="K157" s="16"/>
       <c r="L157" s="16"/>
-    </row>
-    <row r="158" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
       <c r="B158" s="19"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -4604,8 +4954,10 @@
       <c r="J158" s="16"/>
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
-    </row>
-    <row r="159" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="9"/>
+    </row>
+    <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
       <c r="B159" s="19"/>
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
@@ -4617,8 +4969,10 @@
       <c r="J159" s="16"/>
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
-    </row>
-    <row r="160" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="9"/>
+    </row>
+    <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
       <c r="B160" s="19"/>
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
@@ -4630,8 +4984,10 @@
       <c r="J160" s="16"/>
       <c r="K160" s="16"/>
       <c r="L160" s="16"/>
-    </row>
-    <row r="161" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
       <c r="B161" s="19"/>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -4643,8 +4999,10 @@
       <c r="J161" s="16"/>
       <c r="K161" s="16"/>
       <c r="L161" s="16"/>
-    </row>
-    <row r="162" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9"/>
       <c r="B162" s="19"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -4656,8 +5014,10 @@
       <c r="J162" s="16"/>
       <c r="K162" s="16"/>
       <c r="L162" s="16"/>
-    </row>
-    <row r="163" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="9"/>
+    </row>
+    <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
       <c r="B163" s="19"/>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -4669,8 +5029,10 @@
       <c r="J163" s="16"/>
       <c r="K163" s="16"/>
       <c r="L163" s="16"/>
-    </row>
-    <row r="164" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="9"/>
+    </row>
+    <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9"/>
       <c r="B164" s="19"/>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -4682,8 +5044,10 @@
       <c r="J164" s="16"/>
       <c r="K164" s="16"/>
       <c r="L164" s="16"/>
-    </row>
-    <row r="165" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M164" s="9"/>
+    </row>
+    <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9"/>
       <c r="B165" s="19"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -4695,8 +5059,10 @@
       <c r="J165" s="16"/>
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
-    </row>
-    <row r="166" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M165" s="9"/>
+    </row>
+    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
       <c r="B166" s="19"/>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
@@ -4708,8 +5074,10 @@
       <c r="J166" s="16"/>
       <c r="K166" s="16"/>
       <c r="L166" s="16"/>
-    </row>
-    <row r="167" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
       <c r="B167" s="19"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
@@ -4721,8 +5089,10 @@
       <c r="J167" s="16"/>
       <c r="K167" s="16"/>
       <c r="L167" s="16"/>
-    </row>
-    <row r="168" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9"/>
       <c r="B168" s="19"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
@@ -4734,8 +5104,10 @@
       <c r="J168" s="16"/>
       <c r="K168" s="16"/>
       <c r="L168" s="16"/>
-    </row>
-    <row r="169" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M168" s="9"/>
+    </row>
+    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9"/>
       <c r="B169" s="19"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
@@ -4747,8 +5119,10 @@
       <c r="J169" s="16"/>
       <c r="K169" s="16"/>
       <c r="L169" s="16"/>
-    </row>
-    <row r="170" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="9"/>
+    </row>
+    <row r="170" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9"/>
       <c r="B170" s="19"/>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -4760,8 +5134,10 @@
       <c r="J170" s="16"/>
       <c r="K170" s="16"/>
       <c r="L170" s="16"/>
-    </row>
-    <row r="171" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M170" s="9"/>
+    </row>
+    <row r="171" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
       <c r="B171" s="19"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -4773,8 +5149,10 @@
       <c r="J171" s="16"/>
       <c r="K171" s="16"/>
       <c r="L171" s="16"/>
-    </row>
-    <row r="172" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M171" s="9"/>
+    </row>
+    <row r="172" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
       <c r="B172" s="19"/>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -4786,8 +5164,10 @@
       <c r="J172" s="16"/>
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
-    </row>
-    <row r="173" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="9"/>
+    </row>
+    <row r="173" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9"/>
       <c r="B173" s="19"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
@@ -4799,8 +5179,10 @@
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
-    </row>
-    <row r="174" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
       <c r="B174" s="19"/>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
@@ -4812,8 +5194,10 @@
       <c r="J174" s="16"/>
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
-    </row>
-    <row r="175" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="9"/>
+    </row>
+    <row r="175" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
       <c r="B175" s="19"/>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
@@ -4825,8 +5209,10 @@
       <c r="J175" s="16"/>
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
-    </row>
-    <row r="176" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M175" s="9"/>
+    </row>
+    <row r="176" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9"/>
       <c r="B176" s="19"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
@@ -4838,8 +5224,10 @@
       <c r="J176" s="16"/>
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
-    </row>
-    <row r="177" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9"/>
       <c r="B177" s="19"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
@@ -4851,8 +5239,10 @@
       <c r="J177" s="16"/>
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
-    </row>
-    <row r="178" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="9"/>
+    </row>
+    <row r="178" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9"/>
       <c r="B178" s="19"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
@@ -4864,8 +5254,10 @@
       <c r="J178" s="16"/>
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
-    </row>
-    <row r="179" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="9"/>
+    </row>
+    <row r="179" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9"/>
       <c r="B179" s="19"/>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
@@ -4877,8 +5269,10 @@
       <c r="J179" s="16"/>
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
-    </row>
-    <row r="180" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="9"/>
+    </row>
+    <row r="180" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9"/>
       <c r="B180" s="19"/>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -4890,8 +5284,10 @@
       <c r="J180" s="16"/>
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
-    </row>
-    <row r="181" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="9"/>
+    </row>
+    <row r="181" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9"/>
       <c r="B181" s="19"/>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
@@ -4903,8 +5299,10 @@
       <c r="J181" s="16"/>
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
-    </row>
-    <row r="182" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="9"/>
+    </row>
+    <row r="182" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9"/>
       <c r="B182" s="19"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
@@ -4916,8 +5314,10 @@
       <c r="J182" s="16"/>
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
-    </row>
-    <row r="183" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M182" s="9"/>
+    </row>
+    <row r="183" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9"/>
       <c r="B183" s="19"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
@@ -4929,8 +5329,10 @@
       <c r="J183" s="16"/>
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
-    </row>
-    <row r="184" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M183" s="9"/>
+    </row>
+    <row r="184" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9"/>
       <c r="B184" s="19"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
@@ -4942,8 +5344,10 @@
       <c r="J184" s="16"/>
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
-    </row>
-    <row r="185" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M184" s="9"/>
+    </row>
+    <row r="185" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9"/>
       <c r="B185" s="19"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -4955,8 +5359,10 @@
       <c r="J185" s="16"/>
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
-    </row>
-    <row r="186" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M185" s="9"/>
+    </row>
+    <row r="186" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="9"/>
       <c r="B186" s="19"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
@@ -4968,8 +5374,10 @@
       <c r="J186" s="16"/>
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
-    </row>
-    <row r="187" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="9"/>
+    </row>
+    <row r="187" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9"/>
       <c r="B187" s="19"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
@@ -4981,8 +5389,10 @@
       <c r="J187" s="16"/>
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
-    </row>
-    <row r="188" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M187" s="9"/>
+    </row>
+    <row r="188" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9"/>
       <c r="B188" s="19"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
@@ -4994,8 +5404,10 @@
       <c r="J188" s="16"/>
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
-    </row>
-    <row r="189" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M188" s="9"/>
+    </row>
+    <row r="189" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9"/>
       <c r="B189" s="19"/>
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
@@ -5007,8 +5419,10 @@
       <c r="J189" s="16"/>
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
-    </row>
-    <row r="190" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M189" s="9"/>
+    </row>
+    <row r="190" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9"/>
       <c r="B190" s="19"/>
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
@@ -5020,8 +5434,10 @@
       <c r="J190" s="16"/>
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
-    </row>
-    <row r="191" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M190" s="9"/>
+    </row>
+    <row r="191" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9"/>
       <c r="B191" s="19"/>
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
@@ -5033,8 +5449,10 @@
       <c r="J191" s="16"/>
       <c r="K191" s="16"/>
       <c r="L191" s="16"/>
-    </row>
-    <row r="192" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M191" s="9"/>
+    </row>
+    <row r="192" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9"/>
       <c r="B192" s="19"/>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -5046,8 +5464,10 @@
       <c r="J192" s="16"/>
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
-    </row>
-    <row r="193" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M192" s="9"/>
+    </row>
+    <row r="193" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9"/>
       <c r="B193" s="19"/>
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
@@ -5059,8 +5479,10 @@
       <c r="J193" s="16"/>
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
-    </row>
-    <row r="194" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="9"/>
+    </row>
+    <row r="194" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9"/>
       <c r="B194" s="19"/>
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
@@ -5072,8 +5494,10 @@
       <c r="J194" s="16"/>
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
-    </row>
-    <row r="195" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M194" s="9"/>
+    </row>
+    <row r="195" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9"/>
       <c r="B195" s="19"/>
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
@@ -5085,8 +5509,10 @@
       <c r="J195" s="16"/>
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
-    </row>
-    <row r="196" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M195" s="9"/>
+    </row>
+    <row r="196" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9"/>
       <c r="B196" s="19"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
@@ -5098,8 +5524,10 @@
       <c r="J196" s="16"/>
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
-    </row>
-    <row r="197" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M196" s="9"/>
+    </row>
+    <row r="197" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9"/>
       <c r="B197" s="19"/>
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
@@ -5111,8 +5539,10 @@
       <c r="J197" s="16"/>
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
-    </row>
-    <row r="198" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M197" s="9"/>
+    </row>
+    <row r="198" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9"/>
       <c r="B198" s="19"/>
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
@@ -5124,8 +5554,10 @@
       <c r="J198" s="16"/>
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
-    </row>
-    <row r="199" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M198" s="9"/>
+    </row>
+    <row r="199" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9"/>
       <c r="B199" s="19"/>
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
@@ -5137,8 +5569,10 @@
       <c r="J199" s="16"/>
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
-    </row>
-    <row r="200" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M199" s="9"/>
+    </row>
+    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
       <c r="B200" s="19"/>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -5150,8 +5584,10 @@
       <c r="J200" s="16"/>
       <c r="K200" s="16"/>
       <c r="L200" s="16"/>
-    </row>
-    <row r="201" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="9"/>
+    </row>
+    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9"/>
       <c r="B201" s="19"/>
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
@@ -5163,8 +5599,10 @@
       <c r="J201" s="16"/>
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
-    </row>
-    <row r="202" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M201" s="9"/>
+    </row>
+    <row r="202" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="9"/>
       <c r="B202" s="19"/>
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
@@ -5176,8 +5614,10 @@
       <c r="J202" s="16"/>
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
-    </row>
-    <row r="203" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M202" s="9"/>
+    </row>
+    <row r="203" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9"/>
       <c r="B203" s="19"/>
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
@@ -5189,8 +5629,10 @@
       <c r="J203" s="16"/>
       <c r="K203" s="16"/>
       <c r="L203" s="16"/>
-    </row>
-    <row r="204" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M203" s="9"/>
+    </row>
+    <row r="204" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
       <c r="B204" s="19"/>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
@@ -5202,8 +5644,10 @@
       <c r="J204" s="16"/>
       <c r="K204" s="16"/>
       <c r="L204" s="16"/>
-    </row>
-    <row r="205" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="9"/>
+    </row>
+    <row r="205" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="9"/>
       <c r="B205" s="19"/>
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
@@ -5215,8 +5659,10 @@
       <c r="J205" s="16"/>
       <c r="K205" s="16"/>
       <c r="L205" s="16"/>
-    </row>
-    <row r="206" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M205" s="9"/>
+    </row>
+    <row r="206" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="9"/>
       <c r="B206" s="19"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
@@ -5228,8 +5674,10 @@
       <c r="J206" s="16"/>
       <c r="K206" s="16"/>
       <c r="L206" s="16"/>
-    </row>
-    <row r="207" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M206" s="9"/>
+    </row>
+    <row r="207" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9"/>
       <c r="B207" s="19"/>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
@@ -5241,8 +5689,10 @@
       <c r="J207" s="16"/>
       <c r="K207" s="16"/>
       <c r="L207" s="16"/>
-    </row>
-    <row r="208" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M207" s="9"/>
+    </row>
+    <row r="208" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9"/>
       <c r="B208" s="19"/>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
@@ -5254,8 +5704,10 @@
       <c r="J208" s="16"/>
       <c r="K208" s="16"/>
       <c r="L208" s="16"/>
-    </row>
-    <row r="209" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M208" s="9"/>
+    </row>
+    <row r="209" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9"/>
       <c r="B209" s="19"/>
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
@@ -5267,8 +5719,10 @@
       <c r="J209" s="16"/>
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
-    </row>
-    <row r="210" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M209" s="9"/>
+    </row>
+    <row r="210" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9"/>
       <c r="B210" s="19"/>
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
@@ -5280,8 +5734,10 @@
       <c r="J210" s="16"/>
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
-    </row>
-    <row r="211" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9"/>
       <c r="B211" s="19"/>
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
@@ -5293,8 +5749,10 @@
       <c r="J211" s="16"/>
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
-    </row>
-    <row r="212" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M211" s="9"/>
+    </row>
+    <row r="212" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
       <c r="B212" s="19"/>
       <c r="C212" s="16"/>
       <c r="D212" s="16"/>
@@ -5306,8 +5764,10 @@
       <c r="J212" s="16"/>
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
-    </row>
-    <row r="213" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M212" s="9"/>
+    </row>
+    <row r="213" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9"/>
       <c r="B213" s="19"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
@@ -5319,8 +5779,10 @@
       <c r="J213" s="16"/>
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
-    </row>
-    <row r="214" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M213" s="9"/>
+    </row>
+    <row r="214" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9"/>
       <c r="B214" s="19"/>
       <c r="C214" s="16"/>
       <c r="D214" s="16"/>
@@ -5332,8 +5794,10 @@
       <c r="J214" s="16"/>
       <c r="K214" s="16"/>
       <c r="L214" s="16"/>
-    </row>
-    <row r="215" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="9"/>
+    </row>
+    <row r="215" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
       <c r="B215" s="19"/>
       <c r="C215" s="16"/>
       <c r="D215" s="16"/>
@@ -5345,8 +5809,10 @@
       <c r="J215" s="16"/>
       <c r="K215" s="16"/>
       <c r="L215" s="16"/>
-    </row>
-    <row r="216" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M215" s="9"/>
+    </row>
+    <row r="216" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9"/>
       <c r="B216" s="19"/>
       <c r="C216" s="16"/>
       <c r="D216" s="16"/>
@@ -5358,8 +5824,10 @@
       <c r="J216" s="16"/>
       <c r="K216" s="16"/>
       <c r="L216" s="16"/>
-    </row>
-    <row r="217" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="9"/>
+    </row>
+    <row r="217" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9"/>
       <c r="B217" s="19"/>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
@@ -5371,8 +5839,10 @@
       <c r="J217" s="16"/>
       <c r="K217" s="16"/>
       <c r="L217" s="16"/>
-    </row>
-    <row r="218" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M217" s="9"/>
+    </row>
+    <row r="218" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9"/>
       <c r="B218" s="19"/>
       <c r="C218" s="16"/>
       <c r="D218" s="16"/>
@@ -5384,8 +5854,10 @@
       <c r="J218" s="16"/>
       <c r="K218" s="16"/>
       <c r="L218" s="16"/>
-    </row>
-    <row r="219" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M218" s="9"/>
+    </row>
+    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9"/>
       <c r="B219" s="19"/>
       <c r="C219" s="16"/>
       <c r="D219" s="16"/>
@@ -5397,8 +5869,10 @@
       <c r="J219" s="16"/>
       <c r="K219" s="16"/>
       <c r="L219" s="16"/>
-    </row>
-    <row r="220" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M219" s="9"/>
+    </row>
+    <row r="220" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9"/>
       <c r="B220" s="19"/>
       <c r="C220" s="16"/>
       <c r="D220" s="16"/>
@@ -5410,8 +5884,10 @@
       <c r="J220" s="16"/>
       <c r="K220" s="16"/>
       <c r="L220" s="16"/>
-    </row>
-    <row r="221" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="9"/>
+    </row>
+    <row r="221" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9"/>
       <c r="B221" s="19"/>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -5423,8 +5899,10 @@
       <c r="J221" s="16"/>
       <c r="K221" s="16"/>
       <c r="L221" s="16"/>
-    </row>
-    <row r="222" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M221" s="9"/>
+    </row>
+    <row r="222" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9"/>
       <c r="B222" s="19"/>
       <c r="C222" s="16"/>
       <c r="D222" s="16"/>
@@ -5436,8 +5914,10 @@
       <c r="J222" s="16"/>
       <c r="K222" s="16"/>
       <c r="L222" s="16"/>
-    </row>
-    <row r="223" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M222" s="9"/>
+    </row>
+    <row r="223" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9"/>
       <c r="B223" s="19"/>
       <c r="C223" s="16"/>
       <c r="D223" s="16"/>
@@ -5449,8 +5929,10 @@
       <c r="J223" s="16"/>
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
-    </row>
-    <row r="224" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="9"/>
+    </row>
+    <row r="224" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9"/>
       <c r="B224" s="19"/>
       <c r="C224" s="16"/>
       <c r="D224" s="16"/>
@@ -5462,8 +5944,10 @@
       <c r="J224" s="16"/>
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
-    </row>
-    <row r="225" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M224" s="9"/>
+    </row>
+    <row r="225" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="9"/>
       <c r="B225" s="19"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
@@ -5475,8 +5959,10 @@
       <c r="J225" s="16"/>
       <c r="K225" s="16"/>
       <c r="L225" s="16"/>
-    </row>
-    <row r="226" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M225" s="9"/>
+    </row>
+    <row r="226" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9"/>
       <c r="B226" s="19"/>
       <c r="C226" s="16"/>
       <c r="D226" s="16"/>
@@ -5488,8 +5974,10 @@
       <c r="J226" s="16"/>
       <c r="K226" s="16"/>
       <c r="L226" s="16"/>
-    </row>
-    <row r="227" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M226" s="9"/>
+    </row>
+    <row r="227" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9"/>
       <c r="B227" s="19"/>
       <c r="C227" s="16"/>
       <c r="D227" s="16"/>
@@ -5501,8 +5989,10 @@
       <c r="J227" s="16"/>
       <c r="K227" s="16"/>
       <c r="L227" s="16"/>
-    </row>
-    <row r="228" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M227" s="9"/>
+    </row>
+    <row r="228" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="9"/>
       <c r="B228" s="19"/>
       <c r="C228" s="16"/>
       <c r="D228" s="16"/>
@@ -5514,8 +6004,10 @@
       <c r="J228" s="16"/>
       <c r="K228" s="16"/>
       <c r="L228" s="16"/>
-    </row>
-    <row r="229" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M228" s="9"/>
+    </row>
+    <row r="229" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9"/>
       <c r="B229" s="19"/>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -5527,8 +6019,10 @@
       <c r="J229" s="16"/>
       <c r="K229" s="16"/>
       <c r="L229" s="16"/>
-    </row>
-    <row r="230" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="9"/>
+    </row>
+    <row r="230" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="9"/>
       <c r="B230" s="19"/>
       <c r="C230" s="16"/>
       <c r="D230" s="16"/>
@@ -5540,8 +6034,10 @@
       <c r="J230" s="16"/>
       <c r="K230" s="16"/>
       <c r="L230" s="16"/>
-    </row>
-    <row r="231" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M230" s="9"/>
+    </row>
+    <row r="231" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9"/>
       <c r="B231" s="19"/>
       <c r="C231" s="16"/>
       <c r="D231" s="16"/>
@@ -5553,8 +6049,10 @@
       <c r="J231" s="16"/>
       <c r="K231" s="16"/>
       <c r="L231" s="16"/>
-    </row>
-    <row r="232" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M231" s="9"/>
+    </row>
+    <row r="232" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9"/>
       <c r="B232" s="19"/>
       <c r="C232" s="16"/>
       <c r="D232" s="16"/>
@@ -5566,8 +6064,10 @@
       <c r="J232" s="16"/>
       <c r="K232" s="16"/>
       <c r="L232" s="16"/>
-    </row>
-    <row r="233" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M232" s="9"/>
+    </row>
+    <row r="233" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="9"/>
       <c r="B233" s="19"/>
       <c r="C233" s="16"/>
       <c r="D233" s="16"/>
@@ -5579,8 +6079,10 @@
       <c r="J233" s="16"/>
       <c r="K233" s="16"/>
       <c r="L233" s="16"/>
-    </row>
-    <row r="234" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M233" s="9"/>
+    </row>
+    <row r="234" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="9"/>
       <c r="B234" s="19"/>
       <c r="C234" s="16"/>
       <c r="D234" s="16"/>
@@ -5592,8 +6094,10 @@
       <c r="J234" s="16"/>
       <c r="K234" s="16"/>
       <c r="L234" s="16"/>
-    </row>
-    <row r="235" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M234" s="9"/>
+    </row>
+    <row r="235" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="9"/>
       <c r="B235" s="19"/>
       <c r="C235" s="16"/>
       <c r="D235" s="16"/>
@@ -5605,8 +6109,10 @@
       <c r="J235" s="16"/>
       <c r="K235" s="16"/>
       <c r="L235" s="16"/>
-    </row>
-    <row r="236" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M235" s="9"/>
+    </row>
+    <row r="236" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="9"/>
       <c r="B236" s="19"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
@@ -5618,8 +6124,10 @@
       <c r="J236" s="16"/>
       <c r="K236" s="16"/>
       <c r="L236" s="16"/>
-    </row>
-    <row r="237" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M236" s="9"/>
+    </row>
+    <row r="237" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="9"/>
       <c r="B237" s="19"/>
       <c r="C237" s="16"/>
       <c r="D237" s="16"/>
@@ -5631,8 +6139,10 @@
       <c r="J237" s="16"/>
       <c r="K237" s="16"/>
       <c r="L237" s="16"/>
-    </row>
-    <row r="238" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M237" s="9"/>
+    </row>
+    <row r="238" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="9"/>
       <c r="B238" s="19"/>
       <c r="C238" s="16"/>
       <c r="D238" s="16"/>
@@ -5644,8 +6154,10 @@
       <c r="J238" s="16"/>
       <c r="K238" s="16"/>
       <c r="L238" s="16"/>
-    </row>
-    <row r="239" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M238" s="9"/>
+    </row>
+    <row r="239" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="9"/>
       <c r="B239" s="19"/>
       <c r="C239" s="16"/>
       <c r="D239" s="16"/>
@@ -5657,8 +6169,10 @@
       <c r="J239" s="16"/>
       <c r="K239" s="16"/>
       <c r="L239" s="16"/>
-    </row>
-    <row r="240" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M239" s="9"/>
+    </row>
+    <row r="240" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="9"/>
       <c r="B240" s="19"/>
       <c r="C240" s="16"/>
       <c r="D240" s="16"/>
@@ -5670,8 +6184,10 @@
       <c r="J240" s="16"/>
       <c r="K240" s="16"/>
       <c r="L240" s="16"/>
-    </row>
-    <row r="241" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M240" s="9"/>
+    </row>
+    <row r="241" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="9"/>
       <c r="B241" s="19"/>
       <c r="C241" s="16"/>
       <c r="D241" s="16"/>
@@ -5683,8 +6199,10 @@
       <c r="J241" s="16"/>
       <c r="K241" s="16"/>
       <c r="L241" s="16"/>
-    </row>
-    <row r="242" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M241" s="9"/>
+    </row>
+    <row r="242" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="9"/>
       <c r="B242" s="19"/>
       <c r="C242" s="16"/>
       <c r="D242" s="16"/>
@@ -5696,8 +6214,10 @@
       <c r="J242" s="16"/>
       <c r="K242" s="16"/>
       <c r="L242" s="16"/>
-    </row>
-    <row r="243" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M242" s="9"/>
+    </row>
+    <row r="243" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9"/>
       <c r="B243" s="19"/>
       <c r="C243" s="16"/>
       <c r="D243" s="16"/>
@@ -5709,8 +6229,10 @@
       <c r="J243" s="16"/>
       <c r="K243" s="16"/>
       <c r="L243" s="16"/>
-    </row>
-    <row r="244" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M243" s="9"/>
+    </row>
+    <row r="244" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="9"/>
       <c r="B244" s="19"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
@@ -5722,8 +6244,10 @@
       <c r="J244" s="16"/>
       <c r="K244" s="16"/>
       <c r="L244" s="16"/>
-    </row>
-    <row r="245" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M244" s="9"/>
+    </row>
+    <row r="245" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="9"/>
       <c r="B245" s="19"/>
       <c r="C245" s="16"/>
       <c r="D245" s="16"/>
@@ -5735,8 +6259,10 @@
       <c r="J245" s="16"/>
       <c r="K245" s="16"/>
       <c r="L245" s="16"/>
-    </row>
-    <row r="246" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M245" s="9"/>
+    </row>
+    <row r="246" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="9"/>
       <c r="B246" s="19"/>
       <c r="C246" s="16"/>
       <c r="D246" s="16"/>
@@ -5748,8 +6274,10 @@
       <c r="J246" s="16"/>
       <c r="K246" s="16"/>
       <c r="L246" s="16"/>
-    </row>
-    <row r="247" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M246" s="9"/>
+    </row>
+    <row r="247" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9"/>
       <c r="B247" s="19"/>
       <c r="C247" s="16"/>
       <c r="D247" s="16"/>
@@ -5761,8 +6289,10 @@
       <c r="J247" s="16"/>
       <c r="K247" s="16"/>
       <c r="L247" s="16"/>
-    </row>
-    <row r="248" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M247" s="9"/>
+    </row>
+    <row r="248" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="9"/>
       <c r="B248" s="19"/>
       <c r="C248" s="16"/>
       <c r="D248" s="16"/>
@@ -5774,8 +6304,10 @@
       <c r="J248" s="16"/>
       <c r="K248" s="16"/>
       <c r="L248" s="16"/>
-    </row>
-    <row r="249" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M248" s="9"/>
+    </row>
+    <row r="249" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="9"/>
       <c r="B249" s="19"/>
       <c r="C249" s="16"/>
       <c r="D249" s="16"/>
@@ -5787,8 +6319,10 @@
       <c r="J249" s="16"/>
       <c r="K249" s="16"/>
       <c r="L249" s="16"/>
-    </row>
-    <row r="250" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M249" s="9"/>
+    </row>
+    <row r="250" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="9"/>
       <c r="B250" s="19"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
@@ -5800,8 +6334,10 @@
       <c r="J250" s="16"/>
       <c r="K250" s="16"/>
       <c r="L250" s="16"/>
-    </row>
-    <row r="251" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M250" s="9"/>
+    </row>
+    <row r="251" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="9"/>
       <c r="B251" s="19"/>
       <c r="C251" s="16"/>
       <c r="D251" s="16"/>
@@ -5813,8 +6349,10 @@
       <c r="J251" s="16"/>
       <c r="K251" s="16"/>
       <c r="L251" s="16"/>
-    </row>
-    <row r="252" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M251" s="9"/>
+    </row>
+    <row r="252" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="9"/>
       <c r="B252" s="19"/>
       <c r="C252" s="16"/>
       <c r="D252" s="16"/>
@@ -5826,8 +6364,10 @@
       <c r="J252" s="16"/>
       <c r="K252" s="16"/>
       <c r="L252" s="16"/>
-    </row>
-    <row r="253" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M252" s="9"/>
+    </row>
+    <row r="253" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="9"/>
       <c r="B253" s="19"/>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
@@ -5839,8 +6379,10 @@
       <c r="J253" s="16"/>
       <c r="K253" s="16"/>
       <c r="L253" s="16"/>
-    </row>
-    <row r="254" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M253" s="9"/>
+    </row>
+    <row r="254" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="9"/>
       <c r="B254" s="19"/>
       <c r="C254" s="16"/>
       <c r="D254" s="16"/>
@@ -5852,8 +6394,10 @@
       <c r="J254" s="16"/>
       <c r="K254" s="16"/>
       <c r="L254" s="16"/>
-    </row>
-    <row r="255" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M254" s="9"/>
+    </row>
+    <row r="255" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="9"/>
       <c r="B255" s="19"/>
       <c r="C255" s="16"/>
       <c r="D255" s="16"/>
@@ -5865,8 +6409,10 @@
       <c r="J255" s="16"/>
       <c r="K255" s="16"/>
       <c r="L255" s="16"/>
-    </row>
-    <row r="256" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M255" s="9"/>
+    </row>
+    <row r="256" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="9"/>
       <c r="B256" s="19"/>
       <c r="C256" s="16"/>
       <c r="D256" s="16"/>
@@ -5878,8 +6424,10 @@
       <c r="J256" s="16"/>
       <c r="K256" s="16"/>
       <c r="L256" s="16"/>
-    </row>
-    <row r="257" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M256" s="9"/>
+    </row>
+    <row r="257" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="9"/>
       <c r="B257" s="19"/>
       <c r="C257" s="16"/>
       <c r="D257" s="16"/>
@@ -5891,8 +6439,10 @@
       <c r="J257" s="16"/>
       <c r="K257" s="16"/>
       <c r="L257" s="16"/>
-    </row>
-    <row r="258" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M257" s="9"/>
+    </row>
+    <row r="258" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="9"/>
       <c r="B258" s="19"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
@@ -5904,8 +6454,10 @@
       <c r="J258" s="16"/>
       <c r="K258" s="16"/>
       <c r="L258" s="16"/>
-    </row>
-    <row r="259" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M258" s="9"/>
+    </row>
+    <row r="259" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="9"/>
       <c r="B259" s="19"/>
       <c r="C259" s="16"/>
       <c r="D259" s="16"/>
@@ -5917,8 +6469,10 @@
       <c r="J259" s="16"/>
       <c r="K259" s="16"/>
       <c r="L259" s="16"/>
-    </row>
-    <row r="260" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M259" s="9"/>
+    </row>
+    <row r="260" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="9"/>
       <c r="B260" s="19"/>
       <c r="C260" s="16"/>
       <c r="D260" s="16"/>
@@ -5930,8 +6484,10 @@
       <c r="J260" s="16"/>
       <c r="K260" s="16"/>
       <c r="L260" s="16"/>
-    </row>
-    <row r="261" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M260" s="9"/>
+    </row>
+    <row r="261" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="9"/>
       <c r="B261" s="19"/>
       <c r="C261" s="16"/>
       <c r="D261" s="16"/>
@@ -5943,8 +6499,10 @@
       <c r="J261" s="16"/>
       <c r="K261" s="16"/>
       <c r="L261" s="16"/>
-    </row>
-    <row r="262" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M261" s="9"/>
+    </row>
+    <row r="262" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9"/>
       <c r="B262" s="19"/>
       <c r="C262" s="16"/>
       <c r="D262" s="16"/>
@@ -5956,8 +6514,10 @@
       <c r="J262" s="16"/>
       <c r="K262" s="16"/>
       <c r="L262" s="16"/>
-    </row>
-    <row r="263" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M262" s="9"/>
+    </row>
+    <row r="263" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="9"/>
       <c r="B263" s="19"/>
       <c r="C263" s="16"/>
       <c r="D263" s="16"/>
@@ -5969,8 +6529,10 @@
       <c r="J263" s="16"/>
       <c r="K263" s="16"/>
       <c r="L263" s="16"/>
-    </row>
-    <row r="264" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M263" s="9"/>
+    </row>
+    <row r="264" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="9"/>
       <c r="B264" s="19"/>
       <c r="C264" s="16"/>
       <c r="D264" s="16"/>
@@ -5982,8 +6544,10 @@
       <c r="J264" s="16"/>
       <c r="K264" s="16"/>
       <c r="L264" s="16"/>
-    </row>
-    <row r="265" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M264" s="9"/>
+    </row>
+    <row r="265" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9"/>
       <c r="B265" s="19"/>
       <c r="C265" s="16"/>
       <c r="D265" s="16"/>
@@ -5995,8 +6559,10 @@
       <c r="J265" s="16"/>
       <c r="K265" s="16"/>
       <c r="L265" s="16"/>
-    </row>
-    <row r="266" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M265" s="9"/>
+    </row>
+    <row r="266" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9"/>
       <c r="B266" s="19"/>
       <c r="C266" s="16"/>
       <c r="D266" s="16"/>
@@ -6008,8 +6574,10 @@
       <c r="J266" s="16"/>
       <c r="K266" s="16"/>
       <c r="L266" s="16"/>
-    </row>
-    <row r="267" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M266" s="9"/>
+    </row>
+    <row r="267" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="9"/>
       <c r="B267" s="19"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
@@ -6021,8 +6589,10 @@
       <c r="J267" s="16"/>
       <c r="K267" s="16"/>
       <c r="L267" s="16"/>
-    </row>
-    <row r="268" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M267" s="9"/>
+    </row>
+    <row r="268" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="16"/>
       <c r="D268" s="16"/>
@@ -6034,8 +6604,10 @@
       <c r="J268" s="16"/>
       <c r="K268" s="16"/>
       <c r="L268" s="16"/>
-    </row>
-    <row r="269" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M268" s="9"/>
+    </row>
+    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="9"/>
       <c r="B269" s="19"/>
       <c r="C269" s="16"/>
       <c r="D269" s="16"/>
@@ -6047,8 +6619,10 @@
       <c r="J269" s="16"/>
       <c r="K269" s="16"/>
       <c r="L269" s="16"/>
-    </row>
-    <row r="270" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M269" s="9"/>
+    </row>
+    <row r="270" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="16"/>
       <c r="D270" s="16"/>
@@ -6060,8 +6634,10 @@
       <c r="J270" s="16"/>
       <c r="K270" s="16"/>
       <c r="L270" s="16"/>
-    </row>
-    <row r="271" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M270" s="9"/>
+    </row>
+    <row r="271" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9"/>
       <c r="B271" s="19"/>
       <c r="C271" s="16"/>
       <c r="D271" s="16"/>
@@ -6073,8 +6649,10 @@
       <c r="J271" s="16"/>
       <c r="K271" s="16"/>
       <c r="L271" s="16"/>
-    </row>
-    <row r="272" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M271" s="9"/>
+    </row>
+    <row r="272" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="16"/>
       <c r="D272" s="16"/>
@@ -6086,8 +6664,10 @@
       <c r="J272" s="16"/>
       <c r="K272" s="16"/>
       <c r="L272" s="16"/>
-    </row>
-    <row r="273" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M272" s="9"/>
+    </row>
+    <row r="273" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="9"/>
       <c r="B273" s="19"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
@@ -6099,8 +6679,10 @@
       <c r="J273" s="16"/>
       <c r="K273" s="16"/>
       <c r="L273" s="16"/>
-    </row>
-    <row r="274" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M273" s="9"/>
+    </row>
+    <row r="274" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="16"/>
       <c r="D274" s="16"/>
@@ -6112,8 +6694,10 @@
       <c r="J274" s="16"/>
       <c r="K274" s="16"/>
       <c r="L274" s="16"/>
-    </row>
-    <row r="275" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M274" s="9"/>
+    </row>
+    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="9"/>
       <c r="B275" s="19"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
@@ -6125,8 +6709,10 @@
       <c r="J275" s="16"/>
       <c r="K275" s="16"/>
       <c r="L275" s="16"/>
-    </row>
-    <row r="276" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M275" s="9"/>
+    </row>
+    <row r="276" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="16"/>
       <c r="D276" s="16"/>
@@ -6138,8 +6724,10 @@
       <c r="J276" s="16"/>
       <c r="K276" s="16"/>
       <c r="L276" s="16"/>
-    </row>
-    <row r="277" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M276" s="9"/>
+    </row>
+    <row r="277" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="9"/>
       <c r="B277" s="19"/>
       <c r="C277" s="16"/>
       <c r="D277" s="16"/>
@@ -6151,8 +6739,10 @@
       <c r="J277" s="16"/>
       <c r="K277" s="16"/>
       <c r="L277" s="16"/>
-    </row>
-    <row r="278" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M277" s="9"/>
+    </row>
+    <row r="278" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="9"/>
       <c r="B278" s="19"/>
       <c r="C278" s="16"/>
       <c r="D278" s="16"/>
@@ -6164,8 +6754,10 @@
       <c r="J278" s="16"/>
       <c r="K278" s="16"/>
       <c r="L278" s="16"/>
-    </row>
-    <row r="279" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M278" s="9"/>
+    </row>
+    <row r="279" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="16"/>
       <c r="D279" s="16"/>
@@ -6177,8 +6769,10 @@
       <c r="J279" s="16"/>
       <c r="K279" s="16"/>
       <c r="L279" s="16"/>
-    </row>
-    <row r="280" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M279" s="9"/>
+    </row>
+    <row r="280" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="9"/>
       <c r="B280" s="19"/>
       <c r="C280" s="16"/>
       <c r="D280" s="16"/>
@@ -6190,8 +6784,10 @@
       <c r="J280" s="16"/>
       <c r="K280" s="16"/>
       <c r="L280" s="16"/>
-    </row>
-    <row r="281" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M280" s="9"/>
+    </row>
+    <row r="281" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="16"/>
       <c r="D281" s="16"/>
@@ -6203,8 +6799,10 @@
       <c r="J281" s="16"/>
       <c r="K281" s="16"/>
       <c r="L281" s="16"/>
-    </row>
-    <row r="282" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M281" s="9"/>
+    </row>
+    <row r="282" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="9"/>
       <c r="B282" s="19"/>
       <c r="C282" s="16"/>
       <c r="D282" s="16"/>
@@ -6216,8 +6814,10 @@
       <c r="J282" s="16"/>
       <c r="K282" s="16"/>
       <c r="L282" s="16"/>
-    </row>
-    <row r="283" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M282" s="9"/>
+    </row>
+    <row r="283" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
@@ -6229,8 +6829,10 @@
       <c r="J283" s="16"/>
       <c r="K283" s="16"/>
       <c r="L283" s="16"/>
-    </row>
-    <row r="284" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M283" s="9"/>
+    </row>
+    <row r="284" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="9"/>
       <c r="B284" s="19"/>
       <c r="C284" s="16"/>
       <c r="D284" s="16"/>
@@ -6242,8 +6844,10 @@
       <c r="J284" s="16"/>
       <c r="K284" s="16"/>
       <c r="L284" s="16"/>
-    </row>
-    <row r="285" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M284" s="9"/>
+    </row>
+    <row r="285" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="16"/>
       <c r="D285" s="16"/>
@@ -6255,8 +6859,10 @@
       <c r="J285" s="16"/>
       <c r="K285" s="16"/>
       <c r="L285" s="16"/>
-    </row>
-    <row r="286" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M285" s="9"/>
+    </row>
+    <row r="286" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="9"/>
       <c r="B286" s="19"/>
       <c r="C286" s="16"/>
       <c r="D286" s="16"/>
@@ -6268,8 +6874,10 @@
       <c r="J286" s="16"/>
       <c r="K286" s="16"/>
       <c r="L286" s="16"/>
-    </row>
-    <row r="287" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M286" s="9"/>
+    </row>
+    <row r="287" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="16"/>
       <c r="D287" s="16"/>
@@ -6281,8 +6889,10 @@
       <c r="J287" s="16"/>
       <c r="K287" s="16"/>
       <c r="L287" s="16"/>
-    </row>
-    <row r="288" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M287" s="9"/>
+    </row>
+    <row r="288" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="9"/>
       <c r="B288" s="19"/>
       <c r="C288" s="16"/>
       <c r="D288" s="16"/>
@@ -6294,8 +6904,10 @@
       <c r="J288" s="16"/>
       <c r="K288" s="16"/>
       <c r="L288" s="16"/>
-    </row>
-    <row r="289" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M288" s="9"/>
+    </row>
+    <row r="289" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="16"/>
       <c r="D289" s="16"/>
@@ -6307,8 +6919,10 @@
       <c r="J289" s="16"/>
       <c r="K289" s="16"/>
       <c r="L289" s="16"/>
-    </row>
-    <row r="290" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M289" s="9"/>
+    </row>
+    <row r="290" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="9"/>
       <c r="B290" s="19"/>
       <c r="C290" s="16"/>
       <c r="D290" s="16"/>
@@ -6320,8 +6934,10 @@
       <c r="J290" s="16"/>
       <c r="K290" s="16"/>
       <c r="L290" s="16"/>
-    </row>
-    <row r="291" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M290" s="9"/>
+    </row>
+    <row r="291" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="16"/>
       <c r="D291" s="16"/>
@@ -6333,8 +6949,10 @@
       <c r="J291" s="16"/>
       <c r="K291" s="16"/>
       <c r="L291" s="16"/>
-    </row>
-    <row r="292" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M291" s="9"/>
+    </row>
+    <row r="292" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="9"/>
       <c r="B292" s="19"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
@@ -6346,8 +6964,10 @@
       <c r="J292" s="16"/>
       <c r="K292" s="16"/>
       <c r="L292" s="16"/>
-    </row>
-    <row r="293" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M292" s="9"/>
+    </row>
+    <row r="293" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="9"/>
       <c r="B293" s="19"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
@@ -6359,8 +6979,10 @@
       <c r="J293" s="16"/>
       <c r="K293" s="16"/>
       <c r="L293" s="16"/>
-    </row>
-    <row r="294" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M293" s="9"/>
+    </row>
+    <row r="294" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="9"/>
       <c r="B294" s="19"/>
       <c r="C294" s="16"/>
       <c r="D294" s="16"/>
@@ -6372,8 +6994,10 @@
       <c r="J294" s="16"/>
       <c r="K294" s="16"/>
       <c r="L294" s="16"/>
-    </row>
-    <row r="295" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M294" s="9"/>
+    </row>
+    <row r="295" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="9"/>
       <c r="B295" s="19"/>
       <c r="C295" s="16"/>
       <c r="D295" s="16"/>
@@ -6385,8 +7009,10 @@
       <c r="J295" s="16"/>
       <c r="K295" s="16"/>
       <c r="L295" s="16"/>
-    </row>
-    <row r="296" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M295" s="9"/>
+    </row>
+    <row r="296" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="9"/>
       <c r="B296" s="19"/>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
@@ -6398,8 +7024,10 @@
       <c r="J296" s="16"/>
       <c r="K296" s="16"/>
       <c r="L296" s="16"/>
-    </row>
-    <row r="297" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M296" s="9"/>
+    </row>
+    <row r="297" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="9"/>
       <c r="B297" s="19"/>
       <c r="C297" s="16"/>
       <c r="D297" s="16"/>
@@ -6411,8 +7039,10 @@
       <c r="J297" s="16"/>
       <c r="K297" s="16"/>
       <c r="L297" s="16"/>
-    </row>
-    <row r="298" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M297" s="9"/>
+    </row>
+    <row r="298" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="16"/>
       <c r="D298" s="16"/>
@@ -6424,8 +7054,10 @@
       <c r="J298" s="16"/>
       <c r="K298" s="16"/>
       <c r="L298" s="16"/>
-    </row>
-    <row r="299" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M298" s="9"/>
+    </row>
+    <row r="299" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="9"/>
       <c r="B299" s="19"/>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
@@ -6437,8 +7069,10 @@
       <c r="J299" s="16"/>
       <c r="K299" s="16"/>
       <c r="L299" s="16"/>
-    </row>
-    <row r="300" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M299" s="9"/>
+    </row>
+    <row r="300" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="9"/>
       <c r="B300" s="19"/>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
@@ -6450,8 +7084,10 @@
       <c r="J300" s="16"/>
       <c r="K300" s="16"/>
       <c r="L300" s="16"/>
-    </row>
-    <row r="301" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M300" s="9"/>
+    </row>
+    <row r="301" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="9"/>
       <c r="B301" s="19"/>
       <c r="C301" s="16"/>
       <c r="D301" s="16"/>
@@ -6463,8 +7099,10 @@
       <c r="J301" s="16"/>
       <c r="K301" s="16"/>
       <c r="L301" s="16"/>
-    </row>
-    <row r="302" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M301" s="9"/>
+    </row>
+    <row r="302" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="9"/>
       <c r="B302" s="19"/>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
@@ -6476,8 +7114,10 @@
       <c r="J302" s="16"/>
       <c r="K302" s="16"/>
       <c r="L302" s="16"/>
-    </row>
-    <row r="303" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M302" s="9"/>
+    </row>
+    <row r="303" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="9"/>
       <c r="B303" s="19"/>
       <c r="C303" s="16"/>
       <c r="D303" s="16"/>
@@ -6489,8 +7129,10 @@
       <c r="J303" s="16"/>
       <c r="K303" s="16"/>
       <c r="L303" s="16"/>
-    </row>
-    <row r="304" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M303" s="9"/>
+    </row>
+    <row r="304" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="9"/>
       <c r="B304" s="19"/>
       <c r="C304" s="16"/>
       <c r="D304" s="16"/>
@@ -6502,8 +7144,10 @@
       <c r="J304" s="16"/>
       <c r="K304" s="16"/>
       <c r="L304" s="16"/>
-    </row>
-    <row r="305" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M304" s="9"/>
+    </row>
+    <row r="305" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="9"/>
       <c r="B305" s="19"/>
       <c r="C305" s="16"/>
       <c r="D305" s="16"/>
@@ -6515,8 +7159,10 @@
       <c r="J305" s="16"/>
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
-    </row>
-    <row r="306" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M305" s="9"/>
+    </row>
+    <row r="306" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9"/>
       <c r="B306" s="19"/>
       <c r="C306" s="16"/>
       <c r="D306" s="16"/>
@@ -6528,8 +7174,10 @@
       <c r="J306" s="16"/>
       <c r="K306" s="16"/>
       <c r="L306" s="16"/>
-    </row>
-    <row r="307" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M306" s="9"/>
+    </row>
+    <row r="307" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="9"/>
       <c r="B307" s="19"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
@@ -6541,8 +7189,10 @@
       <c r="J307" s="16"/>
       <c r="K307" s="16"/>
       <c r="L307" s="16"/>
-    </row>
-    <row r="308" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M307" s="9"/>
+    </row>
+    <row r="308" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9"/>
       <c r="B308" s="19"/>
       <c r="C308" s="16"/>
       <c r="D308" s="16"/>
@@ -6554,8 +7204,10 @@
       <c r="J308" s="16"/>
       <c r="K308" s="16"/>
       <c r="L308" s="16"/>
-    </row>
-    <row r="309" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M308" s="9"/>
+    </row>
+    <row r="309" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="9"/>
       <c r="B309" s="19"/>
       <c r="C309" s="16"/>
       <c r="D309" s="16"/>
@@ -6567,8 +7219,10 @@
       <c r="J309" s="16"/>
       <c r="K309" s="16"/>
       <c r="L309" s="16"/>
-    </row>
-    <row r="310" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M309" s="9"/>
+    </row>
+    <row r="310" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="9"/>
       <c r="B310" s="19"/>
       <c r="C310" s="16"/>
       <c r="D310" s="16"/>
@@ -6580,8 +7234,10 @@
       <c r="J310" s="16"/>
       <c r="K310" s="16"/>
       <c r="L310" s="16"/>
-    </row>
-    <row r="311" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M310" s="9"/>
+    </row>
+    <row r="311" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="9"/>
       <c r="B311" s="19"/>
       <c r="C311" s="16"/>
       <c r="D311" s="16"/>
@@ -6593,8 +7249,10 @@
       <c r="J311" s="16"/>
       <c r="K311" s="16"/>
       <c r="L311" s="16"/>
-    </row>
-    <row r="312" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M311" s="9"/>
+    </row>
+    <row r="312" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="9"/>
       <c r="B312" s="19"/>
       <c r="C312" s="16"/>
       <c r="D312" s="16"/>
@@ -6606,8 +7264,10 @@
       <c r="J312" s="16"/>
       <c r="K312" s="16"/>
       <c r="L312" s="16"/>
-    </row>
-    <row r="313" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M312" s="9"/>
+    </row>
+    <row r="313" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="9"/>
       <c r="B313" s="19"/>
       <c r="C313" s="16"/>
       <c r="D313" s="16"/>
@@ -6619,8 +7279,10 @@
       <c r="J313" s="16"/>
       <c r="K313" s="16"/>
       <c r="L313" s="16"/>
-    </row>
-    <row r="314" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M313" s="9"/>
+    </row>
+    <row r="314" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="9"/>
       <c r="B314" s="19"/>
       <c r="C314" s="16"/>
       <c r="D314" s="16"/>
@@ -6632,8 +7294,10 @@
       <c r="J314" s="16"/>
       <c r="K314" s="16"/>
       <c r="L314" s="16"/>
-    </row>
-    <row r="315" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M314" s="9"/>
+    </row>
+    <row r="315" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="9"/>
       <c r="B315" s="19"/>
       <c r="C315" s="16"/>
       <c r="D315" s="16"/>
@@ -6645,8 +7309,10 @@
       <c r="J315" s="16"/>
       <c r="K315" s="16"/>
       <c r="L315" s="16"/>
-    </row>
-    <row r="316" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M315" s="9"/>
+    </row>
+    <row r="316" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="9"/>
       <c r="B316" s="19"/>
       <c r="C316" s="16"/>
       <c r="D316" s="16"/>
@@ -6658,8 +7324,10 @@
       <c r="J316" s="16"/>
       <c r="K316" s="16"/>
       <c r="L316" s="16"/>
-    </row>
-    <row r="317" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M316" s="9"/>
+    </row>
+    <row r="317" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="9"/>
       <c r="B317" s="19"/>
       <c r="C317" s="16"/>
       <c r="D317" s="16"/>
@@ -6671,8 +7339,10 @@
       <c r="J317" s="16"/>
       <c r="K317" s="16"/>
       <c r="L317" s="16"/>
-    </row>
-    <row r="318" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M317" s="9"/>
+    </row>
+    <row r="318" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="9"/>
       <c r="B318" s="19"/>
       <c r="C318" s="16"/>
       <c r="D318" s="16"/>
@@ -6684,8 +7354,10 @@
       <c r="J318" s="16"/>
       <c r="K318" s="16"/>
       <c r="L318" s="16"/>
-    </row>
-    <row r="319" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M318" s="9"/>
+    </row>
+    <row r="319" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="9"/>
       <c r="B319" s="19"/>
       <c r="C319" s="16"/>
       <c r="D319" s="16"/>
@@ -6697,8 +7369,10 @@
       <c r="J319" s="16"/>
       <c r="K319" s="16"/>
       <c r="L319" s="16"/>
-    </row>
-    <row r="320" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M319" s="9"/>
+    </row>
+    <row r="320" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="9"/>
       <c r="B320" s="19"/>
       <c r="C320" s="16"/>
       <c r="D320" s="16"/>
@@ -6710,8 +7384,10 @@
       <c r="J320" s="16"/>
       <c r="K320" s="16"/>
       <c r="L320" s="16"/>
-    </row>
-    <row r="321" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M320" s="9"/>
+    </row>
+    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="9"/>
       <c r="B321" s="19"/>
       <c r="C321" s="16"/>
       <c r="D321" s="16"/>
@@ -6723,8 +7399,10 @@
       <c r="J321" s="16"/>
       <c r="K321" s="16"/>
       <c r="L321" s="16"/>
-    </row>
-    <row r="322" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M321" s="9"/>
+    </row>
+    <row r="322" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="9"/>
       <c r="B322" s="19"/>
       <c r="C322" s="16"/>
       <c r="D322" s="16"/>
@@ -6736,8 +7414,10 @@
       <c r="J322" s="16"/>
       <c r="K322" s="16"/>
       <c r="L322" s="16"/>
-    </row>
-    <row r="323" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M322" s="9"/>
+    </row>
+    <row r="323" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="9"/>
       <c r="B323" s="19"/>
       <c r="C323" s="16"/>
       <c r="D323" s="16"/>
@@ -6749,8 +7429,10 @@
       <c r="J323" s="16"/>
       <c r="K323" s="16"/>
       <c r="L323" s="16"/>
-    </row>
-    <row r="324" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M323" s="9"/>
+    </row>
+    <row r="324" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="9"/>
       <c r="B324" s="19"/>
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
@@ -6762,8 +7444,10 @@
       <c r="J324" s="16"/>
       <c r="K324" s="16"/>
       <c r="L324" s="16"/>
-    </row>
-    <row r="325" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M324" s="9"/>
+    </row>
+    <row r="325" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="9"/>
       <c r="B325" s="19"/>
       <c r="C325" s="16"/>
       <c r="D325" s="16"/>
@@ -6775,8 +7459,10 @@
       <c r="J325" s="16"/>
       <c r="K325" s="16"/>
       <c r="L325" s="16"/>
-    </row>
-    <row r="326" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M325" s="9"/>
+    </row>
+    <row r="326" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="9"/>
       <c r="B326" s="19"/>
       <c r="C326" s="16"/>
       <c r="D326" s="16"/>
@@ -6788,8 +7474,10 @@
       <c r="J326" s="16"/>
       <c r="K326" s="16"/>
       <c r="L326" s="16"/>
-    </row>
-    <row r="327" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M326" s="9"/>
+    </row>
+    <row r="327" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="9"/>
       <c r="B327" s="19"/>
       <c r="C327" s="16"/>
       <c r="D327" s="16"/>
@@ -6801,8 +7489,10 @@
       <c r="J327" s="16"/>
       <c r="K327" s="16"/>
       <c r="L327" s="16"/>
-    </row>
-    <row r="328" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M327" s="9"/>
+    </row>
+    <row r="328" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="9"/>
       <c r="B328" s="19"/>
       <c r="C328" s="16"/>
       <c r="D328" s="16"/>
@@ -6814,8 +7504,10 @@
       <c r="J328" s="16"/>
       <c r="K328" s="16"/>
       <c r="L328" s="16"/>
-    </row>
-    <row r="329" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M328" s="9"/>
+    </row>
+    <row r="329" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="9"/>
       <c r="B329" s="19"/>
       <c r="C329" s="16"/>
       <c r="D329" s="16"/>
@@ -6827,8 +7519,10 @@
       <c r="J329" s="16"/>
       <c r="K329" s="16"/>
       <c r="L329" s="16"/>
-    </row>
-    <row r="330" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M329" s="9"/>
+    </row>
+    <row r="330" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="9"/>
       <c r="B330" s="19"/>
       <c r="C330" s="16"/>
       <c r="D330" s="16"/>
@@ -6840,8 +7534,10 @@
       <c r="J330" s="16"/>
       <c r="K330" s="16"/>
       <c r="L330" s="16"/>
-    </row>
-    <row r="331" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M330" s="9"/>
+    </row>
+    <row r="331" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="9"/>
       <c r="B331" s="19"/>
       <c r="C331" s="16"/>
       <c r="D331" s="16"/>
@@ -6853,8 +7549,10 @@
       <c r="J331" s="16"/>
       <c r="K331" s="16"/>
       <c r="L331" s="16"/>
-    </row>
-    <row r="332" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M331" s="9"/>
+    </row>
+    <row r="332" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="9"/>
       <c r="B332" s="19"/>
       <c r="C332" s="16"/>
       <c r="D332" s="16"/>
@@ -6866,8 +7564,10 @@
       <c r="J332" s="16"/>
       <c r="K332" s="16"/>
       <c r="L332" s="16"/>
-    </row>
-    <row r="333" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M332" s="9"/>
+    </row>
+    <row r="333" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="9"/>
       <c r="B333" s="19"/>
       <c r="C333" s="16"/>
       <c r="D333" s="16"/>
@@ -6879,8 +7579,10 @@
       <c r="J333" s="16"/>
       <c r="K333" s="16"/>
       <c r="L333" s="16"/>
-    </row>
-    <row r="334" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M333" s="9"/>
+    </row>
+    <row r="334" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="9"/>
       <c r="B334" s="19"/>
       <c r="C334" s="16"/>
       <c r="D334" s="16"/>
@@ -6892,8 +7594,10 @@
       <c r="J334" s="16"/>
       <c r="K334" s="16"/>
       <c r="L334" s="16"/>
-    </row>
-    <row r="335" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M334" s="9"/>
+    </row>
+    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="9"/>
       <c r="B335" s="19"/>
       <c r="C335" s="16"/>
       <c r="D335" s="16"/>
@@ -6905,8 +7609,10 @@
       <c r="J335" s="16"/>
       <c r="K335" s="16"/>
       <c r="L335" s="16"/>
-    </row>
-    <row r="336" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M335" s="9"/>
+    </row>
+    <row r="336" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="9"/>
       <c r="B336" s="19"/>
       <c r="C336" s="16"/>
       <c r="D336" s="16"/>
@@ -6918,8 +7624,10 @@
       <c r="J336" s="16"/>
       <c r="K336" s="16"/>
       <c r="L336" s="16"/>
-    </row>
-    <row r="337" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M336" s="9"/>
+    </row>
+    <row r="337" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="9"/>
       <c r="B337" s="19"/>
       <c r="C337" s="16"/>
       <c r="D337" s="16"/>
@@ -6931,8 +7639,10 @@
       <c r="J337" s="16"/>
       <c r="K337" s="16"/>
       <c r="L337" s="16"/>
-    </row>
-    <row r="338" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M337" s="9"/>
+    </row>
+    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="9"/>
       <c r="B338" s="19"/>
       <c r="C338" s="16"/>
       <c r="D338" s="16"/>
@@ -6944,8 +7654,10 @@
       <c r="J338" s="16"/>
       <c r="K338" s="16"/>
       <c r="L338" s="16"/>
-    </row>
-    <row r="339" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M338" s="9"/>
+    </row>
+    <row r="339" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="9"/>
       <c r="B339" s="19"/>
       <c r="C339" s="16"/>
       <c r="D339" s="16"/>
@@ -6957,8 +7669,10 @@
       <c r="J339" s="16"/>
       <c r="K339" s="16"/>
       <c r="L339" s="16"/>
-    </row>
-    <row r="340" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M339" s="9"/>
+    </row>
+    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="9"/>
       <c r="B340" s="19"/>
       <c r="C340" s="16"/>
       <c r="D340" s="16"/>
@@ -6970,8 +7684,10 @@
       <c r="J340" s="16"/>
       <c r="K340" s="16"/>
       <c r="L340" s="16"/>
-    </row>
-    <row r="341" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M340" s="9"/>
+    </row>
+    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="9"/>
       <c r="B341" s="19"/>
       <c r="C341" s="16"/>
       <c r="D341" s="16"/>
@@ -6983,8 +7699,10 @@
       <c r="J341" s="16"/>
       <c r="K341" s="16"/>
       <c r="L341" s="16"/>
-    </row>
-    <row r="342" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M341" s="9"/>
+    </row>
+    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="9"/>
       <c r="B342" s="19"/>
       <c r="C342" s="16"/>
       <c r="D342" s="16"/>
@@ -6996,8 +7714,10 @@
       <c r="J342" s="16"/>
       <c r="K342" s="16"/>
       <c r="L342" s="16"/>
-    </row>
-    <row r="343" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M342" s="9"/>
+    </row>
+    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="9"/>
       <c r="B343" s="19"/>
       <c r="C343" s="16"/>
       <c r="D343" s="16"/>
@@ -7009,8 +7729,10 @@
       <c r="J343" s="16"/>
       <c r="K343" s="16"/>
       <c r="L343" s="16"/>
-    </row>
-    <row r="344" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M343" s="9"/>
+    </row>
+    <row r="344" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="9"/>
       <c r="B344" s="19"/>
       <c r="C344" s="16"/>
       <c r="D344" s="16"/>
@@ -7022,8 +7744,10 @@
       <c r="J344" s="16"/>
       <c r="K344" s="16"/>
       <c r="L344" s="16"/>
-    </row>
-    <row r="345" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M344" s="9"/>
+    </row>
+    <row r="345" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="9"/>
       <c r="B345" s="19"/>
       <c r="C345" s="16"/>
       <c r="D345" s="16"/>
@@ -7035,8 +7759,10 @@
       <c r="J345" s="16"/>
       <c r="K345" s="16"/>
       <c r="L345" s="16"/>
-    </row>
-    <row r="346" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M345" s="9"/>
+    </row>
+    <row r="346" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="9"/>
       <c r="B346" s="19"/>
       <c r="C346" s="16"/>
       <c r="D346" s="16"/>
@@ -7048,8 +7774,10 @@
       <c r="J346" s="16"/>
       <c r="K346" s="16"/>
       <c r="L346" s="16"/>
-    </row>
-    <row r="347" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M346" s="9"/>
+    </row>
+    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="9"/>
       <c r="B347" s="19"/>
       <c r="C347" s="16"/>
       <c r="D347" s="16"/>
@@ -7061,8 +7789,10 @@
       <c r="J347" s="16"/>
       <c r="K347" s="16"/>
       <c r="L347" s="16"/>
-    </row>
-    <row r="348" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M347" s="9"/>
+    </row>
+    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="9"/>
       <c r="B348" s="19"/>
       <c r="C348" s="16"/>
       <c r="D348" s="16"/>
@@ -7074,18 +7804,274 @@
       <c r="J348" s="16"/>
       <c r="K348" s="16"/>
       <c r="L348" s="16"/>
+      <c r="M348" s="9"/>
+    </row>
+    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="9"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="16"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
+      <c r="H349" s="16"/>
+      <c r="I349" s="16"/>
+      <c r="J349" s="16"/>
+      <c r="K349" s="16"/>
+      <c r="L349" s="16"/>
+      <c r="M349" s="9"/>
+    </row>
+    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="9"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="16"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
+      <c r="H350" s="16"/>
+      <c r="I350" s="16"/>
+      <c r="J350" s="16"/>
+      <c r="K350" s="16"/>
+      <c r="L350" s="16"/>
+      <c r="M350" s="9"/>
+    </row>
+    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="9"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="16"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
+      <c r="H351" s="16"/>
+      <c r="I351" s="16"/>
+      <c r="J351" s="16"/>
+      <c r="K351" s="16"/>
+      <c r="L351" s="16"/>
+      <c r="M351" s="9"/>
+    </row>
+    <row r="352" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="9"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
+      <c r="H352" s="16"/>
+      <c r="I352" s="16"/>
+      <c r="J352" s="16"/>
+      <c r="K352" s="16"/>
+      <c r="L352" s="16"/>
+      <c r="M352" s="9"/>
+    </row>
+    <row r="353" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="9"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
+      <c r="H353" s="16"/>
+      <c r="I353" s="16"/>
+      <c r="J353" s="16"/>
+      <c r="K353" s="16"/>
+      <c r="L353" s="16"/>
+      <c r="M353" s="9"/>
+    </row>
+    <row r="354" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="9"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
+      <c r="H354" s="16"/>
+      <c r="I354" s="16"/>
+      <c r="J354" s="16"/>
+      <c r="K354" s="16"/>
+      <c r="L354" s="16"/>
+      <c r="M354" s="9"/>
+    </row>
+    <row r="355" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="9"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="16"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
+      <c r="H355" s="16"/>
+      <c r="I355" s="16"/>
+      <c r="J355" s="16"/>
+      <c r="K355" s="16"/>
+      <c r="L355" s="16"/>
+      <c r="M355" s="9"/>
+    </row>
+    <row r="356" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="9"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="16"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
+      <c r="G356" s="16"/>
+      <c r="H356" s="16"/>
+      <c r="I356" s="16"/>
+      <c r="J356" s="16"/>
+      <c r="K356" s="16"/>
+      <c r="L356" s="16"/>
+      <c r="M356" s="9"/>
+    </row>
+    <row r="357" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="9"/>
+      <c r="B357" s="19"/>
+      <c r="C357" s="16"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
+      <c r="G357" s="16"/>
+      <c r="H357" s="16"/>
+      <c r="I357" s="16"/>
+      <c r="J357" s="16"/>
+      <c r="K357" s="16"/>
+      <c r="L357" s="16"/>
+      <c r="M357" s="9"/>
+    </row>
+    <row r="358" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="9"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
+      <c r="G358" s="16"/>
+      <c r="H358" s="16"/>
+      <c r="I358" s="16"/>
+      <c r="J358" s="16"/>
+      <c r="K358" s="16"/>
+      <c r="L358" s="16"/>
+      <c r="M358" s="9"/>
+    </row>
+    <row r="359" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="9"/>
+      <c r="B359" s="19"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+      <c r="H359" s="16"/>
+      <c r="I359" s="16"/>
+      <c r="J359" s="16"/>
+      <c r="K359" s="16"/>
+      <c r="L359" s="16"/>
+      <c r="M359" s="9"/>
+    </row>
+    <row r="360" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="9"/>
+      <c r="B360" s="19"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+      <c r="H360" s="16"/>
+      <c r="I360" s="16"/>
+      <c r="J360" s="16"/>
+      <c r="K360" s="16"/>
+      <c r="L360" s="16"/>
+      <c r="M360" s="9"/>
+    </row>
+    <row r="361" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="9"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="16"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="16"/>
+      <c r="F361" s="16"/>
+      <c r="G361" s="16"/>
+      <c r="H361" s="16"/>
+      <c r="I361" s="16"/>
+      <c r="J361" s="16"/>
+      <c r="K361" s="16"/>
+      <c r="L361" s="16"/>
+      <c r="M361" s="9"/>
+    </row>
+    <row r="362" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="9"/>
+      <c r="B362" s="19"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="16"/>
+      <c r="H362" s="16"/>
+      <c r="I362" s="16"/>
+      <c r="J362" s="16"/>
+      <c r="K362" s="16"/>
+      <c r="L362" s="16"/>
+      <c r="M362" s="9"/>
+    </row>
+    <row r="363" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="9"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="16"/>
+      <c r="H363" s="16"/>
+      <c r="I363" s="16"/>
+      <c r="J363" s="16"/>
+      <c r="K363" s="16"/>
+      <c r="L363" s="16"/>
+      <c r="M363" s="9"/>
+    </row>
+    <row r="364" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="9"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="16"/>
+      <c r="H364" s="16"/>
+      <c r="I364" s="16"/>
+      <c r="J364" s="16"/>
+      <c r="K364" s="16"/>
+      <c r="L364" s="16"/>
+      <c r="M364" s="9"/>
+    </row>
+    <row r="365" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="9"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="16"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
+      <c r="G365" s="16"/>
+      <c r="H365" s="16"/>
+      <c r="I365" s="16"/>
+      <c r="J365" s="16"/>
+      <c r="K365" s="16"/>
+      <c r="L365" s="16"/>
+      <c r="M365" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B96:D96"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA8F4-2ED9-4ED1-8617-B5F7A4F6E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86739E1D-6AAA-4F5C-997D-CC5DEE817BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="358">
   <si>
     <t>Comparison</t>
   </si>
@@ -1096,6 +1096,42 @@
   </si>
   <si>
     <t>AMedic</t>
+  </si>
+  <si>
+    <t>Arbalist(S)</t>
+  </si>
+  <si>
+    <t>AArbalist</t>
+  </si>
+  <si>
+    <t>Techie(S)</t>
+  </si>
+  <si>
+    <t>ATechspert</t>
+  </si>
+  <si>
+    <t>Tesla Trooper(S)</t>
+  </si>
+  <si>
+    <t>BTesla</t>
+  </si>
+  <si>
+    <t>Scrapper(S)</t>
+  </si>
+  <si>
+    <t>BScrapper</t>
+  </si>
+  <si>
+    <t>ARFMPlunderer</t>
+  </si>
+  <si>
+    <t>Sidearm_CV</t>
+  </si>
+  <si>
+    <t>AHWTeslaRifle</t>
+  </si>
+  <si>
+    <t>Plunderer/Quartermaster(S)</t>
   </si>
 </sst>
 </file>
@@ -1300,12 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1317,6 +1347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,16 +1694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
@@ -1714,11 +1750,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1776,14 +1812,14 @@
       <c r="D5" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -1904,14 +1940,14 @@
       <c r="D11" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
@@ -1936,14 +1972,14 @@
       <c r="D13" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
@@ -1960,11 +1996,11 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2158,11 +2194,11 @@
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2402,25 +2438,25 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" s="26" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2446,14 +2482,14 @@
       <c r="D35" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -2516,141 +2552,125 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="5" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2666,39 +2686,39 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2714,39 +2734,39 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>85</v>
+        <v>184</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,45 +2779,43 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="27" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="27" t="s">
+      <c r="C49" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
@@ -2809,43 +2827,45 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="51" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
@@ -2860,141 +2880,141 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="24" t="s">
+    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="14"/>
-    </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="5" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="14"/>
-    </row>
-    <row r="55" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3010,39 +3030,39 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>270</v>
+        <v>99</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3058,39 +3078,39 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3106,39 +3126,39 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3154,94 +3174,72 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="23" t="s">
-        <v>50</v>
+    <row r="65" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
@@ -3256,40 +3254,24 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="23" t="s">
-        <v>195</v>
+    <row r="69" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
@@ -3304,87 +3286,93 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B71" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3400,42 +3388,40 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="27" t="s">
+    <row r="75" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="M75" s="9"/>
+      <c r="E75" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
@@ -3450,42 +3436,40 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I77" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="M77" s="9"/>
+    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
@@ -3500,93 +3484,69 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M80" s="14"/>
-    </row>
-    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,40 +3562,42 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B83" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="83" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I83" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L83" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M83" s="9"/>
     </row>
     <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
@@ -3650,40 +3612,42 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>156</v>
-      </c>
+    <row r="85" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J85" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L85" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
@@ -3698,87 +3662,93 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M88" s="14"/>
+    </row>
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="23" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>32</v>
+        <v>132</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3794,93 +3764,88 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="14"/>
-    </row>
-    <row r="92" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M92" s="14"/>
-    </row>
-    <row r="93" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>247</v>
+    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B91" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J93" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L93" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3896,390 +3861,469 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B95" s="19" t="s">
+    <row r="95" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L95" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="14"/>
+    </row>
+    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M100" s="14"/>
+    </row>
+    <row r="101" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B103" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H103" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I103" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J103" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K103" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L95" s="6" t="s">
+      <c r="L103" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="24" t="s">
+    <row r="104" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="20" t="s">
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="14"/>
+    </row>
+    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J105" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K97" s="7" t="s">
+      <c r="K105" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L97" s="7" t="s">
+      <c r="L105" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M97" s="14"/>
-    </row>
-    <row r="98" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B98" s="19" t="s">
+      <c r="M105" s="14"/>
+    </row>
+    <row r="106" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B106" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H106" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I106" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J106" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K106" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L98" s="6" t="s">
+      <c r="L106" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19" t="s">
+    <row r="107" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E108" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H108" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J108" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K108" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L100" s="6" t="s">
+      <c r="L108" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="19" t="s">
+    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E110" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G110" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H110" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I102" s="6" t="s">
+      <c r="I110" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J110" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K110" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L102" s="6" t="s">
+      <c r="L110" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="9"/>
+    <row r="111" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+    </row>
+    <row r="113" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
     </row>
     <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
@@ -8061,17 +8105,182 @@
       <c r="L365" s="16"/>
       <c r="M365" s="9"/>
     </row>
+    <row r="366" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="9"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="16"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="16"/>
+      <c r="F366" s="16"/>
+      <c r="G366" s="16"/>
+      <c r="H366" s="16"/>
+      <c r="I366" s="16"/>
+      <c r="J366" s="16"/>
+      <c r="K366" s="16"/>
+      <c r="L366" s="16"/>
+      <c r="M366" s="9"/>
+    </row>
+    <row r="367" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="9"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="16"/>
+      <c r="D367" s="16"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="16"/>
+      <c r="G367" s="16"/>
+      <c r="H367" s="16"/>
+      <c r="I367" s="16"/>
+      <c r="J367" s="16"/>
+      <c r="K367" s="16"/>
+      <c r="L367" s="16"/>
+      <c r="M367" s="9"/>
+    </row>
+    <row r="368" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="9"/>
+      <c r="B368" s="19"/>
+      <c r="C368" s="16"/>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16"/>
+      <c r="F368" s="16"/>
+      <c r="G368" s="16"/>
+      <c r="H368" s="16"/>
+      <c r="I368" s="16"/>
+      <c r="J368" s="16"/>
+      <c r="K368" s="16"/>
+      <c r="L368" s="16"/>
+      <c r="M368" s="9"/>
+    </row>
+    <row r="369" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="9"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="16"/>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16"/>
+      <c r="F369" s="16"/>
+      <c r="G369" s="16"/>
+      <c r="H369" s="16"/>
+      <c r="I369" s="16"/>
+      <c r="J369" s="16"/>
+      <c r="K369" s="16"/>
+      <c r="L369" s="16"/>
+      <c r="M369" s="9"/>
+    </row>
+    <row r="370" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="9"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
+      <c r="G370" s="16"/>
+      <c r="H370" s="16"/>
+      <c r="I370" s="16"/>
+      <c r="J370" s="16"/>
+      <c r="K370" s="16"/>
+      <c r="L370" s="16"/>
+      <c r="M370" s="9"/>
+    </row>
+    <row r="371" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="9"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
+      <c r="G371" s="16"/>
+      <c r="H371" s="16"/>
+      <c r="I371" s="16"/>
+      <c r="J371" s="16"/>
+      <c r="K371" s="16"/>
+      <c r="L371" s="16"/>
+      <c r="M371" s="9"/>
+    </row>
+    <row r="372" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="9"/>
+      <c r="B372" s="19"/>
+      <c r="C372" s="16"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
+      <c r="H372" s="16"/>
+      <c r="I372" s="16"/>
+      <c r="J372" s="16"/>
+      <c r="K372" s="16"/>
+      <c r="L372" s="16"/>
+      <c r="M372" s="9"/>
+    </row>
+    <row r="373" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="9"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="16"/>
+      <c r="D373" s="16"/>
+      <c r="E373" s="16"/>
+      <c r="F373" s="16"/>
+      <c r="G373" s="16"/>
+      <c r="H373" s="16"/>
+      <c r="I373" s="16"/>
+      <c r="J373" s="16"/>
+      <c r="K373" s="16"/>
+      <c r="L373" s="16"/>
+      <c r="M373" s="9"/>
+    </row>
+    <row r="374" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="9"/>
+      <c r="B374" s="19"/>
+      <c r="C374" s="16"/>
+      <c r="D374" s="16"/>
+      <c r="E374" s="16"/>
+      <c r="F374" s="16"/>
+      <c r="G374" s="16"/>
+      <c r="H374" s="16"/>
+      <c r="I374" s="16"/>
+      <c r="J374" s="16"/>
+      <c r="K374" s="16"/>
+      <c r="L374" s="16"/>
+      <c r="M374" s="9"/>
+    </row>
+    <row r="375" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="9"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="16"/>
+      <c r="D375" s="16"/>
+      <c r="E375" s="16"/>
+      <c r="F375" s="16"/>
+      <c r="G375" s="16"/>
+      <c r="H375" s="16"/>
+      <c r="I375" s="16"/>
+      <c r="J375" s="16"/>
+      <c r="K375" s="16"/>
+      <c r="L375" s="16"/>
+      <c r="M375" s="9"/>
+    </row>
+    <row r="376" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="9"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="16"/>
+      <c r="D376" s="16"/>
+      <c r="E376" s="16"/>
+      <c r="F376" s="16"/>
+      <c r="G376" s="16"/>
+      <c r="H376" s="16"/>
+      <c r="I376" s="16"/>
+      <c r="J376" s="16"/>
+      <c r="K376" s="16"/>
+      <c r="L376" s="16"/>
+      <c r="M376" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86739E1D-6AAA-4F5C-997D-CC5DEE817BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26477FBC-B392-49C6-87D1-05FEE45D34AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,9 +843,6 @@
     <t>WOTC_APA_ProtocolPackages (WOTC_APA_Failsafe)</t>
   </si>
   <si>
-    <t>Scavenger(P)</t>
-  </si>
-  <si>
     <t>BScav</t>
   </si>
   <si>
@@ -1132,6 +1129,9 @@
   </si>
   <si>
     <t>Plunderer/Quartermaster(S)</t>
+  </si>
+  <si>
+    <t>Quartermaster(P)</t>
   </si>
 </sst>
 </file>
@@ -1696,29 +1696,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="3" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1731,7 +1731,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1748,10 +1748,10 @@
       <c r="L2" s="4"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
@@ -1765,7 +1765,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1802,15 +1802,15 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -1821,7 +1821,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1834,42 +1834,42 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1882,42 +1882,42 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="L9" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1930,15 +1930,15 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -1949,7 +1949,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1962,15 +1962,15 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1981,7 +1981,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1994,7 +1994,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="28" t="s">
         <v>67</v>
@@ -2011,7 +2011,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>1</v>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2096,12 +2096,12 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>102</v>
@@ -2131,7 +2131,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2144,42 +2144,42 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2192,7 +2192,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="28" t="s">
         <v>77</v>
@@ -2209,7 +2209,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>1</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
         <v>78</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2294,7 +2294,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
         <v>128</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2342,7 +2342,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>138</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2390,42 +2390,42 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>144</v>
       </c>
       <c r="J31" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2438,13 +2438,13 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>310</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>25</v>
@@ -2459,7 +2459,7 @@
       <c r="L33" s="27"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2472,15 +2472,15 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -2491,7 +2491,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2504,42 +2504,42 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>85</v>
       </c>
       <c r="K37" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2552,12 +2552,12 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>80</v>
@@ -2571,7 +2571,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2584,7 +2584,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="28" t="s">
         <v>34</v>
@@ -2601,7 +2601,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>1</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="23" t="s">
         <v>11</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2686,7 +2686,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="23" t="s">
         <v>164</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2734,7 +2734,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="23" t="s">
         <v>181</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2782,7 +2782,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>178</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2830,7 +2830,7 @@
       <c r="K50" s="18"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="25" t="s">
         <v>178</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2880,7 +2880,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
         <v>189</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2928,7 +2928,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="28" t="s">
         <v>89</v>
@@ -2945,7 +2945,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>1</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3030,7 +3030,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="19" t="s">
         <v>90</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3078,42 +3078,42 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3126,42 +3126,42 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="L63" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3174,42 +3174,42 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3222,15 +3222,15 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
@@ -3241,7 +3241,7 @@
       <c r="K67" s="27"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3254,15 +3254,15 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="D69" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
@@ -3273,7 +3273,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3286,7 +3286,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="28" t="s">
         <v>236</v>
@@ -3303,7 +3303,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>1</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="23" t="s">
         <v>50</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3388,7 +3388,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="23" t="s">
         <v>195</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3436,7 +3436,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" s="23" t="s">
         <v>205</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3484,12 +3484,12 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -3501,7 +3501,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3514,7 +3514,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B81" s="23" t="s">
         <v>215</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3562,7 +3562,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="25" t="s">
         <v>226</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3612,7 +3612,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="25" t="s">
         <v>226</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3662,7 +3662,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="28" t="s">
         <v>88</v>
@@ -3679,7 +3679,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="5" t="s">
         <v>1</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B89" s="23" t="s">
         <v>129</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3764,7 +3764,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B91" s="23" t="s">
         <v>40</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -3812,7 +3812,7 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="25" t="s">
         <v>148</v>
@@ -3848,7 +3848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -3861,7 +3861,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="25" t="s">
         <v>148</v>
@@ -3897,7 +3897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3910,7 +3910,7 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="23" t="s">
         <v>37</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -3958,10 +3958,10 @@
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
     </row>
-    <row r="99" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="29"/>
@@ -3975,7 +3975,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="20" t="s">
         <v>1</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="23" t="s">
         <v>237</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -4060,7 +4060,7 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
     </row>
-    <row r="103" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B103" s="19" t="s">
         <v>112</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="28" t="s">
         <v>111</v>
@@ -4112,7 +4112,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="20" t="s">
         <v>1</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="19" t="s">
         <v>112</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -4197,7 +4197,7 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="19" t="s">
         <v>121</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4245,7 +4245,7 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
         <v>258</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4293,12 +4293,12 @@
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>52</v>
@@ -4312,7 +4312,7 @@
       <c r="K112" s="27"/>
       <c r="L112" s="27"/>
     </row>
-    <row r="113" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -4325,7 +4325,7 @@
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
     </row>
-    <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="19"/>
       <c r="C114" s="16"/>
@@ -4340,7 +4340,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="19"/>
       <c r="C115" s="16"/>
@@ -4355,7 +4355,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="19"/>
       <c r="C116" s="16"/>
@@ -4370,7 +4370,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="19"/>
       <c r="C117" s="16"/>
@@ -4385,7 +4385,7 @@
       <c r="L117" s="16"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="19"/>
       <c r="C118" s="16"/>
@@ -4400,7 +4400,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="19"/>
       <c r="C119" s="16"/>
@@ -4415,7 +4415,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="19"/>
       <c r="C120" s="16"/>
@@ -4430,7 +4430,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="19"/>
       <c r="C121" s="16"/>
@@ -4445,7 +4445,7 @@
       <c r="L121" s="16"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="19"/>
       <c r="C122" s="16"/>
@@ -4460,7 +4460,7 @@
       <c r="L122" s="16"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="19"/>
       <c r="C123" s="16"/>
@@ -4475,7 +4475,7 @@
       <c r="L123" s="16"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="19"/>
       <c r="C124" s="16"/>
@@ -4490,7 +4490,7 @@
       <c r="L124" s="16"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="19"/>
       <c r="C125" s="16"/>
@@ -4505,7 +4505,7 @@
       <c r="L125" s="16"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="19"/>
       <c r="C126" s="16"/>
@@ -4520,7 +4520,7 @@
       <c r="L126" s="16"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="19"/>
       <c r="C127" s="16"/>
@@ -4535,7 +4535,7 @@
       <c r="L127" s="16"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="19"/>
       <c r="C128" s="16"/>
@@ -4550,7 +4550,7 @@
       <c r="L128" s="16"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="19"/>
       <c r="C129" s="16"/>
@@ -4565,7 +4565,7 @@
       <c r="L129" s="16"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="19"/>
       <c r="C130" s="16"/>
@@ -4580,7 +4580,7 @@
       <c r="L130" s="16"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="19"/>
       <c r="C131" s="16"/>
@@ -4595,7 +4595,7 @@
       <c r="L131" s="16"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="19"/>
       <c r="C132" s="16"/>
@@ -4610,7 +4610,7 @@
       <c r="L132" s="16"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="19"/>
       <c r="C133" s="16"/>
@@ -4625,7 +4625,7 @@
       <c r="L133" s="16"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="19"/>
       <c r="C134" s="16"/>
@@ -4640,7 +4640,7 @@
       <c r="L134" s="16"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="19"/>
       <c r="C135" s="16"/>
@@ -4655,7 +4655,7 @@
       <c r="L135" s="16"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="19"/>
       <c r="C136" s="16"/>
@@ -4670,7 +4670,7 @@
       <c r="L136" s="16"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="19"/>
       <c r="C137" s="16"/>
@@ -4685,7 +4685,7 @@
       <c r="L137" s="16"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="19"/>
       <c r="C138" s="16"/>
@@ -4700,7 +4700,7 @@
       <c r="L138" s="16"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="19"/>
       <c r="C139" s="16"/>
@@ -4715,7 +4715,7 @@
       <c r="L139" s="16"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="19"/>
       <c r="C140" s="16"/>
@@ -4730,7 +4730,7 @@
       <c r="L140" s="16"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="19"/>
       <c r="C141" s="16"/>
@@ -4745,7 +4745,7 @@
       <c r="L141" s="16"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="19"/>
       <c r="C142" s="16"/>
@@ -4760,7 +4760,7 @@
       <c r="L142" s="16"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="19"/>
       <c r="C143" s="16"/>
@@ -4775,7 +4775,7 @@
       <c r="L143" s="16"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="19"/>
       <c r="C144" s="16"/>
@@ -4790,7 +4790,7 @@
       <c r="L144" s="16"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="19"/>
       <c r="C145" s="16"/>
@@ -4805,7 +4805,7 @@
       <c r="L145" s="16"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="19"/>
       <c r="C146" s="16"/>
@@ -4820,7 +4820,7 @@
       <c r="L146" s="16"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="19"/>
       <c r="C147" s="16"/>
@@ -4835,7 +4835,7 @@
       <c r="L147" s="16"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="19"/>
       <c r="C148" s="16"/>
@@ -4850,7 +4850,7 @@
       <c r="L148" s="16"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="19"/>
       <c r="C149" s="16"/>
@@ -4865,7 +4865,7 @@
       <c r="L149" s="16"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="19"/>
       <c r="C150" s="16"/>
@@ -4880,7 +4880,7 @@
       <c r="L150" s="16"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="19"/>
       <c r="C151" s="16"/>
@@ -4895,7 +4895,7 @@
       <c r="L151" s="16"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="19"/>
       <c r="C152" s="16"/>
@@ -4910,7 +4910,7 @@
       <c r="L152" s="16"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="19"/>
       <c r="C153" s="16"/>
@@ -4925,7 +4925,7 @@
       <c r="L153" s="16"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="19"/>
       <c r="C154" s="16"/>
@@ -4940,7 +4940,7 @@
       <c r="L154" s="16"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="19"/>
       <c r="C155" s="16"/>
@@ -4955,7 +4955,7 @@
       <c r="L155" s="16"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="19"/>
       <c r="C156" s="16"/>
@@ -4970,7 +4970,7 @@
       <c r="L156" s="16"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="19"/>
       <c r="C157" s="16"/>
@@ -4985,7 +4985,7 @@
       <c r="L157" s="16"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="19"/>
       <c r="C158" s="16"/>
@@ -5000,7 +5000,7 @@
       <c r="L158" s="16"/>
       <c r="M158" s="9"/>
     </row>
-    <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="19"/>
       <c r="C159" s="16"/>
@@ -5015,7 +5015,7 @@
       <c r="L159" s="16"/>
       <c r="M159" s="9"/>
     </row>
-    <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="19"/>
       <c r="C160" s="16"/>
@@ -5030,7 +5030,7 @@
       <c r="L160" s="16"/>
       <c r="M160" s="9"/>
     </row>
-    <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="19"/>
       <c r="C161" s="16"/>
@@ -5045,7 +5045,7 @@
       <c r="L161" s="16"/>
       <c r="M161" s="9"/>
     </row>
-    <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="19"/>
       <c r="C162" s="16"/>
@@ -5060,7 +5060,7 @@
       <c r="L162" s="16"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="19"/>
       <c r="C163" s="16"/>
@@ -5075,7 +5075,7 @@
       <c r="L163" s="16"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="19"/>
       <c r="C164" s="16"/>
@@ -5090,7 +5090,7 @@
       <c r="L164" s="16"/>
       <c r="M164" s="9"/>
     </row>
-    <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="19"/>
       <c r="C165" s="16"/>
@@ -5105,7 +5105,7 @@
       <c r="L165" s="16"/>
       <c r="M165" s="9"/>
     </row>
-    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="19"/>
       <c r="C166" s="16"/>
@@ -5120,7 +5120,7 @@
       <c r="L166" s="16"/>
       <c r="M166" s="9"/>
     </row>
-    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="19"/>
       <c r="C167" s="16"/>
@@ -5135,7 +5135,7 @@
       <c r="L167" s="16"/>
       <c r="M167" s="9"/>
     </row>
-    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="19"/>
       <c r="C168" s="16"/>
@@ -5150,7 +5150,7 @@
       <c r="L168" s="16"/>
       <c r="M168" s="9"/>
     </row>
-    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="19"/>
       <c r="C169" s="16"/>
@@ -5165,7 +5165,7 @@
       <c r="L169" s="16"/>
       <c r="M169" s="9"/>
     </row>
-    <row r="170" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="19"/>
       <c r="C170" s="16"/>
@@ -5180,7 +5180,7 @@
       <c r="L170" s="16"/>
       <c r="M170" s="9"/>
     </row>
-    <row r="171" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="19"/>
       <c r="C171" s="16"/>
@@ -5195,7 +5195,7 @@
       <c r="L171" s="16"/>
       <c r="M171" s="9"/>
     </row>
-    <row r="172" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="19"/>
       <c r="C172" s="16"/>
@@ -5210,7 +5210,7 @@
       <c r="L172" s="16"/>
       <c r="M172" s="9"/>
     </row>
-    <row r="173" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="19"/>
       <c r="C173" s="16"/>
@@ -5225,7 +5225,7 @@
       <c r="L173" s="16"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="B174" s="19"/>
       <c r="C174" s="16"/>
@@ -5240,7 +5240,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="9"/>
     </row>
-    <row r="175" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="19"/>
       <c r="C175" s="16"/>
@@ -5255,7 +5255,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="9"/>
     </row>
-    <row r="176" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="19"/>
       <c r="C176" s="16"/>
@@ -5270,7 +5270,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="9"/>
     </row>
-    <row r="177" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="B177" s="19"/>
       <c r="C177" s="16"/>
@@ -5285,7 +5285,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="B178" s="19"/>
       <c r="C178" s="16"/>
@@ -5300,7 +5300,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="9"/>
     </row>
-    <row r="179" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="B179" s="19"/>
       <c r="C179" s="16"/>
@@ -5315,7 +5315,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="9"/>
     </row>
-    <row r="180" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="19"/>
       <c r="C180" s="16"/>
@@ -5330,7 +5330,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="9"/>
     </row>
-    <row r="181" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="B181" s="19"/>
       <c r="C181" s="16"/>
@@ -5345,7 +5345,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="9"/>
     </row>
-    <row r="182" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
       <c r="B182" s="19"/>
       <c r="C182" s="16"/>
@@ -5360,7 +5360,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="9"/>
     </row>
-    <row r="183" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="19"/>
       <c r="C183" s="16"/>
@@ -5375,7 +5375,7 @@
       <c r="L183" s="16"/>
       <c r="M183" s="9"/>
     </row>
-    <row r="184" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="B184" s="19"/>
       <c r="C184" s="16"/>
@@ -5390,7 +5390,7 @@
       <c r="L184" s="16"/>
       <c r="M184" s="9"/>
     </row>
-    <row r="185" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="B185" s="19"/>
       <c r="C185" s="16"/>
@@ -5405,7 +5405,7 @@
       <c r="L185" s="16"/>
       <c r="M185" s="9"/>
     </row>
-    <row r="186" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="19"/>
       <c r="C186" s="16"/>
@@ -5420,7 +5420,7 @@
       <c r="L186" s="16"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="B187" s="19"/>
       <c r="C187" s="16"/>
@@ -5435,7 +5435,7 @@
       <c r="L187" s="16"/>
       <c r="M187" s="9"/>
     </row>
-    <row r="188" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="19"/>
       <c r="C188" s="16"/>
@@ -5450,7 +5450,7 @@
       <c r="L188" s="16"/>
       <c r="M188" s="9"/>
     </row>
-    <row r="189" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="B189" s="19"/>
       <c r="C189" s="16"/>
@@ -5465,7 +5465,7 @@
       <c r="L189" s="16"/>
       <c r="M189" s="9"/>
     </row>
-    <row r="190" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="B190" s="19"/>
       <c r="C190" s="16"/>
@@ -5480,7 +5480,7 @@
       <c r="L190" s="16"/>
       <c r="M190" s="9"/>
     </row>
-    <row r="191" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="B191" s="19"/>
       <c r="C191" s="16"/>
@@ -5495,7 +5495,7 @@
       <c r="L191" s="16"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="B192" s="19"/>
       <c r="C192" s="16"/>
@@ -5510,7 +5510,7 @@
       <c r="L192" s="16"/>
       <c r="M192" s="9"/>
     </row>
-    <row r="193" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="B193" s="19"/>
       <c r="C193" s="16"/>
@@ -5525,7 +5525,7 @@
       <c r="L193" s="16"/>
       <c r="M193" s="9"/>
     </row>
-    <row r="194" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="B194" s="19"/>
       <c r="C194" s="16"/>
@@ -5540,7 +5540,7 @@
       <c r="L194" s="16"/>
       <c r="M194" s="9"/>
     </row>
-    <row r="195" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="19"/>
       <c r="C195" s="16"/>
@@ -5555,7 +5555,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="9"/>
     </row>
-    <row r="196" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
       <c r="B196" s="19"/>
       <c r="C196" s="16"/>
@@ -5570,7 +5570,7 @@
       <c r="L196" s="16"/>
       <c r="M196" s="9"/>
     </row>
-    <row r="197" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="B197" s="19"/>
       <c r="C197" s="16"/>
@@ -5585,7 +5585,7 @@
       <c r="L197" s="16"/>
       <c r="M197" s="9"/>
     </row>
-    <row r="198" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
       <c r="B198" s="19"/>
       <c r="C198" s="16"/>
@@ -5600,7 +5600,7 @@
       <c r="L198" s="16"/>
       <c r="M198" s="9"/>
     </row>
-    <row r="199" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
       <c r="B199" s="19"/>
       <c r="C199" s="16"/>
@@ -5615,7 +5615,7 @@
       <c r="L199" s="16"/>
       <c r="M199" s="9"/>
     </row>
-    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="B200" s="19"/>
       <c r="C200" s="16"/>
@@ -5630,7 +5630,7 @@
       <c r="L200" s="16"/>
       <c r="M200" s="9"/>
     </row>
-    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
       <c r="B201" s="19"/>
       <c r="C201" s="16"/>
@@ -5645,7 +5645,7 @@
       <c r="L201" s="16"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
       <c r="B202" s="19"/>
       <c r="C202" s="16"/>
@@ -5660,7 +5660,7 @@
       <c r="L202" s="16"/>
       <c r="M202" s="9"/>
     </row>
-    <row r="203" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
       <c r="B203" s="19"/>
       <c r="C203" s="16"/>
@@ -5675,7 +5675,7 @@
       <c r="L203" s="16"/>
       <c r="M203" s="9"/>
     </row>
-    <row r="204" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
       <c r="B204" s="19"/>
       <c r="C204" s="16"/>
@@ -5690,7 +5690,7 @@
       <c r="L204" s="16"/>
       <c r="M204" s="9"/>
     </row>
-    <row r="205" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
       <c r="B205" s="19"/>
       <c r="C205" s="16"/>
@@ -5705,7 +5705,7 @@
       <c r="L205" s="16"/>
       <c r="M205" s="9"/>
     </row>
-    <row r="206" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
       <c r="B206" s="19"/>
       <c r="C206" s="16"/>
@@ -5720,7 +5720,7 @@
       <c r="L206" s="16"/>
       <c r="M206" s="9"/>
     </row>
-    <row r="207" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="19"/>
       <c r="C207" s="16"/>
@@ -5735,7 +5735,7 @@
       <c r="L207" s="16"/>
       <c r="M207" s="9"/>
     </row>
-    <row r="208" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="B208" s="19"/>
       <c r="C208" s="16"/>
@@ -5750,7 +5750,7 @@
       <c r="L208" s="16"/>
       <c r="M208" s="9"/>
     </row>
-    <row r="209" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
       <c r="B209" s="19"/>
       <c r="C209" s="16"/>
@@ -5765,7 +5765,7 @@
       <c r="L209" s="16"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
       <c r="B210" s="19"/>
       <c r="C210" s="16"/>
@@ -5780,7 +5780,7 @@
       <c r="L210" s="16"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="B211" s="19"/>
       <c r="C211" s="16"/>
@@ -5795,7 +5795,7 @@
       <c r="L211" s="16"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="19"/>
       <c r="C212" s="16"/>
@@ -5810,7 +5810,7 @@
       <c r="L212" s="16"/>
       <c r="M212" s="9"/>
     </row>
-    <row r="213" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="19"/>
       <c r="C213" s="16"/>
@@ -5825,7 +5825,7 @@
       <c r="L213" s="16"/>
       <c r="M213" s="9"/>
     </row>
-    <row r="214" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
       <c r="B214" s="19"/>
       <c r="C214" s="16"/>
@@ -5840,7 +5840,7 @@
       <c r="L214" s="16"/>
       <c r="M214" s="9"/>
     </row>
-    <row r="215" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="19"/>
       <c r="C215" s="16"/>
@@ -5855,7 +5855,7 @@
       <c r="L215" s="16"/>
       <c r="M215" s="9"/>
     </row>
-    <row r="216" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="19"/>
       <c r="C216" s="16"/>
@@ -5870,7 +5870,7 @@
       <c r="L216" s="16"/>
       <c r="M216" s="9"/>
     </row>
-    <row r="217" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="B217" s="19"/>
       <c r="C217" s="16"/>
@@ -5885,7 +5885,7 @@
       <c r="L217" s="16"/>
       <c r="M217" s="9"/>
     </row>
-    <row r="218" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="B218" s="19"/>
       <c r="C218" s="16"/>
@@ -5900,7 +5900,7 @@
       <c r="L218" s="16"/>
       <c r="M218" s="9"/>
     </row>
-    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="B219" s="19"/>
       <c r="C219" s="16"/>
@@ -5915,7 +5915,7 @@
       <c r="L219" s="16"/>
       <c r="M219" s="9"/>
     </row>
-    <row r="220" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="B220" s="19"/>
       <c r="C220" s="16"/>
@@ -5930,7 +5930,7 @@
       <c r="L220" s="16"/>
       <c r="M220" s="9"/>
     </row>
-    <row r="221" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
       <c r="B221" s="19"/>
       <c r="C221" s="16"/>
@@ -5945,7 +5945,7 @@
       <c r="L221" s="16"/>
       <c r="M221" s="9"/>
     </row>
-    <row r="222" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
       <c r="B222" s="19"/>
       <c r="C222" s="16"/>
@@ -5960,7 +5960,7 @@
       <c r="L222" s="16"/>
       <c r="M222" s="9"/>
     </row>
-    <row r="223" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="19"/>
       <c r="C223" s="16"/>
@@ -5975,7 +5975,7 @@
       <c r="L223" s="16"/>
       <c r="M223" s="9"/>
     </row>
-    <row r="224" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
       <c r="B224" s="19"/>
       <c r="C224" s="16"/>
@@ -5990,7 +5990,7 @@
       <c r="L224" s="16"/>
       <c r="M224" s="9"/>
     </row>
-    <row r="225" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="B225" s="19"/>
       <c r="C225" s="16"/>
@@ -6005,7 +6005,7 @@
       <c r="L225" s="16"/>
       <c r="M225" s="9"/>
     </row>
-    <row r="226" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="B226" s="19"/>
       <c r="C226" s="16"/>
@@ -6020,7 +6020,7 @@
       <c r="L226" s="16"/>
       <c r="M226" s="9"/>
     </row>
-    <row r="227" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="B227" s="19"/>
       <c r="C227" s="16"/>
@@ -6035,7 +6035,7 @@
       <c r="L227" s="16"/>
       <c r="M227" s="9"/>
     </row>
-    <row r="228" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="B228" s="19"/>
       <c r="C228" s="16"/>
@@ -6050,7 +6050,7 @@
       <c r="L228" s="16"/>
       <c r="M228" s="9"/>
     </row>
-    <row r="229" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="B229" s="19"/>
       <c r="C229" s="16"/>
@@ -6065,7 +6065,7 @@
       <c r="L229" s="16"/>
       <c r="M229" s="9"/>
     </row>
-    <row r="230" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="B230" s="19"/>
       <c r="C230" s="16"/>
@@ -6080,7 +6080,7 @@
       <c r="L230" s="16"/>
       <c r="M230" s="9"/>
     </row>
-    <row r="231" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="19"/>
       <c r="C231" s="16"/>
@@ -6095,7 +6095,7 @@
       <c r="L231" s="16"/>
       <c r="M231" s="9"/>
     </row>
-    <row r="232" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="B232" s="19"/>
       <c r="C232" s="16"/>
@@ -6110,7 +6110,7 @@
       <c r="L232" s="16"/>
       <c r="M232" s="9"/>
     </row>
-    <row r="233" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="B233" s="19"/>
       <c r="C233" s="16"/>
@@ -6125,7 +6125,7 @@
       <c r="L233" s="16"/>
       <c r="M233" s="9"/>
     </row>
-    <row r="234" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="B234" s="19"/>
       <c r="C234" s="16"/>
@@ -6140,7 +6140,7 @@
       <c r="L234" s="16"/>
       <c r="M234" s="9"/>
     </row>
-    <row r="235" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="B235" s="19"/>
       <c r="C235" s="16"/>
@@ -6155,7 +6155,7 @@
       <c r="L235" s="16"/>
       <c r="M235" s="9"/>
     </row>
-    <row r="236" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
       <c r="B236" s="19"/>
       <c r="C236" s="16"/>
@@ -6170,7 +6170,7 @@
       <c r="L236" s="16"/>
       <c r="M236" s="9"/>
     </row>
-    <row r="237" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="B237" s="19"/>
       <c r="C237" s="16"/>
@@ -6185,7 +6185,7 @@
       <c r="L237" s="16"/>
       <c r="M237" s="9"/>
     </row>
-    <row r="238" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="B238" s="19"/>
       <c r="C238" s="16"/>
@@ -6200,7 +6200,7 @@
       <c r="L238" s="16"/>
       <c r="M238" s="9"/>
     </row>
-    <row r="239" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="B239" s="19"/>
       <c r="C239" s="16"/>
@@ -6215,7 +6215,7 @@
       <c r="L239" s="16"/>
       <c r="M239" s="9"/>
     </row>
-    <row r="240" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="B240" s="19"/>
       <c r="C240" s="16"/>
@@ -6230,7 +6230,7 @@
       <c r="L240" s="16"/>
       <c r="M240" s="9"/>
     </row>
-    <row r="241" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="19"/>
       <c r="C241" s="16"/>
@@ -6245,7 +6245,7 @@
       <c r="L241" s="16"/>
       <c r="M241" s="9"/>
     </row>
-    <row r="242" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="B242" s="19"/>
       <c r="C242" s="16"/>
@@ -6260,7 +6260,7 @@
       <c r="L242" s="16"/>
       <c r="M242" s="9"/>
     </row>
-    <row r="243" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="19"/>
       <c r="C243" s="16"/>
@@ -6275,7 +6275,7 @@
       <c r="L243" s="16"/>
       <c r="M243" s="9"/>
     </row>
-    <row r="244" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="19"/>
       <c r="C244" s="16"/>
@@ -6290,7 +6290,7 @@
       <c r="L244" s="16"/>
       <c r="M244" s="9"/>
     </row>
-    <row r="245" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="19"/>
       <c r="C245" s="16"/>
@@ -6305,7 +6305,7 @@
       <c r="L245" s="16"/>
       <c r="M245" s="9"/>
     </row>
-    <row r="246" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="19"/>
       <c r="C246" s="16"/>
@@ -6320,7 +6320,7 @@
       <c r="L246" s="16"/>
       <c r="M246" s="9"/>
     </row>
-    <row r="247" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="19"/>
       <c r="C247" s="16"/>
@@ -6335,7 +6335,7 @@
       <c r="L247" s="16"/>
       <c r="M247" s="9"/>
     </row>
-    <row r="248" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="19"/>
       <c r="C248" s="16"/>
@@ -6350,7 +6350,7 @@
       <c r="L248" s="16"/>
       <c r="M248" s="9"/>
     </row>
-    <row r="249" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="19"/>
       <c r="C249" s="16"/>
@@ -6365,7 +6365,7 @@
       <c r="L249" s="16"/>
       <c r="M249" s="9"/>
     </row>
-    <row r="250" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="19"/>
       <c r="C250" s="16"/>
@@ -6380,7 +6380,7 @@
       <c r="L250" s="16"/>
       <c r="M250" s="9"/>
     </row>
-    <row r="251" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
       <c r="B251" s="19"/>
       <c r="C251" s="16"/>
@@ -6395,7 +6395,7 @@
       <c r="L251" s="16"/>
       <c r="M251" s="9"/>
     </row>
-    <row r="252" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
       <c r="B252" s="19"/>
       <c r="C252" s="16"/>
@@ -6410,7 +6410,7 @@
       <c r="L252" s="16"/>
       <c r="M252" s="9"/>
     </row>
-    <row r="253" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="B253" s="19"/>
       <c r="C253" s="16"/>
@@ -6425,7 +6425,7 @@
       <c r="L253" s="16"/>
       <c r="M253" s="9"/>
     </row>
-    <row r="254" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
       <c r="B254" s="19"/>
       <c r="C254" s="16"/>
@@ -6440,7 +6440,7 @@
       <c r="L254" s="16"/>
       <c r="M254" s="9"/>
     </row>
-    <row r="255" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="19"/>
       <c r="C255" s="16"/>
@@ -6455,7 +6455,7 @@
       <c r="L255" s="16"/>
       <c r="M255" s="9"/>
     </row>
-    <row r="256" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="19"/>
       <c r="C256" s="16"/>
@@ -6470,7 +6470,7 @@
       <c r="L256" s="16"/>
       <c r="M256" s="9"/>
     </row>
-    <row r="257" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="19"/>
       <c r="C257" s="16"/>
@@ -6485,7 +6485,7 @@
       <c r="L257" s="16"/>
       <c r="M257" s="9"/>
     </row>
-    <row r="258" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="19"/>
       <c r="C258" s="16"/>
@@ -6500,7 +6500,7 @@
       <c r="L258" s="16"/>
       <c r="M258" s="9"/>
     </row>
-    <row r="259" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="19"/>
       <c r="C259" s="16"/>
@@ -6515,7 +6515,7 @@
       <c r="L259" s="16"/>
       <c r="M259" s="9"/>
     </row>
-    <row r="260" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="19"/>
       <c r="C260" s="16"/>
@@ -6530,7 +6530,7 @@
       <c r="L260" s="16"/>
       <c r="M260" s="9"/>
     </row>
-    <row r="261" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="B261" s="19"/>
       <c r="C261" s="16"/>
@@ -6545,7 +6545,7 @@
       <c r="L261" s="16"/>
       <c r="M261" s="9"/>
     </row>
-    <row r="262" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
       <c r="B262" s="19"/>
       <c r="C262" s="16"/>
@@ -6560,7 +6560,7 @@
       <c r="L262" s="16"/>
       <c r="M262" s="9"/>
     </row>
-    <row r="263" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
       <c r="B263" s="19"/>
       <c r="C263" s="16"/>
@@ -6575,7 +6575,7 @@
       <c r="L263" s="16"/>
       <c r="M263" s="9"/>
     </row>
-    <row r="264" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
       <c r="B264" s="19"/>
       <c r="C264" s="16"/>
@@ -6590,7 +6590,7 @@
       <c r="L264" s="16"/>
       <c r="M264" s="9"/>
     </row>
-    <row r="265" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="B265" s="19"/>
       <c r="C265" s="16"/>
@@ -6605,7 +6605,7 @@
       <c r="L265" s="16"/>
       <c r="M265" s="9"/>
     </row>
-    <row r="266" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
       <c r="B266" s="19"/>
       <c r="C266" s="16"/>
@@ -6620,7 +6620,7 @@
       <c r="L266" s="16"/>
       <c r="M266" s="9"/>
     </row>
-    <row r="267" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="B267" s="19"/>
       <c r="C267" s="16"/>
@@ -6635,7 +6635,7 @@
       <c r="L267" s="16"/>
       <c r="M267" s="9"/>
     </row>
-    <row r="268" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="16"/>
@@ -6650,7 +6650,7 @@
       <c r="L268" s="16"/>
       <c r="M268" s="9"/>
     </row>
-    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="19"/>
       <c r="C269" s="16"/>
@@ -6665,7 +6665,7 @@
       <c r="L269" s="16"/>
       <c r="M269" s="9"/>
     </row>
-    <row r="270" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="16"/>
@@ -6680,7 +6680,7 @@
       <c r="L270" s="16"/>
       <c r="M270" s="9"/>
     </row>
-    <row r="271" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="19"/>
       <c r="C271" s="16"/>
@@ -6695,7 +6695,7 @@
       <c r="L271" s="16"/>
       <c r="M271" s="9"/>
     </row>
-    <row r="272" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="16"/>
@@ -6710,7 +6710,7 @@
       <c r="L272" s="16"/>
       <c r="M272" s="9"/>
     </row>
-    <row r="273" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="19"/>
       <c r="C273" s="16"/>
@@ -6725,7 +6725,7 @@
       <c r="L273" s="16"/>
       <c r="M273" s="9"/>
     </row>
-    <row r="274" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="16"/>
@@ -6740,7 +6740,7 @@
       <c r="L274" s="16"/>
       <c r="M274" s="9"/>
     </row>
-    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="19"/>
       <c r="C275" s="16"/>
@@ -6755,7 +6755,7 @@
       <c r="L275" s="16"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="16"/>
@@ -6770,7 +6770,7 @@
       <c r="L276" s="16"/>
       <c r="M276" s="9"/>
     </row>
-    <row r="277" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
       <c r="B277" s="19"/>
       <c r="C277" s="16"/>
@@ -6785,7 +6785,7 @@
       <c r="L277" s="16"/>
       <c r="M277" s="9"/>
     </row>
-    <row r="278" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="19"/>
       <c r="C278" s="16"/>
@@ -6800,7 +6800,7 @@
       <c r="L278" s="16"/>
       <c r="M278" s="9"/>
     </row>
-    <row r="279" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="16"/>
@@ -6815,7 +6815,7 @@
       <c r="L279" s="16"/>
       <c r="M279" s="9"/>
     </row>
-    <row r="280" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="19"/>
       <c r="C280" s="16"/>
@@ -6830,7 +6830,7 @@
       <c r="L280" s="16"/>
       <c r="M280" s="9"/>
     </row>
-    <row r="281" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="16"/>
@@ -6845,7 +6845,7 @@
       <c r="L281" s="16"/>
       <c r="M281" s="9"/>
     </row>
-    <row r="282" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="B282" s="19"/>
       <c r="C282" s="16"/>
@@ -6860,7 +6860,7 @@
       <c r="L282" s="16"/>
       <c r="M282" s="9"/>
     </row>
-    <row r="283" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="16"/>
@@ -6875,7 +6875,7 @@
       <c r="L283" s="16"/>
       <c r="M283" s="9"/>
     </row>
-    <row r="284" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="19"/>
       <c r="C284" s="16"/>
@@ -6890,7 +6890,7 @@
       <c r="L284" s="16"/>
       <c r="M284" s="9"/>
     </row>
-    <row r="285" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="16"/>
@@ -6905,7 +6905,7 @@
       <c r="L285" s="16"/>
       <c r="M285" s="9"/>
     </row>
-    <row r="286" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="19"/>
       <c r="C286" s="16"/>
@@ -6920,7 +6920,7 @@
       <c r="L286" s="16"/>
       <c r="M286" s="9"/>
     </row>
-    <row r="287" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="16"/>
@@ -6935,7 +6935,7 @@
       <c r="L287" s="16"/>
       <c r="M287" s="9"/>
     </row>
-    <row r="288" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="19"/>
       <c r="C288" s="16"/>
@@ -6950,7 +6950,7 @@
       <c r="L288" s="16"/>
       <c r="M288" s="9"/>
     </row>
-    <row r="289" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="16"/>
@@ -6965,7 +6965,7 @@
       <c r="L289" s="16"/>
       <c r="M289" s="9"/>
     </row>
-    <row r="290" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9"/>
       <c r="B290" s="19"/>
       <c r="C290" s="16"/>
@@ -6980,7 +6980,7 @@
       <c r="L290" s="16"/>
       <c r="M290" s="9"/>
     </row>
-    <row r="291" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="16"/>
@@ -6995,7 +6995,7 @@
       <c r="L291" s="16"/>
       <c r="M291" s="9"/>
     </row>
-    <row r="292" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
       <c r="B292" s="19"/>
       <c r="C292" s="16"/>
@@ -7010,7 +7010,7 @@
       <c r="L292" s="16"/>
       <c r="M292" s="9"/>
     </row>
-    <row r="293" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
       <c r="B293" s="19"/>
       <c r="C293" s="16"/>
@@ -7025,7 +7025,7 @@
       <c r="L293" s="16"/>
       <c r="M293" s="9"/>
     </row>
-    <row r="294" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
       <c r="B294" s="19"/>
       <c r="C294" s="16"/>
@@ -7040,7 +7040,7 @@
       <c r="L294" s="16"/>
       <c r="M294" s="9"/>
     </row>
-    <row r="295" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
       <c r="B295" s="19"/>
       <c r="C295" s="16"/>
@@ -7055,7 +7055,7 @@
       <c r="L295" s="16"/>
       <c r="M295" s="9"/>
     </row>
-    <row r="296" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="B296" s="19"/>
       <c r="C296" s="16"/>
@@ -7070,7 +7070,7 @@
       <c r="L296" s="16"/>
       <c r="M296" s="9"/>
     </row>
-    <row r="297" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
       <c r="B297" s="19"/>
       <c r="C297" s="16"/>
@@ -7085,7 +7085,7 @@
       <c r="L297" s="16"/>
       <c r="M297" s="9"/>
     </row>
-    <row r="298" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="16"/>
@@ -7100,7 +7100,7 @@
       <c r="L298" s="16"/>
       <c r="M298" s="9"/>
     </row>
-    <row r="299" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
       <c r="B299" s="19"/>
       <c r="C299" s="16"/>
@@ -7115,7 +7115,7 @@
       <c r="L299" s="16"/>
       <c r="M299" s="9"/>
     </row>
-    <row r="300" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
       <c r="B300" s="19"/>
       <c r="C300" s="16"/>
@@ -7130,7 +7130,7 @@
       <c r="L300" s="16"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
       <c r="B301" s="19"/>
       <c r="C301" s="16"/>
@@ -7145,7 +7145,7 @@
       <c r="L301" s="16"/>
       <c r="M301" s="9"/>
     </row>
-    <row r="302" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="19"/>
       <c r="C302" s="16"/>
@@ -7160,7 +7160,7 @@
       <c r="L302" s="16"/>
       <c r="M302" s="9"/>
     </row>
-    <row r="303" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="19"/>
       <c r="C303" s="16"/>
@@ -7175,7 +7175,7 @@
       <c r="L303" s="16"/>
       <c r="M303" s="9"/>
     </row>
-    <row r="304" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="19"/>
       <c r="C304" s="16"/>
@@ -7190,7 +7190,7 @@
       <c r="L304" s="16"/>
       <c r="M304" s="9"/>
     </row>
-    <row r="305" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="B305" s="19"/>
       <c r="C305" s="16"/>
@@ -7205,7 +7205,7 @@
       <c r="L305" s="16"/>
       <c r="M305" s="9"/>
     </row>
-    <row r="306" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
       <c r="B306" s="19"/>
       <c r="C306" s="16"/>
@@ -7220,7 +7220,7 @@
       <c r="L306" s="16"/>
       <c r="M306" s="9"/>
     </row>
-    <row r="307" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
       <c r="B307" s="19"/>
       <c r="C307" s="16"/>
@@ -7235,7 +7235,7 @@
       <c r="L307" s="16"/>
       <c r="M307" s="9"/>
     </row>
-    <row r="308" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
       <c r="B308" s="19"/>
       <c r="C308" s="16"/>
@@ -7250,7 +7250,7 @@
       <c r="L308" s="16"/>
       <c r="M308" s="9"/>
     </row>
-    <row r="309" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
       <c r="B309" s="19"/>
       <c r="C309" s="16"/>
@@ -7265,7 +7265,7 @@
       <c r="L309" s="16"/>
       <c r="M309" s="9"/>
     </row>
-    <row r="310" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="B310" s="19"/>
       <c r="C310" s="16"/>
@@ -7280,7 +7280,7 @@
       <c r="L310" s="16"/>
       <c r="M310" s="9"/>
     </row>
-    <row r="311" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
       <c r="B311" s="19"/>
       <c r="C311" s="16"/>
@@ -7295,7 +7295,7 @@
       <c r="L311" s="16"/>
       <c r="M311" s="9"/>
     </row>
-    <row r="312" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
       <c r="B312" s="19"/>
       <c r="C312" s="16"/>
@@ -7310,7 +7310,7 @@
       <c r="L312" s="16"/>
       <c r="M312" s="9"/>
     </row>
-    <row r="313" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
       <c r="B313" s="19"/>
       <c r="C313" s="16"/>
@@ -7325,7 +7325,7 @@
       <c r="L313" s="16"/>
       <c r="M313" s="9"/>
     </row>
-    <row r="314" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
       <c r="B314" s="19"/>
       <c r="C314" s="16"/>
@@ -7340,7 +7340,7 @@
       <c r="L314" s="16"/>
       <c r="M314" s="9"/>
     </row>
-    <row r="315" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
       <c r="B315" s="19"/>
       <c r="C315" s="16"/>
@@ -7355,7 +7355,7 @@
       <c r="L315" s="16"/>
       <c r="M315" s="9"/>
     </row>
-    <row r="316" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
       <c r="B316" s="19"/>
       <c r="C316" s="16"/>
@@ -7370,7 +7370,7 @@
       <c r="L316" s="16"/>
       <c r="M316" s="9"/>
     </row>
-    <row r="317" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9"/>
       <c r="B317" s="19"/>
       <c r="C317" s="16"/>
@@ -7385,7 +7385,7 @@
       <c r="L317" s="16"/>
       <c r="M317" s="9"/>
     </row>
-    <row r="318" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
       <c r="B318" s="19"/>
       <c r="C318" s="16"/>
@@ -7400,7 +7400,7 @@
       <c r="L318" s="16"/>
       <c r="M318" s="9"/>
     </row>
-    <row r="319" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
       <c r="B319" s="19"/>
       <c r="C319" s="16"/>
@@ -7415,7 +7415,7 @@
       <c r="L319" s="16"/>
       <c r="M319" s="9"/>
     </row>
-    <row r="320" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
       <c r="B320" s="19"/>
       <c r="C320" s="16"/>
@@ -7430,7 +7430,7 @@
       <c r="L320" s="16"/>
       <c r="M320" s="9"/>
     </row>
-    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
       <c r="B321" s="19"/>
       <c r="C321" s="16"/>
@@ -7445,7 +7445,7 @@
       <c r="L321" s="16"/>
       <c r="M321" s="9"/>
     </row>
-    <row r="322" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="B322" s="19"/>
       <c r="C322" s="16"/>
@@ -7460,7 +7460,7 @@
       <c r="L322" s="16"/>
       <c r="M322" s="9"/>
     </row>
-    <row r="323" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
       <c r="B323" s="19"/>
       <c r="C323" s="16"/>
@@ -7475,7 +7475,7 @@
       <c r="L323" s="16"/>
       <c r="M323" s="9"/>
     </row>
-    <row r="324" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
       <c r="B324" s="19"/>
       <c r="C324" s="16"/>
@@ -7490,7 +7490,7 @@
       <c r="L324" s="16"/>
       <c r="M324" s="9"/>
     </row>
-    <row r="325" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
       <c r="B325" s="19"/>
       <c r="C325" s="16"/>
@@ -7505,7 +7505,7 @@
       <c r="L325" s="16"/>
       <c r="M325" s="9"/>
     </row>
-    <row r="326" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9"/>
       <c r="B326" s="19"/>
       <c r="C326" s="16"/>
@@ -7520,7 +7520,7 @@
       <c r="L326" s="16"/>
       <c r="M326" s="9"/>
     </row>
-    <row r="327" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
       <c r="B327" s="19"/>
       <c r="C327" s="16"/>
@@ -7535,7 +7535,7 @@
       <c r="L327" s="16"/>
       <c r="M327" s="9"/>
     </row>
-    <row r="328" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
       <c r="B328" s="19"/>
       <c r="C328" s="16"/>
@@ -7550,7 +7550,7 @@
       <c r="L328" s="16"/>
       <c r="M328" s="9"/>
     </row>
-    <row r="329" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
       <c r="B329" s="19"/>
       <c r="C329" s="16"/>
@@ -7565,7 +7565,7 @@
       <c r="L329" s="16"/>
       <c r="M329" s="9"/>
     </row>
-    <row r="330" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="B330" s="19"/>
       <c r="C330" s="16"/>
@@ -7580,7 +7580,7 @@
       <c r="L330" s="16"/>
       <c r="M330" s="9"/>
     </row>
-    <row r="331" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="B331" s="19"/>
       <c r="C331" s="16"/>
@@ -7595,7 +7595,7 @@
       <c r="L331" s="16"/>
       <c r="M331" s="9"/>
     </row>
-    <row r="332" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
       <c r="B332" s="19"/>
       <c r="C332" s="16"/>
@@ -7610,7 +7610,7 @@
       <c r="L332" s="16"/>
       <c r="M332" s="9"/>
     </row>
-    <row r="333" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
       <c r="B333" s="19"/>
       <c r="C333" s="16"/>
@@ -7625,7 +7625,7 @@
       <c r="L333" s="16"/>
       <c r="M333" s="9"/>
     </row>
-    <row r="334" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
       <c r="B334" s="19"/>
       <c r="C334" s="16"/>
@@ -7640,7 +7640,7 @@
       <c r="L334" s="16"/>
       <c r="M334" s="9"/>
     </row>
-    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="B335" s="19"/>
       <c r="C335" s="16"/>
@@ -7655,7 +7655,7 @@
       <c r="L335" s="16"/>
       <c r="M335" s="9"/>
     </row>
-    <row r="336" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="B336" s="19"/>
       <c r="C336" s="16"/>
@@ -7670,7 +7670,7 @@
       <c r="L336" s="16"/>
       <c r="M336" s="9"/>
     </row>
-    <row r="337" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
       <c r="B337" s="19"/>
       <c r="C337" s="16"/>
@@ -7685,7 +7685,7 @@
       <c r="L337" s="16"/>
       <c r="M337" s="9"/>
     </row>
-    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
       <c r="B338" s="19"/>
       <c r="C338" s="16"/>
@@ -7700,7 +7700,7 @@
       <c r="L338" s="16"/>
       <c r="M338" s="9"/>
     </row>
-    <row r="339" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="B339" s="19"/>
       <c r="C339" s="16"/>
@@ -7715,7 +7715,7 @@
       <c r="L339" s="16"/>
       <c r="M339" s="9"/>
     </row>
-    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="B340" s="19"/>
       <c r="C340" s="16"/>
@@ -7730,7 +7730,7 @@
       <c r="L340" s="16"/>
       <c r="M340" s="9"/>
     </row>
-    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
       <c r="B341" s="19"/>
       <c r="C341" s="16"/>
@@ -7745,7 +7745,7 @@
       <c r="L341" s="16"/>
       <c r="M341" s="9"/>
     </row>
-    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
       <c r="B342" s="19"/>
       <c r="C342" s="16"/>
@@ -7760,7 +7760,7 @@
       <c r="L342" s="16"/>
       <c r="M342" s="9"/>
     </row>
-    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
       <c r="B343" s="19"/>
       <c r="C343" s="16"/>
@@ -7775,7 +7775,7 @@
       <c r="L343" s="16"/>
       <c r="M343" s="9"/>
     </row>
-    <row r="344" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
       <c r="B344" s="19"/>
       <c r="C344" s="16"/>
@@ -7790,7 +7790,7 @@
       <c r="L344" s="16"/>
       <c r="M344" s="9"/>
     </row>
-    <row r="345" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
       <c r="B345" s="19"/>
       <c r="C345" s="16"/>
@@ -7805,7 +7805,7 @@
       <c r="L345" s="16"/>
       <c r="M345" s="9"/>
     </row>
-    <row r="346" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
       <c r="B346" s="19"/>
       <c r="C346" s="16"/>
@@ -7820,7 +7820,7 @@
       <c r="L346" s="16"/>
       <c r="M346" s="9"/>
     </row>
-    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
       <c r="B347" s="19"/>
       <c r="C347" s="16"/>
@@ -7835,7 +7835,7 @@
       <c r="L347" s="16"/>
       <c r="M347" s="9"/>
     </row>
-    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
       <c r="B348" s="19"/>
       <c r="C348" s="16"/>
@@ -7850,7 +7850,7 @@
       <c r="L348" s="16"/>
       <c r="M348" s="9"/>
     </row>
-    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
       <c r="B349" s="19"/>
       <c r="C349" s="16"/>
@@ -7865,7 +7865,7 @@
       <c r="L349" s="16"/>
       <c r="M349" s="9"/>
     </row>
-    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
       <c r="B350" s="19"/>
       <c r="C350" s="16"/>
@@ -7880,7 +7880,7 @@
       <c r="L350" s="16"/>
       <c r="M350" s="9"/>
     </row>
-    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9"/>
       <c r="B351" s="19"/>
       <c r="C351" s="16"/>
@@ -7895,7 +7895,7 @@
       <c r="L351" s="16"/>
       <c r="M351" s="9"/>
     </row>
-    <row r="352" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="B352" s="19"/>
       <c r="C352" s="16"/>
@@ -7910,7 +7910,7 @@
       <c r="L352" s="16"/>
       <c r="M352" s="9"/>
     </row>
-    <row r="353" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9"/>
       <c r="B353" s="19"/>
       <c r="C353" s="16"/>
@@ -7925,7 +7925,7 @@
       <c r="L353" s="16"/>
       <c r="M353" s="9"/>
     </row>
-    <row r="354" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9"/>
       <c r="B354" s="19"/>
       <c r="C354" s="16"/>
@@ -7940,7 +7940,7 @@
       <c r="L354" s="16"/>
       <c r="M354" s="9"/>
     </row>
-    <row r="355" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="B355" s="19"/>
       <c r="C355" s="16"/>
@@ -7955,7 +7955,7 @@
       <c r="L355" s="16"/>
       <c r="M355" s="9"/>
     </row>
-    <row r="356" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="B356" s="19"/>
       <c r="C356" s="16"/>
@@ -7970,7 +7970,7 @@
       <c r="L356" s="16"/>
       <c r="M356" s="9"/>
     </row>
-    <row r="357" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9"/>
       <c r="B357" s="19"/>
       <c r="C357" s="16"/>
@@ -7985,7 +7985,7 @@
       <c r="L357" s="16"/>
       <c r="M357" s="9"/>
     </row>
-    <row r="358" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9"/>
       <c r="B358" s="19"/>
       <c r="C358" s="16"/>
@@ -8000,7 +8000,7 @@
       <c r="L358" s="16"/>
       <c r="M358" s="9"/>
     </row>
-    <row r="359" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9"/>
       <c r="B359" s="19"/>
       <c r="C359" s="16"/>
@@ -8015,7 +8015,7 @@
       <c r="L359" s="16"/>
       <c r="M359" s="9"/>
     </row>
-    <row r="360" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9"/>
       <c r="B360" s="19"/>
       <c r="C360" s="16"/>
@@ -8030,7 +8030,7 @@
       <c r="L360" s="16"/>
       <c r="M360" s="9"/>
     </row>
-    <row r="361" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9"/>
       <c r="B361" s="19"/>
       <c r="C361" s="16"/>
@@ -8045,7 +8045,7 @@
       <c r="L361" s="16"/>
       <c r="M361" s="9"/>
     </row>
-    <row r="362" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9"/>
       <c r="B362" s="19"/>
       <c r="C362" s="16"/>
@@ -8060,7 +8060,7 @@
       <c r="L362" s="16"/>
       <c r="M362" s="9"/>
     </row>
-    <row r="363" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9"/>
       <c r="B363" s="19"/>
       <c r="C363" s="16"/>
@@ -8075,7 +8075,7 @@
       <c r="L363" s="16"/>
       <c r="M363" s="9"/>
     </row>
-    <row r="364" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9"/>
       <c r="B364" s="19"/>
       <c r="C364" s="16"/>
@@ -8090,7 +8090,7 @@
       <c r="L364" s="16"/>
       <c r="M364" s="9"/>
     </row>
-    <row r="365" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9"/>
       <c r="B365" s="19"/>
       <c r="C365" s="16"/>
@@ -8105,7 +8105,7 @@
       <c r="L365" s="16"/>
       <c r="M365" s="9"/>
     </row>
-    <row r="366" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9"/>
       <c r="B366" s="19"/>
       <c r="C366" s="16"/>
@@ -8120,7 +8120,7 @@
       <c r="L366" s="16"/>
       <c r="M366" s="9"/>
     </row>
-    <row r="367" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9"/>
       <c r="B367" s="19"/>
       <c r="C367" s="16"/>
@@ -8135,7 +8135,7 @@
       <c r="L367" s="16"/>
       <c r="M367" s="9"/>
     </row>
-    <row r="368" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9"/>
       <c r="B368" s="19"/>
       <c r="C368" s="16"/>
@@ -8150,7 +8150,7 @@
       <c r="L368" s="16"/>
       <c r="M368" s="9"/>
     </row>
-    <row r="369" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9"/>
       <c r="B369" s="19"/>
       <c r="C369" s="16"/>
@@ -8165,7 +8165,7 @@
       <c r="L369" s="16"/>
       <c r="M369" s="9"/>
     </row>
-    <row r="370" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9"/>
       <c r="B370" s="19"/>
       <c r="C370" s="16"/>
@@ -8180,7 +8180,7 @@
       <c r="L370" s="16"/>
       <c r="M370" s="9"/>
     </row>
-    <row r="371" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9"/>
       <c r="B371" s="19"/>
       <c r="C371" s="16"/>
@@ -8195,7 +8195,7 @@
       <c r="L371" s="16"/>
       <c r="M371" s="9"/>
     </row>
-    <row r="372" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9"/>
       <c r="B372" s="19"/>
       <c r="C372" s="16"/>
@@ -8210,7 +8210,7 @@
       <c r="L372" s="16"/>
       <c r="M372" s="9"/>
     </row>
-    <row r="373" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9"/>
       <c r="B373" s="19"/>
       <c r="C373" s="16"/>
@@ -8225,7 +8225,7 @@
       <c r="L373" s="16"/>
       <c r="M373" s="9"/>
     </row>
-    <row r="374" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9"/>
       <c r="B374" s="19"/>
       <c r="C374" s="16"/>
@@ -8240,7 +8240,7 @@
       <c r="L374" s="16"/>
       <c r="M374" s="9"/>
     </row>
-    <row r="375" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9"/>
       <c r="B375" s="19"/>
       <c r="C375" s="16"/>
@@ -8255,7 +8255,7 @@
       <c r="L375" s="16"/>
       <c r="M375" s="9"/>
     </row>
-    <row r="376" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9"/>
       <c r="B376" s="19"/>
       <c r="C376" s="16"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26477FBC-B392-49C6-87D1-05FEE45D34AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05B7CC-7B63-4284-9639-F6AD9E553643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="356">
   <si>
     <t>Comparison</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Sharpshooter(P)</t>
   </si>
   <si>
-    <t>SniperRifle_CV</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>WOTC_APA_OnTarget</t>
   </si>
   <si>
-    <t>CInfantry</t>
-  </si>
-  <si>
     <t>CombatKnife_CV</t>
   </si>
   <si>
@@ -576,9 +570,6 @@
   </si>
   <si>
     <t>BSharpshooter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARFMTrackingShot (ARFMFusilierFocus, Squadsight) </t>
   </si>
   <si>
     <t>Marksman(S)</t>
@@ -741,9 +732,6 @@
     <t>Fencer(S)</t>
   </si>
   <si>
-    <t>ABlademaster</t>
-  </si>
-  <si>
     <t>WOTC_APA_HonedEdge</t>
   </si>
   <si>
@@ -1132,6 +1120,12 @@
   </si>
   <si>
     <t>Quartermaster(P)</t>
+  </si>
+  <si>
+    <t>SniperRifle_CV (WOTC_APA_Brace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARFMTrackingShot (ARFMFusilierFocus, WOTC_APA_LightweightOptics) </t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1353,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,31 +1691,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="33.88671875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="28.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="3" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="3"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1731,7 +1728,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1748,10 +1745,10 @@
       <c r="L2" s="4"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
@@ -1765,13 +1762,13 @@
       <c r="L3" s="5"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
@@ -1802,15 +1799,15 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -1821,7 +1818,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1834,42 +1831,42 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1882,42 +1879,42 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="L9" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1930,15 +1927,15 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -1949,7 +1946,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1962,15 +1959,15 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1981,7 +1978,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1994,10 +1991,10 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
@@ -2011,13 +2008,13 @@
       <c r="L15" s="5"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>2</v>
@@ -2048,42 +2045,42 @@
       </c>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2096,42 +2093,42 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2144,42 +2141,42 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2192,10 +2189,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
@@ -2209,13 +2206,13 @@
       <c r="L23" s="5"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>2</v>
@@ -2246,42 +2243,42 @@
       </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="K25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2294,42 +2291,42 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="J27" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2342,42 +2339,42 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2390,42 +2387,42 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="I31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2438,16 +2435,16 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="24" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
@@ -2459,7 +2456,7 @@
       <c r="L33" s="27"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2472,15 +2469,15 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
@@ -2491,7 +2488,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2504,42 +2501,42 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="J37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="L37" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2552,15 +2549,15 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -2571,7 +2568,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
     </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2584,10 +2581,10 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
@@ -2601,13 +2598,13 @@
       <c r="L41" s="5"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>2</v>
@@ -2638,42 +2635,42 @@
       </c>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
+    <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2686,42 +2683,42 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="I45" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="K45" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2734,42 +2731,42 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="23" t="s">
+    <row r="47" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="K47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2782,42 +2779,42 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="H49" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2830,44 +2827,44 @@
       <c r="K50" s="18"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D51" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="25" t="s">
+      <c r="G51" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>27</v>
-      </c>
       <c r="H51" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="K51" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L51" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2880,42 +2877,42 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="J53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="K53" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2928,10 +2925,10 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
@@ -2945,13 +2942,13 @@
       <c r="L55" s="5"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>2</v>
@@ -2982,42 +2979,42 @@
       </c>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3030,42 +3027,42 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="L59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3078,42 +3075,42 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="K61" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3126,42 +3123,42 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="I63" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="K63" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="L63" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3174,42 +3171,42 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="I65" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="K65" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L65" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3222,15 +3219,15 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
@@ -3241,7 +3238,7 @@
       <c r="K67" s="27"/>
       <c r="L67" s="27"/>
     </row>
-    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3254,15 +3251,15 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
@@ -3273,7 +3270,7 @@
       <c r="K69" s="27"/>
       <c r="L69" s="27"/>
     </row>
-    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3286,10 +3283,10 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C71" s="28"/>
       <c r="D71" s="29"/>
@@ -3303,13 +3300,13 @@
       <c r="L71" s="5"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>2</v>
@@ -3340,42 +3337,42 @@
       </c>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="E73" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="6" t="s">
+      <c r="J73" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K73" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -3388,42 +3385,42 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="H75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="J75" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="K75" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="L75" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3436,42 +3433,42 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="H77" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J77" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H77" s="6" t="s">
+      <c r="K77" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3484,12 +3481,12 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -3501,7 +3498,7 @@
       <c r="K79" s="27"/>
       <c r="L79" s="27"/>
     </row>
-    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3514,42 +3511,42 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B81" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="J81" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="K81" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="L81" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3562,293 +3559,269 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
-      <c r="B83" s="25" t="s">
+    <row r="83" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="H84" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="25" t="s">
+      <c r="I84" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="L84" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G83" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K83" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L83" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
-      <c r="B85" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K85" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L85" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="14"/>
+    </row>
+    <row r="87" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="B87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="s">
+    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B90" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M88" s="14"/>
-    </row>
-    <row r="89" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B89" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="C90" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B91" s="23" t="s">
+      <c r="G90" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9"/>
-      <c r="B93" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="25" t="s">
+      <c r="E92" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="25" t="s">
+      <c r="F92" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="G92" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="25" t="s">
+      <c r="H92" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="I92" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I93" s="25" t="s">
+      <c r="J92" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="J93" s="25" t="s">
+      <c r="K92" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L92" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="K93" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -3861,43 +3834,42 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9"/>
-      <c r="B95" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="H95" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="I95" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="J95" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="K95" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="L95" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3910,281 +3882,281 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="6" t="s">
+    <row r="97" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="14"/>
+    </row>
+    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
-      <c r="B99" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="20" t="s">
+      <c r="D98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M98" s="14"/>
+    </row>
+    <row r="99" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B101" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C103" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I103" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J103" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K103" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="7" t="s">
+      <c r="L103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I101" s="6" t="s">
+      <c r="M103" s="14"/>
+    </row>
+    <row r="104" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B104" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J101" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B103" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="14"/>
-    </row>
-    <row r="105" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M105" s="14"/>
-    </row>
-    <row r="106" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B106" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G106" s="6" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -4197,42 +4169,42 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="19" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="J108" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K108" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K108" s="6" t="s">
+      <c r="L108" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L108" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -4245,42 +4217,26 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="19" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+    </row>
+    <row r="111" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4293,39 +4249,37 @@
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-    </row>
-    <row r="113" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="19"/>
       <c r="C114" s="16"/>
@@ -4340,7 +4294,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="19"/>
       <c r="C115" s="16"/>
@@ -4355,7 +4309,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="19"/>
       <c r="C116" s="16"/>
@@ -4370,7 +4324,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="19"/>
       <c r="C117" s="16"/>
@@ -4385,7 +4339,7 @@
       <c r="L117" s="16"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="19"/>
       <c r="C118" s="16"/>
@@ -4400,7 +4354,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="19"/>
       <c r="C119" s="16"/>
@@ -4415,7 +4369,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="19"/>
       <c r="C120" s="16"/>
@@ -4430,7 +4384,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="19"/>
       <c r="C121" s="16"/>
@@ -4445,7 +4399,7 @@
       <c r="L121" s="16"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="19"/>
       <c r="C122" s="16"/>
@@ -4460,7 +4414,7 @@
       <c r="L122" s="16"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="19"/>
       <c r="C123" s="16"/>
@@ -4475,7 +4429,7 @@
       <c r="L123" s="16"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="19"/>
       <c r="C124" s="16"/>
@@ -4490,7 +4444,7 @@
       <c r="L124" s="16"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="19"/>
       <c r="C125" s="16"/>
@@ -4505,7 +4459,7 @@
       <c r="L125" s="16"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="19"/>
       <c r="C126" s="16"/>
@@ -4520,7 +4474,7 @@
       <c r="L126" s="16"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="19"/>
       <c r="C127" s="16"/>
@@ -4535,7 +4489,7 @@
       <c r="L127" s="16"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="19"/>
       <c r="C128" s="16"/>
@@ -4550,7 +4504,7 @@
       <c r="L128" s="16"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="19"/>
       <c r="C129" s="16"/>
@@ -4565,7 +4519,7 @@
       <c r="L129" s="16"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="19"/>
       <c r="C130" s="16"/>
@@ -4580,7 +4534,7 @@
       <c r="L130" s="16"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="19"/>
       <c r="C131" s="16"/>
@@ -4595,7 +4549,7 @@
       <c r="L131" s="16"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="19"/>
       <c r="C132" s="16"/>
@@ -4610,7 +4564,7 @@
       <c r="L132" s="16"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="19"/>
       <c r="C133" s="16"/>
@@ -4625,7 +4579,7 @@
       <c r="L133" s="16"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="19"/>
       <c r="C134" s="16"/>
@@ -4640,7 +4594,7 @@
       <c r="L134" s="16"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="19"/>
       <c r="C135" s="16"/>
@@ -4655,7 +4609,7 @@
       <c r="L135" s="16"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="19"/>
       <c r="C136" s="16"/>
@@ -4670,7 +4624,7 @@
       <c r="L136" s="16"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="19"/>
       <c r="C137" s="16"/>
@@ -4685,7 +4639,7 @@
       <c r="L137" s="16"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="19"/>
       <c r="C138" s="16"/>
@@ -4700,7 +4654,7 @@
       <c r="L138" s="16"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="19"/>
       <c r="C139" s="16"/>
@@ -4715,7 +4669,7 @@
       <c r="L139" s="16"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="19"/>
       <c r="C140" s="16"/>
@@ -4730,7 +4684,7 @@
       <c r="L140" s="16"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="19"/>
       <c r="C141" s="16"/>
@@ -4745,7 +4699,7 @@
       <c r="L141" s="16"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="19"/>
       <c r="C142" s="16"/>
@@ -4760,7 +4714,7 @@
       <c r="L142" s="16"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="19"/>
       <c r="C143" s="16"/>
@@ -4775,7 +4729,7 @@
       <c r="L143" s="16"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="19"/>
       <c r="C144" s="16"/>
@@ -4790,7 +4744,7 @@
       <c r="L144" s="16"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="19"/>
       <c r="C145" s="16"/>
@@ -4805,7 +4759,7 @@
       <c r="L145" s="16"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="19"/>
       <c r="C146" s="16"/>
@@ -4820,7 +4774,7 @@
       <c r="L146" s="16"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="19"/>
       <c r="C147" s="16"/>
@@ -4835,7 +4789,7 @@
       <c r="L147" s="16"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="19"/>
       <c r="C148" s="16"/>
@@ -4850,7 +4804,7 @@
       <c r="L148" s="16"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="19"/>
       <c r="C149" s="16"/>
@@ -4865,7 +4819,7 @@
       <c r="L149" s="16"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="19"/>
       <c r="C150" s="16"/>
@@ -4880,7 +4834,7 @@
       <c r="L150" s="16"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="19"/>
       <c r="C151" s="16"/>
@@ -4895,7 +4849,7 @@
       <c r="L151" s="16"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="19"/>
       <c r="C152" s="16"/>
@@ -4910,7 +4864,7 @@
       <c r="L152" s="16"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="19"/>
       <c r="C153" s="16"/>
@@ -4925,7 +4879,7 @@
       <c r="L153" s="16"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="19"/>
       <c r="C154" s="16"/>
@@ -4940,7 +4894,7 @@
       <c r="L154" s="16"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="19"/>
       <c r="C155" s="16"/>
@@ -4955,7 +4909,7 @@
       <c r="L155" s="16"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="19"/>
       <c r="C156" s="16"/>
@@ -4970,7 +4924,7 @@
       <c r="L156" s="16"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="19"/>
       <c r="C157" s="16"/>
@@ -4985,7 +4939,7 @@
       <c r="L157" s="16"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="19"/>
       <c r="C158" s="16"/>
@@ -5000,7 +4954,7 @@
       <c r="L158" s="16"/>
       <c r="M158" s="9"/>
     </row>
-    <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="19"/>
       <c r="C159" s="16"/>
@@ -5015,7 +4969,7 @@
       <c r="L159" s="16"/>
       <c r="M159" s="9"/>
     </row>
-    <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="19"/>
       <c r="C160" s="16"/>
@@ -5030,7 +4984,7 @@
       <c r="L160" s="16"/>
       <c r="M160" s="9"/>
     </row>
-    <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="19"/>
       <c r="C161" s="16"/>
@@ -5045,7 +4999,7 @@
       <c r="L161" s="16"/>
       <c r="M161" s="9"/>
     </row>
-    <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="19"/>
       <c r="C162" s="16"/>
@@ -5060,7 +5014,7 @@
       <c r="L162" s="16"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="19"/>
       <c r="C163" s="16"/>
@@ -5075,7 +5029,7 @@
       <c r="L163" s="16"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="19"/>
       <c r="C164" s="16"/>
@@ -5090,7 +5044,7 @@
       <c r="L164" s="16"/>
       <c r="M164" s="9"/>
     </row>
-    <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="19"/>
       <c r="C165" s="16"/>
@@ -5105,7 +5059,7 @@
       <c r="L165" s="16"/>
       <c r="M165" s="9"/>
     </row>
-    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="19"/>
       <c r="C166" s="16"/>
@@ -5120,7 +5074,7 @@
       <c r="L166" s="16"/>
       <c r="M166" s="9"/>
     </row>
-    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="19"/>
       <c r="C167" s="16"/>
@@ -5135,7 +5089,7 @@
       <c r="L167" s="16"/>
       <c r="M167" s="9"/>
     </row>
-    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="19"/>
       <c r="C168" s="16"/>
@@ -5150,7 +5104,7 @@
       <c r="L168" s="16"/>
       <c r="M168" s="9"/>
     </row>
-    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="19"/>
       <c r="C169" s="16"/>
@@ -5165,7 +5119,7 @@
       <c r="L169" s="16"/>
       <c r="M169" s="9"/>
     </row>
-    <row r="170" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="19"/>
       <c r="C170" s="16"/>
@@ -5180,7 +5134,7 @@
       <c r="L170" s="16"/>
       <c r="M170" s="9"/>
     </row>
-    <row r="171" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="19"/>
       <c r="C171" s="16"/>
@@ -5195,7 +5149,7 @@
       <c r="L171" s="16"/>
       <c r="M171" s="9"/>
     </row>
-    <row r="172" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="19"/>
       <c r="C172" s="16"/>
@@ -5210,7 +5164,7 @@
       <c r="L172" s="16"/>
       <c r="M172" s="9"/>
     </row>
-    <row r="173" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="19"/>
       <c r="C173" s="16"/>
@@ -5225,7 +5179,7 @@
       <c r="L173" s="16"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="19"/>
       <c r="C174" s="16"/>
@@ -5240,7 +5194,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="9"/>
     </row>
-    <row r="175" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="19"/>
       <c r="C175" s="16"/>
@@ -5255,7 +5209,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="9"/>
     </row>
-    <row r="176" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="19"/>
       <c r="C176" s="16"/>
@@ -5270,7 +5224,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="9"/>
     </row>
-    <row r="177" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="19"/>
       <c r="C177" s="16"/>
@@ -5285,7 +5239,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="9"/>
     </row>
-    <row r="178" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="19"/>
       <c r="C178" s="16"/>
@@ -5300,7 +5254,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="9"/>
     </row>
-    <row r="179" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="19"/>
       <c r="C179" s="16"/>
@@ -5315,7 +5269,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="9"/>
     </row>
-    <row r="180" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="19"/>
       <c r="C180" s="16"/>
@@ -5330,7 +5284,7 @@
       <c r="L180" s="16"/>
       <c r="M180" s="9"/>
     </row>
-    <row r="181" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="19"/>
       <c r="C181" s="16"/>
@@ -5345,7 +5299,7 @@
       <c r="L181" s="16"/>
       <c r="M181" s="9"/>
     </row>
-    <row r="182" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="19"/>
       <c r="C182" s="16"/>
@@ -5360,7 +5314,7 @@
       <c r="L182" s="16"/>
       <c r="M182" s="9"/>
     </row>
-    <row r="183" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="19"/>
       <c r="C183" s="16"/>
@@ -5375,7 +5329,7 @@
       <c r="L183" s="16"/>
       <c r="M183" s="9"/>
     </row>
-    <row r="184" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="19"/>
       <c r="C184" s="16"/>
@@ -5390,7 +5344,7 @@
       <c r="L184" s="16"/>
       <c r="M184" s="9"/>
     </row>
-    <row r="185" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="19"/>
       <c r="C185" s="16"/>
@@ -5405,7 +5359,7 @@
       <c r="L185" s="16"/>
       <c r="M185" s="9"/>
     </row>
-    <row r="186" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="19"/>
       <c r="C186" s="16"/>
@@ -5420,7 +5374,7 @@
       <c r="L186" s="16"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="19"/>
       <c r="C187" s="16"/>
@@ -5435,7 +5389,7 @@
       <c r="L187" s="16"/>
       <c r="M187" s="9"/>
     </row>
-    <row r="188" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="19"/>
       <c r="C188" s="16"/>
@@ -5450,7 +5404,7 @@
       <c r="L188" s="16"/>
       <c r="M188" s="9"/>
     </row>
-    <row r="189" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="19"/>
       <c r="C189" s="16"/>
@@ -5465,7 +5419,7 @@
       <c r="L189" s="16"/>
       <c r="M189" s="9"/>
     </row>
-    <row r="190" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="19"/>
       <c r="C190" s="16"/>
@@ -5480,7 +5434,7 @@
       <c r="L190" s="16"/>
       <c r="M190" s="9"/>
     </row>
-    <row r="191" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="19"/>
       <c r="C191" s="16"/>
@@ -5495,7 +5449,7 @@
       <c r="L191" s="16"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="19"/>
       <c r="C192" s="16"/>
@@ -5510,7 +5464,7 @@
       <c r="L192" s="16"/>
       <c r="M192" s="9"/>
     </row>
-    <row r="193" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="19"/>
       <c r="C193" s="16"/>
@@ -5525,7 +5479,7 @@
       <c r="L193" s="16"/>
       <c r="M193" s="9"/>
     </row>
-    <row r="194" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="19"/>
       <c r="C194" s="16"/>
@@ -5540,7 +5494,7 @@
       <c r="L194" s="16"/>
       <c r="M194" s="9"/>
     </row>
-    <row r="195" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="19"/>
       <c r="C195" s="16"/>
@@ -5555,7 +5509,7 @@
       <c r="L195" s="16"/>
       <c r="M195" s="9"/>
     </row>
-    <row r="196" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="19"/>
       <c r="C196" s="16"/>
@@ -5570,7 +5524,7 @@
       <c r="L196" s="16"/>
       <c r="M196" s="9"/>
     </row>
-    <row r="197" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="19"/>
       <c r="C197" s="16"/>
@@ -5585,7 +5539,7 @@
       <c r="L197" s="16"/>
       <c r="M197" s="9"/>
     </row>
-    <row r="198" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="19"/>
       <c r="C198" s="16"/>
@@ -5600,7 +5554,7 @@
       <c r="L198" s="16"/>
       <c r="M198" s="9"/>
     </row>
-    <row r="199" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="19"/>
       <c r="C199" s="16"/>
@@ -5615,7 +5569,7 @@
       <c r="L199" s="16"/>
       <c r="M199" s="9"/>
     </row>
-    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="19"/>
       <c r="C200" s="16"/>
@@ -5630,7 +5584,7 @@
       <c r="L200" s="16"/>
       <c r="M200" s="9"/>
     </row>
-    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="19"/>
       <c r="C201" s="16"/>
@@ -5645,7 +5599,7 @@
       <c r="L201" s="16"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="19"/>
       <c r="C202" s="16"/>
@@ -5660,7 +5614,7 @@
       <c r="L202" s="16"/>
       <c r="M202" s="9"/>
     </row>
-    <row r="203" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="19"/>
       <c r="C203" s="16"/>
@@ -5675,7 +5629,7 @@
       <c r="L203" s="16"/>
       <c r="M203" s="9"/>
     </row>
-    <row r="204" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="19"/>
       <c r="C204" s="16"/>
@@ -5690,7 +5644,7 @@
       <c r="L204" s="16"/>
       <c r="M204" s="9"/>
     </row>
-    <row r="205" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="19"/>
       <c r="C205" s="16"/>
@@ -5705,7 +5659,7 @@
       <c r="L205" s="16"/>
       <c r="M205" s="9"/>
     </row>
-    <row r="206" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="19"/>
       <c r="C206" s="16"/>
@@ -5720,7 +5674,7 @@
       <c r="L206" s="16"/>
       <c r="M206" s="9"/>
     </row>
-    <row r="207" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="19"/>
       <c r="C207" s="16"/>
@@ -5735,7 +5689,7 @@
       <c r="L207" s="16"/>
       <c r="M207" s="9"/>
     </row>
-    <row r="208" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="19"/>
       <c r="C208" s="16"/>
@@ -5750,7 +5704,7 @@
       <c r="L208" s="16"/>
       <c r="M208" s="9"/>
     </row>
-    <row r="209" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="19"/>
       <c r="C209" s="16"/>
@@ -5765,7 +5719,7 @@
       <c r="L209" s="16"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="19"/>
       <c r="C210" s="16"/>
@@ -5780,7 +5734,7 @@
       <c r="L210" s="16"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="19"/>
       <c r="C211" s="16"/>
@@ -5795,7 +5749,7 @@
       <c r="L211" s="16"/>
       <c r="M211" s="9"/>
     </row>
-    <row r="212" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="19"/>
       <c r="C212" s="16"/>
@@ -5810,7 +5764,7 @@
       <c r="L212" s="16"/>
       <c r="M212" s="9"/>
     </row>
-    <row r="213" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="19"/>
       <c r="C213" s="16"/>
@@ -5825,7 +5779,7 @@
       <c r="L213" s="16"/>
       <c r="M213" s="9"/>
     </row>
-    <row r="214" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="19"/>
       <c r="C214" s="16"/>
@@ -5840,7 +5794,7 @@
       <c r="L214" s="16"/>
       <c r="M214" s="9"/>
     </row>
-    <row r="215" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="19"/>
       <c r="C215" s="16"/>
@@ -5855,7 +5809,7 @@
       <c r="L215" s="16"/>
       <c r="M215" s="9"/>
     </row>
-    <row r="216" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="19"/>
       <c r="C216" s="16"/>
@@ -5870,7 +5824,7 @@
       <c r="L216" s="16"/>
       <c r="M216" s="9"/>
     </row>
-    <row r="217" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="19"/>
       <c r="C217" s="16"/>
@@ -5885,7 +5839,7 @@
       <c r="L217" s="16"/>
       <c r="M217" s="9"/>
     </row>
-    <row r="218" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="19"/>
       <c r="C218" s="16"/>
@@ -5900,7 +5854,7 @@
       <c r="L218" s="16"/>
       <c r="M218" s="9"/>
     </row>
-    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="19"/>
       <c r="C219" s="16"/>
@@ -5915,7 +5869,7 @@
       <c r="L219" s="16"/>
       <c r="M219" s="9"/>
     </row>
-    <row r="220" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="19"/>
       <c r="C220" s="16"/>
@@ -5930,7 +5884,7 @@
       <c r="L220" s="16"/>
       <c r="M220" s="9"/>
     </row>
-    <row r="221" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="19"/>
       <c r="C221" s="16"/>
@@ -5945,7 +5899,7 @@
       <c r="L221" s="16"/>
       <c r="M221" s="9"/>
     </row>
-    <row r="222" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="19"/>
       <c r="C222" s="16"/>
@@ -5960,7 +5914,7 @@
       <c r="L222" s="16"/>
       <c r="M222" s="9"/>
     </row>
-    <row r="223" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="19"/>
       <c r="C223" s="16"/>
@@ -5975,7 +5929,7 @@
       <c r="L223" s="16"/>
       <c r="M223" s="9"/>
     </row>
-    <row r="224" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="19"/>
       <c r="C224" s="16"/>
@@ -5990,7 +5944,7 @@
       <c r="L224" s="16"/>
       <c r="M224" s="9"/>
     </row>
-    <row r="225" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="19"/>
       <c r="C225" s="16"/>
@@ -6005,7 +5959,7 @@
       <c r="L225" s="16"/>
       <c r="M225" s="9"/>
     </row>
-    <row r="226" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="19"/>
       <c r="C226" s="16"/>
@@ -6020,7 +5974,7 @@
       <c r="L226" s="16"/>
       <c r="M226" s="9"/>
     </row>
-    <row r="227" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="19"/>
       <c r="C227" s="16"/>
@@ -6035,7 +5989,7 @@
       <c r="L227" s="16"/>
       <c r="M227" s="9"/>
     </row>
-    <row r="228" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="19"/>
       <c r="C228" s="16"/>
@@ -6050,7 +6004,7 @@
       <c r="L228" s="16"/>
       <c r="M228" s="9"/>
     </row>
-    <row r="229" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="19"/>
       <c r="C229" s="16"/>
@@ -6065,7 +6019,7 @@
       <c r="L229" s="16"/>
       <c r="M229" s="9"/>
     </row>
-    <row r="230" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="19"/>
       <c r="C230" s="16"/>
@@ -6080,7 +6034,7 @@
       <c r="L230" s="16"/>
       <c r="M230" s="9"/>
     </row>
-    <row r="231" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="19"/>
       <c r="C231" s="16"/>
@@ -6095,7 +6049,7 @@
       <c r="L231" s="16"/>
       <c r="M231" s="9"/>
     </row>
-    <row r="232" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="19"/>
       <c r="C232" s="16"/>
@@ -6110,7 +6064,7 @@
       <c r="L232" s="16"/>
       <c r="M232" s="9"/>
     </row>
-    <row r="233" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="19"/>
       <c r="C233" s="16"/>
@@ -6125,7 +6079,7 @@
       <c r="L233" s="16"/>
       <c r="M233" s="9"/>
     </row>
-    <row r="234" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="19"/>
       <c r="C234" s="16"/>
@@ -6140,7 +6094,7 @@
       <c r="L234" s="16"/>
       <c r="M234" s="9"/>
     </row>
-    <row r="235" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="19"/>
       <c r="C235" s="16"/>
@@ -6155,7 +6109,7 @@
       <c r="L235" s="16"/>
       <c r="M235" s="9"/>
     </row>
-    <row r="236" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="19"/>
       <c r="C236" s="16"/>
@@ -6170,7 +6124,7 @@
       <c r="L236" s="16"/>
       <c r="M236" s="9"/>
     </row>
-    <row r="237" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="19"/>
       <c r="C237" s="16"/>
@@ -6185,7 +6139,7 @@
       <c r="L237" s="16"/>
       <c r="M237" s="9"/>
     </row>
-    <row r="238" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="19"/>
       <c r="C238" s="16"/>
@@ -6200,7 +6154,7 @@
       <c r="L238" s="16"/>
       <c r="M238" s="9"/>
     </row>
-    <row r="239" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="19"/>
       <c r="C239" s="16"/>
@@ -6215,7 +6169,7 @@
       <c r="L239" s="16"/>
       <c r="M239" s="9"/>
     </row>
-    <row r="240" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="19"/>
       <c r="C240" s="16"/>
@@ -6230,7 +6184,7 @@
       <c r="L240" s="16"/>
       <c r="M240" s="9"/>
     </row>
-    <row r="241" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="19"/>
       <c r="C241" s="16"/>
@@ -6245,7 +6199,7 @@
       <c r="L241" s="16"/>
       <c r="M241" s="9"/>
     </row>
-    <row r="242" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="19"/>
       <c r="C242" s="16"/>
@@ -6260,7 +6214,7 @@
       <c r="L242" s="16"/>
       <c r="M242" s="9"/>
     </row>
-    <row r="243" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="19"/>
       <c r="C243" s="16"/>
@@ -6275,7 +6229,7 @@
       <c r="L243" s="16"/>
       <c r="M243" s="9"/>
     </row>
-    <row r="244" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="19"/>
       <c r="C244" s="16"/>
@@ -6290,7 +6244,7 @@
       <c r="L244" s="16"/>
       <c r="M244" s="9"/>
     </row>
-    <row r="245" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="19"/>
       <c r="C245" s="16"/>
@@ -6305,7 +6259,7 @@
       <c r="L245" s="16"/>
       <c r="M245" s="9"/>
     </row>
-    <row r="246" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="19"/>
       <c r="C246" s="16"/>
@@ -6320,7 +6274,7 @@
       <c r="L246" s="16"/>
       <c r="M246" s="9"/>
     </row>
-    <row r="247" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="19"/>
       <c r="C247" s="16"/>
@@ -6335,7 +6289,7 @@
       <c r="L247" s="16"/>
       <c r="M247" s="9"/>
     </row>
-    <row r="248" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="19"/>
       <c r="C248" s="16"/>
@@ -6350,7 +6304,7 @@
       <c r="L248" s="16"/>
       <c r="M248" s="9"/>
     </row>
-    <row r="249" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="19"/>
       <c r="C249" s="16"/>
@@ -6365,7 +6319,7 @@
       <c r="L249" s="16"/>
       <c r="M249" s="9"/>
     </row>
-    <row r="250" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="19"/>
       <c r="C250" s="16"/>
@@ -6380,7 +6334,7 @@
       <c r="L250" s="16"/>
       <c r="M250" s="9"/>
     </row>
-    <row r="251" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="19"/>
       <c r="C251" s="16"/>
@@ -6395,7 +6349,7 @@
       <c r="L251" s="16"/>
       <c r="M251" s="9"/>
     </row>
-    <row r="252" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="19"/>
       <c r="C252" s="16"/>
@@ -6410,7 +6364,7 @@
       <c r="L252" s="16"/>
       <c r="M252" s="9"/>
     </row>
-    <row r="253" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="19"/>
       <c r="C253" s="16"/>
@@ -6425,7 +6379,7 @@
       <c r="L253" s="16"/>
       <c r="M253" s="9"/>
     </row>
-    <row r="254" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="19"/>
       <c r="C254" s="16"/>
@@ -6440,7 +6394,7 @@
       <c r="L254" s="16"/>
       <c r="M254" s="9"/>
     </row>
-    <row r="255" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="19"/>
       <c r="C255" s="16"/>
@@ -6455,7 +6409,7 @@
       <c r="L255" s="16"/>
       <c r="M255" s="9"/>
     </row>
-    <row r="256" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="19"/>
       <c r="C256" s="16"/>
@@ -6470,7 +6424,7 @@
       <c r="L256" s="16"/>
       <c r="M256" s="9"/>
     </row>
-    <row r="257" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="19"/>
       <c r="C257" s="16"/>
@@ -6485,7 +6439,7 @@
       <c r="L257" s="16"/>
       <c r="M257" s="9"/>
     </row>
-    <row r="258" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="19"/>
       <c r="C258" s="16"/>
@@ -6500,7 +6454,7 @@
       <c r="L258" s="16"/>
       <c r="M258" s="9"/>
     </row>
-    <row r="259" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="19"/>
       <c r="C259" s="16"/>
@@ -6515,7 +6469,7 @@
       <c r="L259" s="16"/>
       <c r="M259" s="9"/>
     </row>
-    <row r="260" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="19"/>
       <c r="C260" s="16"/>
@@ -6530,7 +6484,7 @@
       <c r="L260" s="16"/>
       <c r="M260" s="9"/>
     </row>
-    <row r="261" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="19"/>
       <c r="C261" s="16"/>
@@ -6545,7 +6499,7 @@
       <c r="L261" s="16"/>
       <c r="M261" s="9"/>
     </row>
-    <row r="262" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="19"/>
       <c r="C262" s="16"/>
@@ -6560,7 +6514,7 @@
       <c r="L262" s="16"/>
       <c r="M262" s="9"/>
     </row>
-    <row r="263" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="19"/>
       <c r="C263" s="16"/>
@@ -6575,7 +6529,7 @@
       <c r="L263" s="16"/>
       <c r="M263" s="9"/>
     </row>
-    <row r="264" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="19"/>
       <c r="C264" s="16"/>
@@ -6590,7 +6544,7 @@
       <c r="L264" s="16"/>
       <c r="M264" s="9"/>
     </row>
-    <row r="265" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="19"/>
       <c r="C265" s="16"/>
@@ -6605,7 +6559,7 @@
       <c r="L265" s="16"/>
       <c r="M265" s="9"/>
     </row>
-    <row r="266" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="19"/>
       <c r="C266" s="16"/>
@@ -6620,7 +6574,7 @@
       <c r="L266" s="16"/>
       <c r="M266" s="9"/>
     </row>
-    <row r="267" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="19"/>
       <c r="C267" s="16"/>
@@ -6635,7 +6589,7 @@
       <c r="L267" s="16"/>
       <c r="M267" s="9"/>
     </row>
-    <row r="268" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="19"/>
       <c r="C268" s="16"/>
@@ -6650,7 +6604,7 @@
       <c r="L268" s="16"/>
       <c r="M268" s="9"/>
     </row>
-    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="19"/>
       <c r="C269" s="16"/>
@@ -6665,7 +6619,7 @@
       <c r="L269" s="16"/>
       <c r="M269" s="9"/>
     </row>
-    <row r="270" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="19"/>
       <c r="C270" s="16"/>
@@ -6680,7 +6634,7 @@
       <c r="L270" s="16"/>
       <c r="M270" s="9"/>
     </row>
-    <row r="271" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="19"/>
       <c r="C271" s="16"/>
@@ -6695,7 +6649,7 @@
       <c r="L271" s="16"/>
       <c r="M271" s="9"/>
     </row>
-    <row r="272" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="19"/>
       <c r="C272" s="16"/>
@@ -6710,7 +6664,7 @@
       <c r="L272" s="16"/>
       <c r="M272" s="9"/>
     </row>
-    <row r="273" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="19"/>
       <c r="C273" s="16"/>
@@ -6725,7 +6679,7 @@
       <c r="L273" s="16"/>
       <c r="M273" s="9"/>
     </row>
-    <row r="274" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="19"/>
       <c r="C274" s="16"/>
@@ -6740,7 +6694,7 @@
       <c r="L274" s="16"/>
       <c r="M274" s="9"/>
     </row>
-    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="19"/>
       <c r="C275" s="16"/>
@@ -6755,7 +6709,7 @@
       <c r="L275" s="16"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="19"/>
       <c r="C276" s="16"/>
@@ -6770,7 +6724,7 @@
       <c r="L276" s="16"/>
       <c r="M276" s="9"/>
     </row>
-    <row r="277" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="19"/>
       <c r="C277" s="16"/>
@@ -6785,7 +6739,7 @@
       <c r="L277" s="16"/>
       <c r="M277" s="9"/>
     </row>
-    <row r="278" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="19"/>
       <c r="C278" s="16"/>
@@ -6800,7 +6754,7 @@
       <c r="L278" s="16"/>
       <c r="M278" s="9"/>
     </row>
-    <row r="279" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="19"/>
       <c r="C279" s="16"/>
@@ -6815,7 +6769,7 @@
       <c r="L279" s="16"/>
       <c r="M279" s="9"/>
     </row>
-    <row r="280" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="19"/>
       <c r="C280" s="16"/>
@@ -6830,7 +6784,7 @@
       <c r="L280" s="16"/>
       <c r="M280" s="9"/>
     </row>
-    <row r="281" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="19"/>
       <c r="C281" s="16"/>
@@ -6845,7 +6799,7 @@
       <c r="L281" s="16"/>
       <c r="M281" s="9"/>
     </row>
-    <row r="282" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="19"/>
       <c r="C282" s="16"/>
@@ -6860,7 +6814,7 @@
       <c r="L282" s="16"/>
       <c r="M282" s="9"/>
     </row>
-    <row r="283" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="19"/>
       <c r="C283" s="16"/>
@@ -6875,7 +6829,7 @@
       <c r="L283" s="16"/>
       <c r="M283" s="9"/>
     </row>
-    <row r="284" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="19"/>
       <c r="C284" s="16"/>
@@ -6890,7 +6844,7 @@
       <c r="L284" s="16"/>
       <c r="M284" s="9"/>
     </row>
-    <row r="285" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="19"/>
       <c r="C285" s="16"/>
@@ -6905,7 +6859,7 @@
       <c r="L285" s="16"/>
       <c r="M285" s="9"/>
     </row>
-    <row r="286" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="19"/>
       <c r="C286" s="16"/>
@@ -6920,7 +6874,7 @@
       <c r="L286" s="16"/>
       <c r="M286" s="9"/>
     </row>
-    <row r="287" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="19"/>
       <c r="C287" s="16"/>
@@ -6935,7 +6889,7 @@
       <c r="L287" s="16"/>
       <c r="M287" s="9"/>
     </row>
-    <row r="288" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="19"/>
       <c r="C288" s="16"/>
@@ -6950,7 +6904,7 @@
       <c r="L288" s="16"/>
       <c r="M288" s="9"/>
     </row>
-    <row r="289" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="19"/>
       <c r="C289" s="16"/>
@@ -6965,7 +6919,7 @@
       <c r="L289" s="16"/>
       <c r="M289" s="9"/>
     </row>
-    <row r="290" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="19"/>
       <c r="C290" s="16"/>
@@ -6980,7 +6934,7 @@
       <c r="L290" s="16"/>
       <c r="M290" s="9"/>
     </row>
-    <row r="291" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="19"/>
       <c r="C291" s="16"/>
@@ -6995,7 +6949,7 @@
       <c r="L291" s="16"/>
       <c r="M291" s="9"/>
     </row>
-    <row r="292" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="19"/>
       <c r="C292" s="16"/>
@@ -7010,7 +6964,7 @@
       <c r="L292" s="16"/>
       <c r="M292" s="9"/>
     </row>
-    <row r="293" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="19"/>
       <c r="C293" s="16"/>
@@ -7025,7 +6979,7 @@
       <c r="L293" s="16"/>
       <c r="M293" s="9"/>
     </row>
-    <row r="294" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="19"/>
       <c r="C294" s="16"/>
@@ -7040,7 +6994,7 @@
       <c r="L294" s="16"/>
       <c r="M294" s="9"/>
     </row>
-    <row r="295" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="19"/>
       <c r="C295" s="16"/>
@@ -7055,7 +7009,7 @@
       <c r="L295" s="16"/>
       <c r="M295" s="9"/>
     </row>
-    <row r="296" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="19"/>
       <c r="C296" s="16"/>
@@ -7070,7 +7024,7 @@
       <c r="L296" s="16"/>
       <c r="M296" s="9"/>
     </row>
-    <row r="297" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="19"/>
       <c r="C297" s="16"/>
@@ -7085,7 +7039,7 @@
       <c r="L297" s="16"/>
       <c r="M297" s="9"/>
     </row>
-    <row r="298" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="19"/>
       <c r="C298" s="16"/>
@@ -7100,7 +7054,7 @@
       <c r="L298" s="16"/>
       <c r="M298" s="9"/>
     </row>
-    <row r="299" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="19"/>
       <c r="C299" s="16"/>
@@ -7115,7 +7069,7 @@
       <c r="L299" s="16"/>
       <c r="M299" s="9"/>
     </row>
-    <row r="300" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="19"/>
       <c r="C300" s="16"/>
@@ -7130,7 +7084,7 @@
       <c r="L300" s="16"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="19"/>
       <c r="C301" s="16"/>
@@ -7145,7 +7099,7 @@
       <c r="L301" s="16"/>
       <c r="M301" s="9"/>
     </row>
-    <row r="302" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="19"/>
       <c r="C302" s="16"/>
@@ -7160,7 +7114,7 @@
       <c r="L302" s="16"/>
       <c r="M302" s="9"/>
     </row>
-    <row r="303" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="19"/>
       <c r="C303" s="16"/>
@@ -7175,7 +7129,7 @@
       <c r="L303" s="16"/>
       <c r="M303" s="9"/>
     </row>
-    <row r="304" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="19"/>
       <c r="C304" s="16"/>
@@ -7190,7 +7144,7 @@
       <c r="L304" s="16"/>
       <c r="M304" s="9"/>
     </row>
-    <row r="305" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="19"/>
       <c r="C305" s="16"/>
@@ -7205,7 +7159,7 @@
       <c r="L305" s="16"/>
       <c r="M305" s="9"/>
     </row>
-    <row r="306" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="19"/>
       <c r="C306" s="16"/>
@@ -7220,7 +7174,7 @@
       <c r="L306" s="16"/>
       <c r="M306" s="9"/>
     </row>
-    <row r="307" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="19"/>
       <c r="C307" s="16"/>
@@ -7235,7 +7189,7 @@
       <c r="L307" s="16"/>
       <c r="M307" s="9"/>
     </row>
-    <row r="308" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="19"/>
       <c r="C308" s="16"/>
@@ -7250,7 +7204,7 @@
       <c r="L308" s="16"/>
       <c r="M308" s="9"/>
     </row>
-    <row r="309" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="19"/>
       <c r="C309" s="16"/>
@@ -7265,7 +7219,7 @@
       <c r="L309" s="16"/>
       <c r="M309" s="9"/>
     </row>
-    <row r="310" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="19"/>
       <c r="C310" s="16"/>
@@ -7280,7 +7234,7 @@
       <c r="L310" s="16"/>
       <c r="M310" s="9"/>
     </row>
-    <row r="311" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="19"/>
       <c r="C311" s="16"/>
@@ -7295,7 +7249,7 @@
       <c r="L311" s="16"/>
       <c r="M311" s="9"/>
     </row>
-    <row r="312" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="19"/>
       <c r="C312" s="16"/>
@@ -7310,7 +7264,7 @@
       <c r="L312" s="16"/>
       <c r="M312" s="9"/>
     </row>
-    <row r="313" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="19"/>
       <c r="C313" s="16"/>
@@ -7325,7 +7279,7 @@
       <c r="L313" s="16"/>
       <c r="M313" s="9"/>
     </row>
-    <row r="314" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="19"/>
       <c r="C314" s="16"/>
@@ -7340,7 +7294,7 @@
       <c r="L314" s="16"/>
       <c r="M314" s="9"/>
     </row>
-    <row r="315" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="19"/>
       <c r="C315" s="16"/>
@@ -7355,7 +7309,7 @@
       <c r="L315" s="16"/>
       <c r="M315" s="9"/>
     </row>
-    <row r="316" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="19"/>
       <c r="C316" s="16"/>
@@ -7370,7 +7324,7 @@
       <c r="L316" s="16"/>
       <c r="M316" s="9"/>
     </row>
-    <row r="317" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="19"/>
       <c r="C317" s="16"/>
@@ -7385,7 +7339,7 @@
       <c r="L317" s="16"/>
       <c r="M317" s="9"/>
     </row>
-    <row r="318" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="19"/>
       <c r="C318" s="16"/>
@@ -7400,7 +7354,7 @@
       <c r="L318" s="16"/>
       <c r="M318" s="9"/>
     </row>
-    <row r="319" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="19"/>
       <c r="C319" s="16"/>
@@ -7415,7 +7369,7 @@
       <c r="L319" s="16"/>
       <c r="M319" s="9"/>
     </row>
-    <row r="320" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9"/>
       <c r="B320" s="19"/>
       <c r="C320" s="16"/>
@@ -7430,7 +7384,7 @@
       <c r="L320" s="16"/>
       <c r="M320" s="9"/>
     </row>
-    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="19"/>
       <c r="C321" s="16"/>
@@ -7445,7 +7399,7 @@
       <c r="L321" s="16"/>
       <c r="M321" s="9"/>
     </row>
-    <row r="322" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="19"/>
       <c r="C322" s="16"/>
@@ -7460,7 +7414,7 @@
       <c r="L322" s="16"/>
       <c r="M322" s="9"/>
     </row>
-    <row r="323" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="19"/>
       <c r="C323" s="16"/>
@@ -7475,7 +7429,7 @@
       <c r="L323" s="16"/>
       <c r="M323" s="9"/>
     </row>
-    <row r="324" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="9"/>
       <c r="B324" s="19"/>
       <c r="C324" s="16"/>
@@ -7490,7 +7444,7 @@
       <c r="L324" s="16"/>
       <c r="M324" s="9"/>
     </row>
-    <row r="325" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="19"/>
       <c r="C325" s="16"/>
@@ -7505,7 +7459,7 @@
       <c r="L325" s="16"/>
       <c r="M325" s="9"/>
     </row>
-    <row r="326" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9"/>
       <c r="B326" s="19"/>
       <c r="C326" s="16"/>
@@ -7520,7 +7474,7 @@
       <c r="L326" s="16"/>
       <c r="M326" s="9"/>
     </row>
-    <row r="327" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9"/>
       <c r="B327" s="19"/>
       <c r="C327" s="16"/>
@@ -7535,7 +7489,7 @@
       <c r="L327" s="16"/>
       <c r="M327" s="9"/>
     </row>
-    <row r="328" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="19"/>
       <c r="C328" s="16"/>
@@ -7550,7 +7504,7 @@
       <c r="L328" s="16"/>
       <c r="M328" s="9"/>
     </row>
-    <row r="329" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="19"/>
       <c r="C329" s="16"/>
@@ -7565,7 +7519,7 @@
       <c r="L329" s="16"/>
       <c r="M329" s="9"/>
     </row>
-    <row r="330" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
       <c r="B330" s="19"/>
       <c r="C330" s="16"/>
@@ -7580,7 +7534,7 @@
       <c r="L330" s="16"/>
       <c r="M330" s="9"/>
     </row>
-    <row r="331" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="19"/>
       <c r="C331" s="16"/>
@@ -7595,7 +7549,7 @@
       <c r="L331" s="16"/>
       <c r="M331" s="9"/>
     </row>
-    <row r="332" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="19"/>
       <c r="C332" s="16"/>
@@ -7610,7 +7564,7 @@
       <c r="L332" s="16"/>
       <c r="M332" s="9"/>
     </row>
-    <row r="333" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="19"/>
       <c r="C333" s="16"/>
@@ -7625,7 +7579,7 @@
       <c r="L333" s="16"/>
       <c r="M333" s="9"/>
     </row>
-    <row r="334" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="19"/>
       <c r="C334" s="16"/>
@@ -7640,7 +7594,7 @@
       <c r="L334" s="16"/>
       <c r="M334" s="9"/>
     </row>
-    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="19"/>
       <c r="C335" s="16"/>
@@ -7655,7 +7609,7 @@
       <c r="L335" s="16"/>
       <c r="M335" s="9"/>
     </row>
-    <row r="336" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="19"/>
       <c r="C336" s="16"/>
@@ -7670,7 +7624,7 @@
       <c r="L336" s="16"/>
       <c r="M336" s="9"/>
     </row>
-    <row r="337" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="19"/>
       <c r="C337" s="16"/>
@@ -7685,7 +7639,7 @@
       <c r="L337" s="16"/>
       <c r="M337" s="9"/>
     </row>
-    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="19"/>
       <c r="C338" s="16"/>
@@ -7700,7 +7654,7 @@
       <c r="L338" s="16"/>
       <c r="M338" s="9"/>
     </row>
-    <row r="339" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
       <c r="B339" s="19"/>
       <c r="C339" s="16"/>
@@ -7715,7 +7669,7 @@
       <c r="L339" s="16"/>
       <c r="M339" s="9"/>
     </row>
-    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9"/>
       <c r="B340" s="19"/>
       <c r="C340" s="16"/>
@@ -7730,7 +7684,7 @@
       <c r="L340" s="16"/>
       <c r="M340" s="9"/>
     </row>
-    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="19"/>
       <c r="C341" s="16"/>
@@ -7745,7 +7699,7 @@
       <c r="L341" s="16"/>
       <c r="M341" s="9"/>
     </row>
-    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="19"/>
       <c r="C342" s="16"/>
@@ -7760,7 +7714,7 @@
       <c r="L342" s="16"/>
       <c r="M342" s="9"/>
     </row>
-    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="19"/>
       <c r="C343" s="16"/>
@@ -7775,7 +7729,7 @@
       <c r="L343" s="16"/>
       <c r="M343" s="9"/>
     </row>
-    <row r="344" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="19"/>
       <c r="C344" s="16"/>
@@ -7790,7 +7744,7 @@
       <c r="L344" s="16"/>
       <c r="M344" s="9"/>
     </row>
-    <row r="345" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="19"/>
       <c r="C345" s="16"/>
@@ -7805,7 +7759,7 @@
       <c r="L345" s="16"/>
       <c r="M345" s="9"/>
     </row>
-    <row r="346" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9"/>
       <c r="B346" s="19"/>
       <c r="C346" s="16"/>
@@ -7820,7 +7774,7 @@
       <c r="L346" s="16"/>
       <c r="M346" s="9"/>
     </row>
-    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="19"/>
       <c r="C347" s="16"/>
@@ -7835,7 +7789,7 @@
       <c r="L347" s="16"/>
       <c r="M347" s="9"/>
     </row>
-    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="19"/>
       <c r="C348" s="16"/>
@@ -7850,7 +7804,7 @@
       <c r="L348" s="16"/>
       <c r="M348" s="9"/>
     </row>
-    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="19"/>
       <c r="C349" s="16"/>
@@ -7865,7 +7819,7 @@
       <c r="L349" s="16"/>
       <c r="M349" s="9"/>
     </row>
-    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="19"/>
       <c r="C350" s="16"/>
@@ -7880,7 +7834,7 @@
       <c r="L350" s="16"/>
       <c r="M350" s="9"/>
     </row>
-    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="19"/>
       <c r="C351" s="16"/>
@@ -7895,7 +7849,7 @@
       <c r="L351" s="16"/>
       <c r="M351" s="9"/>
     </row>
-    <row r="352" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="19"/>
       <c r="C352" s="16"/>
@@ -7910,7 +7864,7 @@
       <c r="L352" s="16"/>
       <c r="M352" s="9"/>
     </row>
-    <row r="353" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
       <c r="B353" s="19"/>
       <c r="C353" s="16"/>
@@ -7925,7 +7879,7 @@
       <c r="L353" s="16"/>
       <c r="M353" s="9"/>
     </row>
-    <row r="354" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="19"/>
       <c r="C354" s="16"/>
@@ -7940,7 +7894,7 @@
       <c r="L354" s="16"/>
       <c r="M354" s="9"/>
     </row>
-    <row r="355" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="19"/>
       <c r="C355" s="16"/>
@@ -7955,7 +7909,7 @@
       <c r="L355" s="16"/>
       <c r="M355" s="9"/>
     </row>
-    <row r="356" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="19"/>
       <c r="C356" s="16"/>
@@ -7970,7 +7924,7 @@
       <c r="L356" s="16"/>
       <c r="M356" s="9"/>
     </row>
-    <row r="357" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="19"/>
       <c r="C357" s="16"/>
@@ -7985,7 +7939,7 @@
       <c r="L357" s="16"/>
       <c r="M357" s="9"/>
     </row>
-    <row r="358" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="19"/>
       <c r="C358" s="16"/>
@@ -8000,7 +7954,7 @@
       <c r="L358" s="16"/>
       <c r="M358" s="9"/>
     </row>
-    <row r="359" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="19"/>
       <c r="C359" s="16"/>
@@ -8015,7 +7969,7 @@
       <c r="L359" s="16"/>
       <c r="M359" s="9"/>
     </row>
-    <row r="360" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9"/>
       <c r="B360" s="19"/>
       <c r="C360" s="16"/>
@@ -8030,7 +7984,7 @@
       <c r="L360" s="16"/>
       <c r="M360" s="9"/>
     </row>
-    <row r="361" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="19"/>
       <c r="C361" s="16"/>
@@ -8045,7 +7999,7 @@
       <c r="L361" s="16"/>
       <c r="M361" s="9"/>
     </row>
-    <row r="362" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="19"/>
       <c r="C362" s="16"/>
@@ -8060,7 +8014,7 @@
       <c r="L362" s="16"/>
       <c r="M362" s="9"/>
     </row>
-    <row r="363" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="19"/>
       <c r="C363" s="16"/>
@@ -8075,7 +8029,7 @@
       <c r="L363" s="16"/>
       <c r="M363" s="9"/>
     </row>
-    <row r="364" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="19"/>
       <c r="C364" s="16"/>
@@ -8090,7 +8044,7 @@
       <c r="L364" s="16"/>
       <c r="M364" s="9"/>
     </row>
-    <row r="365" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9"/>
       <c r="B365" s="19"/>
       <c r="C365" s="16"/>
@@ -8105,7 +8059,7 @@
       <c r="L365" s="16"/>
       <c r="M365" s="9"/>
     </row>
-    <row r="366" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9"/>
       <c r="B366" s="19"/>
       <c r="C366" s="16"/>
@@ -8120,7 +8074,7 @@
       <c r="L366" s="16"/>
       <c r="M366" s="9"/>
     </row>
-    <row r="367" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9"/>
       <c r="B367" s="19"/>
       <c r="C367" s="16"/>
@@ -8135,7 +8089,7 @@
       <c r="L367" s="16"/>
       <c r="M367" s="9"/>
     </row>
-    <row r="368" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="19"/>
       <c r="C368" s="16"/>
@@ -8150,7 +8104,7 @@
       <c r="L368" s="16"/>
       <c r="M368" s="9"/>
     </row>
-    <row r="369" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="19"/>
       <c r="C369" s="16"/>
@@ -8165,7 +8119,7 @@
       <c r="L369" s="16"/>
       <c r="M369" s="9"/>
     </row>
-    <row r="370" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="19"/>
       <c r="C370" s="16"/>
@@ -8180,7 +8134,7 @@
       <c r="L370" s="16"/>
       <c r="M370" s="9"/>
     </row>
-    <row r="371" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="19"/>
       <c r="C371" s="16"/>
@@ -8195,7 +8149,7 @@
       <c r="L371" s="16"/>
       <c r="M371" s="9"/>
     </row>
-    <row r="372" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="19"/>
       <c r="C372" s="16"/>
@@ -8210,7 +8164,7 @@
       <c r="L372" s="16"/>
       <c r="M372" s="9"/>
     </row>
-    <row r="373" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="19"/>
       <c r="C373" s="16"/>
@@ -8225,7 +8179,7 @@
       <c r="L373" s="16"/>
       <c r="M373" s="9"/>
     </row>
-    <row r="374" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="19"/>
       <c r="C374" s="16"/>
@@ -8240,42 +8194,12 @@
       <c r="L374" s="16"/>
       <c r="M374" s="9"/>
     </row>
-    <row r="375" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="9"/>
-      <c r="B375" s="19"/>
-      <c r="C375" s="16"/>
-      <c r="D375" s="16"/>
-      <c r="E375" s="16"/>
-      <c r="F375" s="16"/>
-      <c r="G375" s="16"/>
-      <c r="H375" s="16"/>
-      <c r="I375" s="16"/>
-      <c r="J375" s="16"/>
-      <c r="K375" s="16"/>
-      <c r="L375" s="16"/>
-      <c r="M375" s="9"/>
-    </row>
-    <row r="376" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="9"/>
-      <c r="B376" s="19"/>
-      <c r="C376" s="16"/>
-      <c r="D376" s="16"/>
-      <c r="E376" s="16"/>
-      <c r="F376" s="16"/>
-      <c r="G376" s="16"/>
-      <c r="H376" s="16"/>
-      <c r="I376" s="16"/>
-      <c r="J376" s="16"/>
-      <c r="K376" s="16"/>
-      <c r="L376" s="16"/>
-      <c r="M376" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B15:D15"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05B7CC-7B63-4284-9639-F6AD9E553643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72B03DD-2C2F-4CB0-805A-8FCB7F16F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -1259,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1347,9 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="A1:M374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,7 +2633,7 @@
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -2732,7 +2729,7 @@
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C47" s="6" t="s">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE091C22-1000-42F4-BBBA-4E585F18FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4BD00-D644-447E-8152-EA0FA6E45F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="359">
   <si>
     <t>Comparison</t>
   </si>
@@ -1132,6 +1132,9 @@
   </si>
   <si>
     <t>WOTC_APA_LightningReflexes</t>
+  </si>
+  <si>
+    <t>Warden(T)</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1224,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1234,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1308,10 +1323,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M374"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2225,7 @@
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2255,7 +2273,7 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2270,10 +2288,10 @@
       <c r="F27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="14" t="s">
         <v>356</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -2304,37 +2322,37 @@
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="6" t="s">
         <v>152</v>
       </c>
       <c r="M29" s="9"/>
@@ -2352,1436 +2370,1440 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="23" t="s">
+    <row r="32" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L37" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J39" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K39" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L39" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L41" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" s="19" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J49" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L49" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
+    <row r="50" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="23" t="s">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+    <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K57" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L57" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J59" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L59" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
+    <row r="60" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="6" t="s">
+      <c r="J61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="26" t="s">
+      <c r="K61" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L61" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="20" t="s">
+    <row r="62" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E63" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F63" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G63" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H63" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I63" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J63" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="K63" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="20" t="s">
+      <c r="L63" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I65" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J65" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="23" t="s">
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I68" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L68" s="6" t="s">
+      <c r="L69" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
+    <row r="70" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K71" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L70" s="6" t="s">
+      <c r="L71" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
+    <row r="72" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K73" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="16" t="s">
+    <row r="74" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J75" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K75" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L75" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
+    <row r="76" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J77" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K77" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="L76" s="6" t="s">
+      <c r="L77" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
+    <row r="78" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-    </row>
-    <row r="79" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+    </row>
+    <row r="80" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-    </row>
-    <row r="81" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="23" t="s">
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+    </row>
+    <row r="82" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="11"/>
-    </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="11"/>
+    </row>
+    <row r="84" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M83" s="11"/>
-    </row>
-    <row r="84" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="M84" s="11"/>
+    </row>
+    <row r="85" spans="1:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J85" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K85" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L84" s="6" t="s">
+      <c r="L85" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
+    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J87" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K87" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="L86" s="6" t="s">
+      <c r="L87" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J88" s="6" t="s">
+      <c r="J89" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K89" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L88" s="6" t="s">
+      <c r="L89" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-    </row>
-    <row r="91" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+    </row>
+    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I93" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J92" s="6" t="s">
+      <c r="J93" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K93" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="L92" s="6" t="s">
+      <c r="L93" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
     </row>
     <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
@@ -3796,437 +3818,435 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="20" t="s">
+    <row r="95" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C96" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D96" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E96" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F96" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G96" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="H96" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I96" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J96" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K95" s="20" t="s">
+      <c r="K96" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="L95" s="20" t="s">
+      <c r="L96" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="23" t="s">
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="11"/>
-    </row>
-    <row r="98" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="17" t="s">
+      <c r="C98" s="23"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="11"/>
+    </row>
+    <row r="99" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L98" s="7" t="s">
+      <c r="L99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M98" s="11"/>
-    </row>
-    <row r="99" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+      <c r="M99" s="11"/>
+    </row>
+    <row r="100" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="H100" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I100" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J100" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K100" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="L99" s="6" t="s">
+      <c r="L100" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B101" s="16" t="s">
+    <row r="101" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I101" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J101" s="6" t="s">
+      <c r="J102" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K101" s="6" t="s">
+      <c r="K102" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L101" s="6" t="s">
+      <c r="L102" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="23" t="s">
+    <row r="103" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="11"/>
-    </row>
-    <row r="103" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="17" t="s">
+      <c r="C103" s="23"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="11"/>
+    </row>
+    <row r="104" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L103" s="7" t="s">
+      <c r="L104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M103" s="11"/>
-    </row>
-    <row r="104" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B104" s="16" t="s">
+      <c r="M104" s="11"/>
+    </row>
+    <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B105" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I105" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J105" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K104" s="6" t="s">
+      <c r="K105" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L104" s="6" t="s">
+      <c r="L105" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="16" t="s">
+    <row r="106" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H107" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I107" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J106" s="6" t="s">
+      <c r="J107" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K106" s="6" t="s">
+      <c r="K107" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L106" s="6" t="s">
+      <c r="L107" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="16" t="s">
+    <row r="108" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H109" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I109" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J108" s="6" t="s">
+      <c r="J109" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="K109" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="L109" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="16" t="s">
+    <row r="110" spans="1:13" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-    </row>
-    <row r="111" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="9"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+    </row>
+    <row r="112" spans="1:13" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
     </row>
     <row r="113" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
@@ -8158,17 +8178,32 @@
       <c r="L374" s="13"/>
       <c r="M374" s="9"/>
     </row>
+    <row r="375" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="9"/>
+      <c r="B375" s="16"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+      <c r="G375" s="13"/>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13"/>
+      <c r="J375" s="13"/>
+      <c r="K375" s="13"/>
+      <c r="L375" s="13"/>
+      <c r="M375" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B103:D103"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B83:D83"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4BD00-D644-447E-8152-EA0FA6E45F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CA355-0FCB-4A6D-811E-B0FC25C05B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="367">
   <si>
     <t>Comparison</t>
   </si>
@@ -1135,6 +1135,30 @@
   </si>
   <si>
     <t>Warden(T)</t>
+  </si>
+  <si>
+    <t>BGunner</t>
+  </si>
+  <si>
+    <t>F_ControlledFire</t>
+  </si>
+  <si>
+    <t>LW2WotC_DangerZone</t>
+  </si>
+  <si>
+    <t>MZDisablingSuppression</t>
+  </si>
+  <si>
+    <t>KPP_LockedDown</t>
+  </si>
+  <si>
+    <t>WOTC_APA_BringEmOn</t>
+  </si>
+  <si>
+    <t>F_Maim</t>
+  </si>
+  <si>
+    <t>RapidFire</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,13 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1323,13 +1341,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1674,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,10 +2268,10 @@
         <v>129</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>132</v>
@@ -2322,7 +2346,7 @@
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2371,7 +2395,7 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2418,22 +2442,42 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="1:13" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="E33" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
@@ -2916,7 +2960,7 @@
       <c r="H55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="6" t="s">
@@ -2973,7 +3017,7 @@
       <c r="K57" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="29" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3012,7 +3056,7 @@
       <c r="H59" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="6" t="s">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D79DF1-40FB-441C-B551-673B8F2C9FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E679A6-66FE-4DEB-91D1-0CFC9FF61CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="368">
   <si>
     <t>Comparison</t>
   </si>
@@ -1159,6 +1159,9 @@
   </si>
   <si>
     <t>Gremlin_CV (IntrusionProtocol)</t>
+  </si>
+  <si>
+    <t>ShadowOps_StealthProtocol</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1267,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1323,20 +1332,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,13 +1692,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="B1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
@@ -1699,7 +1711,7 @@
     <col min="11" max="11" width="33.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="28.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="3" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="21"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
@@ -1715,7 +1727,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="2:13" s="22" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,12 +1743,12 @@
       <c r="L2" s="1"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1747,7 +1759,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1975,12 +1987,12 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1991,7 +2003,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2171,12 +2183,12 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+    <row r="23" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2187,7 +2199,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2463,12 +2475,12 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2479,7 +2491,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2851,12 +2863,12 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
+    <row r="53" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2867,7 +2879,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
@@ -3191,12 +3203,12 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="s">
+    <row r="67" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3207,7 +3219,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3547,12 +3559,12 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
+    <row r="83" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3563,7 +3575,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
@@ -3616,21 +3628,21 @@
         <v>50</v>
       </c>
       <c r="G85" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H85" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3882,12 +3894,12 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="19" t="s">
+    <row r="98" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3898,7 +3910,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
         <v>1</v>
       </c>
@@ -4017,12 +4029,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="19" t="s">
+    <row r="103" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -4033,7 +4045,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="8"/>
     </row>
-    <row r="104" spans="2:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
         <v>1</v>
       </c>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E679A6-66FE-4DEB-91D1-0CFC9FF61CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0EE611-A8A8-41DB-9804-808A138D3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="365">
   <si>
     <t>Comparison</t>
   </si>
@@ -188,18 +188,9 @@
     <t>BAgent</t>
   </si>
   <si>
-    <t>WOTC_APA_ElectronicSurveillance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(WOTC_APA_Marauder or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
-  </si>
-  <si>
     <t>ShadowOps_SensorOverlays</t>
   </si>
   <si>
-    <t>MZImprovedScanner</t>
-  </si>
-  <si>
     <t>Alchemist(P)</t>
   </si>
   <si>
@@ -546,9 +537,6 @@
   </si>
   <si>
     <t>WOTC_APA_Ghost (Phantom)</t>
-  </si>
-  <si>
-    <t>(WOTC_APA_WeaponSpecialist or WOTC_APA_UpgradedScanners)</t>
   </si>
   <si>
     <t>CVanguard</t>
@@ -621,9 +609,6 @@
     <t>ASentinel</t>
   </si>
   <si>
-    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_SilentMotors)</t>
-  </si>
-  <si>
     <t>Shinobi(P)</t>
   </si>
   <si>
@@ -1161,7 +1146,13 @@
     <t>Gremlin_CV (IntrusionProtocol)</t>
   </si>
   <si>
-    <t>ShadowOps_StealthProtocol</t>
+    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_SilentMotors, WOTC_APA_ElectronicSurveillance)</t>
+  </si>
+  <si>
+    <t>(ShadowOps_StealthProtocol or MZCombatScanner or WOTC_APA_UpgradedScanners)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(MZImprovedScanner or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,12 +1245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="B1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1687,7 @@
     <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" style="3" customWidth="1"/>
@@ -1745,7 +1730,7 @@
     </row>
     <row r="3" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
@@ -1797,13 +1782,13 @@
     </row>
     <row r="5" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1829,37 +1814,37 @@
     </row>
     <row r="7" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1877,37 +1862,37 @@
     </row>
     <row r="9" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -1925,13 +1910,13 @@
     </row>
     <row r="11" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1957,13 +1942,13 @@
     </row>
     <row r="13" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1989,7 +1974,7 @@
     </row>
     <row r="15" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
@@ -2041,37 +2026,37 @@
     </row>
     <row r="17" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -2089,37 +2074,37 @@
     </row>
     <row r="19" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -2137,37 +2122,37 @@
     </row>
     <row r="21" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -2185,7 +2170,7 @@
     </row>
     <row r="23" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
@@ -2237,37 +2222,37 @@
     </row>
     <row r="25" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -2288,10 +2273,10 @@
         <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>40</v>
@@ -2300,10 +2285,10 @@
         <v>41</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>42</v>
@@ -2333,37 +2318,37 @@
     </row>
     <row r="29" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="K29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2384,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>12</v>
@@ -2429,37 +2414,37 @@
     </row>
     <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -2477,7 +2462,7 @@
     </row>
     <row r="35" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
@@ -2529,37 +2514,37 @@
     </row>
     <row r="37" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -2577,37 +2562,37 @@
     </row>
     <row r="39" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="I39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -2625,37 +2610,37 @@
     </row>
     <row r="41" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2673,37 +2658,37 @@
     </row>
     <row r="43" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="I43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -2721,10 +2706,10 @@
     </row>
     <row r="45" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>24</v>
@@ -2753,13 +2738,13 @@
     </row>
     <row r="47" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -2785,37 +2770,37 @@
     </row>
     <row r="49" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -2833,13 +2818,13 @@
     </row>
     <row r="51" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -2920,13 +2905,13 @@
         <v>11</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>13</v>
@@ -2965,37 +2950,37 @@
     </row>
     <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="I57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="K57" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="L57" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3013,37 +2998,37 @@
     </row>
     <row r="59" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3061,16 +3046,16 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>25</v>
@@ -3088,7 +3073,7 @@
         <v>21</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>22</v>
@@ -3109,16 +3094,16 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>25</v>
@@ -3136,7 +3121,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L63" s="15" t="s">
         <v>22</v>
@@ -3157,22 +3142,22 @@
     </row>
     <row r="65" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>30</v>
@@ -3205,7 +3190,7 @@
     </row>
     <row r="67" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="23"/>
@@ -3257,37 +3242,37 @@
     </row>
     <row r="69" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="I69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -3305,37 +3290,37 @@
     </row>
     <row r="71" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -3353,37 +3338,37 @@
     </row>
     <row r="73" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -3401,37 +3386,37 @@
     </row>
     <row r="75" spans="2:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -3449,37 +3434,37 @@
     </row>
     <row r="77" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="K77" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -3497,13 +3482,13 @@
     </row>
     <row r="79" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -3529,13 +3514,13 @@
     </row>
     <row r="81" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -3561,7 +3546,7 @@
     </row>
     <row r="83" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="23"/>
@@ -3611,7 +3596,7 @@
       </c>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>48</v>
       </c>
@@ -3619,31 +3604,31 @@
         <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="L85" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I85" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J85" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K85" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -3661,37 +3646,37 @@
     </row>
     <row r="87" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="H87" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -3709,37 +3694,37 @@
     </row>
     <row r="89" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -3757,10 +3742,10 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
@@ -3787,37 +3772,37 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -3848,37 +3833,37 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>26</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -3896,7 +3881,7 @@
     </row>
     <row r="98" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="22" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="23"/>
@@ -3948,37 +3933,37 @@
     </row>
     <row r="100" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -3996,42 +3981,42 @@
     </row>
     <row r="102" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="H102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="J102" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K102" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="23"/>
@@ -4083,37 +4068,37 @@
     </row>
     <row r="105" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="H105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="J105" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K105" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="L105" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -4131,37 +4116,37 @@
     </row>
     <row r="107" spans="2:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="J107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H107" s="3" t="s">
+      <c r="L107" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4179,37 +4164,37 @@
     </row>
     <row r="109" spans="2:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L109" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,13 +4212,13 @@
     </row>
     <row r="111" spans="2:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0EE611-A8A8-41DB-9804-808A138D3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C203F-31F3-4DB1-BA9E-741851DECCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -1678,7 +1678,7 @@
   <dimension ref="B1:M375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3597,7 @@
       <c r="M84" s="8"/>
     </row>
     <row r="85" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3618,16 +3618,16 @@
       <c r="H85" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I85" s="24" t="s">
+      <c r="I85" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J85" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="K85" s="24" t="s">
+      <c r="K85" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="L85" s="24" t="s">
+      <c r="L85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>106</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="M104" s="8"/>
     </row>
-    <row r="105" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>106</v>
       </c>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C203F-31F3-4DB1-BA9E-741851DECCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75EB11-D5DC-4203-B028-08A0C6AD488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -927,9 +927,6 @@
     <t>IRI_Handcannon_CV</t>
   </si>
   <si>
-    <t>WOTC_APA_Harass (DP_DualPistols, WOTC_APA_RunAndGun)</t>
-  </si>
-  <si>
     <t>(IRI_BH_ExplosiveAction or IRI_BH_DarkNight_Passive)</t>
   </si>
   <si>
@@ -1153,6 +1150,9 @@
   </si>
   <si>
     <t xml:space="preserve">(MZImprovedScanner or ShadowOps_Lightfoot or WOTC_APA_ElectronicWarfare) </t>
+  </si>
+  <si>
+    <t>WOTC_APA_Harass (IRI_BH_Headhunter, IRI_BH_Nightfall_Passive, IRI_BH_Nightfall)</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,6 +1248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1261,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1332,8 +1338,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,19 +1699,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="B1:M375"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" style="3" customWidth="1"/>
@@ -1699,26 +1723,28 @@
     <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="2:13" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1728,13 +1754,14 @@
       <c r="L2" s="1"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="22" t="s">
         <v>258</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1744,7 +1771,8 @@
       <c r="L3" s="2"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1754,7 +1782,7 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1780,17 +1808,16 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1799,11 +1826,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1812,7 +1838,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>269</v>
       </c>
@@ -1822,7 +1848,7 @@
       <c r="D7" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
         <v>272</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1847,11 +1873,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1860,7 +1885,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>259</v>
       </c>
@@ -1870,7 +1895,7 @@
       <c r="D9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
         <v>262</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1895,11 +1920,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1908,17 +1932,16 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -1927,11 +1950,10 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1940,17 +1962,16 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -1959,11 +1980,10 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1972,13 +1992,14 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1988,7 +2009,8 @@
       <c r="L15" s="2"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +2020,7 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -2024,7 +2046,7 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>62</v>
       </c>
@@ -2034,7 +2056,7 @@
       <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2059,11 +2081,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2072,17 +2093,17 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="15" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2107,11 +2128,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2120,46 +2140,45 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2168,13 +2187,14 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
       <c r="B23" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2184,7 +2204,8 @@
       <c r="L23" s="2"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2215,7 @@
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2220,7 +2241,7 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>123</v>
       </c>
@@ -2228,9 +2249,9 @@
         <v>180</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2240,10 +2261,10 @@
         <v>125</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>128</v>
@@ -2255,11 +2276,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2268,7 +2288,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
@@ -2276,19 +2296,19 @@
         <v>181</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>42</v>
@@ -2303,11 +2323,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2316,7 +2335,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>141</v>
       </c>
@@ -2324,10 +2343,10 @@
         <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>143</v>
@@ -2351,11 +2370,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2364,7 +2382,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
@@ -2374,7 +2392,7 @@
       <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2399,11 +2417,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2412,21 +2429,21 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>16</v>
@@ -2435,23 +2452,22 @@
         <v>126</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K33" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2460,13 +2476,14 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
       <c r="B35" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2476,7 +2493,8 @@
       <c r="L35" s="2"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2486,7 +2504,7 @@
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2512,7 +2530,7 @@
       </c>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>72</v>
       </c>
@@ -2522,14 +2540,14 @@
       <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="15" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>77</v>
@@ -2547,11 +2565,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2560,7 +2577,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>122</v>
       </c>
@@ -2570,7 +2587,7 @@
       <c r="D39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="15" t="s">
         <v>237</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2595,11 +2612,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2608,7 +2624,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
@@ -2618,7 +2634,7 @@
       <c r="D41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="15" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2643,11 +2659,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2656,7 +2671,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>286</v>
       </c>
@@ -2666,36 +2681,35 @@
       <c r="D43" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>137</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -2704,17 +2718,16 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2723,11 +2736,10 @@
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -2736,17 +2748,16 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2755,11 +2766,10 @@
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2768,46 +2778,45 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>79</v>
       </c>
       <c r="K49" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2816,17 +2825,16 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -2835,11 +2843,10 @@
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -2848,13 +2855,14 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30"/>
       <c r="B53" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2864,7 +2872,8 @@
       <c r="L53" s="2"/>
       <c r="M53" s="8"/>
     </row>
-    <row r="54" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +2883,7 @@
       <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -2900,17 +2909,17 @@
       </c>
       <c r="M54" s="8"/>
     </row>
-    <row r="55" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E55" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>154</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2935,11 +2944,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -2948,7 +2956,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>155</v>
       </c>
@@ -2958,7 +2966,7 @@
       <c r="D57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="15" t="s">
         <v>156</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -2983,11 +2991,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -2996,18 +3003,18 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>177</v>
@@ -3031,11 +3038,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3044,7 +3050,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>168</v>
       </c>
@@ -3054,7 +3060,7 @@
       <c r="D61" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="15" t="s">
         <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -3079,11 +3085,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3092,7 +3097,7 @@
       <c r="K62" s="11"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>168</v>
       </c>
@@ -3127,11 +3132,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3140,7 +3144,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>178</v>
       </c>
@@ -3150,7 +3154,7 @@
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="15" t="s">
         <v>179</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -3175,11 +3179,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3188,13 +3191,14 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30"/>
       <c r="B67" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="23"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3204,7 +3208,8 @@
       <c r="L67" s="2"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3219,7 @@
       <c r="D68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3240,7 +3245,7 @@
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>51</v>
       </c>
@@ -3250,7 +3255,7 @@
       <c r="D69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -3275,11 +3280,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -3288,7 +3292,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>84</v>
       </c>
@@ -3298,7 +3302,7 @@
       <c r="D71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -3323,11 +3327,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3336,9 +3339,9 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>248</v>
@@ -3346,7 +3349,7 @@
       <c r="D73" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="15" t="s">
         <v>250</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -3371,11 +3374,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
@@ -3384,7 +3386,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="2:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>278</v>
       </c>
@@ -3394,7 +3396,7 @@
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="15" t="s">
         <v>280</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -3419,11 +3421,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
@@ -3432,46 +3433,45 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="L77" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3480,17 +3480,16 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3499,11 +3498,10 @@
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -3512,17 +3510,16 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E81" s="17"/>
+        <v>341</v>
+      </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -3531,11 +3528,10 @@
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3544,13 +3540,14 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
       <c r="B83" s="22" t="s">
         <v>223</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="23"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3560,7 +3557,8 @@
       <c r="L83" s="2"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
@@ -3570,7 +3568,7 @@
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -3596,46 +3594,45 @@
       </c>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="2:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="24" t="s">
+    <row r="85" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -3644,46 +3641,45 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>186</v>
+      <c r="E87" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3692,46 +3688,45 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>195</v>
+      <c r="E89" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3740,15 +3735,14 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -3757,11 +3751,10 @@
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3770,7 +3763,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>203</v>
       </c>
@@ -3780,7 +3773,7 @@
       <c r="D93" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="15" t="s">
         <v>205</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -3805,11 +3798,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3818,11 +3810,10 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -3831,7 +3822,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
         <v>214</v>
       </c>
@@ -3866,11 +3857,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -3879,13 +3869,14 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30"/>
       <c r="B98" s="22" t="s">
         <v>285</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="23"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -3895,7 +3886,8 @@
       <c r="L98" s="2"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30"/>
       <c r="B99" s="13" t="s">
         <v>1</v>
       </c>
@@ -3905,7 +3897,7 @@
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -3931,7 +3923,7 @@
       </c>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
         <v>224</v>
       </c>
@@ -3941,7 +3933,7 @@
       <c r="D100" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="15" t="s">
         <v>227</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -3966,11 +3958,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -3979,7 +3970,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>106</v>
       </c>
@@ -3989,7 +3980,7 @@
       <c r="D102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="15" t="s">
         <v>109</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -4014,13 +4005,14 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="2:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30"/>
       <c r="B103" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -4030,7 +4022,8 @@
       <c r="L103" s="2"/>
       <c r="M103" s="8"/>
     </row>
-    <row r="104" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
       <c r="B104" s="13" t="s">
         <v>1</v>
       </c>
@@ -4040,7 +4033,7 @@
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -4066,7 +4059,7 @@
       </c>
       <c r="M104" s="8"/>
     </row>
-    <row r="105" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
         <v>106</v>
       </c>
@@ -4076,7 +4069,7 @@
       <c r="D105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="15" t="s">
         <v>109</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -4101,11 +4094,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -4114,7 +4106,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" spans="2:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
         <v>115</v>
       </c>
@@ -4122,9 +4114,9 @@
         <v>116</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E107" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E107" s="15" t="s">
         <v>117</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -4149,11 +4141,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -4162,7 +4153,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="2:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>245</v>
       </c>
@@ -4170,9 +4161,9 @@
         <v>246</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E109" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E109" s="15" t="s">
         <v>247</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -4197,11 +4188,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -4210,17 +4200,16 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" spans="2:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="D111" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E111" s="17"/>
+        <v>360</v>
+      </c>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
@@ -4229,11 +4218,10 @@
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
     </row>
-    <row r="112" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -4245,7 +4233,6 @@
     <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -4257,7 +4244,6 @@
     <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -4269,7 +4255,6 @@
     <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -4281,7 +4266,6 @@
     <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4293,7 +4277,6 @@
     <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -4305,7 +4288,6 @@
     <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -4317,7 +4299,6 @@
     <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -4329,7 +4310,6 @@
     <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -4341,7 +4321,6 @@
     <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -4353,7 +4332,6 @@
     <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -4365,7 +4343,6 @@
     <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -4377,7 +4354,6 @@
     <row r="124" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -4389,7 +4365,6 @@
     <row r="125" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -4401,7 +4376,6 @@
     <row r="126" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -4413,7 +4387,6 @@
     <row r="127" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -4425,7 +4398,6 @@
     <row r="128" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -4437,7 +4409,6 @@
     <row r="129" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -4449,7 +4420,6 @@
     <row r="130" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -4461,7 +4431,6 @@
     <row r="131" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -4473,7 +4442,6 @@
     <row r="132" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -4485,7 +4453,6 @@
     <row r="133" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -4497,7 +4464,6 @@
     <row r="134" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -4509,7 +4475,6 @@
     <row r="135" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -4521,7 +4486,6 @@
     <row r="136" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -4533,7 +4497,6 @@
     <row r="137" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -4545,7 +4508,6 @@
     <row r="138" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -4557,7 +4519,6 @@
     <row r="139" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -4569,7 +4530,6 @@
     <row r="140" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -4581,7 +4541,6 @@
     <row r="141" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -4593,7 +4552,6 @@
     <row r="142" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -4605,7 +4563,6 @@
     <row r="143" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -4617,7 +4574,6 @@
     <row r="144" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -4629,7 +4585,6 @@
     <row r="145" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -4641,7 +4596,6 @@
     <row r="146" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -4653,7 +4607,6 @@
     <row r="147" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -4665,7 +4618,6 @@
     <row r="148" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -4677,7 +4629,6 @@
     <row r="149" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -4689,7 +4640,6 @@
     <row r="150" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -4701,7 +4651,6 @@
     <row r="151" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -4713,7 +4662,6 @@
     <row r="152" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -4725,7 +4673,6 @@
     <row r="153" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -4737,7 +4684,6 @@
     <row r="154" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -4749,7 +4695,6 @@
     <row r="155" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -4761,7 +4706,6 @@
     <row r="156" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -4773,7 +4717,6 @@
     <row r="157" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -4785,7 +4728,6 @@
     <row r="158" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -4797,7 +4739,6 @@
     <row r="159" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -4809,7 +4750,6 @@
     <row r="160" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -4821,7 +4761,6 @@
     <row r="161" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -4833,7 +4772,6 @@
     <row r="162" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -4845,7 +4783,6 @@
     <row r="163" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -4857,7 +4794,6 @@
     <row r="164" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -4869,7 +4805,6 @@
     <row r="165" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -4881,7 +4816,6 @@
     <row r="166" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -4893,7 +4827,6 @@
     <row r="167" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -4905,7 +4838,6 @@
     <row r="168" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -4917,7 +4849,6 @@
     <row r="169" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -4929,7 +4860,6 @@
     <row r="170" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -4941,7 +4871,6 @@
     <row r="171" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -4953,7 +4882,6 @@
     <row r="172" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -4965,7 +4893,6 @@
     <row r="173" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -4977,7 +4904,6 @@
     <row r="174" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -4989,7 +4915,6 @@
     <row r="175" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -5001,7 +4926,6 @@
     <row r="176" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -5013,7 +4937,6 @@
     <row r="177" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -5025,7 +4948,6 @@
     <row r="178" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -5037,7 +4959,6 @@
     <row r="179" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -5049,7 +4970,6 @@
     <row r="180" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -5061,7 +4981,6 @@
     <row r="181" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -5073,7 +4992,6 @@
     <row r="182" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -5085,7 +5003,6 @@
     <row r="183" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -5097,7 +5014,6 @@
     <row r="184" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -5109,7 +5025,6 @@
     <row r="185" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -5121,7 +5036,6 @@
     <row r="186" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -5133,7 +5047,6 @@
     <row r="187" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -5145,7 +5058,6 @@
     <row r="188" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -5157,7 +5069,6 @@
     <row r="189" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -5169,7 +5080,6 @@
     <row r="190" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -5181,7 +5091,6 @@
     <row r="191" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -5193,7 +5102,6 @@
     <row r="192" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -5205,7 +5113,6 @@
     <row r="193" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -5217,7 +5124,6 @@
     <row r="194" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -5229,7 +5135,6 @@
     <row r="195" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -5241,7 +5146,6 @@
     <row r="196" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -5253,7 +5157,6 @@
     <row r="197" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -5265,7 +5168,6 @@
     <row r="198" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -5277,7 +5179,6 @@
     <row r="199" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -5289,7 +5190,6 @@
     <row r="200" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -5301,7 +5201,6 @@
     <row r="201" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
@@ -5313,7 +5212,6 @@
     <row r="202" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
-      <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
@@ -5325,7 +5223,6 @@
     <row r="203" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
@@ -5337,7 +5234,6 @@
     <row r="204" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
-      <c r="E204" s="9"/>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
@@ -5349,7 +5245,6 @@
     <row r="205" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
@@ -5361,7 +5256,6 @@
     <row r="206" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
-      <c r="E206" s="9"/>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
@@ -5373,7 +5267,6 @@
     <row r="207" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
@@ -5385,7 +5278,6 @@
     <row r="208" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
@@ -5397,7 +5289,6 @@
     <row r="209" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
@@ -5409,7 +5300,6 @@
     <row r="210" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
@@ -5421,7 +5311,6 @@
     <row r="211" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
@@ -5433,7 +5322,6 @@
     <row r="212" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
-      <c r="E212" s="9"/>
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
@@ -5445,7 +5333,6 @@
     <row r="213" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
@@ -5457,7 +5344,6 @@
     <row r="214" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
@@ -5469,7 +5355,6 @@
     <row r="215" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
@@ -5481,7 +5366,6 @@
     <row r="216" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
@@ -5493,7 +5377,6 @@
     <row r="217" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
@@ -5505,7 +5388,6 @@
     <row r="218" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
@@ -5517,7 +5399,6 @@
     <row r="219" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
@@ -5529,7 +5410,6 @@
     <row r="220" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
@@ -5541,7 +5421,6 @@
     <row r="221" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
@@ -5553,7 +5432,6 @@
     <row r="222" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
@@ -5565,7 +5443,6 @@
     <row r="223" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
@@ -5577,7 +5454,6 @@
     <row r="224" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
       <c r="H224" s="9"/>
@@ -5589,7 +5465,6 @@
     <row r="225" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
@@ -5601,7 +5476,6 @@
     <row r="226" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
@@ -5613,7 +5487,6 @@
     <row r="227" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
@@ -5625,7 +5498,6 @@
     <row r="228" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
@@ -5637,7 +5509,6 @@
     <row r="229" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
@@ -5649,7 +5520,6 @@
     <row r="230" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
@@ -5661,7 +5531,6 @@
     <row r="231" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
@@ -5673,7 +5542,6 @@
     <row r="232" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
@@ -5685,7 +5553,6 @@
     <row r="233" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
@@ -5697,7 +5564,6 @@
     <row r="234" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
@@ -5709,7 +5575,6 @@
     <row r="235" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
@@ -5721,7 +5586,6 @@
     <row r="236" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
@@ -5733,7 +5597,6 @@
     <row r="237" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
@@ -5745,7 +5608,6 @@
     <row r="238" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
@@ -5757,7 +5619,6 @@
     <row r="239" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
@@ -5769,7 +5630,6 @@
     <row r="240" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
       <c r="H240" s="9"/>
@@ -5781,7 +5641,6 @@
     <row r="241" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
@@ -5793,7 +5652,6 @@
     <row r="242" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
@@ -5805,7 +5663,6 @@
     <row r="243" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
-      <c r="E243" s="9"/>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
@@ -5817,7 +5674,6 @@
     <row r="244" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
-      <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
@@ -5829,7 +5685,6 @@
     <row r="245" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
-      <c r="E245" s="9"/>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
@@ -5841,7 +5696,6 @@
     <row r="246" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
-      <c r="E246" s="9"/>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
@@ -5853,7 +5707,6 @@
     <row r="247" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
-      <c r="E247" s="9"/>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
@@ -5865,7 +5718,6 @@
     <row r="248" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
-      <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
@@ -5877,7 +5729,6 @@
     <row r="249" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
@@ -5889,7 +5740,6 @@
     <row r="250" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
@@ -5901,7 +5751,6 @@
     <row r="251" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
@@ -5913,7 +5762,6 @@
     <row r="252" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
-      <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
@@ -5925,7 +5773,6 @@
     <row r="253" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
-      <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
@@ -5937,7 +5784,6 @@
     <row r="254" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
-      <c r="E254" s="9"/>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
@@ -5949,7 +5795,6 @@
     <row r="255" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
       <c r="H255" s="9"/>
@@ -5961,7 +5806,6 @@
     <row r="256" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
-      <c r="E256" s="9"/>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
@@ -5973,7 +5817,6 @@
     <row r="257" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
       <c r="F257" s="9"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
@@ -5985,7 +5828,6 @@
     <row r="258" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
       <c r="F258" s="9"/>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
@@ -5997,7 +5839,6 @@
     <row r="259" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="9"/>
       <c r="H259" s="9"/>
@@ -6009,7 +5850,6 @@
     <row r="260" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
       <c r="F260" s="9"/>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
@@ -6021,7 +5861,6 @@
     <row r="261" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
       <c r="F261" s="9"/>
       <c r="G261" s="9"/>
       <c r="H261" s="9"/>
@@ -6033,7 +5872,6 @@
     <row r="262" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
       <c r="F262" s="9"/>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
@@ -6045,7 +5883,6 @@
     <row r="263" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="9"/>
       <c r="H263" s="9"/>
@@ -6057,7 +5894,6 @@
     <row r="264" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
       <c r="F264" s="9"/>
       <c r="G264" s="9"/>
       <c r="H264" s="9"/>
@@ -6069,7 +5905,6 @@
     <row r="265" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
       <c r="F265" s="9"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
@@ -6081,7 +5916,6 @@
     <row r="266" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
@@ -6093,7 +5927,6 @@
     <row r="267" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
       <c r="F267" s="9"/>
       <c r="G267" s="9"/>
       <c r="H267" s="9"/>
@@ -6105,7 +5938,6 @@
     <row r="268" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
@@ -6117,7 +5949,6 @@
     <row r="269" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
       <c r="F269" s="9"/>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
@@ -6129,7 +5960,6 @@
     <row r="270" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
       <c r="F270" s="9"/>
       <c r="G270" s="9"/>
       <c r="H270" s="9"/>
@@ -6141,7 +5971,6 @@
     <row r="271" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
       <c r="F271" s="9"/>
       <c r="G271" s="9"/>
       <c r="H271" s="9"/>
@@ -6153,7 +5982,6 @@
     <row r="272" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
-      <c r="E272" s="9"/>
       <c r="F272" s="9"/>
       <c r="G272" s="9"/>
       <c r="H272" s="9"/>
@@ -6165,7 +5993,6 @@
     <row r="273" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
-      <c r="E273" s="9"/>
       <c r="F273" s="9"/>
       <c r="G273" s="9"/>
       <c r="H273" s="9"/>
@@ -6177,7 +6004,6 @@
     <row r="274" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
-      <c r="E274" s="9"/>
       <c r="F274" s="9"/>
       <c r="G274" s="9"/>
       <c r="H274" s="9"/>
@@ -6189,7 +6015,6 @@
     <row r="275" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
-      <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="9"/>
       <c r="H275" s="9"/>
@@ -6201,7 +6026,6 @@
     <row r="276" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
-      <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
       <c r="H276" s="9"/>
@@ -6213,7 +6037,6 @@
     <row r="277" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
       <c r="F277" s="9"/>
       <c r="G277" s="9"/>
       <c r="H277" s="9"/>
@@ -6225,7 +6048,6 @@
     <row r="278" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
       <c r="F278" s="9"/>
       <c r="G278" s="9"/>
       <c r="H278" s="9"/>
@@ -6237,7 +6059,6 @@
     <row r="279" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
-      <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="9"/>
       <c r="H279" s="9"/>
@@ -6249,7 +6070,6 @@
     <row r="280" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
-      <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
@@ -6261,7 +6081,6 @@
     <row r="281" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
-      <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="9"/>
       <c r="H281" s="9"/>
@@ -6273,7 +6092,6 @@
     <row r="282" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
-      <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="9"/>
       <c r="H282" s="9"/>
@@ -6285,7 +6103,6 @@
     <row r="283" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
-      <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
@@ -6297,7 +6114,6 @@
     <row r="284" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
-      <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="9"/>
       <c r="H284" s="9"/>
@@ -6309,7 +6125,6 @@
     <row r="285" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
-      <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="9"/>
       <c r="H285" s="9"/>
@@ -6321,7 +6136,6 @@
     <row r="286" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="9"/>
       <c r="H286" s="9"/>
@@ -6333,7 +6147,6 @@
     <row r="287" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
-      <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
       <c r="H287" s="9"/>
@@ -6345,7 +6158,6 @@
     <row r="288" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
-      <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="9"/>
       <c r="H288" s="9"/>
@@ -6357,7 +6169,6 @@
     <row r="289" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
-      <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="9"/>
       <c r="H289" s="9"/>
@@ -6369,7 +6180,6 @@
     <row r="290" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
       <c r="H290" s="9"/>
@@ -6381,7 +6191,6 @@
     <row r="291" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
-      <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
@@ -6393,7 +6202,6 @@
     <row r="292" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
-      <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="9"/>
       <c r="H292" s="9"/>
@@ -6405,7 +6213,6 @@
     <row r="293" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="9"/>
       <c r="H293" s="9"/>
@@ -6417,7 +6224,6 @@
     <row r="294" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="9"/>
       <c r="H294" s="9"/>
@@ -6429,7 +6235,6 @@
     <row r="295" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="9"/>
       <c r="H295" s="9"/>
@@ -6441,7 +6246,6 @@
     <row r="296" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="9"/>
       <c r="H296" s="9"/>
@@ -6453,7 +6257,6 @@
     <row r="297" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
-      <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="9"/>
       <c r="H297" s="9"/>
@@ -6465,7 +6268,6 @@
     <row r="298" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
-      <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
@@ -6477,7 +6279,6 @@
     <row r="299" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
-      <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
@@ -6489,7 +6290,6 @@
     <row r="300" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="9"/>
       <c r="H300" s="9"/>
@@ -6501,7 +6301,6 @@
     <row r="301" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
-      <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="9"/>
       <c r="H301" s="9"/>
@@ -6513,7 +6312,6 @@
     <row r="302" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
-      <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="9"/>
       <c r="H302" s="9"/>
@@ -6525,7 +6323,6 @@
     <row r="303" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
-      <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="9"/>
       <c r="H303" s="9"/>
@@ -6537,7 +6334,6 @@
     <row r="304" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
-      <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="9"/>
       <c r="H304" s="9"/>
@@ -6549,7 +6345,6 @@
     <row r="305" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
-      <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="9"/>
       <c r="H305" s="9"/>
@@ -6561,7 +6356,6 @@
     <row r="306" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
-      <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="9"/>
       <c r="H306" s="9"/>
@@ -6573,7 +6367,6 @@
     <row r="307" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
-      <c r="E307" s="9"/>
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
       <c r="H307" s="9"/>
@@ -6585,7 +6378,6 @@
     <row r="308" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
-      <c r="E308" s="9"/>
       <c r="F308" s="9"/>
       <c r="G308" s="9"/>
       <c r="H308" s="9"/>
@@ -6597,7 +6389,6 @@
     <row r="309" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
-      <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="9"/>
       <c r="H309" s="9"/>
@@ -6609,7 +6400,6 @@
     <row r="310" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
-      <c r="E310" s="9"/>
       <c r="F310" s="9"/>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
@@ -6621,7 +6411,6 @@
     <row r="311" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
-      <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="9"/>
       <c r="H311" s="9"/>
@@ -6633,7 +6422,6 @@
     <row r="312" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
-      <c r="E312" s="9"/>
       <c r="F312" s="9"/>
       <c r="G312" s="9"/>
       <c r="H312" s="9"/>
@@ -6645,7 +6433,6 @@
     <row r="313" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
-      <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="9"/>
       <c r="H313" s="9"/>
@@ -6657,7 +6444,6 @@
     <row r="314" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
-      <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="9"/>
       <c r="H314" s="9"/>
@@ -6669,7 +6455,6 @@
     <row r="315" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
-      <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="9"/>
       <c r="H315" s="9"/>
@@ -6681,7 +6466,6 @@
     <row r="316" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
-      <c r="E316" s="9"/>
       <c r="F316" s="9"/>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
@@ -6693,7 +6477,6 @@
     <row r="317" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
-      <c r="E317" s="9"/>
       <c r="F317" s="9"/>
       <c r="G317" s="9"/>
       <c r="H317" s="9"/>
@@ -6705,7 +6488,6 @@
     <row r="318" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
-      <c r="E318" s="9"/>
       <c r="F318" s="9"/>
       <c r="G318" s="9"/>
       <c r="H318" s="9"/>
@@ -6717,7 +6499,6 @@
     <row r="319" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
-      <c r="E319" s="9"/>
       <c r="F319" s="9"/>
       <c r="G319" s="9"/>
       <c r="H319" s="9"/>
@@ -6729,7 +6510,6 @@
     <row r="320" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
-      <c r="E320" s="9"/>
       <c r="F320" s="9"/>
       <c r="G320" s="9"/>
       <c r="H320" s="9"/>
@@ -6741,7 +6521,6 @@
     <row r="321" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
-      <c r="E321" s="9"/>
       <c r="F321" s="9"/>
       <c r="G321" s="9"/>
       <c r="H321" s="9"/>
@@ -6753,7 +6532,6 @@
     <row r="322" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
-      <c r="E322" s="9"/>
       <c r="F322" s="9"/>
       <c r="G322" s="9"/>
       <c r="H322" s="9"/>
@@ -6765,7 +6543,6 @@
     <row r="323" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
-      <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="9"/>
       <c r="H323" s="9"/>
@@ -6777,7 +6554,6 @@
     <row r="324" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
-      <c r="E324" s="9"/>
       <c r="F324" s="9"/>
       <c r="G324" s="9"/>
       <c r="H324" s="9"/>
@@ -6789,7 +6565,6 @@
     <row r="325" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
-      <c r="E325" s="9"/>
       <c r="F325" s="9"/>
       <c r="G325" s="9"/>
       <c r="H325" s="9"/>
@@ -6801,7 +6576,6 @@
     <row r="326" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
-      <c r="E326" s="9"/>
       <c r="F326" s="9"/>
       <c r="G326" s="9"/>
       <c r="H326" s="9"/>
@@ -6813,7 +6587,6 @@
     <row r="327" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
-      <c r="E327" s="9"/>
       <c r="F327" s="9"/>
       <c r="G327" s="9"/>
       <c r="H327" s="9"/>
@@ -6825,7 +6598,6 @@
     <row r="328" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
-      <c r="E328" s="9"/>
       <c r="F328" s="9"/>
       <c r="G328" s="9"/>
       <c r="H328" s="9"/>
@@ -6837,7 +6609,6 @@
     <row r="329" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
       <c r="F329" s="9"/>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
@@ -6849,7 +6620,6 @@
     <row r="330" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
       <c r="F330" s="9"/>
       <c r="G330" s="9"/>
       <c r="H330" s="9"/>
@@ -6861,7 +6631,6 @@
     <row r="331" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
-      <c r="E331" s="9"/>
       <c r="F331" s="9"/>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
@@ -6873,7 +6642,6 @@
     <row r="332" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
       <c r="F332" s="9"/>
       <c r="G332" s="9"/>
       <c r="H332" s="9"/>
@@ -6885,7 +6653,6 @@
     <row r="333" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
       <c r="F333" s="9"/>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
@@ -6897,7 +6664,6 @@
     <row r="334" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
-      <c r="E334" s="9"/>
       <c r="F334" s="9"/>
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
@@ -6909,7 +6675,6 @@
     <row r="335" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
-      <c r="E335" s="9"/>
       <c r="F335" s="9"/>
       <c r="G335" s="9"/>
       <c r="H335" s="9"/>
@@ -6921,7 +6686,6 @@
     <row r="336" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
-      <c r="E336" s="9"/>
       <c r="F336" s="9"/>
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
@@ -6933,7 +6697,6 @@
     <row r="337" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
-      <c r="E337" s="9"/>
       <c r="F337" s="9"/>
       <c r="G337" s="9"/>
       <c r="H337" s="9"/>
@@ -6945,7 +6708,6 @@
     <row r="338" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
-      <c r="E338" s="9"/>
       <c r="F338" s="9"/>
       <c r="G338" s="9"/>
       <c r="H338" s="9"/>
@@ -6957,7 +6719,6 @@
     <row r="339" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
       <c r="F339" s="9"/>
       <c r="G339" s="9"/>
       <c r="H339" s="9"/>
@@ -6969,7 +6730,6 @@
     <row r="340" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
-      <c r="E340" s="9"/>
       <c r="F340" s="9"/>
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
@@ -6981,7 +6741,6 @@
     <row r="341" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
-      <c r="E341" s="9"/>
       <c r="F341" s="9"/>
       <c r="G341" s="9"/>
       <c r="H341" s="9"/>
@@ -6993,7 +6752,6 @@
     <row r="342" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
-      <c r="E342" s="9"/>
       <c r="F342" s="9"/>
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
@@ -7005,7 +6763,6 @@
     <row r="343" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
-      <c r="E343" s="9"/>
       <c r="F343" s="9"/>
       <c r="G343" s="9"/>
       <c r="H343" s="9"/>
@@ -7017,7 +6774,6 @@
     <row r="344" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
       <c r="F344" s="9"/>
       <c r="G344" s="9"/>
       <c r="H344" s="9"/>
@@ -7029,7 +6785,6 @@
     <row r="345" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
-      <c r="E345" s="9"/>
       <c r="F345" s="9"/>
       <c r="G345" s="9"/>
       <c r="H345" s="9"/>
@@ -7041,7 +6796,6 @@
     <row r="346" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
-      <c r="E346" s="9"/>
       <c r="F346" s="9"/>
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
@@ -7053,7 +6807,6 @@
     <row r="347" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
-      <c r="E347" s="9"/>
       <c r="F347" s="9"/>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
@@ -7065,7 +6818,6 @@
     <row r="348" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
-      <c r="E348" s="9"/>
       <c r="F348" s="9"/>
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
@@ -7077,7 +6829,6 @@
     <row r="349" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
-      <c r="E349" s="9"/>
       <c r="F349" s="9"/>
       <c r="G349" s="9"/>
       <c r="H349" s="9"/>
@@ -7089,7 +6840,6 @@
     <row r="350" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
-      <c r="E350" s="9"/>
       <c r="F350" s="9"/>
       <c r="G350" s="9"/>
       <c r="H350" s="9"/>
@@ -7101,7 +6851,6 @@
     <row r="351" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
       <c r="F351" s="9"/>
       <c r="G351" s="9"/>
       <c r="H351" s="9"/>
@@ -7113,7 +6862,6 @@
     <row r="352" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
-      <c r="E352" s="9"/>
       <c r="F352" s="9"/>
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
@@ -7125,7 +6873,6 @@
     <row r="353" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
-      <c r="E353" s="9"/>
       <c r="F353" s="9"/>
       <c r="G353" s="9"/>
       <c r="H353" s="9"/>
@@ -7137,7 +6884,6 @@
     <row r="354" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
-      <c r="E354" s="9"/>
       <c r="F354" s="9"/>
       <c r="G354" s="9"/>
       <c r="H354" s="9"/>
@@ -7149,7 +6895,6 @@
     <row r="355" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
-      <c r="E355" s="9"/>
       <c r="F355" s="9"/>
       <c r="G355" s="9"/>
       <c r="H355" s="9"/>
@@ -7161,7 +6906,6 @@
     <row r="356" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
-      <c r="E356" s="9"/>
       <c r="F356" s="9"/>
       <c r="G356" s="9"/>
       <c r="H356" s="9"/>
@@ -7173,7 +6917,6 @@
     <row r="357" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
-      <c r="E357" s="9"/>
       <c r="F357" s="9"/>
       <c r="G357" s="9"/>
       <c r="H357" s="9"/>
@@ -7185,7 +6928,6 @@
     <row r="358" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
-      <c r="E358" s="9"/>
       <c r="F358" s="9"/>
       <c r="G358" s="9"/>
       <c r="H358" s="9"/>
@@ -7197,7 +6939,6 @@
     <row r="359" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
-      <c r="E359" s="9"/>
       <c r="F359" s="9"/>
       <c r="G359" s="9"/>
       <c r="H359" s="9"/>
@@ -7209,7 +6950,6 @@
     <row r="360" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
-      <c r="E360" s="9"/>
       <c r="F360" s="9"/>
       <c r="G360" s="9"/>
       <c r="H360" s="9"/>
@@ -7221,7 +6961,6 @@
     <row r="361" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
-      <c r="E361" s="9"/>
       <c r="F361" s="9"/>
       <c r="G361" s="9"/>
       <c r="H361" s="9"/>
@@ -7233,7 +6972,6 @@
     <row r="362" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
-      <c r="E362" s="9"/>
       <c r="F362" s="9"/>
       <c r="G362" s="9"/>
       <c r="H362" s="9"/>
@@ -7245,7 +6983,6 @@
     <row r="363" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
-      <c r="E363" s="9"/>
       <c r="F363" s="9"/>
       <c r="G363" s="9"/>
       <c r="H363" s="9"/>
@@ -7257,7 +6994,6 @@
     <row r="364" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
       <c r="F364" s="9"/>
       <c r="G364" s="9"/>
       <c r="H364" s="9"/>
@@ -7269,7 +7005,6 @@
     <row r="365" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
       <c r="F365" s="9"/>
       <c r="G365" s="9"/>
       <c r="H365" s="9"/>
@@ -7281,7 +7016,6 @@
     <row r="366" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
-      <c r="E366" s="9"/>
       <c r="F366" s="9"/>
       <c r="G366" s="9"/>
       <c r="H366" s="9"/>
@@ -7293,7 +7027,6 @@
     <row r="367" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
-      <c r="E367" s="9"/>
       <c r="F367" s="9"/>
       <c r="G367" s="9"/>
       <c r="H367" s="9"/>
@@ -7305,7 +7038,6 @@
     <row r="368" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
-      <c r="E368" s="9"/>
       <c r="F368" s="9"/>
       <c r="G368" s="9"/>
       <c r="H368" s="9"/>
@@ -7317,7 +7049,6 @@
     <row r="369" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
-      <c r="E369" s="9"/>
       <c r="F369" s="9"/>
       <c r="G369" s="9"/>
       <c r="H369" s="9"/>
@@ -7329,7 +7060,6 @@
     <row r="370" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
-      <c r="E370" s="9"/>
       <c r="F370" s="9"/>
       <c r="G370" s="9"/>
       <c r="H370" s="9"/>
@@ -7341,7 +7071,6 @@
     <row r="371" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
-      <c r="E371" s="9"/>
       <c r="F371" s="9"/>
       <c r="G371" s="9"/>
       <c r="H371" s="9"/>
@@ -7353,7 +7082,6 @@
     <row r="372" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
-      <c r="E372" s="9"/>
       <c r="F372" s="9"/>
       <c r="G372" s="9"/>
       <c r="H372" s="9"/>
@@ -7365,7 +7093,6 @@
     <row r="373" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
-      <c r="E373" s="9"/>
       <c r="F373" s="9"/>
       <c r="G373" s="9"/>
       <c r="H373" s="9"/>
@@ -7377,7 +7104,6 @@
     <row r="374" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
-      <c r="E374" s="9"/>
       <c r="F374" s="9"/>
       <c r="G374" s="9"/>
       <c r="H374" s="9"/>
@@ -7389,7 +7115,6 @@
     <row r="375" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
-      <c r="E375" s="9"/>
       <c r="F375" s="9"/>
       <c r="G375" s="9"/>
       <c r="H375" s="9"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75EB11-D5DC-4203-B028-08A0C6AD488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02740DE3-F5CF-4AA6-B9EA-DB8B27191951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -1143,9 +1143,6 @@
     <t>Gremlin_CV (IntrusionProtocol)</t>
   </si>
   <si>
-    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_SilentMotors, WOTC_APA_ElectronicSurveillance)</t>
-  </si>
-  <si>
     <t>(ShadowOps_StealthProtocol or MZCombatScanner or WOTC_APA_UpgradedScanners)</t>
   </si>
   <si>
@@ -1153,6 +1150,9 @@
   </si>
   <si>
     <t>WOTC_APA_Harass (IRI_BH_Headhunter, IRI_BH_Nightfall_Passive, IRI_BH_Nightfall)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_ElectronicSurveillance)</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1332,12 +1332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1358,6 +1352,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,13 +1710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
   <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
@@ -1724,27 +1733,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="24"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1755,13 +1764,13 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1772,7 +1781,7 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1791,7 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1993,13 +2002,13 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2010,7 +2019,7 @@
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2020,7 +2029,7 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -2188,13 +2197,13 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2205,7 +2214,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2224,7 @@
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2477,13 +2486,13 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2494,7 +2503,7 @@
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2513,7 @@
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2682,7 +2691,7 @@
         <v>288</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>289</v>
@@ -2856,13 +2865,13 @@
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="25"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2873,7 +2882,7 @@
       <c r="M53" s="8"/>
     </row>
     <row r="54" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +2892,7 @@
       <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -3192,13 +3201,13 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="22" t="s">
+      <c r="A67" s="28"/>
+      <c r="B67" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="25"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3209,7 +3218,7 @@
       <c r="M67" s="8"/>
     </row>
     <row r="68" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3219,7 +3228,7 @@
       <c r="D68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3532,6 +3541,7 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
@@ -3541,13 +3551,13 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="22" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="25"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3558,7 +3568,7 @@
       <c r="M83" s="8"/>
     </row>
     <row r="84" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3578,7 @@
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -3594,7 +3604,7 @@
       </c>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
@@ -3604,26 +3614,26 @@
       <c r="D85" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>50</v>
@@ -3633,6 +3643,7 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -3870,13 +3881,13 @@
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="22" t="s">
+      <c r="A98" s="28"/>
+      <c r="B98" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="25"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -3887,7 +3898,7 @@
       <c r="M98" s="8"/>
     </row>
     <row r="99" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="13" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +3908,7 @@
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -4006,13 +4017,13 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="22" t="s">
+      <c r="A103" s="28"/>
+      <c r="B103" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="25"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -4023,7 +4034,7 @@
       <c r="M103" s="8"/>
     </row>
     <row r="104" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="13" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +4044,7 @@
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="E104" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="4" t="s">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02740DE3-F5CF-4AA6-B9EA-DB8B27191951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F6EC8-992F-4CCE-979B-17A2AD382541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="367">
   <si>
     <t>Comparison</t>
   </si>
@@ -1140,9 +1140,6 @@
     <t>RapidFire</t>
   </si>
   <si>
-    <t>Gremlin_CV (IntrusionProtocol)</t>
-  </si>
-  <si>
     <t>(ShadowOps_StealthProtocol or MZCombatScanner or WOTC_APA_UpgradedScanners)</t>
   </si>
   <si>
@@ -1152,7 +1149,16 @@
     <t>WOTC_APA_Harass (IRI_BH_Headhunter, IRI_BH_Nightfall_Passive, IRI_BH_Nightfall)</t>
   </si>
   <si>
-    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_Failsafe,  WOTC_APA_ElectronicSurveillance)</t>
+    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_ElectronicSurveillance)</t>
+  </si>
+  <si>
+    <t>Gremlin_CV (IntrusionProtocol, WOTC_APA_Failsafe)</t>
+  </si>
+  <si>
+    <t>Scout(P)</t>
+  </si>
+  <si>
+    <t>Ascout</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1260,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749961851863155"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1267,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1359,13 +1377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2172,7 @@
         <v>321</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>322</v>
@@ -2691,7 +2706,7 @@
         <v>288</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>289</v>
@@ -3557,7 +3572,7 @@
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3578,7 +3593,7 @@
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -3612,28 +3627,28 @@
         <v>49</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E85" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>50</v>
@@ -3699,45 +3714,32 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="14" t="s">
-        <v>183</v>
+    <row r="89" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>365</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>192</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3746,21 +3748,40 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
+        <v>184</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
@@ -3776,38 +3797,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
@@ -3822,51 +3824,51 @@
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="B95" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J96" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>220</v>
-      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
@@ -3880,279 +3882,279 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="8"/>
-    </row>
-    <row r="99" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="13" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E101" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="L101" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M99" s="8"/>
-    </row>
-    <row r="100" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="14" t="s">
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E102" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B102" s="12" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B104" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E104" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="I104" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J104" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L104" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="29" t="s">
+    <row r="105" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="8"/>
-    </row>
-    <row r="104" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="B104" s="13" t="s">
+      <c r="C105" s="29"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="24" t="s">
+      <c r="E106" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="L106" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M104" s="8"/>
-    </row>
-    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B105" s="12" t="s">
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E107" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="L107" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -4164,18 +4166,18 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>235</v>
@@ -4213,23 +4215,40 @@
     </row>
     <row r="111" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -4241,29 +4260,37 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="F115" s="9"/>
@@ -4274,7 +4301,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="F116" s="9"/>
@@ -4285,7 +4312,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="F117" s="9"/>
@@ -4296,7 +4323,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="F118" s="9"/>
@@ -4307,7 +4334,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="F119" s="9"/>
@@ -4318,7 +4345,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="F120" s="9"/>
@@ -4329,7 +4356,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="F121" s="9"/>
@@ -4340,7 +4367,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="F122" s="9"/>
@@ -4351,7 +4378,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="F123" s="9"/>
@@ -4362,7 +4389,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="F124" s="9"/>
@@ -4373,7 +4400,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="F125" s="9"/>
@@ -4384,7 +4411,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="F126" s="9"/>
@@ -4395,7 +4422,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="F127" s="9"/>
@@ -4406,7 +4433,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="F128" s="9"/>
@@ -7134,11 +7161,33 @@
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
     </row>
+    <row r="376" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C376" s="9"/>
+      <c r="D376" s="9"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+      <c r="L376" s="9"/>
+    </row>
+    <row r="377" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C377" s="9"/>
+      <c r="D377" s="9"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="9"/>
+      <c r="L377" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B105:D105"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B83:D83"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F6EC8-992F-4CCE-979B-17A2AD382541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCD20E-B5D6-41F7-839C-0F66DF2E92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="371">
   <si>
     <t>Comparison</t>
   </si>
@@ -1159,6 +1159,18 @@
   </si>
   <si>
     <t>Ascout</t>
+  </si>
+  <si>
+    <t>KPP_NimbleOperative</t>
+  </si>
+  <si>
+    <t>KPP_Recon</t>
+  </si>
+  <si>
+    <t>WOTC_APA_Ghost</t>
+  </si>
+  <si>
+    <t>Shadowstrike</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,12 +1275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749961851863155"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,16 +1377,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M377"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,11 +1786,11 @@
     </row>
     <row r="3" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="23"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2018,11 +2024,11 @@
     </row>
     <row r="15" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="23"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2213,11 +2219,11 @@
     </row>
     <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="23"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2502,11 +2508,11 @@
     </row>
     <row r="35" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="23"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2881,11 +2887,11 @@
     </row>
     <row r="53" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="23"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3217,11 +3223,11 @@
     </row>
     <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="23"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3567,11 +3573,11 @@
     </row>
     <row r="83" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3706,6 +3712,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -3715,7 +3722,7 @@
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="29" t="s">
         <v>365</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -3727,13 +3734,27 @@
       <c r="E89" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
+      <c r="F89" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="L89" s="32" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
@@ -3787,6 +3808,7 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -3815,6 +3837,7 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -3862,6 +3885,7 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -3871,424 +3895,427 @@
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="B97" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H98" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="I98" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J98" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="28"/>
+      <c r="B99" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
-      <c r="B100" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="B100" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="13" t="s">
+    <row r="101" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="30"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E105" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="J105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="4" t="s">
+      <c r="L105" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M101" s="8"/>
-    </row>
-    <row r="102" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B104" s="12" t="s">
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E106" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K104" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L104" s="3" t="s">
+      <c r="L106" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="8"/>
-    </row>
-    <row r="106" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M106" s="8"/>
-    </row>
-    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="12" t="s">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E108" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L109" s="3" t="s">
+      <c r="L108" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="12" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E110" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L111" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="12" t="s">
+    <row r="111" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C115" s="9"/>
@@ -7172,22 +7199,11 @@
       <c r="K376" s="9"/>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C377" s="9"/>
-      <c r="D377" s="9"/>
-      <c r="F377" s="9"/>
-      <c r="G377" s="9"/>
-      <c r="H377" s="9"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="9"/>
-      <c r="K377" s="9"/>
-      <c r="L377" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B104:D104"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B83:D83"/>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCD20E-B5D6-41F7-839C-0F66DF2E92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34747C0-31F5-4FFC-9ED9-76133E8BAF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B6D18C04-5EFF-4A90-9265-84C7107E118D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="353">
   <si>
     <t>Comparison</t>
   </si>
@@ -155,27 +155,6 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>Infantry(P)</t>
-  </si>
-  <si>
-    <t>WOTC_APA_FireDiscipline (WOTC_APA_SustainedFire, LW2WotC_AreaSuppression)</t>
-  </si>
-  <si>
-    <t>CoveringFire</t>
-  </si>
-  <si>
-    <t>WOTC_APA_Emplaced</t>
-  </si>
-  <si>
-    <t>WOTC_APA_LightEmUp</t>
-  </si>
-  <si>
-    <t>WOTC_APA_TacticalSense</t>
-  </si>
-  <si>
-    <t>F_FireFirst</t>
-  </si>
-  <si>
     <t>F_StationaryThreat</t>
   </si>
   <si>
@@ -284,9 +263,6 @@
     <t>WOTC_APA_SweepAndClear</t>
   </si>
   <si>
-    <t>Rifle/Mid Range/Overwatch</t>
-  </si>
-  <si>
     <t>Special</t>
   </si>
   <si>
@@ -407,30 +383,12 @@
     <t>Enforcer(P)</t>
   </si>
   <si>
-    <t>Gunner(P)</t>
-  </si>
-  <si>
-    <t>F_Havoc</t>
-  </si>
-  <si>
-    <t>F_SuppressingFire</t>
-  </si>
-  <si>
     <t>LW2WotC_Lockdown</t>
   </si>
   <si>
     <t>LW2WotC_Mayhem</t>
   </si>
   <si>
-    <t>F_ThousandsToGo</t>
-  </si>
-  <si>
-    <t>MZPanicSuppression</t>
-  </si>
-  <si>
-    <t>F_KillEmAll</t>
-  </si>
-  <si>
     <t>Gunslinger(P)</t>
   </si>
   <si>
@@ -525,9 +483,6 @@
   </si>
   <si>
     <t>Deadeye</t>
-  </si>
-  <si>
-    <t>WOTC_APA_SteadyHands</t>
   </si>
   <si>
     <t>AVanguard</t>
@@ -600,12 +555,6 @@
     </r>
   </si>
   <si>
-    <t>AGunner</t>
-  </si>
-  <si>
-    <t>AInfantry</t>
-  </si>
-  <si>
     <t>ASentinel</t>
   </si>
   <si>
@@ -729,9 +678,6 @@
     <t>Sword_CV</t>
   </si>
   <si>
-    <t>Stealth/Melee</t>
-  </si>
-  <si>
     <t>Phalanx(P)</t>
   </si>
   <si>
@@ -1098,18 +1044,12 @@
     <t xml:space="preserve">ARFMTrackingShot (ARFMFusilierFocus, WOTC_APA_LightweightOptics) </t>
   </si>
   <si>
-    <t>Cannon_CV (Suppression, LW2WotC_CyclicFire)</t>
-  </si>
-  <si>
     <t>AssaultRifle_CV  (Suppression, LW2WotC_WalkFire)</t>
   </si>
   <si>
     <t>LW2WotC_GrazingFire</t>
   </si>
   <si>
-    <t>WOTC_APA_PinEmDown</t>
-  </si>
-  <si>
     <t>WOTC_APA_LightningReflexes</t>
   </si>
   <si>
@@ -1119,12 +1059,6 @@
     <t>BGunner</t>
   </si>
   <si>
-    <t>F_ControlledFire</t>
-  </si>
-  <si>
-    <t>LW2WotC_DangerZone</t>
-  </si>
-  <si>
     <t>MZDisablingSuppression</t>
   </si>
   <si>
@@ -1149,9 +1083,6 @@
     <t>WOTC_APA_Harass (IRI_BH_Headhunter, IRI_BH_Nightfall_Passive, IRI_BH_Nightfall)</t>
   </si>
   <si>
-    <t>WOTC_APA_IntelligenceOfficer (WOTC_APA_ElectronicSurveillance)</t>
-  </si>
-  <si>
     <t>Gremlin_CV (IntrusionProtocol, WOTC_APA_Failsafe)</t>
   </si>
   <si>
@@ -1171,13 +1102,28 @@
   </si>
   <si>
     <t>Shadowstrike</t>
+  </si>
+  <si>
+    <t>WOTC_Wandering_Eye (WOTC_APA_ElectronicSurveillance)</t>
+  </si>
+  <si>
+    <t>WOTC_APA_IntelligenceOfficer (ABB_Parkour)</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>SoulReaper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,6 +1158,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1274,7 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749961851863155"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,9 +1330,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1387,6 +1337,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,31 +1682,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A043E2-6980-4E69-B156-F69EB3A846AD}">
-  <dimension ref="A1:M376"/>
+  <dimension ref="A1:M372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="3" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="14" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -1767,7 +1720,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="27"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1784,13 +1737,13 @@
       <c r="L2" s="1"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
-      <c r="B3" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="23"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1801,7 +1754,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1838,15 +1791,15 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1856,7 +1809,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1868,42 +1821,42 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1915,42 +1868,42 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1962,15 +1915,15 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -1980,7 +1933,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1992,15 +1945,15 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -2010,7 +1963,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2022,13 +1975,13 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="23"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2039,7 +1992,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -2076,42 +2029,42 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="L17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2123,42 +2076,42 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2170,42 +2123,42 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2217,13 +2170,13 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="23"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2234,7 +2187,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -2271,45 +2224,46 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>123</v>
+    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>353</v>
+        <v>182</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2318,45 +2272,46 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>39</v>
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>40</v>
+        <v>168</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>349</v>
+        <v>170</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2365,45 +2320,46 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>141</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2412,42 +2368,42 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>12</v>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2459,42 +2415,42 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2506,96 +2462,89 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>77</v>
+        <v>334</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2607,89 +2556,96 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2701,42 +2657,42 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2748,25 +2704,42 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2778,25 +2751,42 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2808,45 +2798,27 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
-        <v>312</v>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E49" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2855,15 +2827,15 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>74</v>
+    <row r="51" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2873,7 +2845,7 @@
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2885,96 +2857,72 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>16</v>
+        <v>298</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2986,42 +2934,25 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
-        <v>155</v>
+    <row r="57" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3033,89 +2964,96 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I59" s="18" t="s">
+    <row r="59" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
+      <c r="B59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="J61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="L61" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3124,45 +3062,45 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="11"/>
+      <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>24</v>
+    <row r="63" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3174,24 +3112,24 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>30</v>
@@ -3209,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3221,13 +3159,13 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
-      <c r="B67" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
+      <c r="B67" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="23"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3238,7 +3176,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="2" t="s">
         <v>1</v>
@@ -3275,42 +3213,42 @@
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3322,42 +3260,42 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3369,42 +3307,42 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3416,42 +3354,42 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3463,42 +3401,42 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3510,15 +3448,15 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
@@ -3528,7 +3466,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3540,15 +3478,15 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
@@ -3558,7 +3496,7 @@
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3571,13 +3509,13 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
-      <c r="B83" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
+      <c r="B83" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3588,7 +3526,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="8"/>
     </row>
-    <row r="84" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="2" t="s">
         <v>1</v>
@@ -3625,42 +3563,42 @@
       </c>
       <c r="M84" s="8"/>
     </row>
-    <row r="85" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3673,42 +3611,42 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" s="14" t="s">
-        <v>193</v>
+    <row r="87" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>195</v>
+        <v>343</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>197</v>
+        <v>345</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -3721,42 +3659,42 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="29" t="s">
-        <v>365</v>
+    <row r="89" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>367</v>
+        <v>149</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H89" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I89" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="L89" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L89" s="31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3769,42 +3707,42 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3814,26 +3752,45 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="K92" s="11"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B93" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>24</v>
+      </c>
+   